--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1067"/>
+  <dimension ref="A1:R1073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -75816,13 +75816,13 @@
         <v>2400</v>
       </c>
       <c r="K1048" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L1048" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1048" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1049" t="n">
         <v>4</v>
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>1600</v>
+        <v>1320</v>
       </c>
       <c r="K1049" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L1049" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1049" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1050" t="n">
         <v>4</v>
@@ -75957,16 +75957,16 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1050" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1050" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1050" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1050" t="n">
         <v>1</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1051" t="n">
         <v>4</v>
@@ -76029,16 +76029,16 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>1500</v>
+        <v>1240</v>
       </c>
       <c r="K1051" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1051" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1051" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1051" t="n">
         <v>1</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1052" t="n">
         <v>4</v>
@@ -76101,16 +76101,16 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="K1052" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1052" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1052" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1052" t="n">
         <v>1</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1053" t="n">
         <v>4</v>
@@ -76173,16 +76173,16 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>1400</v>
+        <v>1240</v>
       </c>
       <c r="K1053" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1053" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1053" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1053" t="n">
         <v>1</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1054" t="n">
         <v>4</v>
@@ -76248,13 +76248,13 @@
         <v>2400</v>
       </c>
       <c r="K1054" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1054" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1054" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1054" t="n">
         <v>1</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1055" t="n">
         <v>4</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>1460</v>
+        <v>1600</v>
       </c>
       <c r="K1055" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1055" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1055" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1055" t="n">
         <v>1</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1056" t="n">
         <v>4</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K1056" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1056" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1056" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1056" t="n">
         <v>1</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1057" t="n">
         <v>4</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>1440</v>
+        <v>1500</v>
       </c>
       <c r="K1057" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1057" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1057" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1057" t="n">
         <v>1</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1058" t="n">
         <v>4</v>
@@ -76533,16 +76533,16 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K1058" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1058" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1058" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1058" t="n">
         <v>1</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1059" t="n">
         <v>4</v>
@@ -76605,16 +76605,16 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K1059" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1059" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1059" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1059" t="n">
         <v>1</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -76680,13 +76680,13 @@
         <v>2400</v>
       </c>
       <c r="K1060" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1060" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1060" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1060" t="n">
         <v>1</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1061" t="n">
         <v>4</v>
@@ -76749,16 +76749,16 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>1360</v>
+        <v>1460</v>
       </c>
       <c r="K1061" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1061" t="n">
         <v>700</v>
       </c>
-      <c r="L1061" t="n">
-        <v>800</v>
-      </c>
       <c r="M1061" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1061" t="n">
         <v>1</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1062" t="n">
         <v>4</v>
@@ -76821,16 +76821,16 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K1062" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1062" t="n">
         <v>800</v>
       </c>
-      <c r="L1062" t="n">
-        <v>900</v>
-      </c>
       <c r="M1062" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q1062" t="n">
         <v>1</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1063" t="n">
         <v>4</v>
@@ -76893,16 +76893,16 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>1340</v>
+        <v>1440</v>
       </c>
       <c r="K1063" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1063" t="n">
         <v>700</v>
       </c>
       <c r="M1063" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1064" t="n">
         <v>4</v>
@@ -76956,7 +76956,7 @@
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1064" t="inlineStr">
@@ -76965,16 +76965,16 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1064" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1064" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1064" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1065" t="n">
         <v>4</v>
@@ -77028,7 +77028,7 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>1660</v>
+        <v>1480</v>
       </c>
       <c r="K1065" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1065" t="n">
         <v>700</v>
       </c>
-      <c r="L1065" t="n">
-        <v>800</v>
-      </c>
       <c r="M1065" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1066" t="n">
         <v>4</v>
@@ -77100,7 +77100,7 @@
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1066" t="inlineStr">
@@ -77109,16 +77109,16 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1066" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L1066" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M1066" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="Q1066" t="n">
         <v>1</v>
@@ -77157,58 +77157,490 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1067" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1067" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1067" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1067" t="n">
+        <v>1360</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1067" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1067" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1067" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1067" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1068" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1068" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1068" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1068" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1068" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>800</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>900</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>850</v>
+      </c>
+      <c r="N1068" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1068" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1068" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1068" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1069" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1069" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1069" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1069" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1069" t="n">
+        <v>1340</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>650</v>
+      </c>
+      <c r="N1069" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1069" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1069" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1069" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1070" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E1067" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1067" t="n">
-        <v>100112006</v>
-      </c>
-      <c r="G1067" t="inlineStr">
-        <is>
-          <t>Repollo</t>
-        </is>
-      </c>
-      <c r="H1067" t="inlineStr">
+      <c r="E1070" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1070" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1070" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1070" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1070" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>900</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>950</v>
+      </c>
+      <c r="N1070" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1070" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1070" t="n">
+        <v>950</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1070" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1071" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1071" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1071" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1071" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1071" t="n">
+        <v>1660</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1071" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1071" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1071" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1071" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1072" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1072" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1072" t="inlineStr">
         <is>
           <t>Crespo record</t>
         </is>
       </c>
-      <c r="I1067" t="inlineStr">
+      <c r="I1072" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1072" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>800</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>900</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>850</v>
+      </c>
+      <c r="N1072" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1072" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1072" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1072" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1073" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1073" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1073" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1073" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1067" t="n">
+      <c r="J1073" t="n">
         <v>1560</v>
       </c>
-      <c r="K1067" t="n">
+      <c r="K1073" t="n">
         <v>600</v>
       </c>
-      <c r="L1067" t="n">
+      <c r="L1073" t="n">
         <v>700</v>
       </c>
-      <c r="M1067" t="n">
+      <c r="M1073" t="n">
         <v>650</v>
       </c>
-      <c r="N1067" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1067" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P1067" t="n">
+      <c r="N1073" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1073" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1073" t="n">
         <v>650</v>
       </c>
-      <c r="Q1067" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1067" t="inlineStr">
+      <c r="Q1073" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1073" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1073"/>
+  <dimension ref="A1:R1079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E973" t="n">
         <v>4</v>
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K973" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L973" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M973" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q973" t="n">
         <v>1</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E974" t="n">
         <v>4</v>
@@ -70488,13 +70488,13 @@
         <v>1400</v>
       </c>
       <c r="K974" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L974" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M974" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q974" t="n">
         <v>1</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E975" t="n">
         <v>4</v>
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K975" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L975" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M975" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q975" t="n">
         <v>1</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E976" t="n">
         <v>4</v>
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K976" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L976" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M976" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q976" t="n">
         <v>1</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E977" t="n">
         <v>4</v>
@@ -70704,13 +70704,13 @@
         <v>2000</v>
       </c>
       <c r="K977" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L977" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M977" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q977" t="n">
         <v>1</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E978" t="n">
         <v>4</v>
@@ -70773,16 +70773,16 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>1320</v>
+        <v>1000</v>
       </c>
       <c r="K978" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L978" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M978" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q978" t="n">
         <v>1</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E979" t="n">
         <v>4</v>
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K979" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L979" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M979" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="Q979" t="n">
         <v>1</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E980" t="n">
         <v>4</v>
@@ -70920,13 +70920,13 @@
         <v>1400</v>
       </c>
       <c r="K980" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L980" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M980" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="Q980" t="n">
         <v>1</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E981" t="n">
         <v>4</v>
@@ -70989,16 +70989,16 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K981" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L981" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M981" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q981" t="n">
         <v>1</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E982" t="n">
         <v>4</v>
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K982" t="n">
+        <v>450</v>
+      </c>
+      <c r="L982" t="n">
         <v>500</v>
       </c>
-      <c r="L982" t="n">
-        <v>600</v>
-      </c>
       <c r="M982" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q982" t="n">
         <v>1</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E983" t="n">
         <v>4</v>
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K983" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L983" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M983" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q983" t="n">
         <v>1</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E984" t="n">
         <v>4</v>
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>1360</v>
+        <v>1320</v>
       </c>
       <c r="K984" t="n">
+        <v>450</v>
+      </c>
+      <c r="L984" t="n">
         <v>500</v>
       </c>
-      <c r="L984" t="n">
-        <v>600</v>
-      </c>
       <c r="M984" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q984" t="n">
         <v>1</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E985" t="n">
         <v>4</v>
@@ -71277,16 +71277,16 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K985" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L985" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M985" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="Q985" t="n">
         <v>1</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E986" t="n">
         <v>4</v>
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>1660</v>
+        <v>1400</v>
       </c>
       <c r="K986" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L986" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M986" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q986" t="n">
         <v>1</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E987" t="n">
         <v>4</v>
@@ -71424,13 +71424,13 @@
         <v>3000</v>
       </c>
       <c r="K987" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L987" t="n">
         <v>800</v>
       </c>
       <c r="M987" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q987" t="n">
         <v>1</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E988" t="n">
         <v>4</v>
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K988" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L988" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M988" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q988" t="n">
         <v>1</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E989" t="n">
         <v>4</v>
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K989" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L989" t="n">
         <v>800</v>
       </c>
       <c r="M989" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q989" t="n">
         <v>1</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E990" t="n">
         <v>4</v>
@@ -71637,16 +71637,16 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K990" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L990" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M990" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q990" t="n">
         <v>1</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E991" t="n">
         <v>4</v>
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K991" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L991" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M991" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q991" t="n">
         <v>1</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E992" t="n">
         <v>4</v>
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>1600</v>
+        <v>1660</v>
       </c>
       <c r="K992" t="n">
+        <v>650</v>
+      </c>
+      <c r="L992" t="n">
         <v>700</v>
       </c>
-      <c r="L992" t="n">
-        <v>800</v>
-      </c>
       <c r="M992" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q992" t="n">
         <v>1</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E993" t="n">
         <v>4</v>
@@ -71853,7 +71853,7 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K993" t="n">
         <v>750</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E994" t="n">
         <v>4</v>
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K994" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L994" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M994" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q994" t="n">
         <v>1</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E995" t="n">
         <v>4</v>
@@ -71997,7 +71997,7 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K995" t="n">
         <v>750</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E996" t="n">
         <v>4</v>
@@ -72060,25 +72060,25 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="K996" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L996" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M996" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q996" t="n">
         <v>1</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E997" t="n">
         <v>4</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>1560</v>
+        <v>3000</v>
       </c>
       <c r="K997" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L997" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M997" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q997" t="n">
         <v>1</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E998" t="n">
         <v>4</v>
@@ -72204,16 +72204,16 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="K998" t="n">
         <v>700</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E999" t="n">
         <v>4</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="K999" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L999" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M999" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q999" t="n">
         <v>1</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1000" t="n">
         <v>4</v>
@@ -72348,25 +72348,25 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K1000" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1000" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1000" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1000" t="n">
         <v>1</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1001" t="n">
         <v>4</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>1320</v>
+        <v>2000</v>
       </c>
       <c r="K1001" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1001" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1001" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1001" t="n">
         <v>1</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1002" t="n">
         <v>4</v>
@@ -72501,16 +72501,16 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>13600</v>
+        <v>3000</v>
       </c>
       <c r="K1002" t="n">
         <v>850</v>
       </c>
       <c r="L1002" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M1002" t="n">
-        <v>904</v>
+        <v>875</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>904</v>
+        <v>875</v>
       </c>
       <c r="Q1002" t="n">
         <v>1</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1003" t="n">
         <v>4</v>
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>7560</v>
+        <v>1560</v>
       </c>
       <c r="K1003" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1003" t="n">
         <v>800</v>
       </c>
       <c r="M1003" t="n">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="Q1003" t="n">
         <v>1</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1004" t="n">
         <v>4</v>
@@ -72645,7 +72645,7 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>13800</v>
+        <v>2800</v>
       </c>
       <c r="K1004" t="n">
         <v>700</v>
@@ -72654,7 +72654,7 @@
         <v>800</v>
       </c>
       <c r="M1004" t="n">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="Q1004" t="n">
         <v>1</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1005" t="n">
         <v>4</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>7240</v>
+        <v>1500</v>
       </c>
       <c r="K1005" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1005" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1005" t="n">
-        <v>649</v>
+        <v>575</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>649</v>
+        <v>575</v>
       </c>
       <c r="Q1005" t="n">
         <v>1</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1006" t="n">
         <v>4</v>
@@ -72789,7 +72789,7 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>8400</v>
+        <v>2000</v>
       </c>
       <c r="K1006" t="n">
         <v>700</v>
@@ -72798,7 +72798,7 @@
         <v>800</v>
       </c>
       <c r="M1006" t="n">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="Q1006" t="n">
         <v>1</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1007" t="n">
         <v>4</v>
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>4860</v>
+        <v>1320</v>
       </c>
       <c r="K1007" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1007" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1007" t="n">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="Q1007" t="n">
         <v>1</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1008" t="n">
         <v>4</v>
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>2600</v>
+        <v>13600</v>
       </c>
       <c r="K1008" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L1008" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1008" t="n">
-        <v>750</v>
+        <v>904</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>750</v>
+        <v>904</v>
       </c>
       <c r="Q1008" t="n">
         <v>1</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1009" t="n">
         <v>4</v>
@@ -73005,16 +73005,16 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>1520</v>
+        <v>7560</v>
       </c>
       <c r="K1009" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1009" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1009" t="n">
-        <v>575</v>
+        <v>765</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>575</v>
+        <v>765</v>
       </c>
       <c r="Q1009" t="n">
         <v>1</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1010" t="n">
         <v>4</v>
@@ -73077,7 +73077,7 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>2600</v>
+        <v>13800</v>
       </c>
       <c r="K1010" t="n">
         <v>700</v>
@@ -73086,7 +73086,7 @@
         <v>800</v>
       </c>
       <c r="M1010" t="n">
-        <v>750</v>
+        <v>770</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>750</v>
+        <v>770</v>
       </c>
       <c r="Q1010" t="n">
         <v>1</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1011" t="n">
         <v>4</v>
@@ -73149,16 +73149,16 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>1460</v>
+        <v>7240</v>
       </c>
       <c r="K1011" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1011" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1011" t="n">
-        <v>575</v>
+        <v>649</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>575</v>
+        <v>649</v>
       </c>
       <c r="Q1011" t="n">
         <v>1</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1012" t="n">
         <v>4</v>
@@ -73221,7 +73221,7 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>2400</v>
+        <v>8400</v>
       </c>
       <c r="K1012" t="n">
         <v>700</v>
@@ -73230,7 +73230,7 @@
         <v>800</v>
       </c>
       <c r="M1012" t="n">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="Q1012" t="n">
         <v>1</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1013" t="n">
         <v>4</v>
@@ -73293,16 +73293,16 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>1460</v>
+        <v>4860</v>
       </c>
       <c r="K1013" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1013" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1013" t="n">
-        <v>575</v>
+        <v>647</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>575</v>
+        <v>647</v>
       </c>
       <c r="Q1013" t="n">
         <v>1</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1014" t="n">
         <v>4</v>
@@ -73365,16 +73365,16 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1014" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1014" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1014" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1014" t="n">
         <v>1</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1015" t="n">
         <v>4</v>
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>1360</v>
+        <v>1520</v>
       </c>
       <c r="K1015" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1015" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1015" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1015" t="n">
         <v>1</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1016" t="n">
         <v>4</v>
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1016" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1016" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1016" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1016" t="n">
         <v>1</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1017" t="n">
         <v>4</v>
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>1300</v>
+        <v>1460</v>
       </c>
       <c r="K1017" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1017" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1017" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1017" t="n">
         <v>1</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1018" t="n">
         <v>4</v>
@@ -73653,16 +73653,16 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1018" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1018" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1018" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1018" t="n">
         <v>1</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1019" t="n">
         <v>4</v>
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>1300</v>
+        <v>1460</v>
       </c>
       <c r="K1019" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1019" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1019" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1019" t="n">
         <v>1</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1020" t="n">
         <v>4</v>
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1020" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1020" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1020" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1020" t="n">
         <v>1</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1021" t="n">
         <v>4</v>
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K1021" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1021" t="n">
         <v>500</v>
       </c>
-      <c r="L1021" t="n">
-        <v>600</v>
-      </c>
       <c r="M1021" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1022" t="n">
         <v>4</v>
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1022" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1022" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1022" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1022" t="n">
         <v>1</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1023" t="n">
         <v>4</v>
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K1023" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1023" t="n">
         <v>500</v>
       </c>
-      <c r="L1023" t="n">
-        <v>600</v>
-      </c>
       <c r="M1023" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q1023" t="n">
         <v>1</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1024" t="n">
         <v>4</v>
@@ -74088,13 +74088,13 @@
         <v>2000</v>
       </c>
       <c r="K1024" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1024" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1024" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1024" t="n">
         <v>1</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1025" t="n">
         <v>4</v>
@@ -74157,16 +74157,16 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K1025" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1025" t="n">
         <v>500</v>
       </c>
-      <c r="L1025" t="n">
-        <v>600</v>
-      </c>
       <c r="M1025" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q1025" t="n">
         <v>1</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1026" t="n">
         <v>4</v>
@@ -74229,16 +74229,16 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1026" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1026" t="n">
         <v>800</v>
       </c>
       <c r="M1026" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1026" t="n">
         <v>1</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1027" t="n">
         <v>4</v>
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>1680</v>
+        <v>1400</v>
       </c>
       <c r="K1027" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1027" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1027" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1027" t="n">
         <v>1</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1028" t="n">
         <v>4</v>
@@ -74373,16 +74373,16 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1028" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1028" t="n">
         <v>800</v>
       </c>
       <c r="M1028" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1028" t="n">
         <v>1</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1029" t="n">
         <v>4</v>
@@ -74445,16 +74445,16 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1029" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1029" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1029" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1029" t="n">
         <v>1</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1030" t="n">
         <v>4</v>
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1030" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1030" t="n">
         <v>800</v>
       </c>
       <c r="M1030" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1030" t="n">
         <v>1</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1031" t="n">
         <v>4</v>
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K1031" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1031" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1031" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1031" t="n">
         <v>1</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E1032" t="n">
         <v>4</v>
@@ -74664,13 +74664,13 @@
         <v>3000</v>
       </c>
       <c r="K1032" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1032" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1032" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1032" t="n">
         <v>1</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E1033" t="n">
         <v>4</v>
@@ -74733,16 +74733,16 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>1700</v>
+        <v>1680</v>
       </c>
       <c r="K1033" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1033" t="n">
         <v>700</v>
       </c>
-      <c r="L1033" t="n">
-        <v>800</v>
-      </c>
       <c r="M1033" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1033" t="n">
         <v>1</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E1034" t="n">
         <v>4</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E1035" t="n">
         <v>4</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E1036" t="n">
         <v>4</v>
@@ -74940,7 +74940,7 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K1036" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1036" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1036" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1036" t="n">
         <v>1</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E1037" t="n">
         <v>4</v>
@@ -75012,7 +75012,7 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K1037" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1037" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1037" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1037" t="n">
         <v>1</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E1038" t="n">
         <v>4</v>
@@ -75084,7 +75084,7 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1038" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L1038" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1038" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="Q1038" t="n">
         <v>1</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E1039" t="n">
         <v>4</v>
@@ -75156,7 +75156,7 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>1540</v>
+        <v>1700</v>
       </c>
       <c r="K1039" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1039" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1039" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1039" t="n">
         <v>1</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E1040" t="n">
         <v>4</v>
@@ -75228,7 +75228,7 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
@@ -75237,16 +75237,16 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K1040" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1040" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1040" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1040" t="n">
         <v>1</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E1041" t="n">
         <v>4</v>
@@ -75300,7 +75300,7 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
@@ -75309,16 +75309,16 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K1041" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1041" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1041" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1041" t="n">
         <v>1</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1042" t="n">
         <v>4</v>
@@ -75384,13 +75384,13 @@
         <v>3000</v>
       </c>
       <c r="K1042" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1042" t="n">
         <v>700</v>
       </c>
-      <c r="L1042" t="n">
-        <v>800</v>
-      </c>
       <c r="M1042" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1042" t="n">
         <v>1</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1043" t="n">
         <v>4</v>
@@ -75456,13 +75456,13 @@
         <v>1600</v>
       </c>
       <c r="K1043" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1043" t="n">
         <v>600</v>
       </c>
-      <c r="L1043" t="n">
-        <v>650</v>
-      </c>
       <c r="M1043" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q1043" t="n">
         <v>1</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1044" t="n">
         <v>4</v>
@@ -75525,16 +75525,16 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>3060</v>
+        <v>2800</v>
       </c>
       <c r="K1044" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1044" t="n">
         <v>700</v>
       </c>
-      <c r="L1044" t="n">
-        <v>800</v>
-      </c>
       <c r="M1044" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1044" t="n">
         <v>1</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1045" t="n">
         <v>4</v>
@@ -75597,16 +75597,16 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>1640</v>
+        <v>1540</v>
       </c>
       <c r="K1045" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1045" t="n">
         <v>600</v>
       </c>
-      <c r="L1045" t="n">
-        <v>650</v>
-      </c>
       <c r="M1045" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q1045" t="n">
         <v>1</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1046" t="n">
         <v>4</v>
@@ -75669,16 +75669,16 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>2940</v>
+        <v>2600</v>
       </c>
       <c r="K1046" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1046" t="n">
         <v>700</v>
       </c>
-      <c r="L1046" t="n">
-        <v>800</v>
-      </c>
       <c r="M1046" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1046" t="n">
         <v>1</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1047" t="n">
         <v>4</v>
@@ -75741,16 +75741,16 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K1047" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1047" t="n">
         <v>600</v>
       </c>
-      <c r="L1047" t="n">
-        <v>650</v>
-      </c>
       <c r="M1047" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q1047" t="n">
         <v>1</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -75813,16 +75813,16 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1048" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1048" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M1048" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1049" t="n">
         <v>4</v>
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>1320</v>
+        <v>1600</v>
       </c>
       <c r="K1049" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L1049" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1049" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1050" t="n">
         <v>4</v>
@@ -75957,7 +75957,7 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>2000</v>
+        <v>3060</v>
       </c>
       <c r="K1050" t="n">
         <v>700</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1051" t="n">
         <v>4</v>
@@ -76029,16 +76029,16 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>1240</v>
+        <v>1640</v>
       </c>
       <c r="K1051" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1051" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1051" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1051" t="n">
         <v>1</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1052" t="n">
         <v>4</v>
@@ -76101,7 +76101,7 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>2000</v>
+        <v>2940</v>
       </c>
       <c r="K1052" t="n">
         <v>700</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1053" t="n">
         <v>4</v>
@@ -76173,16 +76173,16 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>1240</v>
+        <v>1600</v>
       </c>
       <c r="K1053" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1053" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1053" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1053" t="n">
         <v>1</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1054" t="n">
         <v>4</v>
@@ -76248,13 +76248,13 @@
         <v>2400</v>
       </c>
       <c r="K1054" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L1054" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1054" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q1054" t="n">
         <v>1</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1055" t="n">
         <v>4</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>1600</v>
+        <v>1320</v>
       </c>
       <c r="K1055" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L1055" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1055" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="Q1055" t="n">
         <v>1</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1056" t="n">
         <v>4</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1056" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1056" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1056" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1056" t="n">
         <v>1</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1057" t="n">
         <v>4</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>1500</v>
+        <v>1240</v>
       </c>
       <c r="K1057" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1057" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1057" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1057" t="n">
         <v>1</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1058" t="n">
         <v>4</v>
@@ -76533,16 +76533,16 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="K1058" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1058" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1058" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1058" t="n">
         <v>1</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1059" t="n">
         <v>4</v>
@@ -76605,16 +76605,16 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>1400</v>
+        <v>1240</v>
       </c>
       <c r="K1059" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1059" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1059" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1059" t="n">
         <v>1</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -76680,13 +76680,13 @@
         <v>2400</v>
       </c>
       <c r="K1060" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1060" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1060" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1060" t="n">
         <v>1</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1061" t="n">
         <v>4</v>
@@ -76749,16 +76749,16 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>1460</v>
+        <v>1600</v>
       </c>
       <c r="K1061" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1061" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1061" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1061" t="n">
         <v>1</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1062" t="n">
         <v>4</v>
@@ -76821,16 +76821,16 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K1062" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1062" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1062" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1062" t="n">
         <v>1</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1063" t="n">
         <v>4</v>
@@ -76893,16 +76893,16 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>1440</v>
+        <v>1500</v>
       </c>
       <c r="K1063" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1063" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1063" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1064" t="n">
         <v>4</v>
@@ -76965,16 +76965,16 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K1064" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1064" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1064" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1065" t="n">
         <v>4</v>
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K1065" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1065" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1065" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1066" t="n">
         <v>4</v>
@@ -77112,13 +77112,13 @@
         <v>2400</v>
       </c>
       <c r="K1066" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1066" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1066" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1066" t="n">
         <v>1</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1067" t="n">
         <v>4</v>
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>1360</v>
+        <v>1460</v>
       </c>
       <c r="K1067" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1067" t="n">
         <v>700</v>
       </c>
-      <c r="L1067" t="n">
-        <v>800</v>
-      </c>
       <c r="M1067" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1067" t="n">
         <v>1</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1068" t="n">
         <v>4</v>
@@ -77253,16 +77253,16 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K1068" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1068" t="n">
         <v>800</v>
       </c>
-      <c r="L1068" t="n">
-        <v>900</v>
-      </c>
       <c r="M1068" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q1068" t="n">
         <v>1</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1069" t="n">
         <v>4</v>
@@ -77325,16 +77325,16 @@
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>1340</v>
+        <v>1440</v>
       </c>
       <c r="K1069" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1069" t="n">
         <v>700</v>
       </c>
       <c r="M1069" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q1069" t="n">
         <v>1</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1070" t="n">
         <v>4</v>
@@ -77388,7 +77388,7 @@
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1070" t="inlineStr">
@@ -77397,16 +77397,16 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1070" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1070" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1070" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1071" t="n">
         <v>4</v>
@@ -77460,7 +77460,7 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
@@ -77469,16 +77469,16 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>1660</v>
+        <v>1480</v>
       </c>
       <c r="K1071" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1071" t="n">
         <v>700</v>
       </c>
-      <c r="L1071" t="n">
-        <v>800</v>
-      </c>
       <c r="M1071" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1071" t="n">
         <v>1</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -77532,7 +77532,7 @@
       </c>
       <c r="H1072" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1072" t="inlineStr">
@@ -77541,16 +77541,16 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1072" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L1072" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M1072" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="Q1072" t="n">
         <v>1</v>
@@ -77589,58 +77589,490 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1073" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1073" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1073" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1073" t="n">
+        <v>1360</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1073" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1073" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1073" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1073" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1074" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1074" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1074" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1074" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1074" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>800</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>900</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>850</v>
+      </c>
+      <c r="N1074" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1074" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1074" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1074" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1075" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1075" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1075" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1075" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1075" t="n">
+        <v>1340</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>650</v>
+      </c>
+      <c r="N1075" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1075" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1075" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1075" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1076" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E1073" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1073" t="n">
-        <v>100112006</v>
-      </c>
-      <c r="G1073" t="inlineStr">
-        <is>
-          <t>Repollo</t>
-        </is>
-      </c>
-      <c r="H1073" t="inlineStr">
+      <c r="E1076" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1076" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1076" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1076" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1076" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>900</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>950</v>
+      </c>
+      <c r="N1076" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1076" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1076" t="n">
+        <v>950</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1076" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1077" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1077" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1077" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1077" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1077" t="n">
+        <v>1660</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1077" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1077" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1077" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1077" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1078" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1078" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1078" t="inlineStr">
         <is>
           <t>Crespo record</t>
         </is>
       </c>
-      <c r="I1073" t="inlineStr">
+      <c r="I1078" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1078" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>800</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>900</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>850</v>
+      </c>
+      <c r="N1078" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1078" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1078" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1078" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1079" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1079" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1079" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1079" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1073" t="n">
+      <c r="J1079" t="n">
         <v>1560</v>
       </c>
-      <c r="K1073" t="n">
+      <c r="K1079" t="n">
         <v>600</v>
       </c>
-      <c r="L1073" t="n">
+      <c r="L1079" t="n">
         <v>700</v>
       </c>
-      <c r="M1073" t="n">
+      <c r="M1079" t="n">
         <v>650</v>
       </c>
-      <c r="N1073" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1073" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P1073" t="n">
+      <c r="N1079" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1079" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1079" t="n">
         <v>650</v>
       </c>
-      <c r="Q1073" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1073" t="inlineStr">
+      <c r="Q1079" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1079" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1120"/>
+  <dimension ref="A1:R1126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E861" t="n">
         <v>4</v>
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K861" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L861" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M861" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q861" t="n">
         <v>1</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E862" t="n">
         <v>4</v>
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K862" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L862" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M862" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q862" t="n">
         <v>1</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E863" t="n">
         <v>4</v>
@@ -62493,7 +62493,7 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K863" t="n">
         <v>650</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E864" t="n">
         <v>4</v>
@@ -62568,13 +62568,13 @@
         <v>1400</v>
       </c>
       <c r="K864" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L864" t="n">
         <v>600</v>
       </c>
       <c r="M864" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q864" t="n">
         <v>1</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E865" t="n">
         <v>4</v>
@@ -62637,7 +62637,7 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K865" t="n">
         <v>650</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E866" t="n">
         <v>4</v>
@@ -62709,16 +62709,16 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>1360</v>
+        <v>1000</v>
       </c>
       <c r="K866" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L866" t="n">
         <v>600</v>
       </c>
       <c r="M866" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q866" t="n">
         <v>1</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E867" t="n">
         <v>4</v>
@@ -62784,13 +62784,13 @@
         <v>2400</v>
       </c>
       <c r="K867" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L867" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M867" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q867" t="n">
         <v>1</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E868" t="n">
         <v>4</v>
@@ -62856,13 +62856,13 @@
         <v>1400</v>
       </c>
       <c r="K868" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L868" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M868" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q868" t="n">
         <v>1</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E869" t="n">
         <v>4</v>
@@ -62928,13 +62928,13 @@
         <v>2400</v>
       </c>
       <c r="K869" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L869" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M869" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q869" t="n">
         <v>1</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E870" t="n">
         <v>4</v>
@@ -62997,16 +62997,16 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K870" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L870" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M870" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q870" t="n">
         <v>1</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E871" t="n">
         <v>4</v>
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K871" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L871" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M871" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q871" t="n">
         <v>1</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E872" t="n">
         <v>4</v>
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K872" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L872" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M872" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q872" t="n">
         <v>1</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E873" t="n">
         <v>4</v>
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K873" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L873" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M873" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="Q873" t="n">
         <v>1</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E874" t="n">
         <v>4</v>
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>1660</v>
+        <v>1400</v>
       </c>
       <c r="K874" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L874" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M874" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q874" t="n">
         <v>1</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E875" t="n">
         <v>4</v>
@@ -63357,7 +63357,7 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K875" t="n">
         <v>750</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E876" t="n">
         <v>4</v>
@@ -63429,7 +63429,7 @@
         </is>
       </c>
       <c r="J876" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K876" t="n">
         <v>650</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E877" t="n">
         <v>4</v>
@@ -63501,7 +63501,7 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K877" t="n">
         <v>750</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E878" t="n">
         <v>4</v>
@@ -63573,7 +63573,7 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K878" t="n">
         <v>650</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E879" t="n">
         <v>4</v>
@@ -63645,7 +63645,7 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="K879" t="n">
         <v>750</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E880" t="n">
         <v>4</v>
@@ -63717,7 +63717,7 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>1480</v>
+        <v>1660</v>
       </c>
       <c r="K880" t="n">
         <v>650</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E881" t="n">
         <v>4</v>
@@ -63789,7 +63789,7 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K881" t="n">
         <v>750</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E882" t="n">
         <v>4</v>
@@ -63861,7 +63861,7 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="K882" t="n">
         <v>650</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E883" t="n">
         <v>4</v>
@@ -63933,7 +63933,7 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K883" t="n">
         <v>750</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E884" t="n">
         <v>4</v>
@@ -64005,7 +64005,7 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="K884" t="n">
         <v>650</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E885" t="n">
         <v>4</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E886" t="n">
         <v>4</v>
@@ -64149,7 +64149,7 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K886" t="n">
         <v>650</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E887" t="n">
         <v>4</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E888" t="n">
         <v>4</v>
@@ -64293,7 +64293,7 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>1480</v>
+        <v>1440</v>
       </c>
       <c r="K888" t="n">
         <v>650</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E889" t="n">
         <v>4</v>
@@ -64365,7 +64365,7 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K889" t="n">
         <v>750</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E890" t="n">
         <v>4</v>
@@ -64437,7 +64437,7 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>1480</v>
+        <v>1440</v>
       </c>
       <c r="K890" t="n">
         <v>650</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E891" t="n">
         <v>4</v>
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K891" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L891" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M891" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q891" t="n">
         <v>1</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E892" t="n">
         <v>4</v>
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="K892" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L892" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M892" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q892" t="n">
         <v>1</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E893" t="n">
         <v>4</v>
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K893" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L893" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M893" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q893" t="n">
         <v>1</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E894" t="n">
         <v>4</v>
@@ -64725,16 +64725,16 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>1360</v>
+        <v>1480</v>
       </c>
       <c r="K894" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L894" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M894" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q894" t="n">
         <v>1</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E895" t="n">
         <v>4</v>
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K895" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L895" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M895" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q895" t="n">
         <v>1</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E896" t="n">
         <v>4</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>1360</v>
+        <v>1480</v>
       </c>
       <c r="K896" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L896" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M896" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q896" t="n">
         <v>1</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E897" t="n">
         <v>4</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E898" t="n">
         <v>4</v>
@@ -65013,7 +65013,7 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>1340</v>
+        <v>1400</v>
       </c>
       <c r="K898" t="n">
         <v>450</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E899" t="n">
         <v>4</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E900" t="n">
         <v>4</v>
@@ -65157,7 +65157,7 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>1340</v>
+        <v>1360</v>
       </c>
       <c r="K900" t="n">
         <v>450</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E901" t="n">
         <v>4</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E902" t="n">
         <v>4</v>
@@ -65301,7 +65301,7 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>1300</v>
+        <v>1360</v>
       </c>
       <c r="K902" t="n">
         <v>450</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E903" t="n">
         <v>4</v>
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K903" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L903" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M903" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q903" t="n">
         <v>1</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E904" t="n">
         <v>4</v>
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>1400</v>
+        <v>1340</v>
       </c>
       <c r="K904" t="n">
+        <v>450</v>
+      </c>
+      <c r="L904" t="n">
         <v>500</v>
       </c>
-      <c r="L904" t="n">
-        <v>600</v>
-      </c>
       <c r="M904" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q904" t="n">
         <v>1</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E905" t="n">
         <v>4</v>
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K905" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L905" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M905" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q905" t="n">
         <v>1</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E906" t="n">
         <v>4</v>
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>1400</v>
+        <v>1340</v>
       </c>
       <c r="K906" t="n">
+        <v>450</v>
+      </c>
+      <c r="L906" t="n">
         <v>500</v>
       </c>
-      <c r="L906" t="n">
-        <v>600</v>
-      </c>
       <c r="M906" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q906" t="n">
         <v>1</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E907" t="n">
         <v>4</v>
@@ -65664,13 +65664,13 @@
         <v>2000</v>
       </c>
       <c r="K907" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L907" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M907" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q907" t="n">
         <v>1</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E908" t="n">
         <v>4</v>
@@ -65733,16 +65733,16 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K908" t="n">
+        <v>450</v>
+      </c>
+      <c r="L908" t="n">
         <v>500</v>
       </c>
-      <c r="L908" t="n">
-        <v>600</v>
-      </c>
       <c r="M908" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q908" t="n">
         <v>1</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E909" t="n">
         <v>4</v>
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K909" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L909" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M909" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q909" t="n">
         <v>1</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E910" t="n">
         <v>4</v>
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K910" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L910" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M910" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="Q910" t="n">
         <v>1</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E911" t="n">
         <v>4</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K911" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L911" t="n">
         <v>800</v>
       </c>
       <c r="M911" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q911" t="n">
         <v>1</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E912" t="n">
         <v>4</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K912" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L912" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M912" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q912" t="n">
         <v>1</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E913" t="n">
         <v>4</v>
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K913" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L913" t="n">
         <v>800</v>
       </c>
       <c r="M913" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q913" t="n">
         <v>1</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E914" t="n">
         <v>4</v>
@@ -66156,25 +66156,25 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="K914" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L914" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M914" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q914" t="n">
         <v>1</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E915" t="n">
         <v>4</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="K915" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L915" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M915" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q915" t="n">
         <v>1</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E916" t="n">
         <v>4</v>
@@ -66300,25 +66300,25 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="K916" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L916" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M916" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q916" t="n">
         <v>1</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E917" t="n">
         <v>4</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>1560</v>
+        <v>3000</v>
       </c>
       <c r="K917" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L917" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M917" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q917" t="n">
         <v>1</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E918" t="n">
         <v>4</v>
@@ -66444,16 +66444,16 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="K918" t="n">
         <v>650</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E919" t="n">
         <v>4</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="K919" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L919" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M919" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q919" t="n">
         <v>1</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E920" t="n">
         <v>4</v>
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K920" t="n">
+        <v>650</v>
+      </c>
+      <c r="L920" t="n">
         <v>700</v>
       </c>
-      <c r="L920" t="n">
-        <v>800</v>
-      </c>
       <c r="M920" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q920" t="n">
         <v>1</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E921" t="n">
         <v>4</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K921" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L921" t="n">
         <v>600</v>
       </c>
       <c r="M921" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q921" t="n">
         <v>1</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E922" t="n">
         <v>4</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K922" t="n">
+        <v>650</v>
+      </c>
+      <c r="L922" t="n">
         <v>700</v>
       </c>
-      <c r="L922" t="n">
-        <v>800</v>
-      </c>
       <c r="M922" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q922" t="n">
         <v>1</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E923" t="n">
         <v>4</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>1300</v>
+        <v>1560</v>
       </c>
       <c r="K923" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L923" t="n">
         <v>600</v>
       </c>
       <c r="M923" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q923" t="n">
         <v>1</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E924" t="n">
         <v>4</v>
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K924" t="n">
+        <v>650</v>
+      </c>
+      <c r="L924" t="n">
         <v>700</v>
       </c>
-      <c r="L924" t="n">
-        <v>800</v>
-      </c>
       <c r="M924" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q924" t="n">
         <v>1</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E925" t="n">
         <v>4</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="K925" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L925" t="n">
         <v>600</v>
       </c>
       <c r="M925" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q925" t="n">
         <v>1</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E926" t="n">
         <v>4</v>
@@ -67029,7 +67029,7 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K926" t="n">
         <v>700</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E927" t="n">
         <v>4</v>
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K927" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L927" t="n">
         <v>600</v>
       </c>
       <c r="M927" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q927" t="n">
         <v>1</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E928" t="n">
         <v>4</v>
@@ -67173,7 +67173,7 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K928" t="n">
         <v>700</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E929" t="n">
         <v>4</v>
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>1560</v>
+        <v>1300</v>
       </c>
       <c r="K929" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L929" t="n">
         <v>600</v>
       </c>
       <c r="M929" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q929" t="n">
         <v>1</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E930" t="n">
         <v>4</v>
@@ -67317,7 +67317,7 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K930" t="n">
         <v>700</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E931" t="n">
         <v>4</v>
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>1500</v>
+        <v>1320</v>
       </c>
       <c r="K931" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L931" t="n">
         <v>600</v>
       </c>
       <c r="M931" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q931" t="n">
         <v>1</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E932" t="n">
         <v>4</v>
@@ -67464,13 +67464,13 @@
         <v>3000</v>
       </c>
       <c r="K932" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L932" t="n">
         <v>800</v>
       </c>
       <c r="M932" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q932" t="n">
         <v>1</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E933" t="n">
         <v>4</v>
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>1680</v>
+        <v>1600</v>
       </c>
       <c r="K933" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L933" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M933" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q933" t="n">
         <v>1</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E934" t="n">
         <v>4</v>
@@ -67608,13 +67608,13 @@
         <v>3000</v>
       </c>
       <c r="K934" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L934" t="n">
         <v>800</v>
       </c>
       <c r="M934" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q934" t="n">
         <v>1</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E935" t="n">
         <v>4</v>
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K935" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L935" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M935" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q935" t="n">
         <v>1</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E936" t="n">
         <v>4</v>
@@ -67752,13 +67752,13 @@
         <v>2800</v>
       </c>
       <c r="K936" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L936" t="n">
         <v>800</v>
       </c>
       <c r="M936" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q936" t="n">
         <v>1</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E937" t="n">
         <v>4</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>1560</v>
+        <v>1500</v>
       </c>
       <c r="K937" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L937" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M937" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q937" t="n">
         <v>1</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E938" t="n">
         <v>4</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K938" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L938" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M938" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q938" t="n">
         <v>1</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E939" t="n">
         <v>4</v>
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>1360</v>
+        <v>1680</v>
       </c>
       <c r="K939" t="n">
+        <v>650</v>
+      </c>
+      <c r="L939" t="n">
         <v>700</v>
       </c>
-      <c r="L939" t="n">
-        <v>800</v>
-      </c>
       <c r="M939" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q939" t="n">
         <v>1</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E940" t="n">
         <v>4</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K940" t="n">
+        <v>750</v>
+      </c>
+      <c r="L940" t="n">
         <v>800</v>
       </c>
-      <c r="L940" t="n">
-        <v>900</v>
-      </c>
       <c r="M940" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q940" t="n">
         <v>1</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E941" t="n">
         <v>4</v>
@@ -68109,7 +68109,7 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K941" t="n">
         <v>650</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E942" t="n">
         <v>4</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="K942" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L942" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M942" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q942" t="n">
         <v>1</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E943" t="n">
         <v>4</v>
@@ -68244,25 +68244,25 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>3000</v>
+        <v>1560</v>
       </c>
       <c r="K943" t="n">
+        <v>650</v>
+      </c>
+      <c r="L943" t="n">
         <v>700</v>
       </c>
-      <c r="L943" t="n">
-        <v>800</v>
-      </c>
       <c r="M943" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q943" t="n">
         <v>1</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E944" t="n">
         <v>4</v>
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K944" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L944" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M944" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="Q944" t="n">
         <v>1</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E945" t="n">
         <v>4</v>
@@ -68388,16 +68388,16 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>2800</v>
+        <v>1360</v>
       </c>
       <c r="K945" t="n">
         <v>700</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E946" t="n">
         <v>4</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K946" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L946" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M946" t="n">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="Q946" t="n">
         <v>1</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E947" t="n">
         <v>4</v>
@@ -68532,25 +68532,25 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>2600</v>
+        <v>1360</v>
       </c>
       <c r="K947" t="n">
+        <v>650</v>
+      </c>
+      <c r="L947" t="n">
         <v>700</v>
       </c>
-      <c r="L947" t="n">
-        <v>800</v>
-      </c>
       <c r="M947" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q947" t="n">
         <v>1</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E948" t="n">
         <v>4</v>
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K948" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L948" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M948" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q948" t="n">
         <v>1</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E949" t="n">
         <v>4</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K949" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L949" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M949" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q949" t="n">
         <v>1</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E950" t="n">
         <v>4</v>
@@ -68757,7 +68757,7 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K950" t="n">
         <v>550</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E951" t="n">
         <v>4</v>
@@ -68829,16 +68829,16 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K951" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L951" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M951" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q951" t="n">
         <v>1</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E952" t="n">
         <v>4</v>
@@ -68901,7 +68901,7 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K952" t="n">
         <v>550</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E953" t="n">
         <v>4</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K953" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L953" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M953" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q953" t="n">
         <v>1</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E954" t="n">
         <v>4</v>
@@ -69045,7 +69045,7 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K954" t="n">
         <v>550</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E955" t="n">
         <v>4</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K955" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L955" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M955" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q955" t="n">
         <v>1</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E956" t="n">
         <v>4</v>
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K956" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L956" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M956" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q956" t="n">
         <v>1</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E957" t="n">
         <v>4</v>
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="K957" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L957" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M957" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q957" t="n">
         <v>1</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E958" t="n">
         <v>4</v>
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K958" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L958" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M958" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q958" t="n">
         <v>1</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E959" t="n">
         <v>4</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K959" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L959" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M959" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q959" t="n">
         <v>1</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E960" t="n">
         <v>4</v>
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K960" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L960" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M960" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q960" t="n">
         <v>1</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E961" t="n">
         <v>4</v>
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K961" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L961" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M961" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q961" t="n">
         <v>1</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E962" t="n">
         <v>4</v>
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K962" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L962" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M962" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q962" t="n">
         <v>1</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E963" t="n">
         <v>4</v>
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="K963" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L963" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M963" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q963" t="n">
         <v>1</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E964" t="n">
         <v>4</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="K964" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L964" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M964" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q964" t="n">
         <v>1</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E965" t="n">
         <v>4</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K965" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L965" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M965" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q965" t="n">
         <v>1</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E966" t="n">
         <v>4</v>
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K966" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L966" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M966" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q966" t="n">
         <v>1</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E967" t="n">
         <v>4</v>
@@ -69981,16 +69981,16 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K967" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L967" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M967" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q967" t="n">
         <v>1</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E968" t="n">
         <v>4</v>
@@ -70056,13 +70056,13 @@
         <v>1400</v>
       </c>
       <c r="K968" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L968" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M968" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="Q968" t="n">
         <v>1</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E969" t="n">
         <v>4</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K969" t="n">
         <v>700</v>
       </c>
       <c r="L969" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M969" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q969" t="n">
         <v>1</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E970" t="n">
         <v>4</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="K970" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L970" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M970" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q970" t="n">
         <v>1</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E971" t="n">
         <v>4</v>
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K971" t="n">
         <v>700</v>
       </c>
       <c r="L971" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M971" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q971" t="n">
         <v>1</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E972" t="n">
         <v>4</v>
@@ -70341,16 +70341,16 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K972" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L972" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M972" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q972" t="n">
         <v>1</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E973" t="n">
         <v>4</v>
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K973" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L973" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M973" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="Q973" t="n">
         <v>1</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E974" t="n">
         <v>4</v>
@@ -70485,16 +70485,16 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K974" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L974" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M974" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="Q974" t="n">
         <v>1</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E975" t="n">
         <v>4</v>
@@ -70557,7 +70557,7 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="K975" t="n">
         <v>700</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E976" t="n">
         <v>4</v>
@@ -70629,7 +70629,7 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K976" t="n">
         <v>500</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E977" t="n">
         <v>4</v>
@@ -70701,7 +70701,7 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="K977" t="n">
         <v>700</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E978" t="n">
         <v>4</v>
@@ -70773,7 +70773,7 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K978" t="n">
         <v>500</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E979" t="n">
         <v>4</v>
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K979" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L979" t="n">
         <v>800</v>
       </c>
       <c r="M979" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q979" t="n">
         <v>1</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E980" t="n">
         <v>4</v>
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>1680</v>
+        <v>1600</v>
       </c>
       <c r="K980" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L980" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M980" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q980" t="n">
         <v>1</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E981" t="n">
         <v>4</v>
@@ -70989,16 +70989,16 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="K981" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L981" t="n">
         <v>800</v>
       </c>
       <c r="M981" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q981" t="n">
         <v>1</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E982" t="n">
         <v>4</v>
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K982" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L982" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M982" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q982" t="n">
         <v>1</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E983" t="n">
         <v>4</v>
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K983" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L983" t="n">
         <v>800</v>
       </c>
       <c r="M983" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q983" t="n">
         <v>1</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E984" t="n">
         <v>4</v>
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K984" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L984" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M984" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q984" t="n">
         <v>1</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E985" t="n">
         <v>4</v>
@@ -71277,16 +71277,16 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K985" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L985" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M985" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q985" t="n">
         <v>1</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E986" t="n">
         <v>4</v>
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>1600</v>
+        <v>1680</v>
       </c>
       <c r="K986" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L986" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M986" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q986" t="n">
         <v>1</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E987" t="n">
         <v>4</v>
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="K987" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L987" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M987" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q987" t="n">
         <v>1</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E988" t="n">
         <v>4</v>
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>1540</v>
+        <v>1600</v>
       </c>
       <c r="K988" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L988" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M988" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q988" t="n">
         <v>1</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E989" t="n">
         <v>4</v>
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="K989" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L989" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M989" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q989" t="n">
         <v>1</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E990" t="n">
         <v>4</v>
@@ -71640,13 +71640,13 @@
         <v>1560</v>
       </c>
       <c r="K990" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L990" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M990" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q990" t="n">
         <v>1</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E991" t="n">
         <v>4</v>
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>3040</v>
+        <v>2800</v>
       </c>
       <c r="K991" t="n">
+        <v>650</v>
+      </c>
+      <c r="L991" t="n">
         <v>700</v>
       </c>
-      <c r="L991" t="n">
-        <v>800</v>
-      </c>
       <c r="M991" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q991" t="n">
         <v>1</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E992" t="n">
         <v>4</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E993" t="n">
         <v>4</v>
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>3120</v>
+        <v>2700</v>
       </c>
       <c r="K993" t="n">
+        <v>650</v>
+      </c>
+      <c r="L993" t="n">
         <v>700</v>
       </c>
-      <c r="L993" t="n">
-        <v>800</v>
-      </c>
       <c r="M993" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q993" t="n">
         <v>1</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E994" t="n">
         <v>4</v>
@@ -71925,7 +71925,7 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>1660</v>
+        <v>1540</v>
       </c>
       <c r="K994" t="n">
         <v>550</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E995" t="n">
         <v>4</v>
@@ -71997,16 +71997,16 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="K995" t="n">
+        <v>650</v>
+      </c>
+      <c r="L995" t="n">
         <v>700</v>
       </c>
-      <c r="L995" t="n">
-        <v>800</v>
-      </c>
       <c r="M995" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q995" t="n">
         <v>1</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E996" t="n">
         <v>4</v>
@@ -72069,7 +72069,7 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K996" t="n">
         <v>550</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E997" t="n">
         <v>4</v>
@@ -72141,16 +72141,16 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>2500</v>
+        <v>3040</v>
       </c>
       <c r="K997" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L997" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M997" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q997" t="n">
         <v>1</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E998" t="n">
         <v>4</v>
@@ -72216,13 +72216,13 @@
         <v>1600</v>
       </c>
       <c r="K998" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L998" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M998" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q998" t="n">
         <v>1</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E999" t="n">
         <v>4</v>
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>2600</v>
+        <v>3120</v>
       </c>
       <c r="K999" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L999" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M999" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q999" t="n">
         <v>1</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E1000" t="n">
         <v>4</v>
@@ -72357,16 +72357,16 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>1500</v>
+        <v>1660</v>
       </c>
       <c r="K1000" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1000" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1000" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1000" t="n">
         <v>1</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E1001" t="n">
         <v>4</v>
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="K1001" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1001" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1001" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1001" t="n">
         <v>1</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E1002" t="n">
         <v>4</v>
@@ -72501,16 +72501,16 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1002" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1002" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1002" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1002" t="n">
         <v>1</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1003" t="n">
         <v>4</v>
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="K1003" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1003" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1003" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1003" t="n">
         <v>1</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1004" t="n">
         <v>4</v>
@@ -72648,13 +72648,13 @@
         <v>1600</v>
       </c>
       <c r="K1004" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L1004" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1004" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q1004" t="n">
         <v>1</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1005" t="n">
         <v>4</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="K1005" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1005" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1005" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1005" t="n">
         <v>1</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1006" t="n">
         <v>4</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>1560</v>
+        <v>1500</v>
       </c>
       <c r="K1006" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L1006" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1006" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q1006" t="n">
         <v>1</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1007" t="n">
         <v>4</v>
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K1007" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1007" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1007" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1007" t="n">
         <v>1</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1008" t="n">
         <v>4</v>
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K1008" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L1008" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1008" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q1008" t="n">
         <v>1</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1009" t="n">
         <v>4</v>
@@ -73005,7 +73005,7 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K1009" t="n">
         <v>700</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1010" t="n">
         <v>4</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1011" t="n">
         <v>4</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1012" t="n">
         <v>4</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1013" t="n">
         <v>4</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1014" t="n">
         <v>4</v>
@@ -73365,7 +73365,7 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K1014" t="n">
         <v>550</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1015" t="n">
         <v>4</v>
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1015" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1015" t="n">
         <v>800</v>
       </c>
       <c r="M1015" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1015" t="n">
         <v>1</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1016" t="n">
         <v>4</v>
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K1016" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1016" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1016" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1016" t="n">
         <v>1</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1017" t="n">
         <v>4</v>
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K1017" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1017" t="n">
         <v>800</v>
       </c>
       <c r="M1017" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1017" t="n">
         <v>1</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1018" t="n">
         <v>4</v>
@@ -73653,16 +73653,16 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>1440</v>
+        <v>1560</v>
       </c>
       <c r="K1018" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1018" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1018" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1018" t="n">
         <v>1</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1019" t="n">
         <v>4</v>
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1019" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1019" t="n">
         <v>800</v>
       </c>
       <c r="M1019" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1019" t="n">
         <v>1</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1020" t="n">
         <v>4</v>
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K1020" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1020" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1020" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1020" t="n">
         <v>1</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1021" t="n">
         <v>4</v>
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1021" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1021" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1021" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1022" t="n">
         <v>4</v>
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K1022" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1022" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1022" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1022" t="n">
         <v>1</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1023" t="n">
         <v>4</v>
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K1023" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1023" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1023" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1023" t="n">
         <v>1</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1024" t="n">
         <v>4</v>
@@ -74085,16 +74085,16 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="K1024" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1024" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1024" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1024" t="n">
         <v>1</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1025" t="n">
         <v>4</v>
@@ -74160,13 +74160,13 @@
         <v>2000</v>
       </c>
       <c r="K1025" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1025" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1025" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1025" t="n">
         <v>1</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1026" t="n">
         <v>4</v>
@@ -74229,16 +74229,16 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>1260</v>
+        <v>1460</v>
       </c>
       <c r="K1026" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1026" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1026" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1026" t="n">
         <v>1</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1027" t="n">
         <v>4</v>
@@ -74304,13 +74304,13 @@
         <v>2000</v>
       </c>
       <c r="K1027" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1027" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1027" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1027" t="n">
         <v>1</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1028" t="n">
         <v>4</v>
@@ -74373,16 +74373,16 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K1028" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1028" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1028" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1028" t="n">
         <v>1</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1029" t="n">
         <v>4</v>
@@ -74448,13 +74448,13 @@
         <v>2000</v>
       </c>
       <c r="K1029" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1029" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1029" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1029" t="n">
         <v>1</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1030" t="n">
         <v>4</v>
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K1030" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1030" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1030" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1030" t="n">
         <v>1</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1031" t="n">
         <v>4</v>
@@ -74592,13 +74592,13 @@
         <v>2000</v>
       </c>
       <c r="K1031" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1031" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1031" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1031" t="n">
         <v>1</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1032" t="n">
         <v>4</v>
@@ -74661,16 +74661,16 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>1300</v>
+        <v>1260</v>
       </c>
       <c r="K1032" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1032" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1032" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1032" t="n">
         <v>1</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1033" t="n">
         <v>4</v>
@@ -74733,16 +74733,16 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1033" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1033" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1033" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1033" t="n">
         <v>1</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1034" t="n">
         <v>4</v>
@@ -74805,16 +74805,16 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K1034" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L1034" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1034" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q1034" t="n">
         <v>1</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1035" t="n">
         <v>4</v>
@@ -74877,16 +74877,16 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1035" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1035" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1035" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1035" t="n">
         <v>1</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1036" t="n">
         <v>4</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>1360</v>
+        <v>1300</v>
       </c>
       <c r="K1036" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L1036" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1036" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q1036" t="n">
         <v>1</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1037" t="n">
         <v>4</v>
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K1037" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1037" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1037" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1037" t="n">
         <v>1</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1038" t="n">
         <v>4</v>
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="K1038" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L1038" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1038" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q1038" t="n">
         <v>1</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1039" t="n">
         <v>4</v>
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1039" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1039" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1039" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1039" t="n">
         <v>1</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1040" t="n">
         <v>4</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1041" t="n">
         <v>4</v>
@@ -75309,16 +75309,16 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1041" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1041" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1041" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1041" t="n">
         <v>1</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1042" t="n">
         <v>4</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1043" t="n">
         <v>4</v>
@@ -75453,16 +75453,16 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K1043" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1043" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1043" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1043" t="n">
         <v>1</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1044" t="n">
         <v>4</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1045" t="n">
         <v>4</v>
@@ -75597,16 +75597,16 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K1045" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1045" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1045" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1045" t="n">
         <v>1</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1046" t="n">
         <v>4</v>
@@ -75669,16 +75669,16 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1046" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1046" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1046" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1046" t="n">
         <v>1</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1047" t="n">
         <v>4</v>
@@ -75741,16 +75741,16 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1047" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1047" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1047" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1047" t="n">
         <v>1</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -75813,16 +75813,16 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>1520</v>
+        <v>1360</v>
       </c>
       <c r="K1048" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1048" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1048" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1049" t="n">
         <v>4</v>
@@ -75888,13 +75888,13 @@
         <v>2000</v>
       </c>
       <c r="K1049" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1049" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1049" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1050" t="n">
         <v>4</v>
@@ -75957,16 +75957,16 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>1300</v>
+        <v>1320</v>
       </c>
       <c r="K1050" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1050" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1050" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1050" t="n">
         <v>1</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1051" t="n">
         <v>4</v>
@@ -76029,16 +76029,16 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="K1051" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L1051" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M1051" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="Q1051" t="n">
         <v>1</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1052" t="n">
         <v>4</v>
@@ -76104,13 +76104,13 @@
         <v>1600</v>
       </c>
       <c r="K1052" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1052" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1052" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1052" t="n">
         <v>1</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1053" t="n">
         <v>4</v>
@@ -76173,16 +76173,16 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K1053" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1053" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1053" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1053" t="n">
         <v>1</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1054" t="n">
         <v>4</v>
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>1560</v>
+        <v>1520</v>
       </c>
       <c r="K1054" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1054" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1054" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1054" t="n">
         <v>1</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1055" t="n">
         <v>4</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1055" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1055" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1055" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1055" t="n">
         <v>1</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1056" t="n">
         <v>4</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>1360</v>
+        <v>1300</v>
       </c>
       <c r="K1056" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1056" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1056" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1056" t="n">
         <v>1</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1057" t="n">
         <v>4</v>
@@ -76461,7 +76461,7 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1057" t="n">
         <v>900</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1058" t="n">
         <v>4</v>
@@ -76533,7 +76533,7 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1058" t="n">
         <v>700</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1059" t="n">
         <v>4</v>
@@ -76605,7 +76605,7 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K1059" t="n">
         <v>750</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -76677,7 +76677,7 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>1360</v>
+        <v>1560</v>
       </c>
       <c r="K1060" t="n">
         <v>650</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1061" t="n">
         <v>4</v>
@@ -76745,20 +76745,20 @@
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>1260</v>
+        <v>2400</v>
       </c>
       <c r="K1061" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1061" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1061" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1061" t="n">
         <v>1</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E1062" t="n">
         <v>4</v>
@@ -76812,25 +76812,25 @@
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>2600</v>
+        <v>1360</v>
       </c>
       <c r="K1062" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1062" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1062" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1062" t="n">
         <v>1</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1063" t="n">
         <v>4</v>
@@ -76889,20 +76889,20 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="K1063" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L1063" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1063" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1064" t="n">
         <v>4</v>
@@ -76956,25 +76956,25 @@
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="K1064" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1064" t="n">
         <v>800</v>
       </c>
       <c r="M1064" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1065" t="n">
         <v>4</v>
@@ -77033,20 +77033,20 @@
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>1440</v>
+        <v>2400</v>
       </c>
       <c r="K1065" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1065" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1065" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1066" t="n">
         <v>4</v>
@@ -77100,25 +77100,25 @@
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>2200</v>
+        <v>1360</v>
       </c>
       <c r="K1066" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1066" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1066" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1066" t="n">
         <v>1</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1067" t="n">
         <v>4</v>
@@ -77181,7 +77181,7 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>1460</v>
+        <v>1260</v>
       </c>
       <c r="K1067" t="n">
         <v>650</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1068" t="n">
         <v>4</v>
@@ -77253,7 +77253,7 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="K1068" t="n">
         <v>750</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1069" t="n">
         <v>4</v>
@@ -77325,7 +77325,7 @@
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K1069" t="n">
         <v>650</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1070" t="n">
         <v>4</v>
@@ -77397,7 +77397,7 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1070" t="n">
         <v>750</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1071" t="n">
         <v>4</v>
@@ -77469,7 +77469,7 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>1560</v>
+        <v>1440</v>
       </c>
       <c r="K1071" t="n">
         <v>650</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -77541,7 +77541,7 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K1072" t="n">
         <v>750</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1073" t="n">
         <v>4</v>
@@ -77613,7 +77613,7 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K1073" t="n">
         <v>650</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1074" t="n">
         <v>4</v>
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1074" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1074" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1074" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1074" t="n">
         <v>1</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1075" t="n">
         <v>4</v>
@@ -77760,13 +77760,13 @@
         <v>1600</v>
       </c>
       <c r="K1075" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1075" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1075" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1075" t="n">
         <v>1</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1076" t="n">
         <v>4</v>
@@ -77829,16 +77829,16 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1076" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1076" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1076" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1076" t="n">
         <v>1</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1077" t="n">
         <v>4</v>
@@ -77901,16 +77901,16 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K1077" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1077" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1077" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1078" t="n">
         <v>4</v>
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1078" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1078" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1078" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1079" t="n">
         <v>4</v>
@@ -78045,16 +78045,16 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K1079" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1079" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1079" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1079" t="n">
         <v>1</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1080" t="n">
         <v>4</v>
@@ -78117,16 +78117,16 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1080" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1080" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1080" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1080" t="n">
         <v>1</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1081" t="n">
         <v>4</v>
@@ -78189,16 +78189,16 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>1520</v>
+        <v>1600</v>
       </c>
       <c r="K1081" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1081" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1081" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1081" t="n">
         <v>1</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -78261,16 +78261,16 @@
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1082" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1082" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1082" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1082" t="n">
         <v>1</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -78333,16 +78333,16 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K1083" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1083" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1083" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1083" t="n">
         <v>1</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -78405,16 +78405,16 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1084" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1084" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1084" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1084" t="n">
         <v>1</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K1085" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1085" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1085" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1085" t="n">
         <v>1</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1086" t="n">
         <v>4</v>
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1086" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1086" t="n">
         <v>800</v>
       </c>
       <c r="M1086" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1086" t="n">
         <v>1</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1087" t="n">
         <v>4</v>
@@ -78621,16 +78621,16 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>1400</v>
+        <v>1520</v>
       </c>
       <c r="K1087" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1087" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1087" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1087" t="n">
         <v>1</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -78693,16 +78693,16 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1088" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1088" t="n">
         <v>800</v>
       </c>
       <c r="M1088" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1088" t="n">
         <v>1</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K1089" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1089" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1089" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1089" t="n">
         <v>1</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -78837,16 +78837,16 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1090" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1090" t="n">
         <v>800</v>
       </c>
       <c r="M1090" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1090" t="n">
         <v>1</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -78909,16 +78909,16 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1091" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1091" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1091" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1092" t="n">
         <v>4</v>
@@ -78981,16 +78981,16 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K1092" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1092" t="n">
         <v>800</v>
       </c>
       <c r="M1092" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1092" t="n">
         <v>1</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1093" t="n">
         <v>4</v>
@@ -79053,16 +79053,16 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>1520</v>
+        <v>1400</v>
       </c>
       <c r="K1093" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1093" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1093" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1093" t="n">
         <v>1</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -79128,13 +79128,13 @@
         <v>2400</v>
       </c>
       <c r="K1094" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1094" t="n">
         <v>800</v>
       </c>
       <c r="M1094" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1094" t="n">
         <v>1</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1095" t="n">
         <v>4</v>
@@ -79197,16 +79197,16 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="K1095" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1095" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1095" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1095" t="n">
         <v>1</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -79272,13 +79272,13 @@
         <v>2000</v>
       </c>
       <c r="K1096" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1096" t="n">
         <v>800</v>
       </c>
       <c r="M1096" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1096" t="n">
         <v>1</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1097" t="n">
         <v>4</v>
@@ -79341,16 +79341,16 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K1097" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1097" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1097" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1097" t="n">
         <v>1</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1098" t="n">
         <v>4</v>
@@ -79413,16 +79413,16 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K1098" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1098" t="n">
         <v>800</v>
       </c>
       <c r="M1098" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1098" t="n">
         <v>1</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1099" t="n">
         <v>4</v>
@@ -79485,16 +79485,16 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>1600</v>
+        <v>1520</v>
       </c>
       <c r="K1099" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1099" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1099" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1099" t="n">
         <v>1</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -79557,16 +79557,16 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K1100" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1100" t="n">
         <v>800</v>
       </c>
       <c r="M1100" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1100" t="n">
         <v>1</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -79629,16 +79629,16 @@
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="K1101" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1101" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1101" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1101" t="n">
         <v>1</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1102" t="n">
         <v>4</v>
@@ -79701,16 +79701,16 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>2680</v>
+        <v>2000</v>
       </c>
       <c r="K1102" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1102" t="n">
         <v>800</v>
       </c>
       <c r="M1102" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1102" t="n">
         <v>1</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -79773,16 +79773,16 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K1103" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1103" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1103" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79795,7 +79795,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1103" t="n">
         <v>1</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -79848,13 +79848,13 @@
         <v>2800</v>
       </c>
       <c r="K1104" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1104" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1104" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -79917,7 +79917,7 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K1105" t="n">
         <v>550</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K1106" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1106" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1106" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1107" t="n">
         <v>4</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1108" t="n">
         <v>4</v>
@@ -80133,16 +80133,16 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>2500</v>
+        <v>2680</v>
       </c>
       <c r="K1108" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1108" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1108" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1108" t="n">
         <v>1</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1109" t="n">
         <v>4</v>
@@ -80205,7 +80205,7 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1109" t="n">
         <v>550</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1110" t="n">
         <v>4</v>
@@ -80277,16 +80277,16 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1110" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L1110" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M1110" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -80349,16 +80349,16 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>1360</v>
+        <v>1480</v>
       </c>
       <c r="K1111" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1111" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1111" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1111" t="n">
         <v>1</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -80421,16 +80421,16 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1112" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1112" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1112" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1113" t="n">
         <v>4</v>
@@ -80493,16 +80493,16 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>1320</v>
+        <v>1500</v>
       </c>
       <c r="K1113" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1113" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1113" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1114" t="n">
         <v>4</v>
@@ -80561,11 +80561,11 @@
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>1260</v>
+        <v>2500</v>
       </c>
       <c r="K1114" t="n">
         <v>650</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -80628,25 +80628,25 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>2860</v>
+        <v>1500</v>
       </c>
       <c r="K1115" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1115" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1115" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1115" t="n">
         <v>1</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K1116" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L1116" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M1116" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1117" t="n">
         <v>4</v>
@@ -80772,16 +80772,16 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>3080</v>
+        <v>1360</v>
       </c>
       <c r="K1117" t="n">
         <v>700</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1118" t="n">
         <v>4</v>
@@ -80849,20 +80849,20 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>1560</v>
+        <v>2400</v>
       </c>
       <c r="K1118" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1118" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1118" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1118" t="n">
         <v>1</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1119" t="n">
         <v>4</v>
@@ -80916,25 +80916,25 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>2760</v>
+        <v>1320</v>
       </c>
       <c r="K1119" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1119" t="n">
         <v>700</v>
       </c>
-      <c r="L1119" t="n">
-        <v>800</v>
-      </c>
       <c r="M1119" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80973,58 +80973,490 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1120" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1120" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1120" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1120" t="n">
+        <v>1260</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>675</v>
+      </c>
+      <c r="N1120" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1120" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1120" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1120" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1121" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E1120" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1120" t="n">
-        <v>100112006</v>
-      </c>
-      <c r="G1120" t="inlineStr">
-        <is>
-          <t>Repollo</t>
-        </is>
-      </c>
-      <c r="H1120" t="inlineStr">
+      <c r="E1121" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1121" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1121" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1121" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1121" t="n">
+        <v>2860</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1121" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1121" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1121" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1121" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1122" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1122" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1122" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1122" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1122" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>575</v>
+      </c>
+      <c r="N1122" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1122" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1122" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1122" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1123" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1123" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1123" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1123" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1123" t="n">
+        <v>3080</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1123" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1123" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1123" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1123" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1124" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1124" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1124" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1124" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1124" t="n">
+        <v>1560</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>575</v>
+      </c>
+      <c r="N1124" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1124" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1124" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1124" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1125" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1125" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1125" t="inlineStr">
         <is>
           <t>Morada(o)</t>
         </is>
       </c>
-      <c r="I1120" t="inlineStr">
+      <c r="I1125" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1125" t="n">
+        <v>2760</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1125" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1125" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1125" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1125" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1126" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1126" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1126" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1126" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1120" t="n">
+      <c r="J1126" t="n">
         <v>1480</v>
       </c>
-      <c r="K1120" t="n">
+      <c r="K1126" t="n">
         <v>550</v>
       </c>
-      <c r="L1120" t="n">
+      <c r="L1126" t="n">
         <v>600</v>
       </c>
-      <c r="M1120" t="n">
+      <c r="M1126" t="n">
         <v>575</v>
       </c>
-      <c r="N1120" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1120" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P1120" t="n">
+      <c r="N1126" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1126" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1126" t="n">
         <v>575</v>
       </c>
-      <c r="Q1120" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1120" t="inlineStr">
+      <c r="Q1126" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1126" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1155"/>
+  <dimension ref="A1:R1160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E1002" t="n">
         <v>4</v>
@@ -72501,16 +72501,16 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1002" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L1002" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M1002" t="n">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="Q1002" t="n">
         <v>1</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E1003" t="n">
         <v>4</v>
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K1003" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1003" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1003" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1003" t="n">
         <v>1</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E1004" t="n">
         <v>4</v>
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1004" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1004" t="n">
         <v>700</v>
       </c>
-      <c r="L1004" t="n">
-        <v>800</v>
-      </c>
       <c r="M1004" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1004" t="n">
         <v>1</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E1005" t="n">
         <v>4</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="K1005" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1005" t="n">
         <v>600</v>
       </c>
       <c r="M1005" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1005" t="n">
         <v>1</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E1006" t="n">
         <v>4</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>2400</v>
+        <v>1260</v>
       </c>
       <c r="K1006" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1006" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1006" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1006" t="n">
         <v>1</v>
@@ -72852,25 +72852,25 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>1360</v>
+        <v>3000</v>
       </c>
       <c r="K1007" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="L1007" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1007" t="n">
-        <v>550</v>
+        <v>875</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>550</v>
+        <v>875</v>
       </c>
       <c r="Q1007" t="n">
         <v>1</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E1008" t="n">
         <v>4</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="K1008" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1008" t="n">
         <v>800</v>
       </c>
       <c r="M1008" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1008" t="n">
         <v>1</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E1009" t="n">
         <v>4</v>
@@ -72996,25 +72996,25 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="K1009" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1009" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1009" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q1009" t="n">
         <v>1</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E1010" t="n">
         <v>4</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="K1010" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L1010" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1010" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q1010" t="n">
         <v>1</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E1011" t="n">
         <v>4</v>
@@ -73140,25 +73140,25 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="K1011" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1011" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1011" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q1011" t="n">
         <v>1</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E1012" t="n">
         <v>4</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>2700</v>
+        <v>1360</v>
       </c>
       <c r="K1012" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L1012" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1012" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q1012" t="n">
         <v>1</v>
@@ -73284,25 +73284,25 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="K1013" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1013" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1013" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q1013" t="n">
         <v>1</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E1014" t="n">
         <v>4</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="K1014" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1014" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1014" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="Q1014" t="n">
         <v>1</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E1015" t="n">
         <v>4</v>
@@ -73428,25 +73428,25 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>1680</v>
+        <v>2700</v>
       </c>
       <c r="K1015" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1015" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1015" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1015" t="n">
         <v>1</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E1016" t="n">
         <v>4</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="K1016" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1016" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1016" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="Q1016" t="n">
         <v>1</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E1017" t="n">
         <v>4</v>
@@ -73572,25 +73572,25 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="K1017" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1017" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1017" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1017" t="n">
         <v>1</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E1018" t="n">
         <v>4</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="K1018" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1018" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1018" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="Q1018" t="n">
         <v>1</v>
@@ -73716,25 +73716,25 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>1560</v>
+        <v>3000</v>
       </c>
       <c r="K1019" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1019" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1019" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1019" t="n">
         <v>1</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E1020" t="n">
         <v>4</v>
@@ -73793,11 +73793,11 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>2800</v>
+        <v>1680</v>
       </c>
       <c r="K1020" t="n">
         <v>650</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E1021" t="n">
         <v>4</v>
@@ -73860,25 +73860,25 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="K1021" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1021" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1021" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E1022" t="n">
         <v>4</v>
@@ -73937,11 +73937,11 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="K1022" t="n">
         <v>650</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E1023" t="n">
         <v>4</v>
@@ -74004,25 +74004,25 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>1540</v>
+        <v>2800</v>
       </c>
       <c r="K1023" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1023" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1023" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1023" t="n">
         <v>1</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E1024" t="n">
         <v>4</v>
@@ -74081,11 +74081,11 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>2500</v>
+        <v>1560</v>
       </c>
       <c r="K1024" t="n">
         <v>650</v>
@@ -74148,25 +74148,25 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>1560</v>
+        <v>2800</v>
       </c>
       <c r="K1025" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1025" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1025" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1025" t="n">
         <v>1</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E1026" t="n">
         <v>4</v>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>3040</v>
+        <v>1600</v>
       </c>
       <c r="K1026" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1026" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1026" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1026" t="n">
         <v>1</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E1027" t="n">
         <v>4</v>
@@ -74292,25 +74292,25 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="K1027" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1027" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1027" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1027" t="n">
         <v>1</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E1028" t="n">
         <v>4</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>3120</v>
+        <v>1540</v>
       </c>
       <c r="K1028" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1028" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1028" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1028" t="n">
         <v>1</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E1029" t="n">
         <v>4</v>
@@ -74436,25 +74436,25 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>1660</v>
+        <v>2500</v>
       </c>
       <c r="K1029" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1029" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1029" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1029" t="n">
         <v>1</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E1030" t="n">
         <v>4</v>
@@ -74513,20 +74513,20 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>2900</v>
+        <v>1560</v>
       </c>
       <c r="K1030" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1030" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1030" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1030" t="n">
         <v>1</v>
@@ -74580,25 +74580,25 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>1600</v>
+        <v>3040</v>
       </c>
       <c r="K1031" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1031" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1031" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1031" t="n">
         <v>1</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E1032" t="n">
         <v>4</v>
@@ -74657,11 +74657,11 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K1032" t="n">
         <v>550</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E1033" t="n">
         <v>4</v>
@@ -74724,25 +74724,25 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>1600</v>
+        <v>3120</v>
       </c>
       <c r="K1033" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L1033" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1033" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="Q1033" t="n">
         <v>1</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E1034" t="n">
         <v>4</v>
@@ -74801,11 +74801,11 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>2600</v>
+        <v>1660</v>
       </c>
       <c r="K1034" t="n">
         <v>550</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E1035" t="n">
         <v>4</v>
@@ -74868,25 +74868,25 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="K1035" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L1035" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1035" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="Q1035" t="n">
         <v>1</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E1036" t="n">
         <v>4</v>
@@ -74945,11 +74945,11 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="K1036" t="n">
         <v>550</v>
@@ -75012,25 +75012,25 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="K1037" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1037" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1037" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1037" t="n">
         <v>1</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1038" t="n">
         <v>4</v>
@@ -75089,20 +75089,20 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>2900</v>
+        <v>1600</v>
       </c>
       <c r="K1038" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1038" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1038" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1038" t="n">
         <v>1</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1039" t="n">
         <v>4</v>
@@ -75156,16 +75156,16 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>1600</v>
+        <v>2600</v>
       </c>
       <c r="K1039" t="n">
         <v>550</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1040" t="n">
         <v>4</v>
@@ -75233,20 +75233,20 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="K1040" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1040" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1040" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1040" t="n">
         <v>1</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1041" t="n">
         <v>4</v>
@@ -75300,16 +75300,16 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>1560</v>
+        <v>2400</v>
       </c>
       <c r="K1041" t="n">
         <v>550</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1042" t="n">
         <v>4</v>
@@ -75377,20 +75377,20 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="K1042" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1042" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1042" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1042" t="n">
         <v>1</v>
@@ -75444,25 +75444,25 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>1460</v>
+        <v>2900</v>
       </c>
       <c r="K1043" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1043" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1043" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1043" t="n">
         <v>1</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1044" t="n">
         <v>4</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="K1044" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1044" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1044" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1044" t="n">
         <v>1</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1045" t="n">
         <v>4</v>
@@ -75588,25 +75588,25 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="K1045" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1045" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1045" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1045" t="n">
         <v>1</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1046" t="n">
         <v>4</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>3000</v>
+        <v>1560</v>
       </c>
       <c r="K1046" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1046" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1046" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1046" t="n">
         <v>1</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1047" t="n">
         <v>4</v>
@@ -75732,25 +75732,25 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>1560</v>
+        <v>2600</v>
       </c>
       <c r="K1047" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1047" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1047" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1047" t="n">
         <v>1</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -75809,20 +75809,20 @@
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>2600</v>
+        <v>1460</v>
       </c>
       <c r="K1048" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1048" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1048" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75876,25 +75876,25 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="K1049" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1049" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1049" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1050" t="n">
         <v>4</v>
@@ -75953,20 +75953,20 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="K1050" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1050" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1050" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1050" t="n">
         <v>1</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1051" t="n">
         <v>4</v>
@@ -76020,25 +76020,25 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>1480</v>
+        <v>3000</v>
       </c>
       <c r="K1051" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1051" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1051" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1051" t="n">
         <v>1</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1052" t="n">
         <v>4</v>
@@ -76097,20 +76097,20 @@
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>2200</v>
+        <v>1560</v>
       </c>
       <c r="K1052" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1052" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1052" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1052" t="n">
         <v>1</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1053" t="n">
         <v>4</v>
@@ -76164,25 +76164,25 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>1440</v>
+        <v>2600</v>
       </c>
       <c r="K1053" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1053" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1053" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1053" t="n">
         <v>1</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1054" t="n">
         <v>4</v>
@@ -76241,20 +76241,20 @@
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K1054" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1054" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1054" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1054" t="n">
         <v>1</v>
@@ -76308,25 +76308,25 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>1460</v>
+        <v>2400</v>
       </c>
       <c r="K1055" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1055" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1055" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1055" t="n">
         <v>1</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1056" t="n">
         <v>4</v>
@@ -76385,11 +76385,11 @@
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>2000</v>
+        <v>1480</v>
       </c>
       <c r="K1056" t="n">
         <v>650</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1057" t="n">
         <v>4</v>
@@ -76452,25 +76452,25 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="K1057" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1057" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1057" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1057" t="n">
         <v>1</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1058" t="n">
         <v>4</v>
@@ -76529,11 +76529,11 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>2000</v>
+        <v>1440</v>
       </c>
       <c r="K1058" t="n">
         <v>650</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1059" t="n">
         <v>4</v>
@@ -76596,25 +76596,25 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="K1059" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1059" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1059" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1059" t="n">
         <v>1</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -76673,11 +76673,11 @@
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>2000</v>
+        <v>1460</v>
       </c>
       <c r="K1060" t="n">
         <v>650</v>
@@ -76740,25 +76740,25 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>1260</v>
+        <v>2000</v>
       </c>
       <c r="K1061" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1061" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1061" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1061" t="n">
         <v>1</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1062" t="n">
         <v>4</v>
@@ -76817,11 +76817,11 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K1062" t="n">
         <v>550</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1063" t="n">
         <v>4</v>
@@ -76884,25 +76884,25 @@
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>1360</v>
+        <v>2000</v>
       </c>
       <c r="K1063" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1063" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1063" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1064" t="n">
         <v>4</v>
@@ -76961,11 +76961,11 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K1064" t="n">
         <v>550</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1065" t="n">
         <v>4</v>
@@ -77028,25 +77028,25 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="K1065" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1065" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1065" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1066" t="n">
         <v>4</v>
@@ -77105,11 +77105,11 @@
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>2000</v>
+        <v>1260</v>
       </c>
       <c r="K1066" t="n">
         <v>550</v>
@@ -77172,25 +77172,25 @@
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="K1067" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1067" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1067" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1067" t="n">
         <v>1</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1068" t="n">
         <v>4</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K1068" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1068" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1068" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1068" t="n">
         <v>1</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1069" t="n">
         <v>4</v>
@@ -77316,16 +77316,16 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="K1069" t="n">
         <v>550</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1070" t="n">
         <v>4</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K1070" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1070" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1070" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1071" t="n">
         <v>4</v>
@@ -77460,16 +77460,16 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>1360</v>
+        <v>2000</v>
       </c>
       <c r="K1071" t="n">
         <v>550</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="K1072" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1072" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1072" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1072" t="n">
         <v>1</v>
@@ -77604,25 +77604,25 @@
       </c>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>1320</v>
+        <v>2400</v>
       </c>
       <c r="K1073" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1073" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1073" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1073" t="n">
         <v>1</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1074" t="n">
         <v>4</v>
@@ -77681,20 +77681,20 @@
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K1074" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1074" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1074" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1074" t="n">
         <v>1</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1075" t="n">
         <v>4</v>
@@ -77748,25 +77748,25 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="K1075" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1075" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1075" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1075" t="n">
         <v>1</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1076" t="n">
         <v>4</v>
@@ -77825,20 +77825,20 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>2000</v>
+        <v>1360</v>
       </c>
       <c r="K1076" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1076" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1076" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1076" t="n">
         <v>1</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1077" t="n">
         <v>4</v>
@@ -77892,25 +77892,25 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>1360</v>
+        <v>2200</v>
       </c>
       <c r="K1077" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1077" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1077" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1078" t="n">
         <v>4</v>
@@ -77969,20 +77969,20 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>2000</v>
+        <v>1320</v>
       </c>
       <c r="K1078" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1078" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1078" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78036,25 +78036,25 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>1320</v>
+        <v>2000</v>
       </c>
       <c r="K1079" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1079" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1079" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1079" t="n">
         <v>1</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1080" t="n">
         <v>4</v>
@@ -78113,11 +78113,11 @@
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="K1080" t="n">
         <v>550</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1081" t="n">
         <v>4</v>
@@ -78180,25 +78180,25 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K1081" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1081" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1081" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1081" t="n">
         <v>1</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -78257,11 +78257,11 @@
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K1082" t="n">
         <v>550</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -78324,25 +78324,25 @@
       </c>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>1520</v>
+        <v>2000</v>
       </c>
       <c r="K1083" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1083" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1083" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1083" t="n">
         <v>1</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -78401,11 +78401,11 @@
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>2000</v>
+        <v>1320</v>
       </c>
       <c r="K1084" t="n">
         <v>550</v>
@@ -78468,25 +78468,25 @@
       </c>
       <c r="H1085" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="K1085" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1085" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1085" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1085" t="n">
         <v>1</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1086" t="n">
         <v>4</v>
@@ -78545,20 +78545,20 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="K1086" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L1086" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M1086" t="n">
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="Q1086" t="n">
         <v>1</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1087" t="n">
         <v>4</v>
@@ -78612,25 +78612,25 @@
       </c>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K1087" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1087" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1087" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1087" t="n">
         <v>1</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -78689,20 +78689,20 @@
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>3200</v>
+        <v>1520</v>
       </c>
       <c r="K1088" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L1088" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1088" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="Q1088" t="n">
         <v>1</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -78756,25 +78756,25 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>1560</v>
+        <v>2000</v>
       </c>
       <c r="K1089" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1089" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1089" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1089" t="n">
         <v>1</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -78833,20 +78833,20 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K1090" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L1090" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1090" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="Q1090" t="n">
         <v>1</v>
@@ -78900,25 +78900,25 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>1360</v>
+        <v>3000</v>
       </c>
       <c r="K1091" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L1091" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1091" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1092" t="n">
         <v>4</v>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="K1092" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1092" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1092" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="Q1092" t="n">
         <v>1</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1093" t="n">
         <v>4</v>
@@ -79044,25 +79044,25 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>1400</v>
+        <v>3200</v>
       </c>
       <c r="K1093" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1093" t="n">
         <v>800</v>
       </c>
       <c r="M1093" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1093" t="n">
         <v>1</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -79121,20 +79121,20 @@
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>2400</v>
+        <v>1560</v>
       </c>
       <c r="K1094" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1094" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1094" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1094" t="n">
         <v>1</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1095" t="n">
         <v>4</v>
@@ -79188,25 +79188,25 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>1360</v>
+        <v>2400</v>
       </c>
       <c r="K1095" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1095" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1095" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1095" t="n">
         <v>1</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -79269,7 +79269,7 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>1260</v>
+        <v>1360</v>
       </c>
       <c r="K1096" t="n">
         <v>650</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1097" t="n">
         <v>4</v>
@@ -79341,16 +79341,16 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K1097" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1097" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1097" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1097" t="n">
         <v>1</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1098" t="n">
         <v>4</v>
@@ -79413,16 +79413,16 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1098" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1098" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1098" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1098" t="n">
         <v>1</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1099" t="n">
         <v>4</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -79557,7 +79557,7 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>1440</v>
+        <v>1360</v>
       </c>
       <c r="K1100" t="n">
         <v>650</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>2200</v>
+        <v>1260</v>
       </c>
       <c r="K1101" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1101" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1101" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1101" t="n">
         <v>1</v>
@@ -79692,25 +79692,25 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>1460</v>
+        <v>2600</v>
       </c>
       <c r="K1102" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1102" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1102" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1102" t="n">
         <v>1</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -79769,20 +79769,20 @@
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="K1103" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1103" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1103" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79795,7 +79795,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1103" t="n">
         <v>1</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -79836,25 +79836,25 @@
       </c>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K1104" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1104" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1104" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>3000</v>
+        <v>1440</v>
       </c>
       <c r="K1105" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1105" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1105" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1105" t="n">
         <v>1</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -79980,25 +79980,25 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>1560</v>
+        <v>2200</v>
       </c>
       <c r="K1106" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1106" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1106" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1107" t="n">
         <v>4</v>
@@ -80057,20 +80057,20 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>3000</v>
+        <v>1460</v>
       </c>
       <c r="K1107" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1107" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1107" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1107" t="n">
         <v>1</v>
@@ -80124,25 +80124,25 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="K1108" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1108" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1108" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1108" t="n">
         <v>1</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1109" t="n">
         <v>4</v>
@@ -80201,20 +80201,20 @@
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="K1109" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1109" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1109" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1109" t="n">
         <v>1</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1110" t="n">
         <v>4</v>
@@ -80268,25 +80268,25 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="K1110" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L1110" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1110" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -80345,20 +80345,20 @@
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>2400</v>
+        <v>1560</v>
       </c>
       <c r="K1111" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1111" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1111" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1111" t="n">
         <v>1</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -80412,25 +80412,25 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="K1112" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L1112" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1112" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1113" t="n">
         <v>4</v>
@@ -80489,20 +80489,20 @@
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K1113" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1113" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1113" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80556,25 +80556,25 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="K1114" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1114" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1114" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1114" t="n">
         <v>1</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -80633,20 +80633,20 @@
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="K1115" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L1115" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1115" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="Q1115" t="n">
         <v>1</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -80700,25 +80700,25 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>1520</v>
+        <v>2400</v>
       </c>
       <c r="K1116" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1116" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1116" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1117" t="n">
         <v>4</v>
@@ -80777,20 +80777,20 @@
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="K1117" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L1117" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1117" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="Q1117" t="n">
         <v>1</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1118" t="n">
         <v>4</v>
@@ -80844,25 +80844,25 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>1480</v>
+        <v>2000</v>
       </c>
       <c r="K1118" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1118" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1118" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1118" t="n">
         <v>1</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1119" t="n">
         <v>4</v>
@@ -80921,20 +80921,20 @@
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="K1119" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L1119" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1119" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80988,25 +80988,25 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="K1120" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1120" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1120" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1121" t="n">
         <v>4</v>
@@ -81065,20 +81065,20 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>2400</v>
+        <v>1520</v>
       </c>
       <c r="K1121" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1121" t="n">
         <v>700</v>
       </c>
-      <c r="L1121" t="n">
-        <v>800</v>
-      </c>
       <c r="M1121" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1121" t="n">
         <v>1</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1122" t="n">
         <v>4</v>
@@ -81132,25 +81132,25 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="K1122" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L1122" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1122" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="Q1122" t="n">
         <v>1</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1123" t="n">
         <v>4</v>
@@ -81209,20 +81209,20 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>2400</v>
+        <v>1480</v>
       </c>
       <c r="K1123" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1123" t="n">
         <v>700</v>
       </c>
-      <c r="L1123" t="n">
-        <v>800</v>
-      </c>
       <c r="M1123" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1123" t="n">
         <v>1</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1124" t="n">
         <v>4</v>
@@ -81276,25 +81276,25 @@
       </c>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="K1124" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L1124" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1124" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="Q1124" t="n">
         <v>1</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1125" t="n">
         <v>4</v>
@@ -81353,20 +81353,20 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K1125" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1125" t="n">
         <v>700</v>
       </c>
-      <c r="L1125" t="n">
-        <v>800</v>
-      </c>
       <c r="M1125" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1125" t="n">
         <v>1</v>
@@ -81420,25 +81420,25 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="K1126" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1126" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1126" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q1126" t="n">
         <v>1</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1127" t="n">
         <v>4</v>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="K1127" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1127" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1127" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="Q1127" t="n">
         <v>1</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -81564,25 +81564,25 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>1520</v>
+        <v>2400</v>
       </c>
       <c r="K1128" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1128" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1128" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81595,7 +81595,7 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1128" t="n">
         <v>1</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1129" t="n">
         <v>4</v>
@@ -81641,20 +81641,20 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="K1129" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1129" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1129" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="Q1129" t="n">
         <v>1</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1130" t="n">
         <v>4</v>
@@ -81708,25 +81708,25 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>1440</v>
+        <v>2000</v>
       </c>
       <c r="K1130" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1130" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1130" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1130" t="n">
         <v>1</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1131" t="n">
         <v>4</v>
@@ -81785,20 +81785,20 @@
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K1131" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1131" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1131" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="Q1131" t="n">
         <v>1</v>
@@ -81852,25 +81852,25 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>1460</v>
+        <v>2500</v>
       </c>
       <c r="K1132" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1132" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1132" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81883,7 +81883,7 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1132" t="n">
         <v>1</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1133" t="n">
         <v>4</v>
@@ -81929,20 +81929,20 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>2800</v>
+        <v>1520</v>
       </c>
       <c r="K1133" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1133" t="n">
         <v>700</v>
       </c>
-      <c r="L1133" t="n">
-        <v>800</v>
-      </c>
       <c r="M1133" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1133" t="n">
         <v>1</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1134" t="n">
         <v>4</v>
@@ -81996,25 +81996,25 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K1134" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1134" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1134" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1134" t="n">
         <v>1</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1135" t="n">
         <v>4</v>
@@ -82073,20 +82073,20 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>2600</v>
+        <v>1440</v>
       </c>
       <c r="K1135" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1135" t="n">
         <v>700</v>
       </c>
-      <c r="L1135" t="n">
-        <v>800</v>
-      </c>
       <c r="M1135" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1135" t="n">
         <v>1</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1136" t="n">
         <v>4</v>
@@ -82140,25 +82140,25 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K1136" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1136" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1136" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1136" t="n">
         <v>1</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1137" t="n">
         <v>4</v>
@@ -82217,20 +82217,20 @@
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>2680</v>
+        <v>1460</v>
       </c>
       <c r="K1137" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1137" t="n">
         <v>700</v>
       </c>
-      <c r="L1137" t="n">
-        <v>800</v>
-      </c>
       <c r="M1137" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82243,7 +82243,7 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1137" t="n">
         <v>1</v>
@@ -82284,25 +82284,25 @@
       </c>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="K1138" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1138" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1138" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82315,7 +82315,7 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1138" t="n">
         <v>1</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1139" t="n">
         <v>4</v>
@@ -82361,20 +82361,20 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="K1139" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1139" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1139" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1139" t="n">
         <v>1</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1140" t="n">
         <v>4</v>
@@ -82428,25 +82428,25 @@
       </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>1480</v>
+        <v>2600</v>
       </c>
       <c r="K1140" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1140" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1140" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1140" t="n">
         <v>1</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1141" t="n">
         <v>4</v>
@@ -82505,20 +82505,20 @@
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="K1141" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1141" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1141" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1141" t="n">
         <v>1</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1142" t="n">
         <v>4</v>
@@ -82572,25 +82572,25 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>1500</v>
+        <v>2680</v>
       </c>
       <c r="K1142" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1142" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1142" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1142" t="n">
         <v>1</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1143" t="n">
         <v>4</v>
@@ -82649,20 +82649,20 @@
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="K1143" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1143" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1143" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1143" t="n">
         <v>1</v>
@@ -82716,25 +82716,25 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="K1144" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1144" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1144" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1144" t="n">
         <v>1</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1145" t="n">
         <v>4</v>
@@ -82793,20 +82793,20 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>2400</v>
+        <v>1480</v>
       </c>
       <c r="K1145" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L1145" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M1145" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82819,7 +82819,7 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="Q1145" t="n">
         <v>1</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1146" t="n">
         <v>4</v>
@@ -82860,25 +82860,25 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>1360</v>
+        <v>2800</v>
       </c>
       <c r="K1146" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1146" t="n">
         <v>700</v>
       </c>
-      <c r="L1146" t="n">
-        <v>800</v>
-      </c>
       <c r="M1146" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1146" t="n">
         <v>1</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1147" t="n">
         <v>4</v>
@@ -82937,20 +82937,20 @@
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="K1147" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1147" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1147" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1147" t="n">
         <v>1</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1148" t="n">
         <v>4</v>
@@ -83004,16 +83004,16 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>1320</v>
+        <v>2500</v>
       </c>
       <c r="K1148" t="n">
         <v>650</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1149" t="n">
         <v>4</v>
@@ -83085,16 +83085,16 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>1260</v>
+        <v>1500</v>
       </c>
       <c r="K1149" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1149" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1149" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1149" t="n">
         <v>1</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1150" t="n">
         <v>4</v>
@@ -83157,16 +83157,16 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>2860</v>
+        <v>2400</v>
       </c>
       <c r="K1150" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L1150" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1150" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q1150" t="n">
         <v>1</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1151" t="n">
         <v>4</v>
@@ -83229,16 +83229,16 @@
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K1151" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1151" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1151" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83251,7 +83251,7 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1151" t="n">
         <v>1</v>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1152" t="n">
         <v>4</v>
@@ -83301,16 +83301,16 @@
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>3080</v>
+        <v>2400</v>
       </c>
       <c r="K1152" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1152" t="n">
         <v>800</v>
       </c>
       <c r="M1152" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1152" t="n">
         <v>1</v>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1153" t="n">
         <v>4</v>
@@ -83373,16 +83373,16 @@
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>1560</v>
+        <v>1320</v>
       </c>
       <c r="K1153" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1153" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1153" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83395,7 +83395,7 @@
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1153" t="n">
         <v>1</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1154" t="n">
         <v>4</v>
@@ -83441,20 +83441,20 @@
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>2760</v>
+        <v>1260</v>
       </c>
       <c r="K1154" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1154" t="n">
         <v>700</v>
       </c>
-      <c r="L1154" t="n">
-        <v>800</v>
-      </c>
       <c r="M1154" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
@@ -83467,7 +83467,7 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1154" t="n">
         <v>1</v>
@@ -83508,43 +83508,403 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1155" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1155" t="n">
+        <v>2860</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1155" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1155" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1155" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1155" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1156" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1156" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1156" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1156" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1156" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>575</v>
+      </c>
+      <c r="N1156" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1156" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1156" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1156" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1157" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1157" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1157" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1157" t="n">
+        <v>3080</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1157" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1157" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1157" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1157" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1158" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1158" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1158" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1158" t="n">
+        <v>1560</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>575</v>
+      </c>
+      <c r="N1158" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1158" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1158" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1158" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1159" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1159" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1159" t="inlineStr">
+        <is>
           <t>Morada(o)</t>
         </is>
       </c>
-      <c r="I1155" t="inlineStr">
+      <c r="I1159" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1159" t="n">
+        <v>2760</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1159" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1159" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1159" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1159" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1160" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1160" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1160" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1155" t="n">
+      <c r="J1160" t="n">
         <v>1480</v>
       </c>
-      <c r="K1155" t="n">
+      <c r="K1160" t="n">
         <v>550</v>
       </c>
-      <c r="L1155" t="n">
+      <c r="L1160" t="n">
         <v>600</v>
       </c>
-      <c r="M1155" t="n">
+      <c r="M1160" t="n">
         <v>575</v>
       </c>
-      <c r="N1155" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1155" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P1155" t="n">
+      <c r="N1160" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1160" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1160" t="n">
         <v>575</v>
       </c>
-      <c r="Q1155" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1155" t="inlineStr">
+      <c r="Q1160" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1160" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1166"/>
+  <dimension ref="A1:R1172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E981" t="n">
         <v>4</v>
@@ -70989,7 +70989,7 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>2800</v>
+        <v>2440</v>
       </c>
       <c r="K981" t="n">
         <v>750</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E982" t="n">
         <v>4</v>
@@ -71061,7 +71061,7 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>1560</v>
+        <v>1320</v>
       </c>
       <c r="K982" t="n">
         <v>650</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E983" t="n">
         <v>4</v>
@@ -71133,7 +71133,7 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K983" t="n">
         <v>650</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E984" t="n">
         <v>4</v>
@@ -71205,7 +71205,7 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>1400</v>
+        <v>1240</v>
       </c>
       <c r="K984" t="n">
         <v>500</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E985" t="n">
         <v>4</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E986" t="n">
         <v>4</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E987" t="n">
         <v>4</v>
@@ -71424,13 +71424,13 @@
         <v>2800</v>
       </c>
       <c r="K987" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L987" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M987" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q987" t="n">
         <v>1</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E988" t="n">
         <v>4</v>
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>1700</v>
+        <v>1560</v>
       </c>
       <c r="K988" t="n">
+        <v>650</v>
+      </c>
+      <c r="L988" t="n">
         <v>700</v>
       </c>
-      <c r="L988" t="n">
-        <v>800</v>
-      </c>
       <c r="M988" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q988" t="n">
         <v>1</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E989" t="n">
         <v>4</v>
@@ -71568,13 +71568,13 @@
         <v>2600</v>
       </c>
       <c r="K989" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L989" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M989" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q989" t="n">
         <v>1</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E990" t="n">
         <v>4</v>
@@ -71637,16 +71637,16 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K990" t="n">
+        <v>500</v>
+      </c>
+      <c r="L990" t="n">
         <v>600</v>
       </c>
-      <c r="L990" t="n">
-        <v>700</v>
-      </c>
       <c r="M990" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q990" t="n">
         <v>1</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E991" t="n">
         <v>4</v>
@@ -71700,7 +71700,7 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K991" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L991" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M991" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q991" t="n">
         <v>1</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E992" t="n">
         <v>4</v>
@@ -71772,7 +71772,7 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>1600</v>
+        <v>1160</v>
       </c>
       <c r="K992" t="n">
+        <v>500</v>
+      </c>
+      <c r="L992" t="n">
         <v>600</v>
       </c>
-      <c r="L992" t="n">
-        <v>700</v>
-      </c>
       <c r="M992" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q992" t="n">
         <v>1</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E993" t="n">
         <v>4</v>
@@ -71844,7 +71844,7 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K993" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L993" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M993" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q993" t="n">
         <v>1</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E994" t="n">
         <v>4</v>
@@ -71916,7 +71916,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K994" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L994" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M994" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q994" t="n">
         <v>1</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E995" t="n">
         <v>4</v>
@@ -71988,7 +71988,7 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
@@ -71997,16 +71997,16 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K995" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L995" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M995" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="Q995" t="n">
         <v>1</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E996" t="n">
         <v>4</v>
@@ -72060,7 +72060,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -72069,16 +72069,16 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K996" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L996" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M996" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q996" t="n">
         <v>1</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E997" t="n">
         <v>4</v>
@@ -72141,16 +72141,16 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K997" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L997" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M997" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q997" t="n">
         <v>1</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E998" t="n">
         <v>4</v>
@@ -72216,13 +72216,13 @@
         <v>1600</v>
       </c>
       <c r="K998" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L998" t="n">
         <v>700</v>
       </c>
       <c r="M998" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q998" t="n">
         <v>1</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E999" t="n">
         <v>4</v>
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K999" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L999" t="n">
         <v>800</v>
       </c>
       <c r="M999" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q999" t="n">
         <v>1</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E1000" t="n">
         <v>4</v>
@@ -72357,16 +72357,16 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K1000" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1000" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1000" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1000" t="n">
         <v>1</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E1001" t="n">
         <v>4</v>
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K1001" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1001" t="n">
         <v>800</v>
       </c>
-      <c r="L1001" t="n">
-        <v>850</v>
-      </c>
       <c r="M1001" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="Q1001" t="n">
         <v>1</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E1002" t="n">
         <v>4</v>
@@ -72492,25 +72492,25 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="K1002" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L1002" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1002" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="Q1002" t="n">
         <v>1</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E1003" t="n">
         <v>4</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="K1003" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1003" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1003" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1003" t="n">
         <v>1</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E1004" t="n">
         <v>4</v>
@@ -72636,25 +72636,25 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="K1004" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1004" t="n">
         <v>700</v>
       </c>
-      <c r="L1004" t="n">
-        <v>800</v>
-      </c>
       <c r="M1004" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1004" t="n">
         <v>1</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E1005" t="n">
         <v>4</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>1600</v>
+        <v>2600</v>
       </c>
       <c r="K1005" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1005" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1005" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1005" t="n">
         <v>1</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E1006" t="n">
         <v>4</v>
@@ -72780,25 +72780,25 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="K1006" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1006" t="n">
         <v>700</v>
       </c>
-      <c r="L1006" t="n">
-        <v>800</v>
-      </c>
       <c r="M1006" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1006" t="n">
         <v>1</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E1007" t="n">
         <v>4</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K1007" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L1007" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M1007" t="n">
-        <v>575</v>
+        <v>825</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>575</v>
+        <v>825</v>
       </c>
       <c r="Q1007" t="n">
         <v>1</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E1008" t="n">
         <v>4</v>
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1008" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1008" t="n">
         <v>800</v>
       </c>
       <c r="M1008" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1008" t="n">
         <v>1</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E1009" t="n">
         <v>4</v>
@@ -73005,16 +73005,16 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K1009" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1009" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1009" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1009" t="n">
         <v>1</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E1010" t="n">
         <v>4</v>
@@ -73077,16 +73077,16 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K1010" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1010" t="n">
         <v>800</v>
       </c>
       <c r="M1010" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1010" t="n">
         <v>1</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E1011" t="n">
         <v>4</v>
@@ -73149,16 +73149,16 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="K1011" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1011" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1011" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1011" t="n">
         <v>1</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E1012" t="n">
         <v>4</v>
@@ -73221,16 +73221,16 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1012" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1012" t="n">
         <v>800</v>
       </c>
       <c r="M1012" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1012" t="n">
         <v>1</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E1013" t="n">
         <v>4</v>
@@ -73293,16 +73293,16 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>1460</v>
+        <v>1500</v>
       </c>
       <c r="K1013" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1013" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1013" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1013" t="n">
         <v>1</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E1014" t="n">
         <v>4</v>
@@ -73368,13 +73368,13 @@
         <v>2400</v>
       </c>
       <c r="K1014" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1014" t="n">
         <v>800</v>
       </c>
       <c r="M1014" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1014" t="n">
         <v>1</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E1015" t="n">
         <v>4</v>
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K1015" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1015" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1015" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1015" t="n">
         <v>1</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E1016" t="n">
         <v>4</v>
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K1016" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1016" t="n">
         <v>800</v>
       </c>
       <c r="M1016" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1016" t="n">
         <v>1</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E1017" t="n">
         <v>4</v>
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="K1017" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1017" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1017" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1017" t="n">
         <v>1</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E1018" t="n">
         <v>4</v>
@@ -73656,13 +73656,13 @@
         <v>2000</v>
       </c>
       <c r="K1018" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1018" t="n">
         <v>800</v>
       </c>
       <c r="M1018" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1018" t="n">
         <v>1</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E1019" t="n">
         <v>4</v>
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K1019" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1019" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1019" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1019" t="n">
         <v>1</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E1020" t="n">
         <v>4</v>
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1020" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1020" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1020" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1020" t="n">
         <v>1</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E1021" t="n">
         <v>4</v>
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1021" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1021" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1021" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E1022" t="n">
         <v>4</v>
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1022" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1022" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1022" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1022" t="n">
         <v>1</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E1023" t="n">
         <v>4</v>
@@ -74016,13 +74016,13 @@
         <v>1400</v>
       </c>
       <c r="K1023" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1023" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1023" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1023" t="n">
         <v>1</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E1024" t="n">
         <v>4</v>
@@ -74088,13 +74088,13 @@
         <v>2000</v>
       </c>
       <c r="K1024" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1024" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1024" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1024" t="n">
         <v>1</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E1025" t="n">
         <v>4</v>
@@ -74157,16 +74157,16 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="K1025" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1025" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1025" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1025" t="n">
         <v>1</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1026" t="n">
         <v>4</v>
@@ -74229,16 +74229,16 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1026" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L1026" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M1026" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="Q1026" t="n">
         <v>1</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1027" t="n">
         <v>4</v>
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1027" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L1027" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1027" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="Q1027" t="n">
         <v>1</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1028" t="n">
         <v>4</v>
@@ -74373,16 +74373,16 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1028" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1028" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1028" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1028" t="n">
         <v>1</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1029" t="n">
         <v>4</v>
@@ -74445,16 +74445,16 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K1029" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1029" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1029" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1029" t="n">
         <v>1</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1030" t="n">
         <v>4</v>
@@ -74520,13 +74520,13 @@
         <v>2000</v>
       </c>
       <c r="K1030" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1030" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1030" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1030" t="n">
         <v>1</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1031" t="n">
         <v>4</v>
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="K1031" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1031" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1031" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1031" t="n">
         <v>1</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1032" t="n">
         <v>4</v>
@@ -74664,13 +74664,13 @@
         <v>2400</v>
       </c>
       <c r="K1032" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L1032" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1032" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="Q1032" t="n">
         <v>1</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1033" t="n">
         <v>4</v>
@@ -74736,13 +74736,13 @@
         <v>1400</v>
       </c>
       <c r="K1033" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1033" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1033" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1033" t="n">
         <v>1</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1034" t="n">
         <v>4</v>
@@ -74808,13 +74808,13 @@
         <v>2400</v>
       </c>
       <c r="K1034" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1034" t="n">
         <v>800</v>
       </c>
       <c r="M1034" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1034" t="n">
         <v>1</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1035" t="n">
         <v>4</v>
@@ -74877,16 +74877,16 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>1360</v>
+        <v>1460</v>
       </c>
       <c r="K1035" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1035" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1035" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1035" t="n">
         <v>1</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1036" t="n">
         <v>4</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K1036" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1036" t="n">
         <v>800</v>
       </c>
       <c r="M1036" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1036" t="n">
         <v>1</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1037" t="n">
         <v>4</v>
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="K1037" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1037" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1037" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1037" t="n">
         <v>1</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1038" t="n">
         <v>4</v>
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>3100</v>
+        <v>2400</v>
       </c>
       <c r="K1038" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1038" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1038" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1038" t="n">
         <v>1</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1039" t="n">
         <v>4</v>
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1039" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1039" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M1039" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q1039" t="n">
         <v>1</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1040" t="n">
         <v>4</v>
@@ -75237,16 +75237,16 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>3060</v>
+        <v>2400</v>
       </c>
       <c r="K1040" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1040" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1040" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1040" t="n">
         <v>1</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1041" t="n">
         <v>4</v>
@@ -75309,16 +75309,16 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>1640</v>
+        <v>1360</v>
       </c>
       <c r="K1041" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1041" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M1041" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q1041" t="n">
         <v>1</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1042" t="n">
         <v>4</v>
@@ -75381,16 +75381,16 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>2920</v>
+        <v>2200</v>
       </c>
       <c r="K1042" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1042" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1042" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1042" t="n">
         <v>1</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1043" t="n">
         <v>4</v>
@@ -75453,16 +75453,16 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>1600</v>
+        <v>1320</v>
       </c>
       <c r="K1043" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1043" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M1043" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q1043" t="n">
         <v>1</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1044" t="n">
         <v>4</v>
@@ -75525,16 +75525,16 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>3080</v>
+        <v>3100</v>
       </c>
       <c r="K1044" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1044" t="n">
         <v>700</v>
       </c>
-      <c r="L1044" t="n">
-        <v>800</v>
-      </c>
       <c r="M1044" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1044" t="n">
         <v>1</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1045" t="n">
         <v>4</v>
@@ -75600,13 +75600,13 @@
         <v>1600</v>
       </c>
       <c r="K1045" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1045" t="n">
         <v>550</v>
       </c>
-      <c r="L1045" t="n">
-        <v>600</v>
-      </c>
       <c r="M1045" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q1045" t="n">
         <v>1</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1046" t="n">
         <v>4</v>
@@ -75669,16 +75669,16 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>3040</v>
+        <v>3060</v>
       </c>
       <c r="K1046" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1046" t="n">
         <v>700</v>
       </c>
-      <c r="L1046" t="n">
-        <v>800</v>
-      </c>
       <c r="M1046" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1046" t="n">
         <v>1</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1047" t="n">
         <v>4</v>
@@ -75741,16 +75741,16 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>1660</v>
+        <v>1640</v>
       </c>
       <c r="K1047" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1047" t="n">
         <v>550</v>
       </c>
-      <c r="L1047" t="n">
-        <v>600</v>
-      </c>
       <c r="M1047" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q1047" t="n">
         <v>1</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -75816,13 +75816,13 @@
         <v>2920</v>
       </c>
       <c r="K1048" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1048" t="n">
         <v>700</v>
       </c>
-      <c r="L1048" t="n">
-        <v>800</v>
-      </c>
       <c r="M1048" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1049" t="n">
         <v>4</v>
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="K1049" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1049" t="n">
         <v>550</v>
       </c>
-      <c r="L1049" t="n">
-        <v>600</v>
-      </c>
       <c r="M1049" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1050" t="n">
         <v>4</v>
@@ -75957,16 +75957,16 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>3000</v>
+        <v>3080</v>
       </c>
       <c r="K1050" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1050" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1050" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1050" t="n">
         <v>1</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1051" t="n">
         <v>4</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1052" t="n">
         <v>4</v>
@@ -76101,16 +76101,16 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>2800</v>
+        <v>3040</v>
       </c>
       <c r="K1052" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1052" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1052" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1052" t="n">
         <v>1</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1053" t="n">
         <v>4</v>
@@ -76173,7 +76173,7 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>1540</v>
+        <v>1660</v>
       </c>
       <c r="K1053" t="n">
         <v>550</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1054" t="n">
         <v>4</v>
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>2600</v>
+        <v>2920</v>
       </c>
       <c r="K1054" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1054" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1054" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1054" t="n">
         <v>1</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1055" t="n">
         <v>4</v>
@@ -76317,7 +76317,7 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>1560</v>
+        <v>1640</v>
       </c>
       <c r="K1055" t="n">
         <v>550</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1056" t="n">
         <v>4</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K1056" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L1056" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1056" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q1056" t="n">
         <v>1</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1057" t="n">
         <v>4</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>1520</v>
+        <v>1600</v>
       </c>
       <c r="K1057" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1057" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1057" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1057" t="n">
         <v>1</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1058" t="n">
         <v>4</v>
@@ -76536,13 +76536,13 @@
         <v>2800</v>
       </c>
       <c r="K1058" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1058" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1058" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1058" t="n">
         <v>1</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1059" t="n">
         <v>4</v>
@@ -76605,16 +76605,16 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>1460</v>
+        <v>1540</v>
       </c>
       <c r="K1059" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1059" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1059" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1059" t="n">
         <v>1</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -76677,16 +76677,16 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K1060" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1060" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1060" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1060" t="n">
         <v>1</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1061" t="n">
         <v>4</v>
@@ -76749,16 +76749,16 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>1440</v>
+        <v>1560</v>
       </c>
       <c r="K1061" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1061" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1061" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1061" t="n">
         <v>1</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1062" t="n">
         <v>4</v>
@@ -76821,16 +76821,16 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K1062" t="n">
+        <v>850</v>
+      </c>
+      <c r="L1062" t="n">
         <v>900</v>
       </c>
-      <c r="L1062" t="n">
-        <v>1000</v>
-      </c>
       <c r="M1062" t="n">
-        <v>950</v>
+        <v>875</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>950</v>
+        <v>875</v>
       </c>
       <c r="Q1062" t="n">
         <v>1</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1063" t="n">
         <v>4</v>
@@ -76893,16 +76893,16 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>1360</v>
+        <v>1520</v>
       </c>
       <c r="K1063" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1063" t="n">
         <v>800</v>
       </c>
       <c r="M1063" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1064" t="n">
         <v>4</v>
@@ -76965,16 +76965,16 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1064" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1064" t="n">
         <v>800</v>
       </c>
-      <c r="L1064" t="n">
-        <v>900</v>
-      </c>
       <c r="M1064" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1065" t="n">
         <v>4</v>
@@ -77037,7 +77037,7 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>1360</v>
+        <v>1460</v>
       </c>
       <c r="K1065" t="n">
         <v>650</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1066" t="n">
         <v>4</v>
@@ -77105,20 +77105,20 @@
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="K1066" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1066" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1066" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1066" t="n">
         <v>1</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E1067" t="n">
         <v>4</v>
@@ -77172,25 +77172,25 @@
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>3000</v>
+        <v>1440</v>
       </c>
       <c r="K1067" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L1067" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M1067" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="Q1067" t="n">
         <v>1</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1068" t="n">
         <v>4</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K1068" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L1068" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1068" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q1068" t="n">
         <v>1</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1069" t="n">
         <v>4</v>
@@ -77316,25 +77316,25 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>2800</v>
+        <v>1360</v>
       </c>
       <c r="K1069" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1069" t="n">
         <v>800</v>
       </c>
       <c r="M1069" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1069" t="n">
         <v>1</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1070" t="n">
         <v>4</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="K1070" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L1070" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M1070" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1071" t="n">
         <v>4</v>
@@ -77460,25 +77460,25 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K1071" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1071" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1071" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1071" t="n">
         <v>1</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -77541,7 +77541,7 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K1072" t="n">
         <v>650</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1073" t="n">
         <v>4</v>
@@ -77613,16 +77613,16 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="K1073" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L1073" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1073" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q1073" t="n">
         <v>1</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1074" t="n">
         <v>4</v>
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K1074" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1074" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1074" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1074" t="n">
         <v>1</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1075" t="n">
         <v>4</v>
@@ -77760,13 +77760,13 @@
         <v>2800</v>
       </c>
       <c r="K1075" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1075" t="n">
         <v>800</v>
       </c>
       <c r="M1075" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1075" t="n">
         <v>1</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1076" t="n">
         <v>4</v>
@@ -77829,16 +77829,16 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="K1076" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1076" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1076" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1076" t="n">
         <v>1</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1077" t="n">
         <v>4</v>
@@ -77901,16 +77901,16 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K1077" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1077" t="n">
         <v>800</v>
       </c>
       <c r="M1077" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1078" t="n">
         <v>4</v>
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>1440</v>
+        <v>1500</v>
       </c>
       <c r="K1078" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1078" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1078" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1079" t="n">
         <v>4</v>
@@ -78045,7 +78045,7 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="K1079" t="n">
         <v>700</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1080" t="n">
         <v>4</v>
@@ -78117,16 +78117,16 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K1080" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1080" t="n">
         <v>600</v>
       </c>
-      <c r="L1080" t="n">
-        <v>650</v>
-      </c>
       <c r="M1080" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q1080" t="n">
         <v>1</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1081" t="n">
         <v>4</v>
@@ -78189,7 +78189,7 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>3060</v>
+        <v>2800</v>
       </c>
       <c r="K1081" t="n">
         <v>700</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -78261,16 +78261,16 @@
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>1640</v>
+        <v>1480</v>
       </c>
       <c r="K1082" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1082" t="n">
         <v>600</v>
       </c>
-      <c r="L1082" t="n">
-        <v>650</v>
-      </c>
       <c r="M1082" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q1082" t="n">
         <v>1</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -78333,7 +78333,7 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>2940</v>
+        <v>2500</v>
       </c>
       <c r="K1083" t="n">
         <v>700</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -78405,16 +78405,16 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="K1084" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1084" t="n">
         <v>600</v>
       </c>
-      <c r="L1084" t="n">
-        <v>650</v>
-      </c>
       <c r="M1084" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q1084" t="n">
         <v>1</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1085" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1085" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1085" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="Q1085" t="n">
         <v>1</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1086" t="n">
         <v>4</v>
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K1086" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L1086" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1086" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q1086" t="n">
         <v>1</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1087" t="n">
         <v>4</v>
@@ -78621,16 +78621,16 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>2400</v>
+        <v>3060</v>
       </c>
       <c r="K1087" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1087" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1087" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="Q1087" t="n">
         <v>1</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -78693,16 +78693,16 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>1340</v>
+        <v>1640</v>
       </c>
       <c r="K1088" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L1088" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1088" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q1088" t="n">
         <v>1</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -78756,7 +78756,7 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>2400</v>
+        <v>2940</v>
       </c>
       <c r="K1089" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1089" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1089" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="Q1089" t="n">
         <v>1</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -78828,7 +78828,7 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
@@ -78837,16 +78837,16 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K1090" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L1090" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1090" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q1090" t="n">
         <v>1</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -78900,7 +78900,7 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
@@ -78912,13 +78912,13 @@
         <v>2400</v>
       </c>
       <c r="K1091" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1091" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1091" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1092" t="n">
         <v>4</v>
@@ -78972,7 +78972,7 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
@@ -78981,16 +78981,16 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>1320</v>
+        <v>1360</v>
       </c>
       <c r="K1092" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1092" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1092" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1092" t="n">
         <v>1</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1093" t="n">
         <v>4</v>
@@ -79044,25 +79044,25 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>1260</v>
+        <v>2400</v>
       </c>
       <c r="K1093" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L1093" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1093" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="Q1093" t="n">
         <v>1</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -79116,25 +79116,25 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>2400</v>
+        <v>1340</v>
       </c>
       <c r="K1094" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1094" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1094" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="Q1094" t="n">
         <v>1</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1095" t="n">
         <v>4</v>
@@ -79193,20 +79193,20 @@
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>1360</v>
+        <v>2400</v>
       </c>
       <c r="K1095" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L1095" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1095" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q1095" t="n">
         <v>1</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -79260,25 +79260,25 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K1096" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1096" t="n">
         <v>800</v>
       </c>
-      <c r="L1096" t="n">
-        <v>900</v>
-      </c>
       <c r="M1096" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q1096" t="n">
         <v>1</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1097" t="n">
         <v>4</v>
@@ -79337,20 +79337,20 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>1360</v>
+        <v>2400</v>
       </c>
       <c r="K1097" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L1097" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1097" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="Q1097" t="n">
         <v>1</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E1098" t="n">
         <v>4</v>
@@ -79404,25 +79404,25 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>2200</v>
+        <v>1320</v>
       </c>
       <c r="K1098" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1098" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1098" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1098" t="n">
         <v>1</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E1099" t="n">
         <v>4</v>
@@ -79476,7 +79476,7 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
@@ -79485,16 +79485,16 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>1440</v>
+        <v>1260</v>
       </c>
       <c r="K1099" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1099" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1099" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1099" t="n">
         <v>1</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -79548,7 +79548,7 @@
       </c>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1100" t="inlineStr">
@@ -79557,16 +79557,16 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1100" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L1100" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M1100" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="Q1100" t="n">
         <v>1</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -79620,7 +79620,7 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
@@ -79632,13 +79632,13 @@
         <v>1360</v>
       </c>
       <c r="K1101" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L1101" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1101" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="Q1101" t="n">
         <v>1</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1102" t="n">
         <v>4</v>
@@ -79692,7 +79692,7 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
@@ -79701,16 +79701,16 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1102" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L1102" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1102" t="n">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="Q1102" t="n">
         <v>1</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -79764,7 +79764,7 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
@@ -79773,16 +79773,16 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K1103" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1103" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1103" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79795,7 +79795,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q1103" t="n">
         <v>1</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -79845,16 +79845,16 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K1104" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1104" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1104" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -79917,16 +79917,16 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="K1105" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1105" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1105" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1105" t="n">
         <v>1</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1106" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1106" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1106" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1107" t="n">
         <v>4</v>
@@ -80061,16 +80061,16 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K1107" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1107" t="n">
         <v>500</v>
       </c>
-      <c r="L1107" t="n">
-        <v>600</v>
-      </c>
       <c r="M1107" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q1107" t="n">
         <v>1</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1108" t="n">
         <v>4</v>
@@ -80133,16 +80133,16 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1108" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1108" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1108" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1108" t="n">
         <v>1</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1109" t="n">
         <v>4</v>
@@ -80205,16 +80205,16 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K1109" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1109" t="n">
         <v>500</v>
       </c>
-      <c r="L1109" t="n">
-        <v>600</v>
-      </c>
       <c r="M1109" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q1109" t="n">
         <v>1</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1110" t="n">
         <v>4</v>
@@ -80277,16 +80277,16 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1110" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1110" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1110" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -80349,16 +80349,16 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1111" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1111" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1111" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1111" t="n">
         <v>1</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -80421,16 +80421,16 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1112" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1112" t="n">
         <v>700</v>
       </c>
-      <c r="L1112" t="n">
-        <v>750</v>
-      </c>
       <c r="M1112" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1113" t="n">
         <v>4</v>
@@ -80493,16 +80493,16 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="K1113" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1113" t="n">
         <v>600</v>
       </c>
-      <c r="L1113" t="n">
-        <v>650</v>
-      </c>
       <c r="M1113" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1114" t="n">
         <v>4</v>
@@ -80565,16 +80565,16 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1114" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1114" t="n">
         <v>700</v>
       </c>
-      <c r="L1114" t="n">
-        <v>750</v>
-      </c>
       <c r="M1114" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1114" t="n">
         <v>1</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -80637,16 +80637,16 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K1115" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1115" t="n">
         <v>600</v>
       </c>
-      <c r="L1115" t="n">
-        <v>650</v>
-      </c>
       <c r="M1115" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q1115" t="n">
         <v>1</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -80709,16 +80709,16 @@
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K1116" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1116" t="n">
         <v>750</v>
       </c>
-      <c r="L1116" t="n">
-        <v>800</v>
-      </c>
       <c r="M1116" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1117" t="n">
         <v>4</v>
@@ -80781,16 +80781,16 @@
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K1117" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1117" t="n">
         <v>650</v>
       </c>
-      <c r="L1117" t="n">
-        <v>700</v>
-      </c>
       <c r="M1117" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1117" t="n">
         <v>1</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1118" t="n">
         <v>4</v>
@@ -80856,13 +80856,13 @@
         <v>2400</v>
       </c>
       <c r="K1118" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1118" t="n">
         <v>750</v>
       </c>
-      <c r="L1118" t="n">
-        <v>800</v>
-      </c>
       <c r="M1118" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1118" t="n">
         <v>1</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1119" t="n">
         <v>4</v>
@@ -80925,16 +80925,16 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>1460</v>
+        <v>1440</v>
       </c>
       <c r="K1119" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1119" t="n">
         <v>650</v>
       </c>
-      <c r="L1119" t="n">
-        <v>700</v>
-      </c>
       <c r="M1119" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1120" t="n">
         <v>4</v>
@@ -80997,16 +80997,16 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K1120" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1120" t="n">
         <v>750</v>
       </c>
-      <c r="L1120" t="n">
-        <v>800</v>
-      </c>
       <c r="M1120" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1121" t="n">
         <v>4</v>
@@ -81069,16 +81069,16 @@
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="K1121" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1121" t="n">
         <v>650</v>
       </c>
-      <c r="L1121" t="n">
-        <v>700</v>
-      </c>
       <c r="M1121" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1121" t="n">
         <v>1</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1122" t="n">
         <v>4</v>
@@ -81141,16 +81141,16 @@
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K1122" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L1122" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M1122" t="n">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="Q1122" t="n">
         <v>1</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1123" t="n">
         <v>4</v>
@@ -81213,16 +81213,16 @@
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K1123" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1123" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1123" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1123" t="n">
         <v>1</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1124" t="n">
         <v>4</v>
@@ -81285,16 +81285,16 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1124" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1124" t="n">
         <v>800</v>
       </c>
       <c r="M1124" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1124" t="n">
         <v>1</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1125" t="n">
         <v>4</v>
@@ -81357,16 +81357,16 @@
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K1125" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1125" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1125" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1125" t="n">
         <v>1</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1126" t="n">
         <v>4</v>
@@ -81429,16 +81429,16 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K1126" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1126" t="n">
         <v>800</v>
       </c>
       <c r="M1126" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1126" t="n">
         <v>1</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1127" t="n">
         <v>4</v>
@@ -81501,16 +81501,16 @@
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>1360</v>
+        <v>1440</v>
       </c>
       <c r="K1127" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1127" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1127" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1127" t="n">
         <v>1</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -81573,16 +81573,16 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1128" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L1128" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M1128" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81595,7 +81595,7 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q1128" t="n">
         <v>1</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1129" t="n">
         <v>4</v>
@@ -81648,13 +81648,13 @@
         <v>1400</v>
       </c>
       <c r="K1129" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1129" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1129" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1129" t="n">
         <v>1</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1130" t="n">
         <v>4</v>
@@ -81717,16 +81717,16 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1130" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1130" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1130" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1130" t="n">
         <v>1</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1131" t="n">
         <v>4</v>
@@ -81789,16 +81789,16 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K1131" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1131" t="n">
         <v>600</v>
       </c>
       <c r="M1131" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q1131" t="n">
         <v>1</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1132" t="n">
         <v>4</v>
@@ -81861,16 +81861,16 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1132" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1132" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1132" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81883,7 +81883,7 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1132" t="n">
         <v>1</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1133" t="n">
         <v>4</v>
@@ -81933,16 +81933,16 @@
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>1340</v>
+        <v>1360</v>
       </c>
       <c r="K1133" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1133" t="n">
         <v>600</v>
       </c>
       <c r="M1133" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q1133" t="n">
         <v>1</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1134" t="n">
         <v>4</v>
@@ -82005,7 +82005,7 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K1134" t="n">
         <v>650</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1135" t="n">
         <v>4</v>
@@ -82077,7 +82077,7 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1135" t="n">
         <v>550</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1136" t="n">
         <v>4</v>
@@ -82149,7 +82149,7 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K1136" t="n">
         <v>650</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1137" t="n">
         <v>4</v>
@@ -82221,7 +82221,7 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>1560</v>
+        <v>1360</v>
       </c>
       <c r="K1137" t="n">
         <v>550</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1138" t="n">
         <v>4</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1139" t="n">
         <v>4</v>
@@ -82365,7 +82365,7 @@
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="K1139" t="n">
         <v>550</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1140" t="n">
         <v>4</v>
@@ -82437,16 +82437,16 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="K1140" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1140" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1140" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1140" t="n">
         <v>1</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1141" t="n">
         <v>4</v>
@@ -82509,16 +82509,16 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>1680</v>
+        <v>1600</v>
       </c>
       <c r="K1141" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1141" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1141" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1141" t="n">
         <v>1</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1142" t="n">
         <v>4</v>
@@ -82581,16 +82581,16 @@
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="K1142" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1142" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1142" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1142" t="n">
         <v>1</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1143" t="n">
         <v>4</v>
@@ -82653,16 +82653,16 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K1143" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1143" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1143" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1143" t="n">
         <v>1</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1144" t="n">
         <v>4</v>
@@ -82725,16 +82725,16 @@
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1144" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1144" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1144" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1144" t="n">
         <v>1</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1145" t="n">
         <v>4</v>
@@ -82797,16 +82797,16 @@
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>1560</v>
+        <v>1360</v>
       </c>
       <c r="K1145" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1145" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1145" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82819,7 +82819,7 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1145" t="n">
         <v>1</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1146" t="n">
         <v>4</v>
@@ -82872,13 +82872,13 @@
         <v>3000</v>
       </c>
       <c r="K1146" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1146" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1146" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1146" t="n">
         <v>1</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1147" t="n">
         <v>4</v>
@@ -82941,16 +82941,16 @@
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>1460</v>
+        <v>1680</v>
       </c>
       <c r="K1147" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1147" t="n">
         <v>700</v>
       </c>
-      <c r="L1147" t="n">
-        <v>800</v>
-      </c>
       <c r="M1147" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1147" t="n">
         <v>1</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1148" t="n">
         <v>4</v>
@@ -83016,13 +83016,13 @@
         <v>3000</v>
       </c>
       <c r="K1148" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1148" t="n">
         <v>800</v>
       </c>
-      <c r="L1148" t="n">
-        <v>900</v>
-      </c>
       <c r="M1148" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83035,7 +83035,7 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q1148" t="n">
         <v>1</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1149" t="n">
         <v>4</v>
@@ -83085,16 +83085,16 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="K1149" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1149" t="n">
         <v>700</v>
       </c>
       <c r="M1149" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q1149" t="n">
         <v>1</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E1150" t="n">
         <v>4</v>
@@ -83148,7 +83148,7 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E1151" t="n">
         <v>4</v>
@@ -83220,7 +83220,7 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1152" t="n">
         <v>4</v>
@@ -83292,7 +83292,7 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
@@ -83301,16 +83301,16 @@
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1152" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1152" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1152" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1152" t="n">
         <v>1</v>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1153" t="n">
         <v>4</v>
@@ -83364,7 +83364,7 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
@@ -83373,16 +83373,16 @@
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K1153" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1153" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1153" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83395,7 +83395,7 @@
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1153" t="n">
         <v>1</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1154" t="n">
         <v>4</v>
@@ -83436,7 +83436,7 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
@@ -83445,16 +83445,16 @@
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K1154" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1154" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1154" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
@@ -83467,7 +83467,7 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q1154" t="n">
         <v>1</v>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1155" t="n">
         <v>4</v>
@@ -83508,7 +83508,7 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
@@ -83517,16 +83517,16 @@
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>1520</v>
+        <v>1440</v>
       </c>
       <c r="K1155" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1155" t="n">
         <v>700</v>
       </c>
       <c r="M1155" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83539,7 +83539,7 @@
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1155" t="n">
         <v>1</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1156" t="n">
         <v>4</v>
@@ -83592,13 +83592,13 @@
         <v>2800</v>
       </c>
       <c r="K1156" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1156" t="n">
         <v>800</v>
       </c>
       <c r="M1156" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83611,7 +83611,7 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1156" t="n">
         <v>1</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1157" t="n">
         <v>4</v>
@@ -83661,16 +83661,16 @@
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="K1157" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1157" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1157" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
@@ -83683,7 +83683,7 @@
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1157" t="n">
         <v>1</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1158" t="n">
         <v>4</v>
@@ -83733,16 +83733,16 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>2760</v>
+        <v>2800</v>
       </c>
       <c r="K1158" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1158" t="n">
         <v>800</v>
       </c>
       <c r="M1158" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83755,7 +83755,7 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1158" t="n">
         <v>1</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1159" t="n">
         <v>4</v>
@@ -83805,16 +83805,16 @@
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="K1159" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1159" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1159" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
@@ -83827,7 +83827,7 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1159" t="n">
         <v>1</v>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1160" t="n">
         <v>4</v>
@@ -83877,16 +83877,16 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>2460</v>
+        <v>2600</v>
       </c>
       <c r="K1160" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1160" t="n">
         <v>800</v>
       </c>
       <c r="M1160" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83899,7 +83899,7 @@
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1160" t="n">
         <v>1</v>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1161" t="n">
         <v>4</v>
@@ -83949,16 +83949,16 @@
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>1440</v>
+        <v>1520</v>
       </c>
       <c r="K1161" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1161" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1161" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1161" t="n">
         <v>1</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1162" t="n">
         <v>4</v>
@@ -84021,16 +84021,16 @@
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1162" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1162" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1162" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="Q1162" t="n">
         <v>1</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1163" t="n">
         <v>4</v>
@@ -84093,16 +84093,16 @@
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K1163" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1163" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1163" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1163" t="n">
         <v>1</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1164" t="n">
         <v>4</v>
@@ -84165,16 +84165,16 @@
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>2400</v>
+        <v>2760</v>
       </c>
       <c r="K1164" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1164" t="n">
         <v>800</v>
       </c>
       <c r="M1164" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1164" t="n">
         <v>1</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1165" t="n">
         <v>4</v>
@@ -84237,16 +84237,16 @@
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>1320</v>
+        <v>1480</v>
       </c>
       <c r="K1165" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1165" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1165" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
@@ -84259,7 +84259,7 @@
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1165" t="n">
         <v>1</v>
@@ -84285,58 +84285,490 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1166" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1166" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1166" t="n">
+        <v>2460</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1166" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1166" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1166" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1166" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1167" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1167" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1167" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1167" t="n">
+        <v>1440</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>575</v>
+      </c>
+      <c r="N1167" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1167" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1167" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1167" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1168" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E1166" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1166" t="n">
-        <v>100112006</v>
-      </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>Repollo</t>
-        </is>
-      </c>
-      <c r="H1166" t="inlineStr">
+      <c r="E1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1168" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1168" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1168" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>900</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>950</v>
+      </c>
+      <c r="N1168" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1168" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1168" t="n">
+        <v>950</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1168" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1169" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1169" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1169" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1169" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1169" t="n">
+        <v>1360</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1169" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1169" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1169" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1169" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1170" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1170" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1170" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1170" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>775</v>
+      </c>
+      <c r="N1170" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1170" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1170" t="n">
+        <v>775</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1170" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1171" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1171" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1171" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1171" t="n">
+        <v>1320</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>675</v>
+      </c>
+      <c r="N1171" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1171" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1171" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1171" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1172" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1172" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1172" t="inlineStr">
         <is>
           <t>Morada(o)</t>
         </is>
       </c>
-      <c r="I1166" t="inlineStr">
+      <c r="I1172" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1166" t="n">
+      <c r="J1172" t="n">
         <v>1260</v>
       </c>
-      <c r="K1166" t="n">
+      <c r="K1172" t="n">
         <v>650</v>
       </c>
-      <c r="L1166" t="n">
+      <c r="L1172" t="n">
         <v>700</v>
       </c>
-      <c r="M1166" t="n">
+      <c r="M1172" t="n">
         <v>675</v>
       </c>
-      <c r="N1166" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1166" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P1166" t="n">
+      <c r="N1172" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1172" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1172" t="n">
         <v>675</v>
       </c>
-      <c r="Q1166" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1166" t="inlineStr">
+      <c r="Q1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1172" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1216"/>
+  <dimension ref="A1:R1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1070" t="n">
         <v>4</v>
@@ -77397,16 +77397,16 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1070" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1070" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1070" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1071" t="n">
         <v>4</v>
@@ -77469,16 +77469,16 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K1071" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1071" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1071" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q1071" t="n">
         <v>1</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -77541,16 +77541,16 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1072" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1072" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1072" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1072" t="n">
         <v>1</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1073" t="n">
         <v>4</v>
@@ -77616,13 +77616,13 @@
         <v>1400</v>
       </c>
       <c r="K1073" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1073" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1073" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1073" t="n">
         <v>1</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1074" t="n">
         <v>4</v>
@@ -77688,13 +77688,13 @@
         <v>2000</v>
       </c>
       <c r="K1074" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1074" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1074" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1074" t="n">
         <v>1</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1075" t="n">
         <v>4</v>
@@ -77757,16 +77757,16 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>1440</v>
+        <v>1000</v>
       </c>
       <c r="K1075" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1075" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1075" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q1075" t="n">
         <v>1</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1076" t="n">
         <v>4</v>
@@ -77829,16 +77829,16 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1076" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L1076" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M1076" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="Q1076" t="n">
         <v>1</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1077" t="n">
         <v>4</v>
@@ -77901,16 +77901,16 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1077" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L1077" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1077" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1078" t="n">
         <v>4</v>
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1078" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1078" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1078" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1079" t="n">
         <v>4</v>
@@ -78045,16 +78045,16 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K1079" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1079" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1079" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1079" t="n">
         <v>1</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1080" t="n">
         <v>4</v>
@@ -78120,13 +78120,13 @@
         <v>2000</v>
       </c>
       <c r="K1080" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1080" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1080" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1080" t="n">
         <v>1</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1081" t="n">
         <v>4</v>
@@ -78189,16 +78189,16 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="K1081" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1081" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1081" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1081" t="n">
         <v>1</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -78264,13 +78264,13 @@
         <v>2400</v>
       </c>
       <c r="K1082" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L1082" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1082" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="Q1082" t="n">
         <v>1</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -78336,13 +78336,13 @@
         <v>1400</v>
       </c>
       <c r="K1083" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1083" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1083" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1083" t="n">
         <v>1</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -78408,13 +78408,13 @@
         <v>2400</v>
       </c>
       <c r="K1084" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1084" t="n">
         <v>800</v>
       </c>
       <c r="M1084" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1084" t="n">
         <v>1</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>1360</v>
+        <v>1460</v>
       </c>
       <c r="K1085" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1085" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1085" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1085" t="n">
         <v>1</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1086" t="n">
         <v>4</v>
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K1086" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1086" t="n">
         <v>800</v>
       </c>
       <c r="M1086" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1086" t="n">
         <v>1</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1087" t="n">
         <v>4</v>
@@ -78621,16 +78621,16 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="K1087" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1087" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1087" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1087" t="n">
         <v>1</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -78693,16 +78693,16 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>3100</v>
+        <v>2400</v>
       </c>
       <c r="K1088" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1088" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1088" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1088" t="n">
         <v>1</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1089" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1089" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M1089" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q1089" t="n">
         <v>1</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -78837,16 +78837,16 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>3060</v>
+        <v>2400</v>
       </c>
       <c r="K1090" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1090" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1090" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1090" t="n">
         <v>1</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -78909,16 +78909,16 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>1640</v>
+        <v>1360</v>
       </c>
       <c r="K1091" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1091" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M1091" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1092" t="n">
         <v>4</v>
@@ -78981,16 +78981,16 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>2920</v>
+        <v>2200</v>
       </c>
       <c r="K1092" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1092" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1092" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1092" t="n">
         <v>1</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1093" t="n">
         <v>4</v>
@@ -79053,16 +79053,16 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>1600</v>
+        <v>1320</v>
       </c>
       <c r="K1093" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1093" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M1093" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q1093" t="n">
         <v>1</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -79125,16 +79125,16 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>3080</v>
+        <v>3100</v>
       </c>
       <c r="K1094" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1094" t="n">
         <v>700</v>
       </c>
-      <c r="L1094" t="n">
-        <v>800</v>
-      </c>
       <c r="M1094" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1094" t="n">
         <v>1</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1095" t="n">
         <v>4</v>
@@ -79200,13 +79200,13 @@
         <v>1600</v>
       </c>
       <c r="K1095" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1095" t="n">
         <v>550</v>
       </c>
-      <c r="L1095" t="n">
-        <v>600</v>
-      </c>
       <c r="M1095" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q1095" t="n">
         <v>1</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -79269,16 +79269,16 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>3040</v>
+        <v>3060</v>
       </c>
       <c r="K1096" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1096" t="n">
         <v>700</v>
       </c>
-      <c r="L1096" t="n">
-        <v>800</v>
-      </c>
       <c r="M1096" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1096" t="n">
         <v>1</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1097" t="n">
         <v>4</v>
@@ -79341,16 +79341,16 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>1660</v>
+        <v>1640</v>
       </c>
       <c r="K1097" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1097" t="n">
         <v>550</v>
       </c>
-      <c r="L1097" t="n">
-        <v>600</v>
-      </c>
       <c r="M1097" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q1097" t="n">
         <v>1</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1098" t="n">
         <v>4</v>
@@ -79416,13 +79416,13 @@
         <v>2920</v>
       </c>
       <c r="K1098" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1098" t="n">
         <v>700</v>
       </c>
-      <c r="L1098" t="n">
-        <v>800</v>
-      </c>
       <c r="M1098" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1098" t="n">
         <v>1</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1099" t="n">
         <v>4</v>
@@ -79485,16 +79485,16 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="K1099" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1099" t="n">
         <v>550</v>
       </c>
-      <c r="L1099" t="n">
-        <v>600</v>
-      </c>
       <c r="M1099" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q1099" t="n">
         <v>1</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -79557,16 +79557,16 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>3000</v>
+        <v>3080</v>
       </c>
       <c r="K1100" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1100" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1100" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1100" t="n">
         <v>1</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1102" t="n">
         <v>4</v>
@@ -79701,16 +79701,16 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>2800</v>
+        <v>3040</v>
       </c>
       <c r="K1102" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1102" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1102" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1102" t="n">
         <v>1</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -79773,7 +79773,7 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>1540</v>
+        <v>1660</v>
       </c>
       <c r="K1103" t="n">
         <v>550</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -79845,16 +79845,16 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>2600</v>
+        <v>2920</v>
       </c>
       <c r="K1104" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1104" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1104" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -79917,7 +79917,7 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>1560</v>
+        <v>1640</v>
       </c>
       <c r="K1105" t="n">
         <v>550</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K1106" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L1106" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1106" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1107" t="n">
         <v>4</v>
@@ -80061,16 +80061,16 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>1520</v>
+        <v>1600</v>
       </c>
       <c r="K1107" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1107" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1107" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1107" t="n">
         <v>1</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1108" t="n">
         <v>4</v>
@@ -80136,13 +80136,13 @@
         <v>2800</v>
       </c>
       <c r="K1108" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1108" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1108" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1108" t="n">
         <v>1</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1109" t="n">
         <v>4</v>
@@ -80205,16 +80205,16 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>1460</v>
+        <v>1540</v>
       </c>
       <c r="K1109" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1109" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1109" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1109" t="n">
         <v>1</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1110" t="n">
         <v>4</v>
@@ -80277,16 +80277,16 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K1110" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1110" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1110" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -80349,16 +80349,16 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>1440</v>
+        <v>1560</v>
       </c>
       <c r="K1111" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1111" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1111" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1111" t="n">
         <v>1</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -80421,16 +80421,16 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K1112" t="n">
+        <v>850</v>
+      </c>
+      <c r="L1112" t="n">
         <v>900</v>
       </c>
-      <c r="L1112" t="n">
-        <v>1000</v>
-      </c>
       <c r="M1112" t="n">
-        <v>950</v>
+        <v>875</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>950</v>
+        <v>875</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1113" t="n">
         <v>4</v>
@@ -80493,16 +80493,16 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>1360</v>
+        <v>1520</v>
       </c>
       <c r="K1113" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1113" t="n">
         <v>800</v>
       </c>
       <c r="M1113" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1114" t="n">
         <v>4</v>
@@ -80565,16 +80565,16 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1114" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1114" t="n">
         <v>800</v>
       </c>
-      <c r="L1114" t="n">
-        <v>900</v>
-      </c>
       <c r="M1114" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q1114" t="n">
         <v>1</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -80637,7 +80637,7 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>1360</v>
+        <v>1460</v>
       </c>
       <c r="K1115" t="n">
         <v>650</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="K1116" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1116" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1116" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E1117" t="n">
         <v>4</v>
@@ -80772,25 +80772,25 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>3000</v>
+        <v>1440</v>
       </c>
       <c r="K1117" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L1117" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M1117" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="Q1117" t="n">
         <v>1</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1118" t="n">
         <v>4</v>
@@ -80849,20 +80849,20 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K1118" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L1118" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1118" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q1118" t="n">
         <v>1</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1119" t="n">
         <v>4</v>
@@ -80916,25 +80916,25 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>2800</v>
+        <v>1360</v>
       </c>
       <c r="K1119" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1119" t="n">
         <v>800</v>
       </c>
       <c r="M1119" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1120" t="n">
         <v>4</v>
@@ -80993,20 +80993,20 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="K1120" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L1120" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M1120" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1121" t="n">
         <v>4</v>
@@ -81060,25 +81060,25 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K1121" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1121" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1121" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1121" t="n">
         <v>1</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1122" t="n">
         <v>4</v>
@@ -81141,7 +81141,7 @@
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K1122" t="n">
         <v>650</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1123" t="n">
         <v>4</v>
@@ -81213,16 +81213,16 @@
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="K1123" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L1123" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1123" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q1123" t="n">
         <v>1</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1124" t="n">
         <v>4</v>
@@ -81285,16 +81285,16 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K1124" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1124" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1124" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1124" t="n">
         <v>1</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1125" t="n">
         <v>4</v>
@@ -81360,13 +81360,13 @@
         <v>2800</v>
       </c>
       <c r="K1125" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1125" t="n">
         <v>800</v>
       </c>
       <c r="M1125" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1125" t="n">
         <v>1</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1126" t="n">
         <v>4</v>
@@ -81429,16 +81429,16 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="K1126" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1126" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1126" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1126" t="n">
         <v>1</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1127" t="n">
         <v>4</v>
@@ -81501,16 +81501,16 @@
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K1127" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1127" t="n">
         <v>800</v>
       </c>
       <c r="M1127" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1127" t="n">
         <v>1</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -81573,16 +81573,16 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>1440</v>
+        <v>1500</v>
       </c>
       <c r="K1128" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1128" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1128" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81595,7 +81595,7 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1128" t="n">
         <v>1</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1129" t="n">
         <v>4</v>
@@ -81645,7 +81645,7 @@
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="K1129" t="n">
         <v>700</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1130" t="n">
         <v>4</v>
@@ -81717,16 +81717,16 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K1130" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1130" t="n">
         <v>600</v>
       </c>
-      <c r="L1130" t="n">
-        <v>650</v>
-      </c>
       <c r="M1130" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q1130" t="n">
         <v>1</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1131" t="n">
         <v>4</v>
@@ -81789,7 +81789,7 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>3060</v>
+        <v>2800</v>
       </c>
       <c r="K1131" t="n">
         <v>700</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1132" t="n">
         <v>4</v>
@@ -81861,16 +81861,16 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>1640</v>
+        <v>1480</v>
       </c>
       <c r="K1132" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1132" t="n">
         <v>600</v>
       </c>
-      <c r="L1132" t="n">
-        <v>650</v>
-      </c>
       <c r="M1132" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81883,7 +81883,7 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q1132" t="n">
         <v>1</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1133" t="n">
         <v>4</v>
@@ -81933,7 +81933,7 @@
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>2940</v>
+        <v>2500</v>
       </c>
       <c r="K1133" t="n">
         <v>700</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1134" t="n">
         <v>4</v>
@@ -82005,16 +82005,16 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="K1134" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1134" t="n">
         <v>600</v>
       </c>
-      <c r="L1134" t="n">
-        <v>650</v>
-      </c>
       <c r="M1134" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q1134" t="n">
         <v>1</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1135" t="n">
         <v>4</v>
@@ -82077,16 +82077,16 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1135" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1135" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1135" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="Q1135" t="n">
         <v>1</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1136" t="n">
         <v>4</v>
@@ -82149,16 +82149,16 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K1136" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L1136" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1136" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q1136" t="n">
         <v>1</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1137" t="n">
         <v>4</v>
@@ -82221,16 +82221,16 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>2400</v>
+        <v>3060</v>
       </c>
       <c r="K1137" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1137" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1137" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82243,7 +82243,7 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="Q1137" t="n">
         <v>1</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1138" t="n">
         <v>4</v>
@@ -82293,16 +82293,16 @@
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>1340</v>
+        <v>1640</v>
       </c>
       <c r="K1138" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L1138" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1138" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82315,7 +82315,7 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q1138" t="n">
         <v>1</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E1139" t="n">
         <v>4</v>
@@ -82356,7 +82356,7 @@
       </c>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1139" t="inlineStr">
@@ -82365,16 +82365,16 @@
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>2400</v>
+        <v>2940</v>
       </c>
       <c r="K1139" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1139" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1139" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="Q1139" t="n">
         <v>1</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E1140" t="n">
         <v>4</v>
@@ -82428,7 +82428,7 @@
       </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1140" t="inlineStr">
@@ -82437,16 +82437,16 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K1140" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L1140" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1140" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q1140" t="n">
         <v>1</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1141" t="n">
         <v>4</v>
@@ -82500,7 +82500,7 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
@@ -82512,13 +82512,13 @@
         <v>2400</v>
       </c>
       <c r="K1141" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1141" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1141" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1141" t="n">
         <v>1</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1142" t="n">
         <v>4</v>
@@ -82572,7 +82572,7 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
@@ -82581,16 +82581,16 @@
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>1320</v>
+        <v>1360</v>
       </c>
       <c r="K1142" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1142" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1142" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1142" t="n">
         <v>1</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1143" t="n">
         <v>4</v>
@@ -82644,25 +82644,25 @@
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>1260</v>
+        <v>2400</v>
       </c>
       <c r="K1143" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L1143" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1143" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="Q1143" t="n">
         <v>1</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E1144" t="n">
         <v>4</v>
@@ -82716,25 +82716,25 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>2400</v>
+        <v>1340</v>
       </c>
       <c r="K1144" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1144" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1144" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="Q1144" t="n">
         <v>1</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1145" t="n">
         <v>4</v>
@@ -82793,20 +82793,20 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>1360</v>
+        <v>2400</v>
       </c>
       <c r="K1145" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L1145" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1145" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82819,7 +82819,7 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="Q1145" t="n">
         <v>1</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1146" t="n">
         <v>4</v>
@@ -82860,25 +82860,25 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K1146" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1146" t="n">
         <v>800</v>
       </c>
-      <c r="L1146" t="n">
-        <v>900</v>
-      </c>
       <c r="M1146" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q1146" t="n">
         <v>1</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1147" t="n">
         <v>4</v>
@@ -82937,20 +82937,20 @@
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>1360</v>
+        <v>2400</v>
       </c>
       <c r="K1147" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L1147" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1147" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="Q1147" t="n">
         <v>1</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E1148" t="n">
         <v>4</v>
@@ -83004,25 +83004,25 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>2200</v>
+        <v>1320</v>
       </c>
       <c r="K1148" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1148" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1148" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83035,7 +83035,7 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1148" t="n">
         <v>1</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E1149" t="n">
         <v>4</v>
@@ -83076,7 +83076,7 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -83085,16 +83085,16 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>1440</v>
+        <v>1260</v>
       </c>
       <c r="K1149" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1149" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1149" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1149" t="n">
         <v>1</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1150" t="n">
         <v>4</v>
@@ -83148,7 +83148,7 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
@@ -83157,16 +83157,16 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1150" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L1150" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M1150" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="Q1150" t="n">
         <v>1</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1151" t="n">
         <v>4</v>
@@ -83220,7 +83220,7 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
@@ -83232,13 +83232,13 @@
         <v>1360</v>
       </c>
       <c r="K1151" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L1151" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1151" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83251,7 +83251,7 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="Q1151" t="n">
         <v>1</v>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1152" t="n">
         <v>4</v>
@@ -83292,7 +83292,7 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
@@ -83301,16 +83301,16 @@
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1152" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L1152" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1152" t="n">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="Q1152" t="n">
         <v>1</v>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1153" t="n">
         <v>4</v>
@@ -83364,7 +83364,7 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
@@ -83373,16 +83373,16 @@
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K1153" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1153" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1153" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83395,7 +83395,7 @@
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q1153" t="n">
         <v>1</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1154" t="n">
         <v>4</v>
@@ -83445,16 +83445,16 @@
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K1154" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1154" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1154" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
@@ -83467,7 +83467,7 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1154" t="n">
         <v>1</v>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1155" t="n">
         <v>4</v>
@@ -83517,16 +83517,16 @@
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="K1155" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1155" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1155" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83539,7 +83539,7 @@
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1155" t="n">
         <v>1</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1156" t="n">
         <v>4</v>
@@ -83589,16 +83589,16 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1156" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1156" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1156" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83611,7 +83611,7 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1156" t="n">
         <v>1</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1157" t="n">
         <v>4</v>
@@ -83661,16 +83661,16 @@
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K1157" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1157" t="n">
         <v>500</v>
       </c>
-      <c r="L1157" t="n">
-        <v>600</v>
-      </c>
       <c r="M1157" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
@@ -83683,7 +83683,7 @@
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q1157" t="n">
         <v>1</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1158" t="n">
         <v>4</v>
@@ -83733,16 +83733,16 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1158" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1158" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1158" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83755,7 +83755,7 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1158" t="n">
         <v>1</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1159" t="n">
         <v>4</v>
@@ -83805,16 +83805,16 @@
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K1159" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1159" t="n">
         <v>500</v>
       </c>
-      <c r="L1159" t="n">
-        <v>600</v>
-      </c>
       <c r="M1159" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
@@ -83827,7 +83827,7 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q1159" t="n">
         <v>1</v>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1160" t="n">
         <v>4</v>
@@ -83877,16 +83877,16 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1160" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1160" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1160" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83899,7 +83899,7 @@
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1160" t="n">
         <v>1</v>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1161" t="n">
         <v>4</v>
@@ -83949,16 +83949,16 @@
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1161" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1161" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1161" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1161" t="n">
         <v>1</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1162" t="n">
         <v>4</v>
@@ -84021,16 +84021,16 @@
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1162" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1162" t="n">
         <v>700</v>
       </c>
-      <c r="L1162" t="n">
-        <v>750</v>
-      </c>
       <c r="M1162" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1162" t="n">
         <v>1</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1163" t="n">
         <v>4</v>
@@ -84093,16 +84093,16 @@
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="K1163" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1163" t="n">
         <v>600</v>
       </c>
-      <c r="L1163" t="n">
-        <v>650</v>
-      </c>
       <c r="M1163" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q1163" t="n">
         <v>1</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1164" t="n">
         <v>4</v>
@@ -84165,16 +84165,16 @@
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1164" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1164" t="n">
         <v>700</v>
       </c>
-      <c r="L1164" t="n">
-        <v>750</v>
-      </c>
       <c r="M1164" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1164" t="n">
         <v>1</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1165" t="n">
         <v>4</v>
@@ -84237,16 +84237,16 @@
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K1165" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1165" t="n">
         <v>600</v>
       </c>
-      <c r="L1165" t="n">
-        <v>650</v>
-      </c>
       <c r="M1165" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
@@ -84259,7 +84259,7 @@
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q1165" t="n">
         <v>1</v>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1166" t="n">
         <v>4</v>
@@ -84309,16 +84309,16 @@
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K1166" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1166" t="n">
         <v>750</v>
       </c>
-      <c r="L1166" t="n">
-        <v>800</v>
-      </c>
       <c r="M1166" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84331,7 +84331,7 @@
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1166" t="n">
         <v>1</v>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1167" t="n">
         <v>4</v>
@@ -84381,16 +84381,16 @@
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K1167" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1167" t="n">
         <v>650</v>
       </c>
-      <c r="L1167" t="n">
-        <v>700</v>
-      </c>
       <c r="M1167" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
@@ -84403,7 +84403,7 @@
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1167" t="n">
         <v>1</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1168" t="n">
         <v>4</v>
@@ -84456,13 +84456,13 @@
         <v>2400</v>
       </c>
       <c r="K1168" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1168" t="n">
         <v>750</v>
       </c>
-      <c r="L1168" t="n">
-        <v>800</v>
-      </c>
       <c r="M1168" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84475,7 +84475,7 @@
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1168" t="n">
         <v>1</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1169" t="n">
         <v>4</v>
@@ -84525,16 +84525,16 @@
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>1460</v>
+        <v>1440</v>
       </c>
       <c r="K1169" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1169" t="n">
         <v>650</v>
       </c>
-      <c r="L1169" t="n">
-        <v>700</v>
-      </c>
       <c r="M1169" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
@@ -84547,7 +84547,7 @@
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1169" t="n">
         <v>1</v>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1170" t="n">
         <v>4</v>
@@ -84597,16 +84597,16 @@
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K1170" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1170" t="n">
         <v>750</v>
       </c>
-      <c r="L1170" t="n">
-        <v>800</v>
-      </c>
       <c r="M1170" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
@@ -84619,7 +84619,7 @@
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1170" t="n">
         <v>1</v>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1171" t="n">
         <v>4</v>
@@ -84669,16 +84669,16 @@
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="K1171" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1171" t="n">
         <v>650</v>
       </c>
-      <c r="L1171" t="n">
-        <v>700</v>
-      </c>
       <c r="M1171" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
@@ -84691,7 +84691,7 @@
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1171" t="n">
         <v>1</v>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1172" t="n">
         <v>4</v>
@@ -84741,16 +84741,16 @@
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K1172" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L1172" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M1172" t="n">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
@@ -84763,7 +84763,7 @@
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="Q1172" t="n">
         <v>1</v>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1173" t="n">
         <v>4</v>
@@ -84813,16 +84813,16 @@
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K1173" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1173" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1173" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
@@ -84835,7 +84835,7 @@
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1173" t="n">
         <v>1</v>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1174" t="n">
         <v>4</v>
@@ -84885,16 +84885,16 @@
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1174" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1174" t="n">
         <v>800</v>
       </c>
       <c r="M1174" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
@@ -84907,7 +84907,7 @@
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1174" t="n">
         <v>1</v>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1175" t="n">
         <v>4</v>
@@ -84957,16 +84957,16 @@
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K1175" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1175" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1175" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
@@ -84979,7 +84979,7 @@
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1175" t="n">
         <v>1</v>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1176" t="n">
         <v>4</v>
@@ -85029,16 +85029,16 @@
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K1176" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1176" t="n">
         <v>800</v>
       </c>
       <c r="M1176" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
@@ -85051,7 +85051,7 @@
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1176" t="n">
         <v>1</v>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1177" t="n">
         <v>4</v>
@@ -85101,16 +85101,16 @@
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>1360</v>
+        <v>1440</v>
       </c>
       <c r="K1177" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1177" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1177" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
@@ -85123,7 +85123,7 @@
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1177" t="n">
         <v>1</v>
@@ -85149,7 +85149,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1178" t="n">
         <v>4</v>
@@ -85173,16 +85173,16 @@
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1178" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L1178" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M1178" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
@@ -85195,7 +85195,7 @@
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q1178" t="n">
         <v>1</v>
@@ -85221,7 +85221,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1179" t="n">
         <v>4</v>
@@ -85248,13 +85248,13 @@
         <v>1400</v>
       </c>
       <c r="K1179" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1179" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1179" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
@@ -85267,7 +85267,7 @@
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1179" t="n">
         <v>1</v>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1180" t="n">
         <v>4</v>
@@ -85317,16 +85317,16 @@
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1180" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1180" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1180" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1180" t="n">
         <v>1</v>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1181" t="n">
         <v>4</v>
@@ -85389,16 +85389,16 @@
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K1181" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1181" t="n">
         <v>600</v>
       </c>
       <c r="M1181" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
@@ -85411,7 +85411,7 @@
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q1181" t="n">
         <v>1</v>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1182" t="n">
         <v>4</v>
@@ -85461,16 +85461,16 @@
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1182" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1182" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1182" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
@@ -85483,7 +85483,7 @@
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1182" t="n">
         <v>1</v>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1183" t="n">
         <v>4</v>
@@ -85533,16 +85533,16 @@
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>1340</v>
+        <v>1360</v>
       </c>
       <c r="K1183" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1183" t="n">
         <v>600</v>
       </c>
       <c r="M1183" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85555,7 +85555,7 @@
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q1183" t="n">
         <v>1</v>
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1184" t="n">
         <v>4</v>
@@ -85605,7 +85605,7 @@
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K1184" t="n">
         <v>650</v>
@@ -85653,7 +85653,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1185" t="n">
         <v>4</v>
@@ -85677,7 +85677,7 @@
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1185" t="n">
         <v>550</v>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1186" t="n">
         <v>4</v>
@@ -85749,7 +85749,7 @@
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K1186" t="n">
         <v>650</v>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1187" t="n">
         <v>4</v>
@@ -85821,7 +85821,7 @@
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>1560</v>
+        <v>1360</v>
       </c>
       <c r="K1187" t="n">
         <v>550</v>
@@ -85869,7 +85869,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1188" t="n">
         <v>4</v>
@@ -85941,7 +85941,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1189" t="n">
         <v>4</v>
@@ -85965,7 +85965,7 @@
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="K1189" t="n">
         <v>550</v>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1190" t="n">
         <v>4</v>
@@ -86037,16 +86037,16 @@
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="K1190" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1190" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1190" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
@@ -86059,7 +86059,7 @@
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1190" t="n">
         <v>1</v>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1191" t="n">
         <v>4</v>
@@ -86109,16 +86109,16 @@
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>1680</v>
+        <v>1600</v>
       </c>
       <c r="K1191" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1191" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1191" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
@@ -86131,7 +86131,7 @@
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1191" t="n">
         <v>1</v>
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1192" t="n">
         <v>4</v>
@@ -86181,16 +86181,16 @@
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="K1192" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1192" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1192" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86203,7 +86203,7 @@
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1192" t="n">
         <v>1</v>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1193" t="n">
         <v>4</v>
@@ -86253,16 +86253,16 @@
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K1193" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1193" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1193" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
@@ -86275,7 +86275,7 @@
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1193" t="n">
         <v>1</v>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1194" t="n">
         <v>4</v>
@@ -86325,16 +86325,16 @@
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1194" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1194" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1194" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1194" t="n">
         <v>1</v>
@@ -86373,7 +86373,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1195" t="n">
         <v>4</v>
@@ -86397,16 +86397,16 @@
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>1560</v>
+        <v>1360</v>
       </c>
       <c r="K1195" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1195" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1195" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
@@ -86419,7 +86419,7 @@
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1195" t="n">
         <v>1</v>
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1196" t="n">
         <v>4</v>
@@ -86472,13 +86472,13 @@
         <v>3000</v>
       </c>
       <c r="K1196" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1196" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1196" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
@@ -86491,7 +86491,7 @@
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1196" t="n">
         <v>1</v>
@@ -86517,7 +86517,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1197" t="n">
         <v>4</v>
@@ -86541,16 +86541,16 @@
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>1460</v>
+        <v>1680</v>
       </c>
       <c r="K1197" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1197" t="n">
         <v>700</v>
       </c>
-      <c r="L1197" t="n">
-        <v>800</v>
-      </c>
       <c r="M1197" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
@@ -86563,7 +86563,7 @@
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1197" t="n">
         <v>1</v>
@@ -86589,7 +86589,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1198" t="n">
         <v>4</v>
@@ -86616,13 +86616,13 @@
         <v>3000</v>
       </c>
       <c r="K1198" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1198" t="n">
         <v>800</v>
       </c>
-      <c r="L1198" t="n">
-        <v>900</v>
-      </c>
       <c r="M1198" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
@@ -86635,7 +86635,7 @@
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q1198" t="n">
         <v>1</v>
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1199" t="n">
         <v>4</v>
@@ -86685,16 +86685,16 @@
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="K1199" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1199" t="n">
         <v>700</v>
       </c>
       <c r="M1199" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
@@ -86707,7 +86707,7 @@
         </is>
       </c>
       <c r="P1199" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q1199" t="n">
         <v>1</v>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E1200" t="n">
         <v>4</v>
@@ -86748,7 +86748,7 @@
       </c>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1200" t="inlineStr">
@@ -86805,7 +86805,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E1201" t="n">
         <v>4</v>
@@ -86820,7 +86820,7 @@
       </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1201" t="inlineStr">
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1202" t="n">
         <v>4</v>
@@ -86892,7 +86892,7 @@
       </c>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1202" t="inlineStr">
@@ -86901,16 +86901,16 @@
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1202" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1202" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1202" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
@@ -86923,7 +86923,7 @@
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1202" t="n">
         <v>1</v>
@@ -86949,7 +86949,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1203" t="n">
         <v>4</v>
@@ -86964,7 +86964,7 @@
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1203" t="inlineStr">
@@ -86973,16 +86973,16 @@
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K1203" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1203" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1203" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
@@ -86995,7 +86995,7 @@
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1203" t="n">
         <v>1</v>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1204" t="n">
         <v>4</v>
@@ -87036,7 +87036,7 @@
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1204" t="inlineStr">
@@ -87045,16 +87045,16 @@
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K1204" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1204" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1204" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
@@ -87067,7 +87067,7 @@
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q1204" t="n">
         <v>1</v>
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1205" t="n">
         <v>4</v>
@@ -87108,7 +87108,7 @@
       </c>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1205" t="inlineStr">
@@ -87117,16 +87117,16 @@
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>1520</v>
+        <v>1440</v>
       </c>
       <c r="K1205" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1205" t="n">
         <v>700</v>
       </c>
       <c r="M1205" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
@@ -87139,7 +87139,7 @@
         </is>
       </c>
       <c r="P1205" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1205" t="n">
         <v>1</v>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1206" t="n">
         <v>4</v>
@@ -87192,13 +87192,13 @@
         <v>2800</v>
       </c>
       <c r="K1206" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1206" t="n">
         <v>800</v>
       </c>
       <c r="M1206" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
@@ -87211,7 +87211,7 @@
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1206" t="n">
         <v>1</v>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1207" t="n">
         <v>4</v>
@@ -87261,16 +87261,16 @@
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="K1207" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1207" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1207" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
@@ -87283,7 +87283,7 @@
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1207" t="n">
         <v>1</v>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1208" t="n">
         <v>4</v>
@@ -87333,16 +87333,16 @@
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>2760</v>
+        <v>2800</v>
       </c>
       <c r="K1208" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1208" t="n">
         <v>800</v>
       </c>
       <c r="M1208" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
@@ -87355,7 +87355,7 @@
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1208" t="n">
         <v>1</v>
@@ -87381,7 +87381,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1209" t="n">
         <v>4</v>
@@ -87405,16 +87405,16 @@
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="K1209" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1209" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1209" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
@@ -87427,7 +87427,7 @@
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1209" t="n">
         <v>1</v>
@@ -87453,7 +87453,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1210" t="n">
         <v>4</v>
@@ -87477,16 +87477,16 @@
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>2460</v>
+        <v>2600</v>
       </c>
       <c r="K1210" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1210" t="n">
         <v>800</v>
       </c>
       <c r="M1210" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
@@ -87499,7 +87499,7 @@
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1210" t="n">
         <v>1</v>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1211" t="n">
         <v>4</v>
@@ -87549,16 +87549,16 @@
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>1440</v>
+        <v>1520</v>
       </c>
       <c r="K1211" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1211" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1211" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
@@ -87571,7 +87571,7 @@
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1211" t="n">
         <v>1</v>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1212" t="n">
         <v>4</v>
@@ -87621,16 +87621,16 @@
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1212" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1212" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1212" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
@@ -87643,7 +87643,7 @@
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="Q1212" t="n">
         <v>1</v>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1213" t="n">
         <v>4</v>
@@ -87693,16 +87693,16 @@
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K1213" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1213" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1213" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
@@ -87715,7 +87715,7 @@
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1213" t="n">
         <v>1</v>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1214" t="n">
         <v>4</v>
@@ -87765,16 +87765,16 @@
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>2400</v>
+        <v>2760</v>
       </c>
       <c r="K1214" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1214" t="n">
         <v>800</v>
       </c>
       <c r="M1214" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
@@ -87787,7 +87787,7 @@
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1214" t="n">
         <v>1</v>
@@ -87813,7 +87813,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1215" t="n">
         <v>4</v>
@@ -87837,16 +87837,16 @@
         </is>
       </c>
       <c r="J1215" t="n">
-        <v>1320</v>
+        <v>1480</v>
       </c>
       <c r="K1215" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1215" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1215" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
@@ -87859,7 +87859,7 @@
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1215" t="n">
         <v>1</v>
@@ -87885,58 +87885,490 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1216" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1216" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1216" t="n">
+        <v>2460</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1216" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1216" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1216" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1216" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1217" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1217" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1217" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1217" t="n">
+        <v>1440</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>575</v>
+      </c>
+      <c r="N1217" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1217" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1217" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1217" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1218" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E1216" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1216" t="n">
-        <v>100112006</v>
-      </c>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>Repollo</t>
-        </is>
-      </c>
-      <c r="H1216" t="inlineStr">
+      <c r="E1218" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1218" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1218" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1218" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>900</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>950</v>
+      </c>
+      <c r="N1218" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1218" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1218" t="n">
+        <v>950</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1218" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1219" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1219" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1219" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1219" t="n">
+        <v>1360</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1219" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1219" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1219" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1219" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1220" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1220" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1220" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1220" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>775</v>
+      </c>
+      <c r="N1220" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1220" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1220" t="n">
+        <v>775</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1220" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1221" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1221" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1221" t="n">
+        <v>1320</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>675</v>
+      </c>
+      <c r="N1221" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1221" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1221" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q1221" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1221" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1222" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1222" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1222" t="inlineStr">
         <is>
           <t>Morada(o)</t>
         </is>
       </c>
-      <c r="I1216" t="inlineStr">
+      <c r="I1222" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1216" t="n">
+      <c r="J1222" t="n">
         <v>1260</v>
       </c>
-      <c r="K1216" t="n">
+      <c r="K1222" t="n">
         <v>650</v>
       </c>
-      <c r="L1216" t="n">
+      <c r="L1222" t="n">
         <v>700</v>
       </c>
-      <c r="M1216" t="n">
+      <c r="M1222" t="n">
         <v>675</v>
       </c>
-      <c r="N1216" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1216" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P1216" t="n">
+      <c r="N1222" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1222" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1222" t="n">
         <v>675</v>
       </c>
-      <c r="Q1216" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1216" t="inlineStr">
+      <c r="Q1222" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1222" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1257"/>
+  <dimension ref="A1:R1263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1070" t="n">
         <v>4</v>
@@ -77397,16 +77397,16 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>3000</v>
+        <v>2520</v>
       </c>
       <c r="K1070" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1070" t="n">
         <v>800</v>
       </c>
-      <c r="L1070" t="n">
-        <v>900</v>
-      </c>
       <c r="M1070" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1071" t="n">
         <v>4</v>
@@ -77469,7 +77469,7 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K1071" t="n">
         <v>600</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -77541,7 +77541,7 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1072" t="n">
         <v>700</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1073" t="n">
         <v>4</v>
@@ -77613,16 +77613,16 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K1073" t="n">
         <v>500</v>
       </c>
       <c r="L1073" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M1073" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q1073" t="n">
         <v>1</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1074" t="n">
         <v>4</v>
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1074" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1074" t="n">
         <v>800</v>
       </c>
       <c r="M1074" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1074" t="n">
         <v>1</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1075" t="n">
         <v>4</v>
@@ -77757,16 +77757,16 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="K1075" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L1075" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1075" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q1075" t="n">
         <v>1</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1076" t="n">
         <v>4</v>
@@ -77832,13 +77832,13 @@
         <v>3000</v>
       </c>
       <c r="K1076" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1076" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1076" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q1076" t="n">
         <v>1</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1077" t="n">
         <v>4</v>
@@ -77901,16 +77901,16 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K1077" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1077" t="n">
         <v>700</v>
       </c>
       <c r="M1077" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1078" t="n">
         <v>4</v>
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K1078" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1078" t="n">
         <v>800</v>
       </c>
       <c r="M1078" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1079" t="n">
         <v>4</v>
@@ -78045,16 +78045,16 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K1079" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1079" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1079" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1079" t="n">
         <v>1</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1080" t="n">
         <v>4</v>
@@ -78120,13 +78120,13 @@
         <v>2800</v>
       </c>
       <c r="K1080" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1080" t="n">
         <v>800</v>
       </c>
       <c r="M1080" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1080" t="n">
         <v>1</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1081" t="n">
         <v>4</v>
@@ -78189,16 +78189,16 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K1081" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1081" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1081" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1081" t="n">
         <v>1</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -78261,7 +78261,7 @@
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1082" t="n">
         <v>750</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -78333,7 +78333,7 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K1083" t="n">
         <v>650</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -78405,16 +78405,16 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K1084" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1084" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1084" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1084" t="n">
         <v>1</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K1085" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1085" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1085" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1085" t="n">
         <v>1</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E1086" t="n">
         <v>4</v>
@@ -78540,7 +78540,7 @@
       </c>
       <c r="H1086" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1086" t="inlineStr">
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1086" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1086" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1086" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1086" t="n">
         <v>1</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E1087" t="n">
         <v>4</v>
@@ -78612,7 +78612,7 @@
       </c>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1087" t="inlineStr">
@@ -78621,16 +78621,16 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>1360</v>
+        <v>1460</v>
       </c>
       <c r="K1087" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1087" t="n">
         <v>700</v>
       </c>
-      <c r="L1087" t="n">
-        <v>800</v>
-      </c>
       <c r="M1087" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1087" t="n">
         <v>1</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -78684,7 +78684,7 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
@@ -78693,7 +78693,7 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1088" t="n">
         <v>750</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -78756,7 +78756,7 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
@@ -78765,7 +78765,7 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="K1089" t="n">
         <v>650</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -78828,16 +78828,16 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>1260</v>
+        <v>2400</v>
       </c>
       <c r="K1090" t="n">
         <v>650</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -78900,25 +78900,25 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="K1091" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1091" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1091" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1092" t="n">
         <v>4</v>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="K1092" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L1092" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M1092" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="Q1092" t="n">
         <v>1</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1093" t="n">
         <v>4</v>
@@ -79044,16 +79044,16 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>2440</v>
+        <v>1360</v>
       </c>
       <c r="K1093" t="n">
         <v>700</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -79121,20 +79121,20 @@
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="K1094" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1094" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1094" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1094" t="n">
         <v>1</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1095" t="n">
         <v>4</v>
@@ -79188,25 +79188,25 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>2300</v>
+        <v>1320</v>
       </c>
       <c r="K1095" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1095" t="n">
         <v>700</v>
       </c>
-      <c r="L1095" t="n">
-        <v>800</v>
-      </c>
       <c r="M1095" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1095" t="n">
         <v>1</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -79269,16 +79269,16 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>1300</v>
+        <v>1260</v>
       </c>
       <c r="K1096" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1096" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1096" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1096" t="n">
         <v>1</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1097" t="n">
         <v>4</v>
@@ -79341,7 +79341,7 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1097" t="n">
         <v>700</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1098" t="n">
         <v>4</v>
@@ -79413,16 +79413,16 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1098" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1098" t="n">
         <v>600</v>
       </c>
       <c r="M1098" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1098" t="n">
         <v>1</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1099" t="n">
         <v>4</v>
@@ -79485,7 +79485,7 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>3000</v>
+        <v>2440</v>
       </c>
       <c r="K1099" t="n">
         <v>700</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -79557,16 +79557,16 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1100" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1100" t="n">
         <v>600</v>
       </c>
       <c r="M1100" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1100" t="n">
         <v>1</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -79629,7 +79629,7 @@
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="K1101" t="n">
         <v>700</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1102" t="n">
         <v>4</v>
@@ -79701,16 +79701,16 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K1102" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1102" t="n">
         <v>600</v>
       </c>
       <c r="M1102" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1102" t="n">
         <v>1</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -79773,16 +79773,16 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1103" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1103" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M1103" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79795,7 +79795,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q1103" t="n">
         <v>1</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -79845,16 +79845,16 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1104" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1104" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1104" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -79917,7 +79917,7 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K1105" t="n">
         <v>700</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -79989,7 +79989,7 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1106" t="n">
         <v>500</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1107" t="n">
         <v>4</v>
@@ -80061,7 +80061,7 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1107" t="n">
         <v>700</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1108" t="n">
         <v>4</v>
@@ -80133,7 +80133,7 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K1108" t="n">
         <v>500</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1109" t="n">
         <v>4</v>
@@ -80205,16 +80205,16 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1109" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L1109" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1109" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q1109" t="n">
         <v>1</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1110" t="n">
         <v>4</v>
@@ -80277,16 +80277,16 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>1340</v>
+        <v>1400</v>
       </c>
       <c r="K1110" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L1110" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1110" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -80349,16 +80349,16 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1111" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1111" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1111" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1111" t="n">
         <v>1</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -80421,16 +80421,16 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>1340</v>
+        <v>1400</v>
       </c>
       <c r="K1112" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1112" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1112" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1113" t="n">
         <v>4</v>
@@ -80496,13 +80496,13 @@
         <v>2000</v>
       </c>
       <c r="K1113" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1113" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1113" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1114" t="n">
         <v>4</v>
@@ -80565,16 +80565,16 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K1114" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1114" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1114" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1114" t="n">
         <v>1</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -80709,7 +80709,7 @@
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="K1116" t="n">
         <v>450</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1117" t="n">
         <v>4</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1118" t="n">
         <v>4</v>
@@ -80853,7 +80853,7 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="K1118" t="n">
         <v>450</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1119" t="n">
         <v>4</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1120" t="n">
         <v>4</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1121" t="n">
         <v>4</v>
@@ -81069,16 +81069,16 @@
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1121" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L1121" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M1121" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="Q1121" t="n">
         <v>1</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1122" t="n">
         <v>4</v>
@@ -81144,13 +81144,13 @@
         <v>1360</v>
       </c>
       <c r="K1122" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1122" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1122" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1122" t="n">
         <v>1</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1123" t="n">
         <v>4</v>
@@ -81213,16 +81213,16 @@
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1123" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L1123" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M1123" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="Q1123" t="n">
         <v>1</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1124" t="n">
         <v>4</v>
@@ -81285,16 +81285,16 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>1340</v>
+        <v>1300</v>
       </c>
       <c r="K1124" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1124" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1124" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1124" t="n">
         <v>1</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E1125" t="n">
         <v>4</v>
@@ -81348,7 +81348,7 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
@@ -81357,16 +81357,16 @@
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1125" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1125" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1125" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1125" t="n">
         <v>1</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E1126" t="n">
         <v>4</v>
@@ -81420,7 +81420,7 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
@@ -81429,16 +81429,16 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>1680</v>
+        <v>1300</v>
       </c>
       <c r="K1126" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1126" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1126" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1126" t="n">
         <v>1</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1127" t="n">
         <v>4</v>
@@ -81492,7 +81492,7 @@
       </c>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1127" t="inlineStr">
@@ -81501,16 +81501,16 @@
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1127" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1127" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1127" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1127" t="n">
         <v>1</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -81564,7 +81564,7 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -81573,16 +81573,16 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K1128" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1128" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1128" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81595,7 +81595,7 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1128" t="n">
         <v>1</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1129" t="n">
         <v>4</v>
@@ -81636,7 +81636,7 @@
       </c>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
@@ -81645,16 +81645,16 @@
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1129" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1129" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1129" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1129" t="n">
         <v>1</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1130" t="n">
         <v>4</v>
@@ -81708,7 +81708,7 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
@@ -81717,16 +81717,16 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>1560</v>
+        <v>1340</v>
       </c>
       <c r="K1130" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1130" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1130" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1130" t="n">
         <v>1</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1131" t="n">
         <v>4</v>
@@ -81789,7 +81789,7 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1131" t="n">
         <v>750</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1132" t="n">
         <v>4</v>
@@ -81861,7 +81861,7 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>1400</v>
+        <v>1680</v>
       </c>
       <c r="K1132" t="n">
         <v>650</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1133" t="n">
         <v>4</v>
@@ -81933,16 +81933,16 @@
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1133" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1133" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1133" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1133" t="n">
         <v>1</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1134" t="n">
         <v>4</v>
@@ -82005,16 +82005,16 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1134" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1134" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1134" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1134" t="n">
         <v>1</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1135" t="n">
         <v>4</v>
@@ -82077,16 +82077,16 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1135" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1135" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1135" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1135" t="n">
         <v>1</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1136" t="n">
         <v>4</v>
@@ -82149,16 +82149,16 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>1360</v>
+        <v>1560</v>
       </c>
       <c r="K1136" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1136" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1136" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1136" t="n">
         <v>1</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1137" t="n">
         <v>4</v>
@@ -82221,16 +82221,16 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1137" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1137" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1137" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82243,7 +82243,7 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1137" t="n">
         <v>1</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1138" t="n">
         <v>4</v>
@@ -82293,16 +82293,16 @@
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>1660</v>
+        <v>1400</v>
       </c>
       <c r="K1138" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1138" t="n">
         <v>700</v>
       </c>
-      <c r="L1138" t="n">
-        <v>800</v>
-      </c>
       <c r="M1138" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82315,7 +82315,7 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1138" t="n">
         <v>1</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1139" t="n">
         <v>4</v>
@@ -82365,16 +82365,16 @@
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1139" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L1139" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1139" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q1139" t="n">
         <v>1</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1140" t="n">
         <v>4</v>
@@ -82437,16 +82437,16 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K1140" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1140" t="n">
         <v>600</v>
       </c>
-      <c r="L1140" t="n">
-        <v>700</v>
-      </c>
       <c r="M1140" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q1140" t="n">
         <v>1</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1141" t="n">
         <v>4</v>
@@ -82500,7 +82500,7 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
@@ -82509,16 +82509,16 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1141" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1141" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1141" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1141" t="n">
         <v>1</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1142" t="n">
         <v>4</v>
@@ -82572,7 +82572,7 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
@@ -82581,16 +82581,16 @@
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K1142" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1142" t="n">
         <v>600</v>
       </c>
-      <c r="L1142" t="n">
-        <v>700</v>
-      </c>
       <c r="M1142" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q1142" t="n">
         <v>1</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1143" t="n">
         <v>4</v>
@@ -82644,7 +82644,7 @@
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1143" t="inlineStr">
@@ -82653,16 +82653,16 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1143" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L1143" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1143" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="Q1143" t="n">
         <v>1</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1144" t="n">
         <v>4</v>
@@ -82716,7 +82716,7 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
@@ -82725,16 +82725,16 @@
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>1400</v>
+        <v>1660</v>
       </c>
       <c r="K1144" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1144" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1144" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q1144" t="n">
         <v>1</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1145" t="n">
         <v>4</v>
@@ -82788,7 +82788,7 @@
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
@@ -82797,16 +82797,16 @@
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1145" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1145" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1145" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82819,7 +82819,7 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q1145" t="n">
         <v>1</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1146" t="n">
         <v>4</v>
@@ -82860,7 +82860,7 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
@@ -82869,7 +82869,7 @@
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>1100</v>
+        <v>1560</v>
       </c>
       <c r="K1146" t="n">
         <v>600</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1147" t="n">
         <v>4</v>
@@ -82941,16 +82941,16 @@
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="K1147" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1147" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1147" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1147" t="n">
         <v>1</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1148" t="n">
         <v>4</v>
@@ -83013,16 +83013,16 @@
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>608</v>
+        <v>1600</v>
       </c>
       <c r="K1148" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1148" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1148" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83035,7 +83035,7 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q1148" t="n">
         <v>1</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1149" t="n">
         <v>4</v>
@@ -83085,16 +83085,16 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="K1149" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1149" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1149" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1149" t="n">
         <v>1</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1150" t="n">
         <v>4</v>
@@ -83157,16 +83157,16 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="K1150" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1150" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1150" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1150" t="n">
         <v>1</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1151" t="n">
         <v>4</v>
@@ -83220,7 +83220,7 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1152" t="n">
         <v>4</v>
@@ -83292,7 +83292,7 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
@@ -83301,16 +83301,16 @@
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K1152" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1152" t="n">
         <v>700</v>
       </c>
       <c r="M1152" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1152" t="n">
         <v>1</v>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1153" t="n">
         <v>4</v>
@@ -83364,7 +83364,7 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
@@ -83373,16 +83373,16 @@
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="K1153" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1153" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1153" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83395,7 +83395,7 @@
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1153" t="n">
         <v>1</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1154" t="n">
         <v>4</v>
@@ -83436,7 +83436,7 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
@@ -83445,16 +83445,16 @@
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>1400</v>
+        <v>608</v>
       </c>
       <c r="K1154" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L1154" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1154" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
@@ -83467,7 +83467,7 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q1154" t="n">
         <v>1</v>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1155" t="n">
         <v>4</v>
@@ -83508,7 +83508,7 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
@@ -83517,16 +83517,16 @@
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K1155" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1155" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1155" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83539,7 +83539,7 @@
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1155" t="n">
         <v>1</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1156" t="n">
         <v>4</v>
@@ -83580,7 +83580,7 @@
       </c>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1156" t="inlineStr">
@@ -83589,16 +83589,16 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K1156" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1156" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1156" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83611,7 +83611,7 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1156" t="n">
         <v>1</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1157" t="n">
         <v>4</v>
@@ -83661,16 +83661,16 @@
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1157" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1157" t="n">
         <v>800</v>
       </c>
       <c r="M1157" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
@@ -83683,7 +83683,7 @@
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1157" t="n">
         <v>1</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1158" t="n">
         <v>4</v>
@@ -83733,16 +83733,16 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1158" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1158" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1158" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83755,7 +83755,7 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1158" t="n">
         <v>1</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1159" t="n">
         <v>4</v>
@@ -83805,16 +83805,16 @@
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1159" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1159" t="n">
         <v>700</v>
       </c>
-      <c r="L1159" t="n">
-        <v>800</v>
-      </c>
       <c r="M1159" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
@@ -83827,7 +83827,7 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1159" t="n">
         <v>1</v>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1160" t="n">
         <v>4</v>
@@ -83877,7 +83877,7 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>1660</v>
+        <v>1400</v>
       </c>
       <c r="K1160" t="n">
         <v>550</v>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1161" t="n">
         <v>4</v>
@@ -83949,16 +83949,16 @@
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1161" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1161" t="n">
         <v>800</v>
       </c>
       <c r="M1161" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1161" t="n">
         <v>1</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1162" t="n">
         <v>4</v>
@@ -84021,16 +84021,16 @@
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K1162" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1162" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1162" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1162" t="n">
         <v>1</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1163" t="n">
         <v>4</v>
@@ -84093,16 +84093,16 @@
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1163" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1163" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M1163" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q1163" t="n">
         <v>1</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1164" t="n">
         <v>4</v>
@@ -84165,16 +84165,16 @@
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K1164" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1164" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1164" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1164" t="n">
         <v>1</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1165" t="n">
         <v>4</v>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1166" t="n">
         <v>4</v>
@@ -84309,16 +84309,16 @@
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>1400</v>
+        <v>1660</v>
       </c>
       <c r="K1166" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1166" t="n">
         <v>600</v>
       </c>
       <c r="M1166" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84331,7 +84331,7 @@
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1166" t="n">
         <v>1</v>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1167" t="n">
         <v>4</v>
@@ -84381,7 +84381,7 @@
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1167" t="n">
         <v>700</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1168" t="n">
         <v>4</v>
@@ -84453,16 +84453,16 @@
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>1340</v>
+        <v>1600</v>
       </c>
       <c r="K1168" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1168" t="n">
         <v>600</v>
       </c>
       <c r="M1168" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84475,7 +84475,7 @@
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1168" t="n">
         <v>1</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1169" t="n">
         <v>4</v>
@@ -84525,16 +84525,16 @@
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="K1169" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L1169" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M1169" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
@@ -84547,7 +84547,7 @@
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q1169" t="n">
         <v>1</v>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1170" t="n">
         <v>4</v>
@@ -84597,16 +84597,16 @@
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K1170" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1170" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M1170" t="n">
-        <v>525</v>
+        <v>750</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
@@ -84619,7 +84619,7 @@
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>525</v>
+        <v>750</v>
       </c>
       <c r="Q1170" t="n">
         <v>1</v>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1171" t="n">
         <v>4</v>
@@ -84669,16 +84669,16 @@
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>3060</v>
+        <v>3000</v>
       </c>
       <c r="K1171" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1171" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1171" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
@@ -84691,7 +84691,7 @@
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1171" t="n">
         <v>1</v>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1172" t="n">
         <v>4</v>
@@ -84741,17 +84741,17 @@
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K1172" t="n">
         <v>500</v>
       </c>
       <c r="L1172" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1172" t="n">
         <v>550</v>
       </c>
-      <c r="M1172" t="n">
-        <v>525</v>
-      </c>
       <c r="N1172" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -84763,7 +84763,7 @@
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q1172" t="n">
         <v>1</v>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1173" t="n">
         <v>4</v>
@@ -84813,16 +84813,16 @@
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>2920</v>
+        <v>2400</v>
       </c>
       <c r="K1173" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1173" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1173" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
@@ -84835,7 +84835,7 @@
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1173" t="n">
         <v>1</v>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1174" t="n">
         <v>4</v>
@@ -84885,17 +84885,17 @@
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>1600</v>
+        <v>1340</v>
       </c>
       <c r="K1174" t="n">
         <v>500</v>
       </c>
       <c r="L1174" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1174" t="n">
         <v>550</v>
       </c>
-      <c r="M1174" t="n">
-        <v>525</v>
-      </c>
       <c r="N1174" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -84907,7 +84907,7 @@
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q1174" t="n">
         <v>1</v>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1175" t="n">
         <v>4</v>
@@ -84957,16 +84957,16 @@
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="K1175" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L1175" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1175" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
@@ -84979,7 +84979,7 @@
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q1175" t="n">
         <v>1</v>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1176" t="n">
         <v>4</v>
@@ -85029,16 +85029,16 @@
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1176" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1176" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M1176" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
@@ -85051,7 +85051,7 @@
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q1176" t="n">
         <v>1</v>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1177" t="n">
         <v>4</v>
@@ -85101,16 +85101,16 @@
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>2400</v>
+        <v>3060</v>
       </c>
       <c r="K1177" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1177" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1177" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
@@ -85123,7 +85123,7 @@
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1177" t="n">
         <v>1</v>
@@ -85149,7 +85149,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1178" t="n">
         <v>4</v>
@@ -85173,16 +85173,16 @@
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>1460</v>
+        <v>1640</v>
       </c>
       <c r="K1178" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1178" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M1178" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
@@ -85195,7 +85195,7 @@
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q1178" t="n">
         <v>1</v>
@@ -85221,7 +85221,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1179" t="n">
         <v>4</v>
@@ -85245,16 +85245,16 @@
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>2000</v>
+        <v>2920</v>
       </c>
       <c r="K1179" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1179" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1179" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
@@ -85267,7 +85267,7 @@
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1179" t="n">
         <v>1</v>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1180" t="n">
         <v>4</v>
@@ -85317,16 +85317,16 @@
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1180" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1180" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M1180" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q1180" t="n">
         <v>1</v>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1181" t="n">
         <v>4</v>
@@ -85389,16 +85389,16 @@
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>2840</v>
+        <v>2400</v>
       </c>
       <c r="K1181" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L1181" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M1181" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
@@ -85411,7 +85411,7 @@
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q1181" t="n">
         <v>1</v>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1182" t="n">
         <v>4</v>
@@ -85461,16 +85461,16 @@
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1182" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L1182" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M1182" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
@@ -85483,7 +85483,7 @@
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q1182" t="n">
         <v>1</v>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1183" t="n">
         <v>4</v>
@@ -85533,16 +85533,16 @@
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>3080</v>
+        <v>2400</v>
       </c>
       <c r="K1183" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1183" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1183" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85555,7 +85555,7 @@
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1183" t="n">
         <v>1</v>
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1184" t="n">
         <v>4</v>
@@ -85605,16 +85605,16 @@
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>1560</v>
+        <v>1460</v>
       </c>
       <c r="K1184" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1184" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M1184" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
@@ -85627,7 +85627,7 @@
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q1184" t="n">
         <v>1</v>
@@ -85653,7 +85653,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1185" t="n">
         <v>4</v>
@@ -85677,16 +85677,16 @@
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1185" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1185" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1185" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
@@ -85699,7 +85699,7 @@
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1185" t="n">
         <v>1</v>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1186" t="n">
         <v>4</v>
@@ -85749,16 +85749,16 @@
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1186" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1186" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M1186" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
@@ -85771,7 +85771,7 @@
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q1186" t="n">
         <v>1</v>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1187" t="n">
         <v>4</v>
@@ -85821,16 +85821,16 @@
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>2400</v>
+        <v>2840</v>
       </c>
       <c r="K1187" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1187" t="n">
         <v>700</v>
       </c>
-      <c r="L1187" t="n">
-        <v>750</v>
-      </c>
       <c r="M1187" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
@@ -85843,7 +85843,7 @@
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1187" t="n">
         <v>1</v>
@@ -85869,7 +85869,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1188" t="n">
         <v>4</v>
@@ -85893,16 +85893,16 @@
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1188" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1188" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M1188" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
@@ -85915,7 +85915,7 @@
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q1188" t="n">
         <v>1</v>
@@ -85941,7 +85941,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1189" t="n">
         <v>4</v>
@@ -85965,16 +85965,16 @@
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>2400</v>
+        <v>3080</v>
       </c>
       <c r="K1189" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1189" t="n">
         <v>700</v>
       </c>
-      <c r="L1189" t="n">
-        <v>750</v>
-      </c>
       <c r="M1189" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
@@ -85987,7 +85987,7 @@
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1189" t="n">
         <v>1</v>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1190" t="n">
         <v>4</v>
@@ -86037,16 +86037,16 @@
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>1440</v>
+        <v>1560</v>
       </c>
       <c r="K1190" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1190" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M1190" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
@@ -86059,7 +86059,7 @@
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q1190" t="n">
         <v>1</v>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1191" t="n">
         <v>4</v>
@@ -86109,16 +86109,16 @@
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1191" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1191" t="n">
         <v>700</v>
       </c>
-      <c r="L1191" t="n">
-        <v>750</v>
-      </c>
       <c r="M1191" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
@@ -86131,7 +86131,7 @@
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1191" t="n">
         <v>1</v>
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1192" t="n">
         <v>4</v>
@@ -86181,16 +86181,16 @@
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1192" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1192" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M1192" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86203,7 +86203,7 @@
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q1192" t="n">
         <v>1</v>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1193" t="n">
         <v>4</v>
@@ -86253,16 +86253,16 @@
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1193" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1193" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1193" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
@@ -86275,7 +86275,7 @@
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1193" t="n">
         <v>1</v>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1194" t="n">
         <v>4</v>
@@ -86325,16 +86325,16 @@
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K1194" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1194" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1194" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1194" t="n">
         <v>1</v>
@@ -86373,7 +86373,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1195" t="n">
         <v>4</v>
@@ -86397,16 +86397,16 @@
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1195" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1195" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1195" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
@@ -86419,7 +86419,7 @@
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1195" t="n">
         <v>1</v>
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1196" t="n">
         <v>4</v>
@@ -86469,16 +86469,16 @@
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="K1196" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1196" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1196" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
@@ -86491,7 +86491,7 @@
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1196" t="n">
         <v>1</v>
@@ -86517,7 +86517,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1197" t="n">
         <v>4</v>
@@ -86541,16 +86541,16 @@
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1197" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1197" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1197" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
@@ -86563,7 +86563,7 @@
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1197" t="n">
         <v>1</v>
@@ -86589,7 +86589,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1198" t="n">
         <v>4</v>
@@ -86613,16 +86613,16 @@
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1198" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1198" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1198" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
@@ -86635,7 +86635,7 @@
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1198" t="n">
         <v>1</v>
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1199" t="n">
         <v>4</v>
@@ -86685,7 +86685,7 @@
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1199" t="n">
         <v>650</v>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1200" t="n">
         <v>4</v>
@@ -86757,7 +86757,7 @@
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K1200" t="n">
         <v>550</v>
@@ -86805,7 +86805,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1201" t="n">
         <v>4</v>
@@ -86829,7 +86829,7 @@
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1201" t="n">
         <v>650</v>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1202" t="n">
         <v>4</v>
@@ -86901,7 +86901,7 @@
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1202" t="n">
         <v>550</v>
@@ -86949,7 +86949,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1203" t="n">
         <v>4</v>
@@ -86973,7 +86973,7 @@
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1203" t="n">
         <v>650</v>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1204" t="n">
         <v>4</v>
@@ -87045,7 +87045,7 @@
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K1204" t="n">
         <v>550</v>
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1205" t="n">
         <v>4</v>
@@ -87117,16 +87117,16 @@
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1205" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L1205" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M1205" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
@@ -87139,7 +87139,7 @@
         </is>
       </c>
       <c r="P1205" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="Q1205" t="n">
         <v>1</v>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1206" t="n">
         <v>4</v>
@@ -87189,16 +87189,16 @@
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1206" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1206" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1206" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
@@ -87211,7 +87211,7 @@
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1206" t="n">
         <v>1</v>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1207" t="n">
         <v>4</v>
@@ -87261,16 +87261,16 @@
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1207" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1207" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1207" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
@@ -87283,7 +87283,7 @@
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1207" t="n">
         <v>1</v>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1208" t="n">
         <v>4</v>
@@ -87333,16 +87333,16 @@
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1208" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1208" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1208" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
@@ -87355,7 +87355,7 @@
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1208" t="n">
         <v>1</v>
@@ -87381,7 +87381,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1209" t="n">
         <v>4</v>
@@ -87408,13 +87408,13 @@
         <v>2000</v>
       </c>
       <c r="K1209" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1209" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1209" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
@@ -87427,7 +87427,7 @@
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1209" t="n">
         <v>1</v>
@@ -87453,7 +87453,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1210" t="n">
         <v>4</v>
@@ -87477,16 +87477,16 @@
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>800</v>
+        <v>1360</v>
       </c>
       <c r="K1210" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1210" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1210" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
@@ -87499,7 +87499,7 @@
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1210" t="n">
         <v>1</v>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1211" t="n">
         <v>4</v>
@@ -87549,16 +87549,16 @@
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1211" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L1211" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M1211" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
@@ -87571,7 +87571,7 @@
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="Q1211" t="n">
         <v>1</v>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1212" t="n">
         <v>4</v>
@@ -87621,16 +87621,16 @@
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>1260</v>
+        <v>1600</v>
       </c>
       <c r="K1212" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L1212" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1212" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
@@ -87643,7 +87643,7 @@
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q1212" t="n">
         <v>1</v>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1213" t="n">
         <v>4</v>
@@ -87693,16 +87693,16 @@
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1213" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1213" t="n">
         <v>800</v>
       </c>
       <c r="M1213" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
@@ -87715,7 +87715,7 @@
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1213" t="n">
         <v>1</v>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1214" t="n">
         <v>4</v>
@@ -87765,16 +87765,16 @@
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="K1214" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1214" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1214" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
@@ -87787,7 +87787,7 @@
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1214" t="n">
         <v>1</v>
@@ -87813,7 +87813,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1215" t="n">
         <v>4</v>
@@ -87840,13 +87840,13 @@
         <v>2000</v>
       </c>
       <c r="K1215" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1215" t="n">
         <v>800</v>
       </c>
       <c r="M1215" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
@@ -87859,7 +87859,7 @@
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1215" t="n">
         <v>1</v>
@@ -87885,7 +87885,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1216" t="n">
         <v>4</v>
@@ -87909,16 +87909,16 @@
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>1280</v>
+        <v>800</v>
       </c>
       <c r="K1216" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1216" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1216" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
@@ -87931,7 +87931,7 @@
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1216" t="n">
         <v>1</v>
@@ -87957,7 +87957,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1217" t="n">
         <v>4</v>
@@ -87981,16 +87981,16 @@
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1217" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1217" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1217" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
@@ -88003,7 +88003,7 @@
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q1217" t="n">
         <v>1</v>
@@ -88029,7 +88029,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1218" t="n">
         <v>4</v>
@@ -88053,16 +88053,16 @@
         </is>
       </c>
       <c r="J1218" t="n">
-        <v>1600</v>
+        <v>1260</v>
       </c>
       <c r="K1218" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1218" t="n">
         <v>700</v>
       </c>
       <c r="M1218" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
@@ -88075,7 +88075,7 @@
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1218" t="n">
         <v>1</v>
@@ -88101,7 +88101,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1219" t="n">
         <v>4</v>
@@ -88125,16 +88125,16 @@
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1219" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1219" t="n">
         <v>800</v>
       </c>
       <c r="M1219" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
@@ -88147,7 +88147,7 @@
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1219" t="n">
         <v>1</v>
@@ -88173,7 +88173,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1220" t="n">
         <v>4</v>
@@ -88197,16 +88197,16 @@
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>1560</v>
+        <v>1280</v>
       </c>
       <c r="K1220" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1220" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1220" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
@@ -88219,7 +88219,7 @@
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1220" t="n">
         <v>1</v>
@@ -88245,7 +88245,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1221" t="n">
         <v>4</v>
@@ -88269,16 +88269,16 @@
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1221" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1221" t="n">
         <v>800</v>
       </c>
       <c r="M1221" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
@@ -88291,7 +88291,7 @@
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1221" t="n">
         <v>1</v>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1222" t="n">
         <v>4</v>
@@ -88341,16 +88341,16 @@
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="K1222" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1222" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1222" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
@@ -88363,7 +88363,7 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1222" t="n">
         <v>1</v>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1223" t="n">
         <v>4</v>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1224" t="n">
         <v>4</v>
@@ -88485,7 +88485,7 @@
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>1660</v>
+        <v>1600</v>
       </c>
       <c r="K1224" t="n">
         <v>650</v>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1225" t="n">
         <v>4</v>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1226" t="n">
         <v>4</v>
@@ -88629,7 +88629,7 @@
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K1226" t="n">
         <v>650</v>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1227" t="n">
         <v>4</v>
@@ -88701,7 +88701,7 @@
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1227" t="n">
         <v>750</v>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1228" t="n">
         <v>4</v>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1229" t="n">
         <v>4</v>
@@ -88845,16 +88845,16 @@
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1229" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1229" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1229" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
@@ -88867,7 +88867,7 @@
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1229" t="n">
         <v>1</v>
@@ -88893,7 +88893,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1230" t="n">
         <v>4</v>
@@ -88917,16 +88917,16 @@
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>1400</v>
+        <v>1660</v>
       </c>
       <c r="K1230" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1230" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1230" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
@@ -88939,7 +88939,7 @@
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1230" t="n">
         <v>1</v>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1231" t="n">
         <v>4</v>
@@ -88989,16 +88989,16 @@
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1231" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1231" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1231" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
@@ -89011,7 +89011,7 @@
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1231" t="n">
         <v>1</v>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1232" t="n">
         <v>4</v>
@@ -89061,16 +89061,16 @@
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="K1232" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1232" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1232" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
@@ -89083,7 +89083,7 @@
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1232" t="n">
         <v>1</v>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1233" t="n">
         <v>4</v>
@@ -89133,16 +89133,16 @@
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K1233" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1233" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1233" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
@@ -89155,7 +89155,7 @@
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1233" t="n">
         <v>1</v>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1234" t="n">
         <v>4</v>
@@ -89205,16 +89205,16 @@
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1234" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1234" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1234" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
@@ -89227,7 +89227,7 @@
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1234" t="n">
         <v>1</v>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1235" t="n">
         <v>4</v>
@@ -89277,16 +89277,16 @@
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1235" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1235" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M1235" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
@@ -89299,7 +89299,7 @@
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q1235" t="n">
         <v>1</v>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1236" t="n">
         <v>4</v>
@@ -89349,16 +89349,16 @@
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K1236" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L1236" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1236" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89371,7 +89371,7 @@
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="Q1236" t="n">
         <v>1</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1237" t="n">
         <v>4</v>
@@ -89421,16 +89421,16 @@
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1237" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1237" t="n">
         <v>750</v>
       </c>
-      <c r="L1237" t="n">
-        <v>800</v>
-      </c>
       <c r="M1237" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
@@ -89443,7 +89443,7 @@
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1237" t="n">
         <v>1</v>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1238" t="n">
         <v>4</v>
@@ -89493,16 +89493,16 @@
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="K1238" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1238" t="n">
         <v>650</v>
       </c>
-      <c r="L1238" t="n">
-        <v>700</v>
-      </c>
       <c r="M1238" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
@@ -89515,7 +89515,7 @@
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1238" t="n">
         <v>1</v>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1239" t="n">
         <v>4</v>
@@ -89565,16 +89565,16 @@
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K1239" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1239" t="n">
         <v>750</v>
       </c>
-      <c r="L1239" t="n">
-        <v>800</v>
-      </c>
       <c r="M1239" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89587,7 +89587,7 @@
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1239" t="n">
         <v>1</v>
@@ -89613,7 +89613,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1240" t="n">
         <v>4</v>
@@ -89628,25 +89628,25 @@
       </c>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="K1240" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L1240" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M1240" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
@@ -89659,7 +89659,7 @@
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="Q1240" t="n">
         <v>1</v>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1241" t="n">
         <v>4</v>
@@ -89705,20 +89705,20 @@
       </c>
       <c r="I1241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>1560</v>
+        <v>3000</v>
       </c>
       <c r="K1241" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L1241" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1241" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
@@ -89731,7 +89731,7 @@
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="Q1241" t="n">
         <v>1</v>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1242" t="n">
         <v>4</v>
@@ -89772,16 +89772,16 @@
       </c>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="K1242" t="n">
         <v>750</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1243" t="n">
         <v>4</v>
@@ -89849,20 +89849,20 @@
       </c>
       <c r="I1243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="K1243" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1243" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1243" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1243" t="n">
         <v>1</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1244" t="n">
         <v>4</v>
@@ -89916,25 +89916,25 @@
       </c>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="K1244" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1244" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1244" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89947,7 +89947,7 @@
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1244" t="n">
         <v>1</v>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1245" t="n">
         <v>4</v>
@@ -89993,20 +89993,20 @@
       </c>
       <c r="I1245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>1480</v>
+        <v>2400</v>
       </c>
       <c r="K1245" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1245" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1245" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90019,7 +90019,7 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1245" t="n">
         <v>1</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1246" t="n">
         <v>4</v>
@@ -90069,16 +90069,16 @@
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1246" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L1246" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1246" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
@@ -90091,7 +90091,7 @@
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q1246" t="n">
         <v>1</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1247" t="n">
         <v>4</v>
@@ -90141,16 +90141,16 @@
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>1460</v>
+        <v>1560</v>
       </c>
       <c r="K1247" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L1247" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1247" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90163,7 +90163,7 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q1247" t="n">
         <v>1</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1248" t="n">
         <v>4</v>
@@ -90213,16 +90213,16 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K1248" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1248" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1248" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90235,7 +90235,7 @@
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1248" t="n">
         <v>1</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1249" t="n">
         <v>4</v>
@@ -90285,16 +90285,16 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1249" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1249" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1249" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90307,7 +90307,7 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1249" t="n">
         <v>1</v>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1250" t="n">
         <v>4</v>
@@ -90357,16 +90357,16 @@
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1250" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1250" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1250" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
@@ -90379,7 +90379,7 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1250" t="n">
         <v>1</v>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1251" t="n">
         <v>4</v>
@@ -90429,16 +90429,16 @@
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K1251" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1251" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1251" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
@@ -90451,7 +90451,7 @@
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1251" t="n">
         <v>1</v>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1252" t="n">
         <v>4</v>
@@ -90501,16 +90501,16 @@
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1252" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1252" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1252" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
@@ -90523,7 +90523,7 @@
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1252" t="n">
         <v>1</v>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1253" t="n">
         <v>4</v>
@@ -90573,16 +90573,16 @@
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K1253" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L1253" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1253" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
@@ -90595,7 +90595,7 @@
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q1253" t="n">
         <v>1</v>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1254" t="n">
         <v>4</v>
@@ -90645,16 +90645,16 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K1254" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1254" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1254" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
@@ -90667,7 +90667,7 @@
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1254" t="n">
         <v>1</v>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1255" t="n">
         <v>4</v>
@@ -90720,13 +90720,13 @@
         <v>1400</v>
       </c>
       <c r="K1255" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1255" t="n">
         <v>500</v>
       </c>
-      <c r="L1255" t="n">
-        <v>600</v>
-      </c>
       <c r="M1255" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90739,7 +90739,7 @@
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q1255" t="n">
         <v>1</v>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1256" t="n">
         <v>4</v>
@@ -90792,13 +90792,13 @@
         <v>2000</v>
       </c>
       <c r="K1256" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1256" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1256" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90811,7 +90811,7 @@
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1256" t="n">
         <v>1</v>
@@ -90837,58 +90837,490 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1257" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1257" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1257" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1257" t="n">
+        <v>1440</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>475</v>
+      </c>
+      <c r="N1257" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1257" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1257" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q1257" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1257" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1258" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1257" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1257" t="n">
-        <v>100112006</v>
-      </c>
-      <c r="G1257" t="inlineStr">
-        <is>
-          <t>Repollo</t>
-        </is>
-      </c>
-      <c r="H1257" t="inlineStr">
+      <c r="E1258" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1258" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1258" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1258" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1258" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1258" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1258" t="n">
+        <v>775</v>
+      </c>
+      <c r="N1258" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1258" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1258" t="n">
+        <v>775</v>
+      </c>
+      <c r="Q1258" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1258" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1259" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1259" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1259" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1259" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1259" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1259" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1259" t="n">
+        <v>650</v>
+      </c>
+      <c r="N1259" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1259" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1259" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q1259" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1259" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1260" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1260" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1260" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1260" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1260" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1260" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1260" t="n">
+        <v>675</v>
+      </c>
+      <c r="N1260" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1260" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1260" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q1260" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1260" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1261" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1261" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1261" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1261" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1261" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>550</v>
+      </c>
+      <c r="N1261" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1261" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1261" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1261" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1262" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1262" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1262" t="inlineStr">
         <is>
           <t>Morada(o)</t>
         </is>
       </c>
-      <c r="I1257" t="inlineStr">
+      <c r="I1262" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1262" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>775</v>
+      </c>
+      <c r="N1262" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1262" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1262" t="n">
+        <v>775</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1262" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1263" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1263" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1263" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1257" t="n">
+      <c r="J1263" t="n">
         <v>1000</v>
       </c>
-      <c r="K1257" t="n">
+      <c r="K1263" t="n">
         <v>600</v>
       </c>
-      <c r="L1257" t="n">
+      <c r="L1263" t="n">
         <v>700</v>
       </c>
-      <c r="M1257" t="n">
+      <c r="M1263" t="n">
         <v>650</v>
       </c>
-      <c r="N1257" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1257" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P1257" t="n">
+      <c r="N1263" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1263" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1263" t="n">
         <v>650</v>
       </c>
-      <c r="Q1257" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1257" t="inlineStr">
+      <c r="Q1263" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1263" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1263"/>
+  <dimension ref="A1:R1269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -78693,7 +78693,7 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1088" t="n">
         <v>750</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1089" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1089" t="n">
         <v>700</v>
       </c>
       <c r="M1089" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1089" t="n">
         <v>1</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -78837,16 +78837,16 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1090" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1090" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1090" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1090" t="n">
         <v>1</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -78912,13 +78912,13 @@
         <v>1400</v>
       </c>
       <c r="K1091" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1091" t="n">
         <v>600</v>
       </c>
       <c r="M1091" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1092" t="n">
         <v>4</v>
@@ -78972,7 +78972,7 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
@@ -78981,16 +78981,16 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K1092" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1092" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1092" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1092" t="n">
         <v>1</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1093" t="n">
         <v>4</v>
@@ -79044,7 +79044,7 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
@@ -79053,16 +79053,16 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>1360</v>
+        <v>1120</v>
       </c>
       <c r="K1093" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1093" t="n">
         <v>700</v>
       </c>
-      <c r="L1093" t="n">
-        <v>800</v>
-      </c>
       <c r="M1093" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q1093" t="n">
         <v>1</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -79116,7 +79116,7 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
@@ -79125,7 +79125,7 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1094" t="n">
         <v>750</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1095" t="n">
         <v>4</v>
@@ -79188,7 +79188,7 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
@@ -79197,7 +79197,7 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="K1095" t="n">
         <v>650</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -79260,16 +79260,16 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>1260</v>
+        <v>2400</v>
       </c>
       <c r="K1096" t="n">
         <v>650</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1097" t="n">
         <v>4</v>
@@ -79332,25 +79332,25 @@
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="K1097" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1097" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1097" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1097" t="n">
         <v>1</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1098" t="n">
         <v>4</v>
@@ -79409,20 +79409,20 @@
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="K1098" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L1098" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M1098" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="Q1098" t="n">
         <v>1</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1099" t="n">
         <v>4</v>
@@ -79476,16 +79476,16 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>2440</v>
+        <v>1360</v>
       </c>
       <c r="K1099" t="n">
         <v>700</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -79553,20 +79553,20 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="K1100" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1100" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1100" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1100" t="n">
         <v>1</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -79620,25 +79620,25 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>2300</v>
+        <v>1320</v>
       </c>
       <c r="K1101" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1101" t="n">
         <v>700</v>
       </c>
-      <c r="L1101" t="n">
-        <v>800</v>
-      </c>
       <c r="M1101" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1101" t="n">
         <v>1</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1102" t="n">
         <v>4</v>
@@ -79701,16 +79701,16 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>1300</v>
+        <v>1260</v>
       </c>
       <c r="K1102" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1102" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1102" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1102" t="n">
         <v>1</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -79773,7 +79773,7 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1103" t="n">
         <v>700</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -79845,16 +79845,16 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1104" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1104" t="n">
         <v>600</v>
       </c>
       <c r="M1104" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -79917,7 +79917,7 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>3000</v>
+        <v>2440</v>
       </c>
       <c r="K1105" t="n">
         <v>700</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1106" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1106" t="n">
         <v>600</v>
       </c>
       <c r="M1106" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1107" t="n">
         <v>4</v>
@@ -80061,7 +80061,7 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="K1107" t="n">
         <v>700</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1108" t="n">
         <v>4</v>
@@ -80133,16 +80133,16 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K1108" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1108" t="n">
         <v>600</v>
       </c>
       <c r="M1108" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1108" t="n">
         <v>1</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1109" t="n">
         <v>4</v>
@@ -80205,16 +80205,16 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1109" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1109" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M1109" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q1109" t="n">
         <v>1</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1110" t="n">
         <v>4</v>
@@ -80277,16 +80277,16 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1110" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1110" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1110" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -80349,7 +80349,7 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K1111" t="n">
         <v>700</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -80421,7 +80421,7 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1112" t="n">
         <v>500</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1113" t="n">
         <v>4</v>
@@ -80493,7 +80493,7 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1113" t="n">
         <v>700</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1114" t="n">
         <v>4</v>
@@ -80565,7 +80565,7 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K1114" t="n">
         <v>500</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -80637,16 +80637,16 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1115" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L1115" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1115" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q1115" t="n">
         <v>1</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -80709,16 +80709,16 @@
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>1340</v>
+        <v>1400</v>
       </c>
       <c r="K1116" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L1116" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1116" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1117" t="n">
         <v>4</v>
@@ -80781,16 +80781,16 @@
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1117" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1117" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1117" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1117" t="n">
         <v>1</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1118" t="n">
         <v>4</v>
@@ -80853,16 +80853,16 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>1340</v>
+        <v>1400</v>
       </c>
       <c r="K1118" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1118" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1118" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1118" t="n">
         <v>1</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1119" t="n">
         <v>4</v>
@@ -80928,13 +80928,13 @@
         <v>2000</v>
       </c>
       <c r="K1119" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1119" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1119" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1120" t="n">
         <v>4</v>
@@ -80997,16 +80997,16 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K1120" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1120" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1120" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1121" t="n">
         <v>4</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1122" t="n">
         <v>4</v>
@@ -81141,7 +81141,7 @@
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="K1122" t="n">
         <v>450</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1123" t="n">
         <v>4</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1124" t="n">
         <v>4</v>
@@ -81285,7 +81285,7 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="K1124" t="n">
         <v>450</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1125" t="n">
         <v>4</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1126" t="n">
         <v>4</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1127" t="n">
         <v>4</v>
@@ -81501,16 +81501,16 @@
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1127" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L1127" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M1127" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="Q1127" t="n">
         <v>1</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -81576,13 +81576,13 @@
         <v>1360</v>
       </c>
       <c r="K1128" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1128" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1128" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81595,7 +81595,7 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1128" t="n">
         <v>1</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1129" t="n">
         <v>4</v>
@@ -81645,16 +81645,16 @@
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1129" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L1129" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M1129" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="Q1129" t="n">
         <v>1</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1130" t="n">
         <v>4</v>
@@ -81717,16 +81717,16 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>1340</v>
+        <v>1300</v>
       </c>
       <c r="K1130" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1130" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1130" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1130" t="n">
         <v>1</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E1131" t="n">
         <v>4</v>
@@ -81780,7 +81780,7 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
@@ -81789,16 +81789,16 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1131" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1131" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1131" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1131" t="n">
         <v>1</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E1132" t="n">
         <v>4</v>
@@ -81852,7 +81852,7 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
@@ -81861,16 +81861,16 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>1680</v>
+        <v>1300</v>
       </c>
       <c r="K1132" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1132" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1132" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81883,7 +81883,7 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1132" t="n">
         <v>1</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1133" t="n">
         <v>4</v>
@@ -81924,7 +81924,7 @@
       </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1133" t="inlineStr">
@@ -81933,16 +81933,16 @@
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1133" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1133" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1133" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1133" t="n">
         <v>1</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1134" t="n">
         <v>4</v>
@@ -81996,7 +81996,7 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
@@ -82005,16 +82005,16 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K1134" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1134" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1134" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1134" t="n">
         <v>1</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1135" t="n">
         <v>4</v>
@@ -82068,7 +82068,7 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
@@ -82077,16 +82077,16 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1135" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1135" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1135" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1135" t="n">
         <v>1</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1136" t="n">
         <v>4</v>
@@ -82140,7 +82140,7 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
@@ -82149,16 +82149,16 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>1560</v>
+        <v>1340</v>
       </c>
       <c r="K1136" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1136" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1136" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1136" t="n">
         <v>1</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1137" t="n">
         <v>4</v>
@@ -82221,7 +82221,7 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1137" t="n">
         <v>750</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1138" t="n">
         <v>4</v>
@@ -82293,7 +82293,7 @@
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>1400</v>
+        <v>1680</v>
       </c>
       <c r="K1138" t="n">
         <v>650</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1139" t="n">
         <v>4</v>
@@ -82365,16 +82365,16 @@
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1139" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1139" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1139" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1139" t="n">
         <v>1</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1140" t="n">
         <v>4</v>
@@ -82437,16 +82437,16 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1140" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1140" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1140" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1140" t="n">
         <v>1</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1141" t="n">
         <v>4</v>
@@ -82509,16 +82509,16 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1141" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1141" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1141" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1141" t="n">
         <v>1</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1142" t="n">
         <v>4</v>
@@ -82581,16 +82581,16 @@
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>1360</v>
+        <v>1560</v>
       </c>
       <c r="K1142" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1142" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1142" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1142" t="n">
         <v>1</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1143" t="n">
         <v>4</v>
@@ -82653,16 +82653,16 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1143" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1143" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1143" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1143" t="n">
         <v>1</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1144" t="n">
         <v>4</v>
@@ -82725,16 +82725,16 @@
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>1660</v>
+        <v>1400</v>
       </c>
       <c r="K1144" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1144" t="n">
         <v>700</v>
       </c>
-      <c r="L1144" t="n">
-        <v>800</v>
-      </c>
       <c r="M1144" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1144" t="n">
         <v>1</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1145" t="n">
         <v>4</v>
@@ -82797,16 +82797,16 @@
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1145" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L1145" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1145" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82819,7 +82819,7 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q1145" t="n">
         <v>1</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1146" t="n">
         <v>4</v>
@@ -82869,16 +82869,16 @@
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K1146" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1146" t="n">
         <v>600</v>
       </c>
-      <c r="L1146" t="n">
-        <v>700</v>
-      </c>
       <c r="M1146" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q1146" t="n">
         <v>1</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1147" t="n">
         <v>4</v>
@@ -82932,7 +82932,7 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
@@ -82941,16 +82941,16 @@
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1147" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1147" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1147" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1147" t="n">
         <v>1</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1148" t="n">
         <v>4</v>
@@ -83004,7 +83004,7 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
@@ -83013,16 +83013,16 @@
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K1148" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1148" t="n">
         <v>600</v>
       </c>
-      <c r="L1148" t="n">
-        <v>700</v>
-      </c>
       <c r="M1148" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83035,7 +83035,7 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q1148" t="n">
         <v>1</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1149" t="n">
         <v>4</v>
@@ -83076,7 +83076,7 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -83085,16 +83085,16 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1149" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L1149" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1149" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="Q1149" t="n">
         <v>1</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1150" t="n">
         <v>4</v>
@@ -83148,7 +83148,7 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
@@ -83157,16 +83157,16 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>1400</v>
+        <v>1660</v>
       </c>
       <c r="K1150" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1150" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1150" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q1150" t="n">
         <v>1</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1151" t="n">
         <v>4</v>
@@ -83220,7 +83220,7 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
@@ -83229,16 +83229,16 @@
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1151" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1151" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1151" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83251,7 +83251,7 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q1151" t="n">
         <v>1</v>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1152" t="n">
         <v>4</v>
@@ -83292,7 +83292,7 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
@@ -83301,7 +83301,7 @@
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>1100</v>
+        <v>1560</v>
       </c>
       <c r="K1152" t="n">
         <v>600</v>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1153" t="n">
         <v>4</v>
@@ -83373,16 +83373,16 @@
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="K1153" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1153" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1153" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83395,7 +83395,7 @@
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1153" t="n">
         <v>1</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1154" t="n">
         <v>4</v>
@@ -83445,16 +83445,16 @@
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>608</v>
+        <v>1600</v>
       </c>
       <c r="K1154" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1154" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1154" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
@@ -83467,7 +83467,7 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q1154" t="n">
         <v>1</v>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1155" t="n">
         <v>4</v>
@@ -83517,16 +83517,16 @@
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="K1155" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1155" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1155" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83539,7 +83539,7 @@
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1155" t="n">
         <v>1</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1156" t="n">
         <v>4</v>
@@ -83589,16 +83589,16 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="K1156" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1156" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1156" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83611,7 +83611,7 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1156" t="n">
         <v>1</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1157" t="n">
         <v>4</v>
@@ -83652,7 +83652,7 @@
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1158" t="n">
         <v>4</v>
@@ -83724,7 +83724,7 @@
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1158" t="inlineStr">
@@ -83733,16 +83733,16 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K1158" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1158" t="n">
         <v>700</v>
       </c>
       <c r="M1158" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83755,7 +83755,7 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1158" t="n">
         <v>1</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1159" t="n">
         <v>4</v>
@@ -83796,7 +83796,7 @@
       </c>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1159" t="inlineStr">
@@ -83805,16 +83805,16 @@
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="K1159" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1159" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1159" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
@@ -83827,7 +83827,7 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1159" t="n">
         <v>1</v>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1160" t="n">
         <v>4</v>
@@ -83868,7 +83868,7 @@
       </c>
       <c r="H1160" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1160" t="inlineStr">
@@ -83877,16 +83877,16 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>1400</v>
+        <v>608</v>
       </c>
       <c r="K1160" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L1160" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1160" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83899,7 +83899,7 @@
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q1160" t="n">
         <v>1</v>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1161" t="n">
         <v>4</v>
@@ -83940,7 +83940,7 @@
       </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1161" t="inlineStr">
@@ -83949,16 +83949,16 @@
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K1161" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1161" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1161" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1161" t="n">
         <v>1</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1162" t="n">
         <v>4</v>
@@ -84012,7 +84012,7 @@
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1162" t="inlineStr">
@@ -84021,16 +84021,16 @@
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K1162" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1162" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1162" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1162" t="n">
         <v>1</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1163" t="n">
         <v>4</v>
@@ -84093,16 +84093,16 @@
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1163" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1163" t="n">
         <v>800</v>
       </c>
       <c r="M1163" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1163" t="n">
         <v>1</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1164" t="n">
         <v>4</v>
@@ -84165,16 +84165,16 @@
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1164" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1164" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1164" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1164" t="n">
         <v>1</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1165" t="n">
         <v>4</v>
@@ -84237,16 +84237,16 @@
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1165" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1165" t="n">
         <v>700</v>
       </c>
-      <c r="L1165" t="n">
-        <v>800</v>
-      </c>
       <c r="M1165" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
@@ -84259,7 +84259,7 @@
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1165" t="n">
         <v>1</v>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1166" t="n">
         <v>4</v>
@@ -84309,7 +84309,7 @@
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>1660</v>
+        <v>1400</v>
       </c>
       <c r="K1166" t="n">
         <v>550</v>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1167" t="n">
         <v>4</v>
@@ -84381,16 +84381,16 @@
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1167" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1167" t="n">
         <v>800</v>
       </c>
       <c r="M1167" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
@@ -84403,7 +84403,7 @@
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1167" t="n">
         <v>1</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1168" t="n">
         <v>4</v>
@@ -84453,16 +84453,16 @@
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K1168" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1168" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1168" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84475,7 +84475,7 @@
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1168" t="n">
         <v>1</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1169" t="n">
         <v>4</v>
@@ -84525,16 +84525,16 @@
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1169" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1169" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M1169" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
@@ -84547,7 +84547,7 @@
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q1169" t="n">
         <v>1</v>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1170" t="n">
         <v>4</v>
@@ -84597,16 +84597,16 @@
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K1170" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1170" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1170" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
@@ -84619,7 +84619,7 @@
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1170" t="n">
         <v>1</v>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1171" t="n">
         <v>4</v>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1172" t="n">
         <v>4</v>
@@ -84741,16 +84741,16 @@
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>1400</v>
+        <v>1660</v>
       </c>
       <c r="K1172" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1172" t="n">
         <v>600</v>
       </c>
       <c r="M1172" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
@@ -84763,7 +84763,7 @@
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1172" t="n">
         <v>1</v>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1173" t="n">
         <v>4</v>
@@ -84813,7 +84813,7 @@
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1173" t="n">
         <v>700</v>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1174" t="n">
         <v>4</v>
@@ -84885,16 +84885,16 @@
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>1340</v>
+        <v>1600</v>
       </c>
       <c r="K1174" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1174" t="n">
         <v>600</v>
       </c>
       <c r="M1174" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
@@ -84907,7 +84907,7 @@
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1174" t="n">
         <v>1</v>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1175" t="n">
         <v>4</v>
@@ -84957,16 +84957,16 @@
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="K1175" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L1175" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M1175" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
@@ -84979,7 +84979,7 @@
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q1175" t="n">
         <v>1</v>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1176" t="n">
         <v>4</v>
@@ -85029,16 +85029,16 @@
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K1176" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1176" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M1176" t="n">
-        <v>525</v>
+        <v>750</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
@@ -85051,7 +85051,7 @@
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>525</v>
+        <v>750</v>
       </c>
       <c r="Q1176" t="n">
         <v>1</v>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1177" t="n">
         <v>4</v>
@@ -85101,16 +85101,16 @@
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>3060</v>
+        <v>3000</v>
       </c>
       <c r="K1177" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1177" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1177" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
@@ -85123,7 +85123,7 @@
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1177" t="n">
         <v>1</v>
@@ -85149,7 +85149,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1178" t="n">
         <v>4</v>
@@ -85173,17 +85173,17 @@
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K1178" t="n">
         <v>500</v>
       </c>
       <c r="L1178" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1178" t="n">
         <v>550</v>
       </c>
-      <c r="M1178" t="n">
-        <v>525</v>
-      </c>
       <c r="N1178" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -85195,7 +85195,7 @@
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q1178" t="n">
         <v>1</v>
@@ -85221,7 +85221,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1179" t="n">
         <v>4</v>
@@ -85245,16 +85245,16 @@
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>2920</v>
+        <v>2400</v>
       </c>
       <c r="K1179" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1179" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1179" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
@@ -85267,7 +85267,7 @@
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1179" t="n">
         <v>1</v>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1180" t="n">
         <v>4</v>
@@ -85317,17 +85317,17 @@
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>1600</v>
+        <v>1340</v>
       </c>
       <c r="K1180" t="n">
         <v>500</v>
       </c>
       <c r="L1180" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1180" t="n">
         <v>550</v>
       </c>
-      <c r="M1180" t="n">
-        <v>525</v>
-      </c>
       <c r="N1180" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q1180" t="n">
         <v>1</v>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1181" t="n">
         <v>4</v>
@@ -85389,16 +85389,16 @@
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="K1181" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L1181" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1181" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
@@ -85411,7 +85411,7 @@
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q1181" t="n">
         <v>1</v>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1182" t="n">
         <v>4</v>
@@ -85461,16 +85461,16 @@
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1182" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1182" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M1182" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
@@ -85483,7 +85483,7 @@
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q1182" t="n">
         <v>1</v>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1183" t="n">
         <v>4</v>
@@ -85533,16 +85533,16 @@
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>2400</v>
+        <v>3060</v>
       </c>
       <c r="K1183" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1183" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1183" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85555,7 +85555,7 @@
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1183" t="n">
         <v>1</v>
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1184" t="n">
         <v>4</v>
@@ -85605,16 +85605,16 @@
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>1460</v>
+        <v>1640</v>
       </c>
       <c r="K1184" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1184" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M1184" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
@@ -85627,7 +85627,7 @@
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q1184" t="n">
         <v>1</v>
@@ -85653,7 +85653,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1185" t="n">
         <v>4</v>
@@ -85677,16 +85677,16 @@
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>2000</v>
+        <v>2920</v>
       </c>
       <c r="K1185" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1185" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1185" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
@@ -85699,7 +85699,7 @@
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1185" t="n">
         <v>1</v>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1186" t="n">
         <v>4</v>
@@ -85749,16 +85749,16 @@
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1186" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1186" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M1186" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
@@ -85771,7 +85771,7 @@
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q1186" t="n">
         <v>1</v>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1187" t="n">
         <v>4</v>
@@ -85821,16 +85821,16 @@
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>2840</v>
+        <v>2400</v>
       </c>
       <c r="K1187" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L1187" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M1187" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
@@ -85843,7 +85843,7 @@
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q1187" t="n">
         <v>1</v>
@@ -85869,7 +85869,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1188" t="n">
         <v>4</v>
@@ -85893,16 +85893,16 @@
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1188" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L1188" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M1188" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
@@ -85915,7 +85915,7 @@
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q1188" t="n">
         <v>1</v>
@@ -85941,7 +85941,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1189" t="n">
         <v>4</v>
@@ -85965,16 +85965,16 @@
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>3080</v>
+        <v>2400</v>
       </c>
       <c r="K1189" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1189" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1189" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
@@ -85987,7 +85987,7 @@
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1189" t="n">
         <v>1</v>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1190" t="n">
         <v>4</v>
@@ -86037,16 +86037,16 @@
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>1560</v>
+        <v>1460</v>
       </c>
       <c r="K1190" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1190" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M1190" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
@@ -86059,7 +86059,7 @@
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q1190" t="n">
         <v>1</v>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1191" t="n">
         <v>4</v>
@@ -86109,16 +86109,16 @@
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1191" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1191" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1191" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
@@ -86131,7 +86131,7 @@
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1191" t="n">
         <v>1</v>
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1192" t="n">
         <v>4</v>
@@ -86181,16 +86181,16 @@
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1192" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1192" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M1192" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86203,7 +86203,7 @@
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q1192" t="n">
         <v>1</v>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1193" t="n">
         <v>4</v>
@@ -86253,16 +86253,16 @@
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>2400</v>
+        <v>2840</v>
       </c>
       <c r="K1193" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1193" t="n">
         <v>700</v>
       </c>
-      <c r="L1193" t="n">
-        <v>750</v>
-      </c>
       <c r="M1193" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
@@ -86275,7 +86275,7 @@
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1193" t="n">
         <v>1</v>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1194" t="n">
         <v>4</v>
@@ -86325,16 +86325,16 @@
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1194" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1194" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M1194" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q1194" t="n">
         <v>1</v>
@@ -86373,7 +86373,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1195" t="n">
         <v>4</v>
@@ -86397,16 +86397,16 @@
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>2400</v>
+        <v>3080</v>
       </c>
       <c r="K1195" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1195" t="n">
         <v>700</v>
       </c>
-      <c r="L1195" t="n">
-        <v>750</v>
-      </c>
       <c r="M1195" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
@@ -86419,7 +86419,7 @@
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1195" t="n">
         <v>1</v>
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1196" t="n">
         <v>4</v>
@@ -86469,16 +86469,16 @@
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>1440</v>
+        <v>1560</v>
       </c>
       <c r="K1196" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1196" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M1196" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
@@ -86491,7 +86491,7 @@
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q1196" t="n">
         <v>1</v>
@@ -86517,7 +86517,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1197" t="n">
         <v>4</v>
@@ -86541,16 +86541,16 @@
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1197" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1197" t="n">
         <v>700</v>
       </c>
-      <c r="L1197" t="n">
-        <v>750</v>
-      </c>
       <c r="M1197" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
@@ -86563,7 +86563,7 @@
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1197" t="n">
         <v>1</v>
@@ -86589,7 +86589,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1198" t="n">
         <v>4</v>
@@ -86613,16 +86613,16 @@
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1198" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1198" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M1198" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
@@ -86635,7 +86635,7 @@
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q1198" t="n">
         <v>1</v>
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1199" t="n">
         <v>4</v>
@@ -86685,16 +86685,16 @@
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1199" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1199" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1199" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
@@ -86707,7 +86707,7 @@
         </is>
       </c>
       <c r="P1199" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1199" t="n">
         <v>1</v>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1200" t="n">
         <v>4</v>
@@ -86757,16 +86757,16 @@
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K1200" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1200" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1200" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
@@ -86779,7 +86779,7 @@
         </is>
       </c>
       <c r="P1200" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1200" t="n">
         <v>1</v>
@@ -86805,7 +86805,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1201" t="n">
         <v>4</v>
@@ -86829,16 +86829,16 @@
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1201" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1201" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1201" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1201" t="inlineStr">
         <is>
@@ -86851,7 +86851,7 @@
         </is>
       </c>
       <c r="P1201" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1201" t="n">
         <v>1</v>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1202" t="n">
         <v>4</v>
@@ -86901,16 +86901,16 @@
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="K1202" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1202" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1202" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
@@ -86923,7 +86923,7 @@
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1202" t="n">
         <v>1</v>
@@ -86949,7 +86949,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1203" t="n">
         <v>4</v>
@@ -86973,16 +86973,16 @@
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1203" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1203" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1203" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
@@ -86995,7 +86995,7 @@
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1203" t="n">
         <v>1</v>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1204" t="n">
         <v>4</v>
@@ -87045,16 +87045,16 @@
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1204" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1204" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1204" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
@@ -87067,7 +87067,7 @@
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1204" t="n">
         <v>1</v>
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1205" t="n">
         <v>4</v>
@@ -87117,7 +87117,7 @@
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1205" t="n">
         <v>650</v>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1206" t="n">
         <v>4</v>
@@ -87189,7 +87189,7 @@
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K1206" t="n">
         <v>550</v>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1207" t="n">
         <v>4</v>
@@ -87261,7 +87261,7 @@
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1207" t="n">
         <v>650</v>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1208" t="n">
         <v>4</v>
@@ -87333,7 +87333,7 @@
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1208" t="n">
         <v>550</v>
@@ -87381,7 +87381,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1209" t="n">
         <v>4</v>
@@ -87405,7 +87405,7 @@
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1209" t="n">
         <v>650</v>
@@ -87453,7 +87453,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1210" t="n">
         <v>4</v>
@@ -87477,7 +87477,7 @@
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K1210" t="n">
         <v>550</v>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1211" t="n">
         <v>4</v>
@@ -87549,16 +87549,16 @@
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1211" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L1211" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M1211" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
@@ -87571,7 +87571,7 @@
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="Q1211" t="n">
         <v>1</v>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1212" t="n">
         <v>4</v>
@@ -87621,16 +87621,16 @@
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1212" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1212" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1212" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
@@ -87643,7 +87643,7 @@
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1212" t="n">
         <v>1</v>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1213" t="n">
         <v>4</v>
@@ -87693,16 +87693,16 @@
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1213" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1213" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1213" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
@@ -87715,7 +87715,7 @@
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1213" t="n">
         <v>1</v>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1214" t="n">
         <v>4</v>
@@ -87765,16 +87765,16 @@
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1214" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1214" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1214" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
@@ -87787,7 +87787,7 @@
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1214" t="n">
         <v>1</v>
@@ -87813,7 +87813,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1215" t="n">
         <v>4</v>
@@ -87840,13 +87840,13 @@
         <v>2000</v>
       </c>
       <c r="K1215" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1215" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1215" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
@@ -87859,7 +87859,7 @@
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1215" t="n">
         <v>1</v>
@@ -87885,7 +87885,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1216" t="n">
         <v>4</v>
@@ -87909,16 +87909,16 @@
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>800</v>
+        <v>1360</v>
       </c>
       <c r="K1216" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1216" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1216" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
@@ -87931,7 +87931,7 @@
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1216" t="n">
         <v>1</v>
@@ -87957,7 +87957,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1217" t="n">
         <v>4</v>
@@ -87981,16 +87981,16 @@
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1217" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L1217" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M1217" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
@@ -88003,7 +88003,7 @@
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="Q1217" t="n">
         <v>1</v>
@@ -88029,7 +88029,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1218" t="n">
         <v>4</v>
@@ -88053,16 +88053,16 @@
         </is>
       </c>
       <c r="J1218" t="n">
-        <v>1260</v>
+        <v>1600</v>
       </c>
       <c r="K1218" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L1218" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1218" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
@@ -88075,7 +88075,7 @@
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q1218" t="n">
         <v>1</v>
@@ -88101,7 +88101,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1219" t="n">
         <v>4</v>
@@ -88125,16 +88125,16 @@
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1219" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1219" t="n">
         <v>800</v>
       </c>
       <c r="M1219" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
@@ -88147,7 +88147,7 @@
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1219" t="n">
         <v>1</v>
@@ -88173,7 +88173,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1220" t="n">
         <v>4</v>
@@ -88197,16 +88197,16 @@
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="K1220" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1220" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1220" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
@@ -88219,7 +88219,7 @@
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1220" t="n">
         <v>1</v>
@@ -88245,7 +88245,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1221" t="n">
         <v>4</v>
@@ -88272,13 +88272,13 @@
         <v>2000</v>
       </c>
       <c r="K1221" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1221" t="n">
         <v>800</v>
       </c>
       <c r="M1221" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
@@ -88291,7 +88291,7 @@
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1221" t="n">
         <v>1</v>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1222" t="n">
         <v>4</v>
@@ -88341,16 +88341,16 @@
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>1280</v>
+        <v>800</v>
       </c>
       <c r="K1222" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1222" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1222" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
@@ -88363,7 +88363,7 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1222" t="n">
         <v>1</v>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1223" t="n">
         <v>4</v>
@@ -88413,16 +88413,16 @@
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1223" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1223" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1223" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
@@ -88435,7 +88435,7 @@
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q1223" t="n">
         <v>1</v>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1224" t="n">
         <v>4</v>
@@ -88485,16 +88485,16 @@
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>1600</v>
+        <v>1260</v>
       </c>
       <c r="K1224" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1224" t="n">
         <v>700</v>
       </c>
       <c r="M1224" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
@@ -88507,7 +88507,7 @@
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1224" t="n">
         <v>1</v>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1225" t="n">
         <v>4</v>
@@ -88557,16 +88557,16 @@
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1225" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1225" t="n">
         <v>800</v>
       </c>
       <c r="M1225" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
@@ -88579,7 +88579,7 @@
         </is>
       </c>
       <c r="P1225" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1225" t="n">
         <v>1</v>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1226" t="n">
         <v>4</v>
@@ -88629,16 +88629,16 @@
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>1560</v>
+        <v>1280</v>
       </c>
       <c r="K1226" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1226" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1226" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
@@ -88651,7 +88651,7 @@
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1226" t="n">
         <v>1</v>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1227" t="n">
         <v>4</v>
@@ -88701,16 +88701,16 @@
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1227" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1227" t="n">
         <v>800</v>
       </c>
       <c r="M1227" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
@@ -88723,7 +88723,7 @@
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1227" t="n">
         <v>1</v>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1228" t="n">
         <v>4</v>
@@ -88773,16 +88773,16 @@
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="K1228" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1228" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1228" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
@@ -88795,7 +88795,7 @@
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1228" t="n">
         <v>1</v>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1229" t="n">
         <v>4</v>
@@ -88893,7 +88893,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1230" t="n">
         <v>4</v>
@@ -88917,7 +88917,7 @@
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>1660</v>
+        <v>1600</v>
       </c>
       <c r="K1230" t="n">
         <v>650</v>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1231" t="n">
         <v>4</v>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1232" t="n">
         <v>4</v>
@@ -89061,7 +89061,7 @@
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K1232" t="n">
         <v>650</v>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1233" t="n">
         <v>4</v>
@@ -89133,7 +89133,7 @@
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1233" t="n">
         <v>750</v>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1234" t="n">
         <v>4</v>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1235" t="n">
         <v>4</v>
@@ -89277,16 +89277,16 @@
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1235" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1235" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1235" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
@@ -89299,7 +89299,7 @@
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1235" t="n">
         <v>1</v>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1236" t="n">
         <v>4</v>
@@ -89349,16 +89349,16 @@
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>1400</v>
+        <v>1660</v>
       </c>
       <c r="K1236" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1236" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1236" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89371,7 +89371,7 @@
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1236" t="n">
         <v>1</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1237" t="n">
         <v>4</v>
@@ -89421,16 +89421,16 @@
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1237" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1237" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1237" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
@@ -89443,7 +89443,7 @@
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1237" t="n">
         <v>1</v>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1238" t="n">
         <v>4</v>
@@ -89493,16 +89493,16 @@
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="K1238" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1238" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1238" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
@@ -89515,7 +89515,7 @@
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1238" t="n">
         <v>1</v>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1239" t="n">
         <v>4</v>
@@ -89565,16 +89565,16 @@
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K1239" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1239" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1239" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89587,7 +89587,7 @@
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1239" t="n">
         <v>1</v>
@@ -89613,7 +89613,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1240" t="n">
         <v>4</v>
@@ -89637,16 +89637,16 @@
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1240" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1240" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1240" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
@@ -89659,7 +89659,7 @@
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1240" t="n">
         <v>1</v>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1241" t="n">
         <v>4</v>
@@ -89709,16 +89709,16 @@
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1241" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1241" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M1241" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
@@ -89731,7 +89731,7 @@
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q1241" t="n">
         <v>1</v>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1242" t="n">
         <v>4</v>
@@ -89781,16 +89781,16 @@
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K1242" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L1242" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1242" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
@@ -89803,7 +89803,7 @@
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="Q1242" t="n">
         <v>1</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1243" t="n">
         <v>4</v>
@@ -89853,16 +89853,16 @@
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1243" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1243" t="n">
         <v>750</v>
       </c>
-      <c r="L1243" t="n">
-        <v>800</v>
-      </c>
       <c r="M1243" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1243" t="n">
         <v>1</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1244" t="n">
         <v>4</v>
@@ -89925,16 +89925,16 @@
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="K1244" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1244" t="n">
         <v>650</v>
       </c>
-      <c r="L1244" t="n">
-        <v>700</v>
-      </c>
       <c r="M1244" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89947,7 +89947,7 @@
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1244" t="n">
         <v>1</v>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1245" t="n">
         <v>4</v>
@@ -89997,16 +89997,16 @@
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K1245" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1245" t="n">
         <v>750</v>
       </c>
-      <c r="L1245" t="n">
-        <v>800</v>
-      </c>
       <c r="M1245" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90019,7 +90019,7 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1245" t="n">
         <v>1</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1246" t="n">
         <v>4</v>
@@ -90060,25 +90060,25 @@
       </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="K1246" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L1246" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M1246" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
@@ -90091,7 +90091,7 @@
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="Q1246" t="n">
         <v>1</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1247" t="n">
         <v>4</v>
@@ -90137,20 +90137,20 @@
       </c>
       <c r="I1247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>1560</v>
+        <v>3000</v>
       </c>
       <c r="K1247" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L1247" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1247" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90163,7 +90163,7 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="Q1247" t="n">
         <v>1</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1248" t="n">
         <v>4</v>
@@ -90204,16 +90204,16 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="K1248" t="n">
         <v>750</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1249" t="n">
         <v>4</v>
@@ -90281,20 +90281,20 @@
       </c>
       <c r="I1249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="K1249" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1249" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1249" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90307,7 +90307,7 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1249" t="n">
         <v>1</v>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1250" t="n">
         <v>4</v>
@@ -90348,25 +90348,25 @@
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="K1250" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1250" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1250" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
@@ -90379,7 +90379,7 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1250" t="n">
         <v>1</v>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1251" t="n">
         <v>4</v>
@@ -90425,20 +90425,20 @@
       </c>
       <c r="I1251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>1480</v>
+        <v>2400</v>
       </c>
       <c r="K1251" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1251" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1251" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
@@ -90451,7 +90451,7 @@
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1251" t="n">
         <v>1</v>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1252" t="n">
         <v>4</v>
@@ -90501,16 +90501,16 @@
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1252" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L1252" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1252" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
@@ -90523,7 +90523,7 @@
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q1252" t="n">
         <v>1</v>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1253" t="n">
         <v>4</v>
@@ -90573,16 +90573,16 @@
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>1460</v>
+        <v>1560</v>
       </c>
       <c r="K1253" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L1253" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1253" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
@@ -90595,7 +90595,7 @@
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q1253" t="n">
         <v>1</v>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1254" t="n">
         <v>4</v>
@@ -90645,16 +90645,16 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K1254" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1254" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1254" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
@@ -90667,7 +90667,7 @@
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1254" t="n">
         <v>1</v>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1255" t="n">
         <v>4</v>
@@ -90717,16 +90717,16 @@
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1255" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1255" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1255" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90739,7 +90739,7 @@
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1255" t="n">
         <v>1</v>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1256" t="n">
         <v>4</v>
@@ -90789,16 +90789,16 @@
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1256" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1256" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1256" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90811,7 +90811,7 @@
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1256" t="n">
         <v>1</v>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1257" t="n">
         <v>4</v>
@@ -90861,16 +90861,16 @@
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K1257" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1257" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1257" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90883,7 +90883,7 @@
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1257" t="n">
         <v>1</v>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1258" t="n">
         <v>4</v>
@@ -90933,16 +90933,16 @@
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1258" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1258" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1258" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
@@ -90955,7 +90955,7 @@
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1258" t="n">
         <v>1</v>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1259" t="n">
         <v>4</v>
@@ -91005,16 +91005,16 @@
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K1259" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L1259" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1259" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91027,7 +91027,7 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q1259" t="n">
         <v>1</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1260" t="n">
         <v>4</v>
@@ -91077,16 +91077,16 @@
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K1260" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1260" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1260" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91099,7 +91099,7 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1260" t="n">
         <v>1</v>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1261" t="n">
         <v>4</v>
@@ -91152,13 +91152,13 @@
         <v>1400</v>
       </c>
       <c r="K1261" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1261" t="n">
         <v>500</v>
       </c>
-      <c r="L1261" t="n">
-        <v>600</v>
-      </c>
       <c r="M1261" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91171,7 +91171,7 @@
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q1261" t="n">
         <v>1</v>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1262" t="n">
         <v>4</v>
@@ -91224,13 +91224,13 @@
         <v>2000</v>
       </c>
       <c r="K1262" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1262" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1262" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
@@ -91243,7 +91243,7 @@
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1262" t="n">
         <v>1</v>
@@ -91269,58 +91269,490 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1263" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1263" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1263" t="n">
+        <v>1440</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>475</v>
+      </c>
+      <c r="N1263" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1263" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1263" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1263" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1264" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1263" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1263" t="n">
-        <v>100112006</v>
-      </c>
-      <c r="G1263" t="inlineStr">
-        <is>
-          <t>Repollo</t>
-        </is>
-      </c>
-      <c r="H1263" t="inlineStr">
+      <c r="E1264" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1264" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1264" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1264" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>775</v>
+      </c>
+      <c r="N1264" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1264" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1264" t="n">
+        <v>775</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1264" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1265" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1265" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1265" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1265" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1265" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>650</v>
+      </c>
+      <c r="N1265" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1265" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1265" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1265" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1266" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1266" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1266" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1266" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1266" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>675</v>
+      </c>
+      <c r="N1266" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1266" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1266" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1266" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1267" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1267" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1267" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1267" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1267" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>550</v>
+      </c>
+      <c r="N1267" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1267" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1267" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1267" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1268" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1268" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1268" t="inlineStr">
         <is>
           <t>Morada(o)</t>
         </is>
       </c>
-      <c r="I1263" t="inlineStr">
+      <c r="I1268" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1268" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>775</v>
+      </c>
+      <c r="N1268" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1268" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1268" t="n">
+        <v>775</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1268" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1269" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1269" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1269" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1269" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1263" t="n">
+      <c r="J1269" t="n">
         <v>1000</v>
       </c>
-      <c r="K1263" t="n">
+      <c r="K1269" t="n">
         <v>600</v>
       </c>
-      <c r="L1263" t="n">
+      <c r="L1269" t="n">
         <v>700</v>
       </c>
-      <c r="M1263" t="n">
+      <c r="M1269" t="n">
         <v>650</v>
       </c>
-      <c r="N1263" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1263" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P1263" t="n">
+      <c r="N1269" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1269" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1269" t="n">
         <v>650</v>
       </c>
-      <c r="Q1263" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1263" t="inlineStr">
+      <c r="Q1269" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1269" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1269"/>
+  <dimension ref="A1:R1273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E1018" t="n">
         <v>4</v>
@@ -73653,16 +73653,16 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K1018" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1018" t="n">
         <v>800</v>
       </c>
       <c r="M1018" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1018" t="n">
         <v>1</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E1019" t="n">
         <v>4</v>
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1019" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1019" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1019" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q1019" t="n">
         <v>1</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E1020" t="n">
         <v>4</v>
@@ -73797,7 +73797,7 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1020" t="n">
         <v>700</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E1021" t="n">
         <v>4</v>
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K1021" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1021" t="n">
         <v>600</v>
       </c>
       <c r="M1021" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73932,7 +73932,7 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
@@ -73941,7 +73941,7 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K1022" t="n">
         <v>700</v>
@@ -74004,7 +74004,7 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
@@ -74013,7 +74013,7 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>1440</v>
+        <v>1500</v>
       </c>
       <c r="K1023" t="n">
         <v>550</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E1024" t="n">
         <v>4</v>
@@ -74076,7 +74076,7 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
@@ -74085,7 +74085,7 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>3040</v>
+        <v>2800</v>
       </c>
       <c r="K1024" t="n">
         <v>700</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E1025" t="n">
         <v>4</v>
@@ -74148,7 +74148,7 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
@@ -74157,7 +74157,7 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K1025" t="n">
         <v>550</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E1026" t="n">
         <v>4</v>
@@ -74220,7 +74220,7 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
@@ -74229,7 +74229,7 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>3120</v>
+        <v>2500</v>
       </c>
       <c r="K1026" t="n">
         <v>700</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E1027" t="n">
         <v>4</v>
@@ -74292,7 +74292,7 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
@@ -74301,7 +74301,7 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>1660</v>
+        <v>1440</v>
       </c>
       <c r="K1027" t="n">
         <v>550</v>
@@ -74364,7 +74364,7 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
@@ -74373,7 +74373,7 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>2900</v>
+        <v>3040</v>
       </c>
       <c r="K1028" t="n">
         <v>700</v>
@@ -74436,7 +74436,7 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E1030" t="n">
         <v>4</v>
@@ -74508,7 +74508,7 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
@@ -74517,7 +74517,7 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>2860</v>
+        <v>3120</v>
       </c>
       <c r="K1030" t="n">
         <v>700</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E1031" t="n">
         <v>4</v>
@@ -74580,7 +74580,7 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
@@ -74589,7 +74589,7 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>1600</v>
+        <v>1660</v>
       </c>
       <c r="K1031" t="n">
         <v>550</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E1032" t="n">
         <v>4</v>
@@ -74652,7 +74652,7 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
@@ -74661,7 +74661,7 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>3080</v>
+        <v>2900</v>
       </c>
       <c r="K1032" t="n">
         <v>700</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E1033" t="n">
         <v>4</v>
@@ -74724,7 +74724,7 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
@@ -74733,7 +74733,7 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K1033" t="n">
         <v>550</v>
@@ -74796,7 +74796,7 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
@@ -74805,7 +74805,7 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>2760</v>
+        <v>2860</v>
       </c>
       <c r="K1034" t="n">
         <v>700</v>
@@ -74868,7 +74868,7 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
@@ -74877,7 +74877,7 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K1035" t="n">
         <v>550</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1036" t="n">
         <v>4</v>
@@ -74940,7 +74940,7 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>2400</v>
+        <v>3080</v>
       </c>
       <c r="K1036" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1036" t="n">
         <v>800</v>
       </c>
       <c r="M1036" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1036" t="n">
         <v>1</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1037" t="n">
         <v>4</v>
@@ -75012,7 +75012,7 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>1480</v>
+        <v>1560</v>
       </c>
       <c r="K1037" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1037" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1037" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1037" t="n">
         <v>1</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1038" t="n">
         <v>4</v>
@@ -75084,7 +75084,7 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>2200</v>
+        <v>2760</v>
       </c>
       <c r="K1038" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1038" t="n">
         <v>800</v>
       </c>
       <c r="M1038" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1038" t="n">
         <v>1</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1039" t="n">
         <v>4</v>
@@ -75156,7 +75156,7 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K1039" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1039" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1039" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1039" t="n">
         <v>1</v>
@@ -75228,7 +75228,7 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
@@ -75237,7 +75237,7 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1040" t="n">
         <v>750</v>
@@ -75300,7 +75300,7 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
@@ -75309,7 +75309,7 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="K1041" t="n">
         <v>650</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E1042" t="n">
         <v>4</v>
@@ -75372,7 +75372,7 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
@@ -75381,16 +75381,16 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K1042" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1042" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1042" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1042" t="n">
         <v>1</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E1043" t="n">
         <v>4</v>
@@ -75444,7 +75444,7 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
@@ -75453,16 +75453,16 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>1480</v>
+        <v>1440</v>
       </c>
       <c r="K1043" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1043" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1043" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1043" t="n">
         <v>1</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E1044" t="n">
         <v>4</v>
@@ -75516,7 +75516,7 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
@@ -75525,16 +75525,16 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1044" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1044" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1044" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1044" t="n">
         <v>1</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E1045" t="n">
         <v>4</v>
@@ -75588,7 +75588,7 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
@@ -75597,16 +75597,16 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K1045" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1045" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1045" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1045" t="n">
         <v>1</v>
@@ -75660,7 +75660,7 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
@@ -75669,7 +75669,7 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="K1046" t="n">
         <v>650</v>
@@ -75732,7 +75732,7 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
@@ -75741,7 +75741,7 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="K1047" t="n">
         <v>550</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -75804,7 +75804,7 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
@@ -75813,16 +75813,16 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1048" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1048" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1048" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E1049" t="n">
         <v>4</v>
@@ -75876,7 +75876,7 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1049" t="inlineStr">
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K1049" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1049" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1049" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E1050" t="n">
         <v>4</v>
@@ -75948,7 +75948,7 @@
       </c>
       <c r="H1050" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1050" t="inlineStr">
@@ -75957,7 +75957,7 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K1050" t="n">
         <v>650</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E1051" t="n">
         <v>4</v>
@@ -76020,7 +76020,7 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
@@ -76029,16 +76029,16 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="K1051" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1051" t="n">
         <v>600</v>
       </c>
       <c r="M1051" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1051" t="n">
         <v>1</v>
@@ -76092,7 +76092,7 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
@@ -76101,16 +76101,16 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1052" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1052" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1052" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1052" t="n">
         <v>1</v>
@@ -76164,7 +76164,7 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
@@ -76173,16 +76173,16 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>1240</v>
+        <v>1360</v>
       </c>
       <c r="K1053" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1053" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1053" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1053" t="n">
         <v>1</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E1054" t="n">
         <v>4</v>
@@ -76236,7 +76236,7 @@
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E1055" t="n">
         <v>4</v>
@@ -76308,7 +76308,7 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="K1055" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1055" t="n">
         <v>600</v>
       </c>
       <c r="M1055" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q1055" t="n">
         <v>1</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E1056" t="n">
         <v>4</v>
@@ -76380,7 +76380,7 @@
       </c>
       <c r="H1056" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1056" t="inlineStr">
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E1057" t="n">
         <v>4</v>
@@ -76452,7 +76452,7 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>1400</v>
+        <v>1240</v>
       </c>
       <c r="K1057" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1057" t="n">
         <v>600</v>
       </c>
       <c r="M1057" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q1057" t="n">
         <v>1</v>
@@ -76524,7 +76524,7 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
@@ -76596,7 +76596,7 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1059" t="inlineStr">
@@ -76605,7 +76605,7 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>1260</v>
+        <v>1400</v>
       </c>
       <c r="K1059" t="n">
         <v>550</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -76668,7 +76668,7 @@
       </c>
       <c r="H1060" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1060" t="inlineStr">
@@ -76677,16 +76677,16 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>1650</v>
+        <v>2000</v>
       </c>
       <c r="K1060" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L1060" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1060" t="n">
-        <v>895</v>
+        <v>675</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>895</v>
+        <v>675</v>
       </c>
       <c r="Q1060" t="n">
         <v>1</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E1061" t="n">
         <v>4</v>
@@ -76740,7 +76740,7 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
@@ -76749,16 +76749,16 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1061" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1061" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1061" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1061" t="n">
         <v>1</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E1062" t="n">
         <v>4</v>
@@ -76812,7 +76812,7 @@
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1062" t="inlineStr">
@@ -76821,16 +76821,16 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1062" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1062" t="n">
         <v>700</v>
       </c>
-      <c r="L1062" t="n">
-        <v>800</v>
-      </c>
       <c r="M1062" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1062" t="n">
         <v>1</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E1063" t="n">
         <v>4</v>
@@ -76884,7 +76884,7 @@
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
@@ -76893,16 +76893,16 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>1560</v>
+        <v>1260</v>
       </c>
       <c r="K1063" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1063" t="n">
         <v>600</v>
       </c>
       <c r="M1063" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E1064" t="n">
         <v>4</v>
@@ -76965,16 +76965,16 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>2000</v>
+        <v>1650</v>
       </c>
       <c r="K1064" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L1064" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1064" t="n">
-        <v>575</v>
+        <v>895</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>575</v>
+        <v>895</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E1065" t="n">
         <v>4</v>
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K1065" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1065" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1065" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E1066" t="n">
         <v>4</v>
@@ -77109,16 +77109,16 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1066" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1066" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1066" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1066" t="n">
         <v>1</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E1067" t="n">
         <v>4</v>
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K1067" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1067" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1067" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1067" t="n">
         <v>1</v>
@@ -77244,7 +77244,7 @@
       </c>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1068" t="inlineStr">
@@ -77316,7 +77316,7 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
@@ -77325,7 +77325,7 @@
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1069" t="n">
         <v>450</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E1070" t="n">
         <v>4</v>
@@ -77388,7 +77388,7 @@
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1070" t="inlineStr">
@@ -77397,16 +77397,16 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>2520</v>
+        <v>2000</v>
       </c>
       <c r="K1070" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1070" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1070" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E1071" t="n">
         <v>4</v>
@@ -77460,7 +77460,7 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
@@ -77469,16 +77469,16 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K1071" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L1071" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1071" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q1071" t="n">
         <v>1</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -77532,7 +77532,7 @@
       </c>
       <c r="H1072" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1072" t="inlineStr">
@@ -77544,13 +77544,13 @@
         <v>2000</v>
       </c>
       <c r="K1072" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1072" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1072" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1072" t="n">
         <v>1</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E1073" t="n">
         <v>4</v>
@@ -77604,7 +77604,7 @@
       </c>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
@@ -77613,16 +77613,16 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K1073" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1073" t="n">
         <v>500</v>
       </c>
-      <c r="L1073" t="n">
-        <v>550</v>
-      </c>
       <c r="M1073" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q1073" t="n">
         <v>1</v>
@@ -77676,7 +77676,7 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1074" t="inlineStr">
@@ -77685,7 +77685,7 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>2000</v>
+        <v>2520</v>
       </c>
       <c r="K1074" t="n">
         <v>750</v>
@@ -77748,7 +77748,7 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
@@ -77757,7 +77757,7 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>1160</v>
+        <v>1360</v>
       </c>
       <c r="K1075" t="n">
         <v>600</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1076" t="n">
         <v>4</v>
@@ -77820,7 +77820,7 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
@@ -77829,16 +77829,16 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1076" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1076" t="n">
         <v>800</v>
       </c>
-      <c r="L1076" t="n">
-        <v>900</v>
-      </c>
       <c r="M1076" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q1076" t="n">
         <v>1</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1077" t="n">
         <v>4</v>
@@ -77892,7 +77892,7 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1077" t="inlineStr">
@@ -77901,16 +77901,16 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K1077" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1077" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M1077" t="n">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1078" t="n">
         <v>4</v>
@@ -77964,7 +77964,7 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1078" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1078" t="n">
         <v>800</v>
       </c>
       <c r="M1078" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1079" t="n">
         <v>4</v>
@@ -78036,7 +78036,7 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
@@ -78045,16 +78045,16 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>1600</v>
+        <v>1160</v>
       </c>
       <c r="K1079" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L1079" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1079" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q1079" t="n">
         <v>1</v>
@@ -78108,7 +78108,7 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
@@ -78117,16 +78117,16 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1080" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L1080" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1080" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="Q1080" t="n">
         <v>1</v>
@@ -78180,7 +78180,7 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
@@ -78189,16 +78189,16 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1081" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L1081" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1081" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q1081" t="n">
         <v>1</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -78252,7 +78252,7 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
@@ -78264,13 +78264,13 @@
         <v>3000</v>
       </c>
       <c r="K1082" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1082" t="n">
         <v>800</v>
       </c>
       <c r="M1082" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1082" t="n">
         <v>1</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -78324,7 +78324,7 @@
       </c>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
@@ -78333,16 +78333,16 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K1083" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1083" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1083" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1083" t="n">
         <v>1</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -78396,7 +78396,7 @@
       </c>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1084" t="inlineStr">
@@ -78405,16 +78405,16 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K1084" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1084" t="n">
         <v>800</v>
       </c>
       <c r="M1084" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1084" t="n">
         <v>1</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -78468,7 +78468,7 @@
       </c>
       <c r="H1085" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1085" t="inlineStr">
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K1085" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1085" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1085" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1085" t="n">
         <v>1</v>
@@ -78540,7 +78540,7 @@
       </c>
       <c r="H1086" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1086" t="inlineStr">
@@ -78549,7 +78549,7 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1086" t="n">
         <v>750</v>
@@ -78612,7 +78612,7 @@
       </c>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1087" t="inlineStr">
@@ -78621,7 +78621,7 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>1460</v>
+        <v>1560</v>
       </c>
       <c r="K1087" t="n">
         <v>650</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -78684,7 +78684,7 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
@@ -78693,7 +78693,7 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K1088" t="n">
         <v>750</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -78756,7 +78756,7 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K1089" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1089" t="n">
         <v>700</v>
       </c>
       <c r="M1089" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q1089" t="n">
         <v>1</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -78828,7 +78828,7 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
@@ -78837,16 +78837,16 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K1090" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1090" t="n">
         <v>800</v>
       </c>
       <c r="M1090" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1090" t="n">
         <v>1</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -78900,7 +78900,7 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
@@ -78909,16 +78909,16 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K1091" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1091" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1091" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78972,7 +78972,7 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
@@ -78981,7 +78981,7 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K1092" t="n">
         <v>750</v>
@@ -79044,7 +79044,7 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
@@ -79053,7 +79053,7 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>1120</v>
+        <v>1600</v>
       </c>
       <c r="K1093" t="n">
         <v>600</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -79116,7 +79116,7 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
@@ -79125,16 +79125,16 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1094" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1094" t="n">
         <v>800</v>
       </c>
       <c r="M1094" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1094" t="n">
         <v>1</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1095" t="n">
         <v>4</v>
@@ -79188,7 +79188,7 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
@@ -79200,13 +79200,13 @@
         <v>1400</v>
       </c>
       <c r="K1095" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1095" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1095" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1095" t="n">
         <v>1</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -79260,7 +79260,7 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
@@ -79269,16 +79269,16 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K1096" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1096" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1096" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1096" t="n">
         <v>1</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1097" t="n">
         <v>4</v>
@@ -79332,7 +79332,7 @@
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
@@ -79341,16 +79341,16 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="K1097" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1097" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1097" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q1097" t="n">
         <v>1</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1098" t="n">
         <v>4</v>
@@ -79413,16 +79413,16 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1098" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1098" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1098" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1098" t="n">
         <v>1</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1099" t="n">
         <v>4</v>
@@ -79485,16 +79485,16 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K1099" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1099" t="n">
         <v>700</v>
       </c>
-      <c r="L1099" t="n">
-        <v>800</v>
-      </c>
       <c r="M1099" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1099" t="n">
         <v>1</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -79560,13 +79560,13 @@
         <v>2400</v>
       </c>
       <c r="K1100" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1100" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1100" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1100" t="n">
         <v>1</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -79629,16 +79629,16 @@
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="K1101" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1101" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1101" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1101" t="n">
         <v>1</v>
@@ -79692,25 +79692,25 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>1260</v>
+        <v>2400</v>
       </c>
       <c r="K1102" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L1102" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1102" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="Q1102" t="n">
         <v>1</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -79769,11 +79769,11 @@
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K1103" t="n">
         <v>700</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -79836,25 +79836,25 @@
       </c>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="K1104" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1104" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1104" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>2440</v>
+        <v>1320</v>
       </c>
       <c r="K1105" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1105" t="n">
         <v>700</v>
       </c>
-      <c r="L1105" t="n">
-        <v>800</v>
-      </c>
       <c r="M1105" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1105" t="n">
         <v>1</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -79980,7 +79980,7 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>1400</v>
+        <v>1260</v>
       </c>
       <c r="K1106" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1106" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1106" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80052,7 +80052,7 @@
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
@@ -80061,7 +80061,7 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K1107" t="n">
         <v>700</v>
@@ -80124,7 +80124,7 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
@@ -80133,7 +80133,7 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K1108" t="n">
         <v>550</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1109" t="n">
         <v>4</v>
@@ -80196,7 +80196,7 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
@@ -80205,7 +80205,7 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>3000</v>
+        <v>2440</v>
       </c>
       <c r="K1109" t="n">
         <v>700</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1110" t="n">
         <v>4</v>
@@ -80268,7 +80268,7 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
@@ -80277,16 +80277,16 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1110" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1110" t="n">
         <v>600</v>
       </c>
       <c r="M1110" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -80340,7 +80340,7 @@
       </c>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
@@ -80349,7 +80349,7 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="K1111" t="n">
         <v>700</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -80412,7 +80412,7 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
@@ -80421,16 +80421,16 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K1112" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1112" t="n">
         <v>600</v>
       </c>
       <c r="M1112" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80484,7 +80484,7 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
@@ -80493,7 +80493,7 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1113" t="n">
         <v>700</v>
@@ -80556,7 +80556,7 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
@@ -80565,7 +80565,7 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1114" t="n">
         <v>500</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -80628,7 +80628,7 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
@@ -80637,16 +80637,16 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1115" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1115" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M1115" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q1115" t="n">
         <v>1</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -80700,7 +80700,7 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
@@ -80709,16 +80709,16 @@
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1116" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1116" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1116" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1117" t="n">
         <v>4</v>
@@ -80772,7 +80772,7 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
@@ -80781,7 +80781,7 @@
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="K1117" t="n">
         <v>700</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1118" t="n">
         <v>4</v>
@@ -80844,7 +80844,7 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
@@ -80916,7 +80916,7 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
@@ -80925,16 +80925,16 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1119" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L1119" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1119" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80988,7 +80988,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -80997,16 +80997,16 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K1120" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L1120" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1120" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1121" t="n">
         <v>4</v>
@@ -81060,7 +81060,7 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
@@ -81069,16 +81069,16 @@
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1121" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1121" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1121" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1121" t="n">
         <v>1</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1122" t="n">
         <v>4</v>
@@ -81132,7 +81132,7 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
@@ -81141,16 +81141,16 @@
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>1340</v>
+        <v>1400</v>
       </c>
       <c r="K1122" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1122" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1122" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1122" t="n">
         <v>1</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1123" t="n">
         <v>4</v>
@@ -81204,7 +81204,7 @@
       </c>
       <c r="H1123" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1123" t="inlineStr">
@@ -81216,13 +81216,13 @@
         <v>2000</v>
       </c>
       <c r="K1123" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1123" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1123" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1123" t="n">
         <v>1</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1124" t="n">
         <v>4</v>
@@ -81276,7 +81276,7 @@
       </c>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
@@ -81285,16 +81285,16 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="K1124" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1124" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1124" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1124" t="n">
         <v>1</v>
@@ -81348,7 +81348,7 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
@@ -81420,7 +81420,7 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
@@ -81429,7 +81429,7 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="K1126" t="n">
         <v>450</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1127" t="n">
         <v>4</v>
@@ -81492,7 +81492,7 @@
       </c>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1127" t="inlineStr">
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -81564,7 +81564,7 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -81573,7 +81573,7 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="K1128" t="n">
         <v>450</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1129" t="n">
         <v>4</v>
@@ -81636,7 +81636,7 @@
       </c>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1130" t="n">
         <v>4</v>
@@ -81708,7 +81708,7 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
@@ -81780,7 +81780,7 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
@@ -81852,7 +81852,7 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
@@ -81861,7 +81861,7 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>1300</v>
+        <v>1360</v>
       </c>
       <c r="K1132" t="n">
         <v>450</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1133" t="n">
         <v>4</v>
@@ -81924,7 +81924,7 @@
       </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1133" t="inlineStr">
@@ -81933,16 +81933,16 @@
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1133" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L1133" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M1133" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="Q1133" t="n">
         <v>1</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1134" t="n">
         <v>4</v>
@@ -81996,7 +81996,7 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
@@ -82005,16 +82005,16 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>1360</v>
+        <v>1300</v>
       </c>
       <c r="K1134" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1134" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1134" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1134" t="n">
         <v>1</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1135" t="n">
         <v>4</v>
@@ -82068,7 +82068,7 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
@@ -82077,16 +82077,16 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1135" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L1135" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M1135" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="Q1135" t="n">
         <v>1</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1136" t="n">
         <v>4</v>
@@ -82140,7 +82140,7 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
@@ -82149,16 +82149,16 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>1340</v>
+        <v>1300</v>
       </c>
       <c r="K1136" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1136" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1136" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1136" t="n">
         <v>1</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1137" t="n">
         <v>4</v>
@@ -82221,16 +82221,16 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1137" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1137" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1137" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82243,7 +82243,7 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1137" t="n">
         <v>1</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1138" t="n">
         <v>4</v>
@@ -82293,16 +82293,16 @@
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>1680</v>
+        <v>1360</v>
       </c>
       <c r="K1138" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1138" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1138" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82315,7 +82315,7 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1138" t="n">
         <v>1</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1139" t="n">
         <v>4</v>
@@ -82365,16 +82365,16 @@
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1139" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1139" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1139" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1139" t="n">
         <v>1</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1140" t="n">
         <v>4</v>
@@ -82437,16 +82437,16 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>1600</v>
+        <v>1340</v>
       </c>
       <c r="K1140" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1140" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1140" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1140" t="n">
         <v>1</v>
@@ -82500,7 +82500,7 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
@@ -82509,7 +82509,7 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1141" t="n">
         <v>750</v>
@@ -82572,7 +82572,7 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
@@ -82581,7 +82581,7 @@
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>1560</v>
+        <v>1680</v>
       </c>
       <c r="K1142" t="n">
         <v>650</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1143" t="n">
         <v>4</v>
@@ -82644,7 +82644,7 @@
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1143" t="inlineStr">
@@ -82653,7 +82653,7 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1143" t="n">
         <v>750</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1144" t="n">
         <v>4</v>
@@ -82716,7 +82716,7 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
@@ -82725,7 +82725,7 @@
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1144" t="n">
         <v>650</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1145" t="n">
         <v>4</v>
@@ -82788,7 +82788,7 @@
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
@@ -82797,16 +82797,16 @@
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1145" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1145" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1145" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82819,7 +82819,7 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1145" t="n">
         <v>1</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1146" t="n">
         <v>4</v>
@@ -82860,7 +82860,7 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
@@ -82869,16 +82869,16 @@
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K1146" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1146" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1146" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1146" t="n">
         <v>1</v>
@@ -82932,7 +82932,7 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
@@ -82944,13 +82944,13 @@
         <v>2000</v>
       </c>
       <c r="K1147" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1147" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1147" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1147" t="n">
         <v>1</v>
@@ -83004,7 +83004,7 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
@@ -83013,16 +83013,16 @@
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K1148" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1148" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1148" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83035,7 +83035,7 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1148" t="n">
         <v>1</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1149" t="n">
         <v>4</v>
@@ -83076,7 +83076,7 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -83085,16 +83085,16 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1149" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L1149" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M1149" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="Q1149" t="n">
         <v>1</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1150" t="n">
         <v>4</v>
@@ -83148,7 +83148,7 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
@@ -83157,16 +83157,16 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>1660</v>
+        <v>1400</v>
       </c>
       <c r="K1150" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1150" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1150" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1150" t="n">
         <v>1</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1151" t="n">
         <v>4</v>
@@ -83220,7 +83220,7 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
@@ -83229,16 +83229,16 @@
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1151" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L1151" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1151" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83251,7 +83251,7 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q1151" t="n">
         <v>1</v>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1152" t="n">
         <v>4</v>
@@ -83292,7 +83292,7 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
@@ -83301,16 +83301,16 @@
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>1560</v>
+        <v>1360</v>
       </c>
       <c r="K1152" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1152" t="n">
         <v>600</v>
       </c>
-      <c r="L1152" t="n">
-        <v>700</v>
-      </c>
       <c r="M1152" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q1152" t="n">
         <v>1</v>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1153" t="n">
         <v>4</v>
@@ -83373,16 +83373,16 @@
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1153" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1153" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1153" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83395,7 +83395,7 @@
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1153" t="n">
         <v>1</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1154" t="n">
         <v>4</v>
@@ -83445,16 +83445,16 @@
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>1600</v>
+        <v>1660</v>
       </c>
       <c r="K1154" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L1154" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1154" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
@@ -83467,7 +83467,7 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q1154" t="n">
         <v>1</v>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1155" t="n">
         <v>4</v>
@@ -83520,13 +83520,13 @@
         <v>2800</v>
       </c>
       <c r="K1155" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L1155" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M1155" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83539,7 +83539,7 @@
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q1155" t="n">
         <v>1</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1156" t="n">
         <v>4</v>
@@ -83589,16 +83589,16 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K1156" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L1156" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1156" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83611,7 +83611,7 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q1156" t="n">
         <v>1</v>
@@ -83652,7 +83652,7 @@
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
@@ -83661,7 +83661,7 @@
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1157" t="n">
         <v>750</v>
@@ -83724,7 +83724,7 @@
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1158" t="inlineStr">
@@ -83733,7 +83733,7 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K1158" t="n">
         <v>600</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1159" t="n">
         <v>4</v>
@@ -83796,7 +83796,7 @@
       </c>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1159" t="inlineStr">
@@ -83805,16 +83805,16 @@
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="K1159" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1159" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1159" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
@@ -83827,7 +83827,7 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1159" t="n">
         <v>1</v>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1160" t="n">
         <v>4</v>
@@ -83868,7 +83868,7 @@
       </c>
       <c r="H1160" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1160" t="inlineStr">
@@ -83877,16 +83877,16 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>608</v>
+        <v>1400</v>
       </c>
       <c r="K1160" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1160" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1160" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83899,7 +83899,7 @@
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1160" t="n">
         <v>1</v>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1161" t="n">
         <v>4</v>
@@ -83940,7 +83940,7 @@
       </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1161" t="inlineStr">
@@ -83949,16 +83949,16 @@
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K1161" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1161" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1161" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1161" t="n">
         <v>1</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1162" t="n">
         <v>4</v>
@@ -84012,7 +84012,7 @@
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1162" t="inlineStr">
@@ -84021,16 +84021,16 @@
         </is>
       </c>
       <c r="J1162" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1162" t="n">
         <v>700</v>
       </c>
-      <c r="K1162" t="n">
-        <v>450</v>
-      </c>
-      <c r="L1162" t="n">
-        <v>500</v>
-      </c>
       <c r="M1162" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q1162" t="n">
         <v>1</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1163" t="n">
         <v>4</v>
@@ -84093,16 +84093,16 @@
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="K1163" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1163" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1163" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1163" t="n">
         <v>1</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1164" t="n">
         <v>4</v>
@@ -84165,16 +84165,16 @@
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>1400</v>
+        <v>608</v>
       </c>
       <c r="K1164" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1164" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1164" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1164" t="n">
         <v>1</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1165" t="n">
         <v>4</v>
@@ -84237,16 +84237,16 @@
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="K1165" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1165" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1165" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
@@ -84259,7 +84259,7 @@
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1165" t="n">
         <v>1</v>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1166" t="n">
         <v>4</v>
@@ -84309,16 +84309,16 @@
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="K1166" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L1166" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1166" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84331,7 +84331,7 @@
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q1166" t="n">
         <v>1</v>
@@ -84372,7 +84372,7 @@
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1167" t="inlineStr">
@@ -84444,7 +84444,7 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
@@ -84453,7 +84453,7 @@
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="K1168" t="n">
         <v>650</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1169" t="n">
         <v>4</v>
@@ -84516,7 +84516,7 @@
       </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1169" t="inlineStr">
@@ -84525,16 +84525,16 @@
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1169" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1169" t="n">
         <v>700</v>
       </c>
-      <c r="L1169" t="n">
-        <v>800</v>
-      </c>
       <c r="M1169" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
@@ -84547,7 +84547,7 @@
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1169" t="n">
         <v>1</v>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1170" t="n">
         <v>4</v>
@@ -84588,7 +84588,7 @@
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1170" t="inlineStr">
@@ -84597,7 +84597,7 @@
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1170" t="n">
         <v>550</v>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1171" t="n">
         <v>4</v>
@@ -84660,7 +84660,7 @@
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
@@ -84669,16 +84669,16 @@
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1171" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1171" t="n">
         <v>800</v>
       </c>
       <c r="M1171" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
@@ -84691,7 +84691,7 @@
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1171" t="n">
         <v>1</v>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1172" t="n">
         <v>4</v>
@@ -84732,7 +84732,7 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
@@ -84741,16 +84741,16 @@
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>1660</v>
+        <v>1200</v>
       </c>
       <c r="K1172" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1172" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1172" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
@@ -84763,7 +84763,7 @@
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1172" t="n">
         <v>1</v>
@@ -84804,7 +84804,7 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
@@ -84813,7 +84813,7 @@
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1173" t="n">
         <v>700</v>
@@ -84876,7 +84876,7 @@
       </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1174" t="inlineStr">
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1175" t="n">
         <v>4</v>
@@ -84948,7 +84948,7 @@
       </c>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1175" t="inlineStr">
@@ -84957,16 +84957,16 @@
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1175" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1175" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M1175" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
@@ -84979,7 +84979,7 @@
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q1175" t="n">
         <v>1</v>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1176" t="n">
         <v>4</v>
@@ -85020,7 +85020,7 @@
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1176" t="inlineStr">
@@ -85029,16 +85029,16 @@
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>1500</v>
+        <v>1660</v>
       </c>
       <c r="K1176" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1176" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1176" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
@@ -85051,7 +85051,7 @@
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1176" t="n">
         <v>1</v>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1177" t="n">
         <v>4</v>
@@ -85092,7 +85092,7 @@
       </c>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
@@ -85101,7 +85101,7 @@
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K1177" t="n">
         <v>700</v>
@@ -85149,7 +85149,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1178" t="n">
         <v>4</v>
@@ -85164,7 +85164,7 @@
       </c>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1178" t="inlineStr">
@@ -85173,16 +85173,16 @@
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1178" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1178" t="n">
         <v>600</v>
       </c>
       <c r="M1178" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
@@ -85195,7 +85195,7 @@
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1178" t="n">
         <v>1</v>
@@ -85236,7 +85236,7 @@
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1179" t="inlineStr">
@@ -85245,16 +85245,16 @@
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1179" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L1179" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1179" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
@@ -85267,7 +85267,7 @@
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="Q1179" t="n">
         <v>1</v>
@@ -85308,7 +85308,7 @@
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1180" t="inlineStr">
@@ -85317,16 +85317,16 @@
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>1340</v>
+        <v>1500</v>
       </c>
       <c r="K1180" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1180" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1180" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q1180" t="n">
         <v>1</v>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1181" t="n">
         <v>4</v>
@@ -85380,7 +85380,7 @@
       </c>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1181" t="inlineStr">
@@ -85389,16 +85389,16 @@
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="K1181" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1181" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1181" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
@@ -85411,7 +85411,7 @@
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1181" t="n">
         <v>1</v>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1182" t="n">
         <v>4</v>
@@ -85452,7 +85452,7 @@
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1182" t="inlineStr">
@@ -85461,17 +85461,17 @@
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1182" t="n">
         <v>500</v>
       </c>
       <c r="L1182" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1182" t="n">
         <v>550</v>
       </c>
-      <c r="M1182" t="n">
-        <v>525</v>
-      </c>
       <c r="N1182" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -85483,7 +85483,7 @@
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q1182" t="n">
         <v>1</v>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1183" t="n">
         <v>4</v>
@@ -85524,7 +85524,7 @@
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1183" t="inlineStr">
@@ -85533,16 +85533,16 @@
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>3060</v>
+        <v>2400</v>
       </c>
       <c r="K1183" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1183" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1183" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85555,7 +85555,7 @@
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1183" t="n">
         <v>1</v>
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1184" t="n">
         <v>4</v>
@@ -85596,7 +85596,7 @@
       </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1184" t="inlineStr">
@@ -85605,17 +85605,17 @@
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>1640</v>
+        <v>1340</v>
       </c>
       <c r="K1184" t="n">
         <v>500</v>
       </c>
       <c r="L1184" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1184" t="n">
         <v>550</v>
       </c>
-      <c r="M1184" t="n">
-        <v>525</v>
-      </c>
       <c r="N1184" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -85627,7 +85627,7 @@
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q1184" t="n">
         <v>1</v>
@@ -85668,7 +85668,7 @@
       </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1185" t="inlineStr">
@@ -85677,7 +85677,7 @@
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>2920</v>
+        <v>3100</v>
       </c>
       <c r="K1185" t="n">
         <v>650</v>
@@ -85740,7 +85740,7 @@
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1186" t="inlineStr">
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1187" t="n">
         <v>4</v>
@@ -85812,7 +85812,7 @@
       </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1187" t="inlineStr">
@@ -85821,16 +85821,16 @@
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>2400</v>
+        <v>3060</v>
       </c>
       <c r="K1187" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L1187" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1187" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
@@ -85843,7 +85843,7 @@
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q1187" t="n">
         <v>1</v>
@@ -85869,7 +85869,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1188" t="n">
         <v>4</v>
@@ -85884,7 +85884,7 @@
       </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1188" t="inlineStr">
@@ -85893,16 +85893,16 @@
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>1400</v>
+        <v>1640</v>
       </c>
       <c r="K1188" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1188" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M1188" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
@@ -85915,7 +85915,7 @@
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q1188" t="n">
         <v>1</v>
@@ -85941,7 +85941,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1189" t="n">
         <v>4</v>
@@ -85956,7 +85956,7 @@
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1189" t="inlineStr">
@@ -85965,16 +85965,16 @@
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>2400</v>
+        <v>2920</v>
       </c>
       <c r="K1189" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1189" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1189" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
@@ -85987,7 +85987,7 @@
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1189" t="n">
         <v>1</v>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1190" t="n">
         <v>4</v>
@@ -86028,7 +86028,7 @@
       </c>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1190" t="inlineStr">
@@ -86037,16 +86037,16 @@
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>1460</v>
+        <v>1600</v>
       </c>
       <c r="K1190" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1190" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M1190" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
@@ -86059,7 +86059,7 @@
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q1190" t="n">
         <v>1</v>
@@ -86100,7 +86100,7 @@
       </c>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1191" t="inlineStr">
@@ -86109,16 +86109,16 @@
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1191" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L1191" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1191" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
@@ -86131,7 +86131,7 @@
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="Q1191" t="n">
         <v>1</v>
@@ -86172,7 +86172,7 @@
       </c>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1192" t="inlineStr">
@@ -86184,13 +86184,13 @@
         <v>1400</v>
       </c>
       <c r="K1192" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1192" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1192" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86203,7 +86203,7 @@
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1192" t="n">
         <v>1</v>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1193" t="n">
         <v>4</v>
@@ -86244,7 +86244,7 @@
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1193" t="inlineStr">
@@ -86253,16 +86253,16 @@
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>2840</v>
+        <v>2400</v>
       </c>
       <c r="K1193" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1193" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1193" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
@@ -86275,7 +86275,7 @@
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1193" t="n">
         <v>1</v>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1194" t="n">
         <v>4</v>
@@ -86316,7 +86316,7 @@
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1194" t="inlineStr">
@@ -86325,16 +86325,16 @@
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K1194" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1194" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M1194" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q1194" t="n">
         <v>1</v>
@@ -86373,7 +86373,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1195" t="n">
         <v>4</v>
@@ -86388,7 +86388,7 @@
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1195" t="inlineStr">
@@ -86397,16 +86397,16 @@
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>3080</v>
+        <v>2000</v>
       </c>
       <c r="K1195" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1195" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1195" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
@@ -86419,7 +86419,7 @@
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1195" t="n">
         <v>1</v>
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1196" t="n">
         <v>4</v>
@@ -86460,7 +86460,7 @@
       </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1196" t="inlineStr">
@@ -86469,16 +86469,16 @@
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K1196" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1196" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M1196" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
@@ -86491,7 +86491,7 @@
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q1196" t="n">
         <v>1</v>
@@ -86532,7 +86532,7 @@
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1197" t="inlineStr">
@@ -86541,7 +86541,7 @@
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>2800</v>
+        <v>2840</v>
       </c>
       <c r="K1197" t="n">
         <v>650</v>
@@ -86604,7 +86604,7 @@
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1198" t="inlineStr">
@@ -86613,7 +86613,7 @@
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K1198" t="n">
         <v>500</v>
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1199" t="n">
         <v>4</v>
@@ -86676,7 +86676,7 @@
       </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1199" t="inlineStr">
@@ -86685,16 +86685,16 @@
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>2400</v>
+        <v>3080</v>
       </c>
       <c r="K1199" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1199" t="n">
         <v>700</v>
       </c>
-      <c r="L1199" t="n">
-        <v>750</v>
-      </c>
       <c r="M1199" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
@@ -86707,7 +86707,7 @@
         </is>
       </c>
       <c r="P1199" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1199" t="n">
         <v>1</v>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1200" t="n">
         <v>4</v>
@@ -86748,7 +86748,7 @@
       </c>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1200" t="inlineStr">
@@ -86757,16 +86757,16 @@
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K1200" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1200" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M1200" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
@@ -86779,7 +86779,7 @@
         </is>
       </c>
       <c r="P1200" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q1200" t="n">
         <v>1</v>
@@ -86805,7 +86805,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1201" t="n">
         <v>4</v>
@@ -86820,7 +86820,7 @@
       </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1201" t="inlineStr">
@@ -86829,16 +86829,16 @@
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1201" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1201" t="n">
         <v>700</v>
       </c>
-      <c r="L1201" t="n">
-        <v>750</v>
-      </c>
       <c r="M1201" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1201" t="inlineStr">
         <is>
@@ -86851,7 +86851,7 @@
         </is>
       </c>
       <c r="P1201" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1201" t="n">
         <v>1</v>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1202" t="n">
         <v>4</v>
@@ -86892,7 +86892,7 @@
       </c>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1202" t="inlineStr">
@@ -86901,16 +86901,16 @@
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>1440</v>
+        <v>1500</v>
       </c>
       <c r="K1202" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1202" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M1202" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
@@ -86923,7 +86923,7 @@
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q1202" t="n">
         <v>1</v>
@@ -86964,7 +86964,7 @@
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1203" t="inlineStr">
@@ -86973,7 +86973,7 @@
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1203" t="n">
         <v>700</v>
@@ -87036,7 +87036,7 @@
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1204" t="inlineStr">
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1205" t="n">
         <v>4</v>
@@ -87108,7 +87108,7 @@
       </c>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1205" t="inlineStr">
@@ -87117,16 +87117,16 @@
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1205" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1205" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1205" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
@@ -87139,7 +87139,7 @@
         </is>
       </c>
       <c r="P1205" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1205" t="n">
         <v>1</v>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1206" t="n">
         <v>4</v>
@@ -87180,7 +87180,7 @@
       </c>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1206" t="inlineStr">
@@ -87189,16 +87189,16 @@
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>1560</v>
+        <v>1440</v>
       </c>
       <c r="K1206" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1206" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1206" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
@@ -87211,7 +87211,7 @@
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1206" t="n">
         <v>1</v>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1207" t="n">
         <v>4</v>
@@ -87252,7 +87252,7 @@
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1207" t="inlineStr">
@@ -87261,16 +87261,16 @@
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1207" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1207" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1207" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
@@ -87283,7 +87283,7 @@
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1207" t="n">
         <v>1</v>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1208" t="n">
         <v>4</v>
@@ -87324,7 +87324,7 @@
       </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1208" t="inlineStr">
@@ -87333,16 +87333,16 @@
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1208" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1208" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1208" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
@@ -87355,7 +87355,7 @@
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1208" t="n">
         <v>1</v>
@@ -87396,7 +87396,7 @@
       </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1209" t="inlineStr">
@@ -87468,7 +87468,7 @@
       </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1210" t="inlineStr">
@@ -87477,7 +87477,7 @@
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="K1210" t="n">
         <v>550</v>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1211" t="n">
         <v>4</v>
@@ -87540,7 +87540,7 @@
       </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1211" t="inlineStr">
@@ -87549,7 +87549,7 @@
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1211" t="n">
         <v>650</v>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1212" t="n">
         <v>4</v>
@@ -87612,7 +87612,7 @@
       </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
@@ -87621,7 +87621,7 @@
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1212" t="n">
         <v>550</v>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1213" t="n">
         <v>4</v>
@@ -87684,7 +87684,7 @@
       </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1213" t="inlineStr">
@@ -87693,7 +87693,7 @@
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1213" t="n">
         <v>650</v>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1214" t="n">
         <v>4</v>
@@ -87756,7 +87756,7 @@
       </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1214" t="inlineStr">
@@ -87765,7 +87765,7 @@
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1214" t="n">
         <v>550</v>
@@ -87828,7 +87828,7 @@
       </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1215" t="inlineStr">
@@ -87900,7 +87900,7 @@
       </c>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1216" t="inlineStr">
@@ -87909,7 +87909,7 @@
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K1216" t="n">
         <v>550</v>
@@ -87957,7 +87957,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1217" t="n">
         <v>4</v>
@@ -87972,7 +87972,7 @@
       </c>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1217" t="inlineStr">
@@ -87981,16 +87981,16 @@
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1217" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L1217" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M1217" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
@@ -88003,7 +88003,7 @@
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="Q1217" t="n">
         <v>1</v>
@@ -88029,7 +88029,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1218" t="n">
         <v>4</v>
@@ -88044,7 +88044,7 @@
       </c>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1218" t="inlineStr">
@@ -88053,16 +88053,16 @@
         </is>
       </c>
       <c r="J1218" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1218" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1218" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1218" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
@@ -88075,7 +88075,7 @@
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1218" t="n">
         <v>1</v>
@@ -88101,7 +88101,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1219" t="n">
         <v>4</v>
@@ -88116,7 +88116,7 @@
       </c>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1219" t="inlineStr">
@@ -88125,16 +88125,16 @@
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1219" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1219" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1219" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
@@ -88147,7 +88147,7 @@
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1219" t="n">
         <v>1</v>
@@ -88173,7 +88173,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1220" t="n">
         <v>4</v>
@@ -88188,7 +88188,7 @@
       </c>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1220" t="inlineStr">
@@ -88197,16 +88197,16 @@
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K1220" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1220" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1220" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
@@ -88219,7 +88219,7 @@
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1220" t="n">
         <v>1</v>
@@ -88260,7 +88260,7 @@
       </c>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1221" t="inlineStr">
@@ -88269,16 +88269,16 @@
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1221" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1221" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1221" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
@@ -88291,7 +88291,7 @@
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1221" t="n">
         <v>1</v>
@@ -88332,7 +88332,7 @@
       </c>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1222" t="inlineStr">
@@ -88341,16 +88341,16 @@
         </is>
       </c>
       <c r="J1222" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1222" t="n">
         <v>800</v>
       </c>
-      <c r="K1222" t="n">
-        <v>650</v>
-      </c>
-      <c r="L1222" t="n">
-        <v>700</v>
-      </c>
       <c r="M1222" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
@@ -88363,7 +88363,7 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1222" t="n">
         <v>1</v>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1223" t="n">
         <v>4</v>
@@ -88404,7 +88404,7 @@
       </c>
       <c r="H1223" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1223" t="inlineStr">
@@ -88413,16 +88413,16 @@
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1223" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1223" t="n">
         <v>800</v>
       </c>
-      <c r="L1223" t="n">
-        <v>900</v>
-      </c>
       <c r="M1223" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
@@ -88435,7 +88435,7 @@
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q1223" t="n">
         <v>1</v>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1224" t="n">
         <v>4</v>
@@ -88476,7 +88476,7 @@
       </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1224" t="inlineStr">
@@ -88485,16 +88485,16 @@
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>1260</v>
+        <v>1500</v>
       </c>
       <c r="K1224" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1224" t="n">
         <v>700</v>
       </c>
       <c r="M1224" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
@@ -88507,7 +88507,7 @@
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q1224" t="n">
         <v>1</v>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1225" t="n">
         <v>4</v>
@@ -88548,7 +88548,7 @@
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1225" t="inlineStr">
@@ -88557,16 +88557,16 @@
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1225" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1225" t="n">
         <v>800</v>
       </c>
       <c r="M1225" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
@@ -88579,7 +88579,7 @@
         </is>
       </c>
       <c r="P1225" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1225" t="n">
         <v>1</v>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1226" t="n">
         <v>4</v>
@@ -88620,7 +88620,7 @@
       </c>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1226" t="inlineStr">
@@ -88629,16 +88629,16 @@
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>1280</v>
+        <v>800</v>
       </c>
       <c r="K1226" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1226" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1226" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
@@ -88651,7 +88651,7 @@
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1226" t="n">
         <v>1</v>
@@ -88692,7 +88692,7 @@
       </c>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1227" t="inlineStr">
@@ -88701,16 +88701,16 @@
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1227" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L1227" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1227" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
@@ -88723,7 +88723,7 @@
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="Q1227" t="n">
         <v>1</v>
@@ -88764,7 +88764,7 @@
       </c>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1228" t="inlineStr">
@@ -88773,16 +88773,16 @@
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>1280</v>
+        <v>1260</v>
       </c>
       <c r="K1228" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L1228" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1228" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
@@ -88795,7 +88795,7 @@
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q1228" t="n">
         <v>1</v>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1229" t="n">
         <v>4</v>
@@ -88836,7 +88836,7 @@
       </c>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1229" t="inlineStr">
@@ -88845,16 +88845,16 @@
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1229" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1229" t="n">
         <v>800</v>
       </c>
       <c r="M1229" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
@@ -88867,7 +88867,7 @@
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1229" t="n">
         <v>1</v>
@@ -88893,7 +88893,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1230" t="n">
         <v>4</v>
@@ -88908,7 +88908,7 @@
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1230" t="inlineStr">
@@ -88917,16 +88917,16 @@
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="K1230" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1230" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1230" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
@@ -88939,7 +88939,7 @@
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1230" t="n">
         <v>1</v>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1231" t="n">
         <v>4</v>
@@ -88980,7 +88980,7 @@
       </c>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1231" t="inlineStr">
@@ -88989,16 +88989,16 @@
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1231" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1231" t="n">
         <v>800</v>
       </c>
       <c r="M1231" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
@@ -89011,7 +89011,7 @@
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1231" t="n">
         <v>1</v>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1232" t="n">
         <v>4</v>
@@ -89052,7 +89052,7 @@
       </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1232" t="inlineStr">
@@ -89061,16 +89061,16 @@
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>1560</v>
+        <v>1280</v>
       </c>
       <c r="K1232" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1232" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1232" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
@@ -89083,7 +89083,7 @@
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1232" t="n">
         <v>1</v>
@@ -89124,7 +89124,7 @@
       </c>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1233" t="inlineStr">
@@ -89196,7 +89196,7 @@
       </c>
       <c r="H1234" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1234" t="inlineStr">
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1235" t="n">
         <v>4</v>
@@ -89268,7 +89268,7 @@
       </c>
       <c r="H1235" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1235" t="inlineStr">
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1236" t="n">
         <v>4</v>
@@ -89340,7 +89340,7 @@
       </c>
       <c r="H1236" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1236" t="inlineStr">
@@ -89349,7 +89349,7 @@
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>1660</v>
+        <v>1560</v>
       </c>
       <c r="K1236" t="n">
         <v>650</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1237" t="n">
         <v>4</v>
@@ -89412,7 +89412,7 @@
       </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1237" t="inlineStr">
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1238" t="n">
         <v>4</v>
@@ -89484,7 +89484,7 @@
       </c>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1238" t="inlineStr">
@@ -89556,7 +89556,7 @@
       </c>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1239" t="inlineStr">
@@ -89565,7 +89565,7 @@
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1239" t="n">
         <v>750</v>
@@ -89628,7 +89628,7 @@
       </c>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1240" t="inlineStr">
@@ -89637,7 +89637,7 @@
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>1600</v>
+        <v>1660</v>
       </c>
       <c r="K1240" t="n">
         <v>650</v>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1241" t="n">
         <v>4</v>
@@ -89700,7 +89700,7 @@
       </c>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1241" t="inlineStr">
@@ -89709,16 +89709,16 @@
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1241" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1241" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1241" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
@@ -89731,7 +89731,7 @@
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1241" t="n">
         <v>1</v>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1242" t="n">
         <v>4</v>
@@ -89772,7 +89772,7 @@
       </c>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1242" t="inlineStr">
@@ -89781,16 +89781,16 @@
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1242" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1242" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1242" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
@@ -89803,7 +89803,7 @@
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1242" t="n">
         <v>1</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1243" t="n">
         <v>4</v>
@@ -89844,7 +89844,7 @@
       </c>
       <c r="H1243" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1243" t="inlineStr">
@@ -89853,16 +89853,16 @@
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1243" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1243" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1243" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1243" t="n">
         <v>1</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1244" t="n">
         <v>4</v>
@@ -89916,7 +89916,7 @@
       </c>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1244" t="inlineStr">
@@ -89925,16 +89925,16 @@
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="K1244" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1244" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1244" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89947,7 +89947,7 @@
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1244" t="n">
         <v>1</v>
@@ -89988,7 +89988,7 @@
       </c>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1245" t="inlineStr">
@@ -89997,7 +89997,7 @@
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K1245" t="n">
         <v>700</v>
@@ -90060,7 +90060,7 @@
       </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1246" t="inlineStr">
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1247" t="n">
         <v>4</v>
@@ -90132,7 +90132,7 @@
       </c>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1247" t="inlineStr">
@@ -90141,16 +90141,16 @@
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1247" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1247" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M1247" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90163,7 +90163,7 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q1247" t="n">
         <v>1</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1248" t="n">
         <v>4</v>
@@ -90204,7 +90204,7 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
@@ -90213,16 +90213,16 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>1700</v>
+        <v>1440</v>
       </c>
       <c r="K1248" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L1248" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1248" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90235,7 +90235,7 @@
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="Q1248" t="n">
         <v>1</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1249" t="n">
         <v>4</v>
@@ -90276,7 +90276,7 @@
       </c>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1249" t="inlineStr">
@@ -90285,16 +90285,16 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K1249" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1249" t="n">
         <v>750</v>
       </c>
-      <c r="L1249" t="n">
-        <v>800</v>
-      </c>
       <c r="M1249" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90307,7 +90307,7 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1249" t="n">
         <v>1</v>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1250" t="n">
         <v>4</v>
@@ -90348,7 +90348,7 @@
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1250" t="inlineStr">
@@ -90357,16 +90357,16 @@
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1250" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1250" t="n">
         <v>650</v>
       </c>
-      <c r="L1250" t="n">
-        <v>700</v>
-      </c>
       <c r="M1250" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
@@ -90379,7 +90379,7 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1250" t="n">
         <v>1</v>
@@ -90420,7 +90420,7 @@
       </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1251" t="inlineStr">
@@ -90429,16 +90429,16 @@
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1251" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L1251" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1251" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
@@ -90451,7 +90451,7 @@
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="Q1251" t="n">
         <v>1</v>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1252" t="n">
         <v>4</v>
@@ -90497,20 +90497,20 @@
       </c>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="K1252" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L1252" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M1252" t="n">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
@@ -90523,7 +90523,7 @@
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="Q1252" t="n">
         <v>1</v>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1253" t="n">
         <v>4</v>
@@ -90564,16 +90564,16 @@
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>1560</v>
+        <v>3000</v>
       </c>
       <c r="K1253" t="n">
         <v>750</v>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1254" t="n">
         <v>4</v>
@@ -90641,20 +90641,20 @@
       </c>
       <c r="I1254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="K1254" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1254" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1254" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
@@ -90667,7 +90667,7 @@
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1254" t="n">
         <v>1</v>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1255" t="n">
         <v>4</v>
@@ -90708,25 +90708,25 @@
       </c>
       <c r="H1255" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="K1255" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1255" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1255" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90739,7 +90739,7 @@
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1255" t="n">
         <v>1</v>
@@ -90780,7 +90780,7 @@
       </c>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
@@ -90789,16 +90789,16 @@
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="K1256" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L1256" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1256" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90811,7 +90811,7 @@
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="Q1256" t="n">
         <v>1</v>
@@ -90852,7 +90852,7 @@
       </c>
       <c r="H1257" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1257" t="inlineStr">
@@ -90861,16 +90861,16 @@
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>1480</v>
+        <v>1560</v>
       </c>
       <c r="K1257" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1257" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1257" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90883,7 +90883,7 @@
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1257" t="n">
         <v>1</v>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1258" t="n">
         <v>4</v>
@@ -90924,7 +90924,7 @@
       </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1258" t="inlineStr">
@@ -90933,16 +90933,16 @@
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1258" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1258" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1258" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
@@ -90955,7 +90955,7 @@
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1258" t="n">
         <v>1</v>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1259" t="n">
         <v>4</v>
@@ -90996,7 +90996,7 @@
       </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1259" t="inlineStr">
@@ -91005,16 +91005,16 @@
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>1460</v>
+        <v>1500</v>
       </c>
       <c r="K1259" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1259" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1259" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91027,7 +91027,7 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1259" t="n">
         <v>1</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1260" t="n">
         <v>4</v>
@@ -91068,7 +91068,7 @@
       </c>
       <c r="H1260" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1260" t="inlineStr">
@@ -91077,16 +91077,16 @@
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="K1260" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1260" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1260" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91099,7 +91099,7 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1260" t="n">
         <v>1</v>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1261" t="n">
         <v>4</v>
@@ -91140,7 +91140,7 @@
       </c>
       <c r="H1261" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1261" t="inlineStr">
@@ -91149,16 +91149,16 @@
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K1261" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1261" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1261" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91171,7 +91171,7 @@
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1261" t="n">
         <v>1</v>
@@ -91212,7 +91212,7 @@
       </c>
       <c r="H1262" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1262" t="inlineStr">
@@ -91221,7 +91221,7 @@
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1262" t="n">
         <v>550</v>
@@ -91284,7 +91284,7 @@
       </c>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1263" t="inlineStr">
@@ -91293,7 +91293,7 @@
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="K1263" t="n">
         <v>450</v>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1264" t="n">
         <v>4</v>
@@ -91356,7 +91356,7 @@
       </c>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1264" t="inlineStr">
@@ -91365,16 +91365,16 @@
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K1264" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1264" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1264" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91387,7 +91387,7 @@
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1264" t="n">
         <v>1</v>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1265" t="n">
         <v>4</v>
@@ -91428,7 +91428,7 @@
       </c>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1265" t="inlineStr">
@@ -91437,16 +91437,16 @@
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1265" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L1265" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1265" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
@@ -91459,7 +91459,7 @@
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q1265" t="n">
         <v>1</v>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1266" t="n">
         <v>4</v>
@@ -91500,7 +91500,7 @@
       </c>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1266" t="inlineStr">
@@ -91509,16 +91509,16 @@
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1266" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1266" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1266" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
@@ -91531,7 +91531,7 @@
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1266" t="n">
         <v>1</v>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1267" t="n">
         <v>4</v>
@@ -91572,7 +91572,7 @@
       </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1267" t="inlineStr">
@@ -91581,16 +91581,16 @@
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="K1267" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1267" t="n">
         <v>500</v>
       </c>
-      <c r="L1267" t="n">
-        <v>600</v>
-      </c>
       <c r="M1267" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
@@ -91603,7 +91603,7 @@
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q1267" t="n">
         <v>1</v>
@@ -91644,7 +91644,7 @@
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
@@ -91653,7 +91653,7 @@
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1268" t="n">
         <v>750</v>
@@ -91716,7 +91716,7 @@
       </c>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1269" t="inlineStr">
@@ -91725,7 +91725,7 @@
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K1269" t="n">
         <v>600</v>
@@ -91753,6 +91753,294 @@
         <v>1</v>
       </c>
       <c r="R1269" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1270" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1270" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1270" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1270" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1270" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>675</v>
+      </c>
+      <c r="N1270" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1270" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1270" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1270" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1271" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1271" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1271" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1271" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1271" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>550</v>
+      </c>
+      <c r="N1271" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1271" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1271" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1271" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1272" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1272" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1272" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1272" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1272" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>775</v>
+      </c>
+      <c r="N1272" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1272" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1272" t="n">
+        <v>775</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1272" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1273" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1273" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1273" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1273" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1273" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>650</v>
+      </c>
+      <c r="N1273" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1273" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1273" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1273" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1273"/>
+  <dimension ref="A1:R1279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88245,7 +88245,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1221" t="n">
         <v>4</v>
@@ -88269,16 +88269,16 @@
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K1221" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1221" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1221" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
@@ -88291,7 +88291,7 @@
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1221" t="n">
         <v>1</v>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1222" t="n">
         <v>4</v>
@@ -88341,16 +88341,16 @@
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K1222" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1222" t="n">
         <v>700</v>
       </c>
-      <c r="L1222" t="n">
-        <v>800</v>
-      </c>
       <c r="M1222" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
@@ -88363,7 +88363,7 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q1222" t="n">
         <v>1</v>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1223" t="n">
         <v>4</v>
@@ -88413,16 +88413,16 @@
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1223" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1223" t="n">
         <v>800</v>
       </c>
       <c r="M1223" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
@@ -88435,7 +88435,7 @@
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1223" t="n">
         <v>1</v>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1224" t="n">
         <v>4</v>
@@ -88485,16 +88485,16 @@
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="K1224" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1224" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1224" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
@@ -88507,7 +88507,7 @@
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1224" t="n">
         <v>1</v>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1225" t="n">
         <v>4</v>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1226" t="n">
         <v>4</v>
@@ -88629,16 +88629,16 @@
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>800</v>
+        <v>1280</v>
       </c>
       <c r="K1226" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1226" t="n">
         <v>700</v>
       </c>
       <c r="M1226" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
@@ -88651,7 +88651,7 @@
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1226" t="n">
         <v>1</v>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1227" t="n">
         <v>4</v>
@@ -88701,16 +88701,16 @@
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1227" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L1227" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M1227" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
@@ -88723,7 +88723,7 @@
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="Q1227" t="n">
         <v>1</v>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1228" t="n">
         <v>4</v>
@@ -88773,16 +88773,16 @@
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>1260</v>
+        <v>1600</v>
       </c>
       <c r="K1228" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L1228" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1228" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
@@ -88795,7 +88795,7 @@
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q1228" t="n">
         <v>1</v>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1229" t="n">
         <v>4</v>
@@ -88845,16 +88845,16 @@
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1229" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1229" t="n">
         <v>800</v>
       </c>
       <c r="M1229" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
@@ -88867,7 +88867,7 @@
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1229" t="n">
         <v>1</v>
@@ -88893,7 +88893,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1230" t="n">
         <v>4</v>
@@ -88917,16 +88917,16 @@
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="K1230" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1230" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1230" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
@@ -88939,7 +88939,7 @@
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1230" t="n">
         <v>1</v>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1231" t="n">
         <v>4</v>
@@ -88992,13 +88992,13 @@
         <v>2000</v>
       </c>
       <c r="K1231" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1231" t="n">
         <v>800</v>
       </c>
       <c r="M1231" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
@@ -89011,7 +89011,7 @@
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1231" t="n">
         <v>1</v>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1232" t="n">
         <v>4</v>
@@ -89061,16 +89061,16 @@
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>1280</v>
+        <v>800</v>
       </c>
       <c r="K1232" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1232" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1232" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
@@ -89083,7 +89083,7 @@
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1232" t="n">
         <v>1</v>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1233" t="n">
         <v>4</v>
@@ -89133,16 +89133,16 @@
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1233" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1233" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1233" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
@@ -89155,7 +89155,7 @@
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q1233" t="n">
         <v>1</v>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1234" t="n">
         <v>4</v>
@@ -89205,16 +89205,16 @@
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>1600</v>
+        <v>1260</v>
       </c>
       <c r="K1234" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1234" t="n">
         <v>700</v>
       </c>
       <c r="M1234" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
@@ -89227,7 +89227,7 @@
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1234" t="n">
         <v>1</v>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1235" t="n">
         <v>4</v>
@@ -89277,16 +89277,16 @@
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1235" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1235" t="n">
         <v>800</v>
       </c>
       <c r="M1235" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
@@ -89299,7 +89299,7 @@
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1235" t="n">
         <v>1</v>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1236" t="n">
         <v>4</v>
@@ -89349,16 +89349,16 @@
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>1560</v>
+        <v>1280</v>
       </c>
       <c r="K1236" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1236" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1236" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89371,7 +89371,7 @@
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1236" t="n">
         <v>1</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1237" t="n">
         <v>4</v>
@@ -89421,16 +89421,16 @@
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1237" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1237" t="n">
         <v>800</v>
       </c>
       <c r="M1237" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
@@ -89443,7 +89443,7 @@
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1237" t="n">
         <v>1</v>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1238" t="n">
         <v>4</v>
@@ -89493,16 +89493,16 @@
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="K1238" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1238" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1238" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
@@ -89515,7 +89515,7 @@
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1238" t="n">
         <v>1</v>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1239" t="n">
         <v>4</v>
@@ -89613,7 +89613,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1240" t="n">
         <v>4</v>
@@ -89637,7 +89637,7 @@
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>1660</v>
+        <v>1600</v>
       </c>
       <c r="K1240" t="n">
         <v>650</v>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1241" t="n">
         <v>4</v>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1242" t="n">
         <v>4</v>
@@ -89781,7 +89781,7 @@
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K1242" t="n">
         <v>650</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1243" t="n">
         <v>4</v>
@@ -89853,7 +89853,7 @@
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1243" t="n">
         <v>750</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1244" t="n">
         <v>4</v>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1245" t="n">
         <v>4</v>
@@ -89997,16 +89997,16 @@
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1245" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1245" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1245" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90019,7 +90019,7 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1245" t="n">
         <v>1</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1246" t="n">
         <v>4</v>
@@ -90069,16 +90069,16 @@
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>1400</v>
+        <v>1660</v>
       </c>
       <c r="K1246" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1246" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1246" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
@@ -90091,7 +90091,7 @@
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1246" t="n">
         <v>1</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1247" t="n">
         <v>4</v>
@@ -90141,16 +90141,16 @@
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1247" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1247" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1247" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90163,7 +90163,7 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1247" t="n">
         <v>1</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1248" t="n">
         <v>4</v>
@@ -90213,16 +90213,16 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="K1248" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1248" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1248" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90235,7 +90235,7 @@
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1248" t="n">
         <v>1</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1249" t="n">
         <v>4</v>
@@ -90285,16 +90285,16 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K1249" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1249" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1249" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90307,7 +90307,7 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1249" t="n">
         <v>1</v>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1250" t="n">
         <v>4</v>
@@ -90357,16 +90357,16 @@
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1250" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1250" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1250" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
@@ -90379,7 +90379,7 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1250" t="n">
         <v>1</v>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1251" t="n">
         <v>4</v>
@@ -90429,16 +90429,16 @@
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1251" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1251" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M1251" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
@@ -90451,7 +90451,7 @@
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q1251" t="n">
         <v>1</v>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1252" t="n">
         <v>4</v>
@@ -90501,16 +90501,16 @@
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K1252" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L1252" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1252" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
@@ -90523,7 +90523,7 @@
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="Q1252" t="n">
         <v>1</v>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1253" t="n">
         <v>4</v>
@@ -90573,16 +90573,16 @@
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1253" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1253" t="n">
         <v>750</v>
       </c>
-      <c r="L1253" t="n">
-        <v>800</v>
-      </c>
       <c r="M1253" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
@@ -90595,7 +90595,7 @@
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1253" t="n">
         <v>1</v>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1254" t="n">
         <v>4</v>
@@ -90645,16 +90645,16 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="K1254" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1254" t="n">
         <v>650</v>
       </c>
-      <c r="L1254" t="n">
-        <v>700</v>
-      </c>
       <c r="M1254" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
@@ -90667,7 +90667,7 @@
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1254" t="n">
         <v>1</v>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1255" t="n">
         <v>4</v>
@@ -90717,16 +90717,16 @@
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K1255" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1255" t="n">
         <v>750</v>
       </c>
-      <c r="L1255" t="n">
-        <v>800</v>
-      </c>
       <c r="M1255" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90739,7 +90739,7 @@
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1255" t="n">
         <v>1</v>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1256" t="n">
         <v>4</v>
@@ -90780,25 +90780,25 @@
       </c>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="K1256" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L1256" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M1256" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90811,7 +90811,7 @@
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="Q1256" t="n">
         <v>1</v>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1257" t="n">
         <v>4</v>
@@ -90857,20 +90857,20 @@
       </c>
       <c r="I1257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>1560</v>
+        <v>3000</v>
       </c>
       <c r="K1257" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L1257" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1257" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90883,7 +90883,7 @@
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="Q1257" t="n">
         <v>1</v>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1258" t="n">
         <v>4</v>
@@ -90924,16 +90924,16 @@
       </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="K1258" t="n">
         <v>750</v>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1259" t="n">
         <v>4</v>
@@ -91001,20 +91001,20 @@
       </c>
       <c r="I1259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="K1259" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1259" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1259" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91027,7 +91027,7 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1259" t="n">
         <v>1</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1260" t="n">
         <v>4</v>
@@ -91068,25 +91068,25 @@
       </c>
       <c r="H1260" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="K1260" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1260" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1260" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91099,7 +91099,7 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1260" t="n">
         <v>1</v>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1261" t="n">
         <v>4</v>
@@ -91145,20 +91145,20 @@
       </c>
       <c r="I1261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>1480</v>
+        <v>2400</v>
       </c>
       <c r="K1261" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1261" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1261" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91171,7 +91171,7 @@
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1261" t="n">
         <v>1</v>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1262" t="n">
         <v>4</v>
@@ -91221,16 +91221,16 @@
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1262" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L1262" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1262" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
@@ -91243,7 +91243,7 @@
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q1262" t="n">
         <v>1</v>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1263" t="n">
         <v>4</v>
@@ -91293,16 +91293,16 @@
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>1460</v>
+        <v>1560</v>
       </c>
       <c r="K1263" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L1263" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1263" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
@@ -91315,7 +91315,7 @@
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q1263" t="n">
         <v>1</v>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1264" t="n">
         <v>4</v>
@@ -91365,16 +91365,16 @@
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K1264" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1264" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1264" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91387,7 +91387,7 @@
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1264" t="n">
         <v>1</v>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1265" t="n">
         <v>4</v>
@@ -91437,16 +91437,16 @@
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1265" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1265" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1265" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
@@ -91459,7 +91459,7 @@
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1265" t="n">
         <v>1</v>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1266" t="n">
         <v>4</v>
@@ -91509,16 +91509,16 @@
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1266" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1266" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1266" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
@@ -91531,7 +91531,7 @@
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1266" t="n">
         <v>1</v>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1267" t="n">
         <v>4</v>
@@ -91581,16 +91581,16 @@
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K1267" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1267" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1267" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
@@ -91603,7 +91603,7 @@
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1267" t="n">
         <v>1</v>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1268" t="n">
         <v>4</v>
@@ -91653,16 +91653,16 @@
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1268" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1268" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1268" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
@@ -91675,7 +91675,7 @@
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1268" t="n">
         <v>1</v>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1269" t="n">
         <v>4</v>
@@ -91725,16 +91725,16 @@
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K1269" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L1269" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1269" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
@@ -91747,7 +91747,7 @@
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q1269" t="n">
         <v>1</v>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1270" t="n">
         <v>4</v>
@@ -91797,16 +91797,16 @@
         </is>
       </c>
       <c r="J1270" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K1270" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1270" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1270" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
@@ -91819,7 +91819,7 @@
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1270" t="n">
         <v>1</v>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1271" t="n">
         <v>4</v>
@@ -91872,13 +91872,13 @@
         <v>1400</v>
       </c>
       <c r="K1271" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1271" t="n">
         <v>500</v>
       </c>
-      <c r="L1271" t="n">
-        <v>600</v>
-      </c>
       <c r="M1271" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
@@ -91891,7 +91891,7 @@
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q1271" t="n">
         <v>1</v>
@@ -91917,7 +91917,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1272" t="n">
         <v>4</v>
@@ -91944,13 +91944,13 @@
         <v>2000</v>
       </c>
       <c r="K1272" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1272" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1272" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
@@ -91963,7 +91963,7 @@
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1272" t="n">
         <v>1</v>
@@ -91989,58 +91989,490 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1273" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1273" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1273" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1273" t="n">
+        <v>1440</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>475</v>
+      </c>
+      <c r="N1273" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1273" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1273" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1273" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1274" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1273" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1273" t="n">
-        <v>100112006</v>
-      </c>
-      <c r="G1273" t="inlineStr">
-        <is>
-          <t>Repollo</t>
-        </is>
-      </c>
-      <c r="H1273" t="inlineStr">
+      <c r="E1274" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1274" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1274" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1274" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1274" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>775</v>
+      </c>
+      <c r="N1274" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1274" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1274" t="n">
+        <v>775</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1274" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1275" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1275" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1275" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1275" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1275" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>650</v>
+      </c>
+      <c r="N1275" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1275" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1275" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1275" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1276" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1276" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1276" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1276" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1276" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>675</v>
+      </c>
+      <c r="N1276" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1276" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1276" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1276" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1277" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1277" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1277" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1277" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1277" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>550</v>
+      </c>
+      <c r="N1277" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1277" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1277" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1277" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1278" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1278" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1278" t="inlineStr">
         <is>
           <t>Morada(o)</t>
         </is>
       </c>
-      <c r="I1273" t="inlineStr">
+      <c r="I1278" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1278" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>775</v>
+      </c>
+      <c r="N1278" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1278" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1278" t="n">
+        <v>775</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1278" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1279" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1279" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1279" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1279" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1273" t="n">
+      <c r="J1279" t="n">
         <v>1000</v>
       </c>
-      <c r="K1273" t="n">
+      <c r="K1279" t="n">
         <v>600</v>
       </c>
-      <c r="L1273" t="n">
+      <c r="L1279" t="n">
         <v>700</v>
       </c>
-      <c r="M1273" t="n">
+      <c r="M1279" t="n">
         <v>650</v>
       </c>
-      <c r="N1273" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1273" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P1273" t="n">
+      <c r="N1279" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1279" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1279" t="n">
         <v>650</v>
       </c>
-      <c r="Q1273" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1273" t="inlineStr">
+      <c r="Q1279" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1279" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1285"/>
+  <dimension ref="A1:R1291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E1046" t="n">
         <v>4</v>
@@ -75672,13 +75672,13 @@
         <v>2400</v>
       </c>
       <c r="K1046" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1046" t="n">
         <v>800</v>
       </c>
       <c r="M1046" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1046" t="n">
         <v>1</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E1047" t="n">
         <v>4</v>
@@ -75741,16 +75741,16 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>1480</v>
+        <v>1360</v>
       </c>
       <c r="K1047" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1047" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1047" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1047" t="n">
         <v>1</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -75816,13 +75816,13 @@
         <v>2200</v>
       </c>
       <c r="K1048" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1048" t="n">
         <v>800</v>
       </c>
       <c r="M1048" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E1049" t="n">
         <v>4</v>
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>1440</v>
+        <v>1300</v>
       </c>
       <c r="K1049" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1049" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M1049" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E1050" t="n">
         <v>4</v>
@@ -75960,13 +75960,13 @@
         <v>2000</v>
       </c>
       <c r="K1050" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1050" t="n">
         <v>800</v>
       </c>
       <c r="M1050" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1050" t="n">
         <v>1</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E1051" t="n">
         <v>4</v>
@@ -76029,16 +76029,16 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>1460</v>
+        <v>1280</v>
       </c>
       <c r="K1051" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1051" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1051" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1051" t="n">
         <v>1</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E1052" t="n">
         <v>4</v>
@@ -76101,16 +76101,16 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1052" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1052" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1052" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1052" t="n">
         <v>1</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E1053" t="n">
         <v>4</v>
@@ -76176,13 +76176,13 @@
         <v>1480</v>
       </c>
       <c r="K1053" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1053" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1053" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1053" t="n">
         <v>1</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E1054" t="n">
         <v>4</v>
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K1054" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1054" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1054" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1054" t="n">
         <v>1</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E1055" t="n">
         <v>4</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="K1055" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1055" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1055" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1055" t="n">
         <v>1</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E1056" t="n">
         <v>4</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K1056" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1056" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1056" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1056" t="n">
         <v>1</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E1057" t="n">
         <v>4</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K1057" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1057" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1057" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1057" t="n">
         <v>1</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E1058" t="n">
         <v>4</v>
@@ -76533,16 +76533,16 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1058" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1058" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1058" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1058" t="n">
         <v>1</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E1059" t="n">
         <v>4</v>
@@ -76605,16 +76605,16 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>1360</v>
+        <v>1480</v>
       </c>
       <c r="K1059" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1059" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1059" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1059" t="n">
         <v>1</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -76677,7 +76677,7 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1060" t="n">
         <v>650</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E1061" t="n">
         <v>4</v>
@@ -76749,16 +76749,16 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="K1061" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1061" t="n">
         <v>600</v>
       </c>
       <c r="M1061" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1061" t="n">
         <v>1</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E1062" t="n">
         <v>4</v>
@@ -76821,7 +76821,7 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K1062" t="n">
         <v>650</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E1063" t="n">
         <v>4</v>
@@ -76893,16 +76893,16 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>1240</v>
+        <v>1500</v>
       </c>
       <c r="K1063" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1063" t="n">
         <v>600</v>
       </c>
       <c r="M1063" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E1064" t="n">
         <v>4</v>
@@ -76965,16 +76965,16 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1064" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1064" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1064" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E1065" t="n">
         <v>4</v>
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K1065" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1065" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1065" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E1066" t="n">
         <v>4</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E1067" t="n">
         <v>4</v>
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="K1067" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1067" t="n">
         <v>600</v>
       </c>
       <c r="M1067" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q1067" t="n">
         <v>1</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E1068" t="n">
         <v>4</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E1069" t="n">
         <v>4</v>
@@ -77325,16 +77325,16 @@
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>1260</v>
+        <v>1240</v>
       </c>
       <c r="K1069" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1069" t="n">
         <v>600</v>
       </c>
       <c r="M1069" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q1069" t="n">
         <v>1</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E1070" t="n">
         <v>4</v>
@@ -77397,16 +77397,16 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>1650</v>
+        <v>2000</v>
       </c>
       <c r="K1070" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L1070" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1070" t="n">
-        <v>895</v>
+        <v>675</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>895</v>
+        <v>675</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E1071" t="n">
         <v>4</v>
@@ -77469,16 +77469,16 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1071" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1071" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1071" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1071" t="n">
         <v>1</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -77541,16 +77541,16 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1072" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1072" t="n">
         <v>700</v>
       </c>
-      <c r="L1072" t="n">
-        <v>800</v>
-      </c>
       <c r="M1072" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1072" t="n">
         <v>1</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E1073" t="n">
         <v>4</v>
@@ -77613,16 +77613,16 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K1073" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1073" t="n">
         <v>600</v>
       </c>
       <c r="M1073" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1073" t="n">
         <v>1</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E1074" t="n">
         <v>4</v>
@@ -77676,7 +77676,7 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1074" t="inlineStr">
@@ -77688,13 +77688,13 @@
         <v>2000</v>
       </c>
       <c r="K1074" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1074" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1074" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1074" t="n">
         <v>1</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E1075" t="n">
         <v>4</v>
@@ -77748,7 +77748,7 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
@@ -77757,16 +77757,16 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>1500</v>
+        <v>1260</v>
       </c>
       <c r="K1075" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1075" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1075" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q1075" t="n">
         <v>1</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E1076" t="n">
         <v>4</v>
@@ -77820,7 +77820,7 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
@@ -77829,16 +77829,16 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>2000</v>
+        <v>1650</v>
       </c>
       <c r="K1076" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L1076" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1076" t="n">
-        <v>575</v>
+        <v>895</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>575</v>
+        <v>895</v>
       </c>
       <c r="Q1076" t="n">
         <v>1</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E1077" t="n">
         <v>4</v>
@@ -77892,7 +77892,7 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1077" t="inlineStr">
@@ -77901,16 +77901,16 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1077" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1077" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1077" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E1078" t="n">
         <v>4</v>
@@ -77964,7 +77964,7 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1078" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1078" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1078" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E1079" t="n">
         <v>4</v>
@@ -78036,7 +78036,7 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
@@ -78045,16 +78045,16 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K1079" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1079" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1079" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1079" t="n">
         <v>1</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E1080" t="n">
         <v>4</v>
@@ -78117,16 +78117,16 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>2520</v>
+        <v>2000</v>
       </c>
       <c r="K1080" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1080" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1080" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1080" t="n">
         <v>1</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E1081" t="n">
         <v>4</v>
@@ -78189,16 +78189,16 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K1081" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L1081" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1081" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q1081" t="n">
         <v>1</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -78264,13 +78264,13 @@
         <v>2000</v>
       </c>
       <c r="K1082" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1082" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1082" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1082" t="n">
         <v>1</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -78333,16 +78333,16 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K1083" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1083" t="n">
         <v>500</v>
       </c>
-      <c r="L1083" t="n">
-        <v>550</v>
-      </c>
       <c r="M1083" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q1083" t="n">
         <v>1</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -78408,13 +78408,13 @@
         <v>2000</v>
       </c>
       <c r="K1084" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1084" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1084" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1084" t="n">
         <v>1</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="K1085" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L1085" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1085" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q1085" t="n">
         <v>1</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1086" t="n">
         <v>4</v>
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>3000</v>
+        <v>2520</v>
       </c>
       <c r="K1086" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1086" t="n">
         <v>800</v>
       </c>
-      <c r="L1086" t="n">
-        <v>900</v>
-      </c>
       <c r="M1086" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q1086" t="n">
         <v>1</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1087" t="n">
         <v>4</v>
@@ -78621,7 +78621,7 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K1087" t="n">
         <v>600</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -78693,7 +78693,7 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1088" t="n">
         <v>700</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K1089" t="n">
         <v>500</v>
       </c>
       <c r="L1089" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M1089" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q1089" t="n">
         <v>1</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -78837,16 +78837,16 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1090" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1090" t="n">
         <v>800</v>
       </c>
       <c r="M1090" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1090" t="n">
         <v>1</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -78909,16 +78909,16 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="K1091" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L1091" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1091" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1092" t="n">
         <v>4</v>
@@ -78984,13 +78984,13 @@
         <v>3000</v>
       </c>
       <c r="K1092" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1092" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1092" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q1092" t="n">
         <v>1</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1093" t="n">
         <v>4</v>
@@ -79053,16 +79053,16 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K1093" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1093" t="n">
         <v>700</v>
       </c>
       <c r="M1093" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1093" t="n">
         <v>1</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -79125,16 +79125,16 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K1094" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1094" t="n">
         <v>800</v>
       </c>
       <c r="M1094" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1094" t="n">
         <v>1</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1095" t="n">
         <v>4</v>
@@ -79197,16 +79197,16 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K1095" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1095" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1095" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1095" t="n">
         <v>1</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -79272,13 +79272,13 @@
         <v>2800</v>
       </c>
       <c r="K1096" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1096" t="n">
         <v>800</v>
       </c>
       <c r="M1096" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1096" t="n">
         <v>1</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1097" t="n">
         <v>4</v>
@@ -79341,16 +79341,16 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K1097" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1097" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1097" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1097" t="n">
         <v>1</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E1098" t="n">
         <v>4</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E1099" t="n">
         <v>4</v>
@@ -79485,16 +79485,16 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K1099" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1099" t="n">
         <v>700</v>
       </c>
       <c r="M1099" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q1099" t="n">
         <v>1</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -79557,16 +79557,16 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K1100" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1100" t="n">
         <v>800</v>
       </c>
       <c r="M1100" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1100" t="n">
         <v>1</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -79629,16 +79629,16 @@
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K1101" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1101" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1101" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1101" t="n">
         <v>1</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E1102" t="n">
         <v>4</v>
@@ -79701,7 +79701,7 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K1102" t="n">
         <v>750</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -79773,16 +79773,16 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>1120</v>
+        <v>1460</v>
       </c>
       <c r="K1103" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1103" t="n">
         <v>700</v>
       </c>
       <c r="M1103" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79795,7 +79795,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q1103" t="n">
         <v>1</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -79845,7 +79845,7 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1104" t="n">
         <v>750</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -79917,16 +79917,16 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1105" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1105" t="n">
         <v>700</v>
       </c>
       <c r="M1105" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1105" t="n">
         <v>1</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1106" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1106" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1106" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1107" t="n">
         <v>4</v>
@@ -80064,13 +80064,13 @@
         <v>1400</v>
       </c>
       <c r="K1107" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1107" t="n">
         <v>600</v>
       </c>
       <c r="M1107" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q1107" t="n">
         <v>1</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1108" t="n">
         <v>4</v>
@@ -80124,7 +80124,7 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
@@ -80133,16 +80133,16 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K1108" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1108" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1108" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1108" t="n">
         <v>1</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1109" t="n">
         <v>4</v>
@@ -80196,7 +80196,7 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
@@ -80205,16 +80205,16 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>1360</v>
+        <v>1120</v>
       </c>
       <c r="K1109" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1109" t="n">
         <v>700</v>
       </c>
-      <c r="L1109" t="n">
-        <v>800</v>
-      </c>
       <c r="M1109" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q1109" t="n">
         <v>1</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1110" t="n">
         <v>4</v>
@@ -80268,7 +80268,7 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
@@ -80277,7 +80277,7 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1110" t="n">
         <v>750</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -80340,7 +80340,7 @@
       </c>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
@@ -80349,7 +80349,7 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="K1111" t="n">
         <v>650</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -80412,16 +80412,16 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>1260</v>
+        <v>2400</v>
       </c>
       <c r="K1112" t="n">
         <v>650</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1113" t="n">
         <v>4</v>
@@ -80484,25 +80484,25 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="K1113" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1113" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1113" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1114" t="n">
         <v>4</v>
@@ -80561,20 +80561,20 @@
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="K1114" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L1114" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M1114" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="Q1114" t="n">
         <v>1</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -80628,16 +80628,16 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>2440</v>
+        <v>1360</v>
       </c>
       <c r="K1115" t="n">
         <v>700</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="K1116" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1116" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1116" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1117" t="n">
         <v>4</v>
@@ -80772,25 +80772,25 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>2300</v>
+        <v>1320</v>
       </c>
       <c r="K1117" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1117" t="n">
         <v>700</v>
       </c>
-      <c r="L1117" t="n">
-        <v>800</v>
-      </c>
       <c r="M1117" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1117" t="n">
         <v>1</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1118" t="n">
         <v>4</v>
@@ -80853,16 +80853,16 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>1300</v>
+        <v>1260</v>
       </c>
       <c r="K1118" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1118" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1118" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1118" t="n">
         <v>1</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1119" t="n">
         <v>4</v>
@@ -80925,7 +80925,7 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1119" t="n">
         <v>700</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1120" t="n">
         <v>4</v>
@@ -80997,16 +80997,16 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1120" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1120" t="n">
         <v>600</v>
       </c>
       <c r="M1120" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1121" t="n">
         <v>4</v>
@@ -81069,7 +81069,7 @@
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>3000</v>
+        <v>2440</v>
       </c>
       <c r="K1121" t="n">
         <v>700</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1122" t="n">
         <v>4</v>
@@ -81141,16 +81141,16 @@
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1122" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1122" t="n">
         <v>600</v>
       </c>
       <c r="M1122" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1122" t="n">
         <v>1</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1123" t="n">
         <v>4</v>
@@ -81213,7 +81213,7 @@
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="K1123" t="n">
         <v>700</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1124" t="n">
         <v>4</v>
@@ -81285,16 +81285,16 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K1124" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1124" t="n">
         <v>600</v>
       </c>
       <c r="M1124" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1124" t="n">
         <v>1</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1125" t="n">
         <v>4</v>
@@ -81357,16 +81357,16 @@
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1125" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1125" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M1125" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q1125" t="n">
         <v>1</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1126" t="n">
         <v>4</v>
@@ -81429,16 +81429,16 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1126" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1126" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1126" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="Q1126" t="n">
         <v>1</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1127" t="n">
         <v>4</v>
@@ -81501,7 +81501,7 @@
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K1127" t="n">
         <v>700</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -81573,7 +81573,7 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1128" t="n">
         <v>500</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1129" t="n">
         <v>4</v>
@@ -81645,7 +81645,7 @@
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1129" t="n">
         <v>700</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1130" t="n">
         <v>4</v>
@@ -81717,7 +81717,7 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K1130" t="n">
         <v>500</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1131" t="n">
         <v>4</v>
@@ -81789,16 +81789,16 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1131" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L1131" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1131" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q1131" t="n">
         <v>1</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1132" t="n">
         <v>4</v>
@@ -81861,16 +81861,16 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>1340</v>
+        <v>1400</v>
       </c>
       <c r="K1132" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L1132" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1132" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81883,7 +81883,7 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q1132" t="n">
         <v>1</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1133" t="n">
         <v>4</v>
@@ -81933,16 +81933,16 @@
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1133" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1133" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1133" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1133" t="n">
         <v>1</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1134" t="n">
         <v>4</v>
@@ -82005,16 +82005,16 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>1340</v>
+        <v>1400</v>
       </c>
       <c r="K1134" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1134" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1134" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1134" t="n">
         <v>1</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1135" t="n">
         <v>4</v>
@@ -82080,13 +82080,13 @@
         <v>2000</v>
       </c>
       <c r="K1135" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1135" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1135" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1135" t="n">
         <v>1</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1136" t="n">
         <v>4</v>
@@ -82149,16 +82149,16 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K1136" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1136" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1136" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1136" t="n">
         <v>1</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1137" t="n">
         <v>4</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1138" t="n">
         <v>4</v>
@@ -82293,7 +82293,7 @@
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="K1138" t="n">
         <v>450</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1139" t="n">
         <v>4</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1140" t="n">
         <v>4</v>
@@ -82437,7 +82437,7 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="K1140" t="n">
         <v>450</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1141" t="n">
         <v>4</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1142" t="n">
         <v>4</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1143" t="n">
         <v>4</v>
@@ -82653,16 +82653,16 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1143" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L1143" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M1143" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="Q1143" t="n">
         <v>1</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1144" t="n">
         <v>4</v>
@@ -82728,13 +82728,13 @@
         <v>1360</v>
       </c>
       <c r="K1144" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1144" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1144" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1144" t="n">
         <v>1</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1145" t="n">
         <v>4</v>
@@ -82797,16 +82797,16 @@
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1145" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L1145" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M1145" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82819,7 +82819,7 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>950</v>
+        <v>575</v>
       </c>
       <c r="Q1145" t="n">
         <v>1</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1146" t="n">
         <v>4</v>
@@ -82869,16 +82869,16 @@
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>1340</v>
+        <v>1300</v>
       </c>
       <c r="K1146" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1146" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1146" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q1146" t="n">
         <v>1</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E1147" t="n">
         <v>4</v>
@@ -82932,7 +82932,7 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
@@ -82941,16 +82941,16 @@
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1147" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1147" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1147" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1147" t="n">
         <v>1</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E1148" t="n">
         <v>4</v>
@@ -83004,7 +83004,7 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
@@ -83013,16 +83013,16 @@
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>1680</v>
+        <v>1300</v>
       </c>
       <c r="K1148" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1148" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1148" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83035,7 +83035,7 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1148" t="n">
         <v>1</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1149" t="n">
         <v>4</v>
@@ -83076,7 +83076,7 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -83085,16 +83085,16 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1149" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1149" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1149" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1149" t="n">
         <v>1</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1150" t="n">
         <v>4</v>
@@ -83148,7 +83148,7 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
@@ -83157,16 +83157,16 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K1150" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1150" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1150" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1150" t="n">
         <v>1</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1151" t="n">
         <v>4</v>
@@ -83220,7 +83220,7 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
@@ -83229,16 +83229,16 @@
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1151" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1151" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1151" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83251,7 +83251,7 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1151" t="n">
         <v>1</v>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1152" t="n">
         <v>4</v>
@@ -83292,7 +83292,7 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
@@ -83301,16 +83301,16 @@
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>1560</v>
+        <v>1340</v>
       </c>
       <c r="K1152" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1152" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1152" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1152" t="n">
         <v>1</v>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1153" t="n">
         <v>4</v>
@@ -83373,7 +83373,7 @@
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1153" t="n">
         <v>750</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1154" t="n">
         <v>4</v>
@@ -83445,7 +83445,7 @@
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>1400</v>
+        <v>1680</v>
       </c>
       <c r="K1154" t="n">
         <v>650</v>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1155" t="n">
         <v>4</v>
@@ -83517,16 +83517,16 @@
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1155" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1155" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1155" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83539,7 +83539,7 @@
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1155" t="n">
         <v>1</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1156" t="n">
         <v>4</v>
@@ -83589,16 +83589,16 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1156" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1156" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1156" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83611,7 +83611,7 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1156" t="n">
         <v>1</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1157" t="n">
         <v>4</v>
@@ -83661,16 +83661,16 @@
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1157" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1157" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1157" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
@@ -83683,7 +83683,7 @@
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1157" t="n">
         <v>1</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1158" t="n">
         <v>4</v>
@@ -83733,16 +83733,16 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>1360</v>
+        <v>1560</v>
       </c>
       <c r="K1158" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1158" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1158" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83755,7 +83755,7 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1158" t="n">
         <v>1</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1159" t="n">
         <v>4</v>
@@ -83805,16 +83805,16 @@
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1159" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1159" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1159" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
@@ -83827,7 +83827,7 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1159" t="n">
         <v>1</v>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1160" t="n">
         <v>4</v>
@@ -83877,16 +83877,16 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>1660</v>
+        <v>1400</v>
       </c>
       <c r="K1160" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1160" t="n">
         <v>700</v>
       </c>
-      <c r="L1160" t="n">
-        <v>800</v>
-      </c>
       <c r="M1160" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83899,7 +83899,7 @@
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1160" t="n">
         <v>1</v>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1161" t="n">
         <v>4</v>
@@ -83949,16 +83949,16 @@
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1161" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L1161" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1161" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q1161" t="n">
         <v>1</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1162" t="n">
         <v>4</v>
@@ -84021,16 +84021,16 @@
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K1162" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1162" t="n">
         <v>600</v>
       </c>
-      <c r="L1162" t="n">
-        <v>700</v>
-      </c>
       <c r="M1162" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q1162" t="n">
         <v>1</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1163" t="n">
         <v>4</v>
@@ -84084,7 +84084,7 @@
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1163" t="inlineStr">
@@ -84093,16 +84093,16 @@
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1163" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1163" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1163" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1163" t="n">
         <v>1</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1164" t="n">
         <v>4</v>
@@ -84156,7 +84156,7 @@
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1164" t="inlineStr">
@@ -84165,16 +84165,16 @@
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K1164" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1164" t="n">
         <v>600</v>
       </c>
-      <c r="L1164" t="n">
-        <v>700</v>
-      </c>
       <c r="M1164" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q1164" t="n">
         <v>1</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1165" t="n">
         <v>4</v>
@@ -84228,7 +84228,7 @@
       </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1165" t="inlineStr">
@@ -84237,16 +84237,16 @@
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1165" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L1165" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1165" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
@@ -84259,7 +84259,7 @@
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="Q1165" t="n">
         <v>1</v>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1166" t="n">
         <v>4</v>
@@ -84300,7 +84300,7 @@
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1166" t="inlineStr">
@@ -84309,16 +84309,16 @@
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>1400</v>
+        <v>1660</v>
       </c>
       <c r="K1166" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1166" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1166" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84331,7 +84331,7 @@
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q1166" t="n">
         <v>1</v>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1167" t="n">
         <v>4</v>
@@ -84372,7 +84372,7 @@
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1167" t="inlineStr">
@@ -84381,16 +84381,16 @@
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1167" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1167" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1167" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
@@ -84403,7 +84403,7 @@
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q1167" t="n">
         <v>1</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1168" t="n">
         <v>4</v>
@@ -84444,7 +84444,7 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
@@ -84453,7 +84453,7 @@
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>1100</v>
+        <v>1560</v>
       </c>
       <c r="K1168" t="n">
         <v>600</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1169" t="n">
         <v>4</v>
@@ -84525,16 +84525,16 @@
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="K1169" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1169" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1169" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
@@ -84547,7 +84547,7 @@
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1169" t="n">
         <v>1</v>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1170" t="n">
         <v>4</v>
@@ -84597,16 +84597,16 @@
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>608</v>
+        <v>1600</v>
       </c>
       <c r="K1170" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1170" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1170" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
@@ -84619,7 +84619,7 @@
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q1170" t="n">
         <v>1</v>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1171" t="n">
         <v>4</v>
@@ -84669,16 +84669,16 @@
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="K1171" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1171" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1171" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
@@ -84691,7 +84691,7 @@
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1171" t="n">
         <v>1</v>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1172" t="n">
         <v>4</v>
@@ -84741,16 +84741,16 @@
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="K1172" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1172" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1172" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
@@ -84763,7 +84763,7 @@
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="Q1172" t="n">
         <v>1</v>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1173" t="n">
         <v>4</v>
@@ -84804,7 +84804,7 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1174" t="n">
         <v>4</v>
@@ -84876,7 +84876,7 @@
       </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1174" t="inlineStr">
@@ -84885,16 +84885,16 @@
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K1174" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1174" t="n">
         <v>700</v>
       </c>
       <c r="M1174" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
@@ -84907,7 +84907,7 @@
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1174" t="n">
         <v>1</v>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1175" t="n">
         <v>4</v>
@@ -84948,7 +84948,7 @@
       </c>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1175" t="inlineStr">
@@ -84957,16 +84957,16 @@
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="K1175" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1175" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1175" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
@@ -84979,7 +84979,7 @@
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1175" t="n">
         <v>1</v>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1176" t="n">
         <v>4</v>
@@ -85020,7 +85020,7 @@
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1176" t="inlineStr">
@@ -85029,16 +85029,16 @@
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>1400</v>
+        <v>608</v>
       </c>
       <c r="K1176" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L1176" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1176" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
@@ -85051,7 +85051,7 @@
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q1176" t="n">
         <v>1</v>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1177" t="n">
         <v>4</v>
@@ -85092,7 +85092,7 @@
       </c>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
@@ -85101,16 +85101,16 @@
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K1177" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1177" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1177" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
@@ -85123,7 +85123,7 @@
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1177" t="n">
         <v>1</v>
@@ -85149,7 +85149,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1178" t="n">
         <v>4</v>
@@ -85164,7 +85164,7 @@
       </c>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1178" t="inlineStr">
@@ -85173,16 +85173,16 @@
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K1178" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1178" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1178" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
@@ -85195,7 +85195,7 @@
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1178" t="n">
         <v>1</v>
@@ -85221,7 +85221,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1179" t="n">
         <v>4</v>
@@ -85245,16 +85245,16 @@
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1179" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1179" t="n">
         <v>800</v>
       </c>
       <c r="M1179" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
@@ -85267,7 +85267,7 @@
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1179" t="n">
         <v>1</v>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1180" t="n">
         <v>4</v>
@@ -85317,16 +85317,16 @@
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1180" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1180" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1180" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1180" t="n">
         <v>1</v>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1181" t="n">
         <v>4</v>
@@ -85389,16 +85389,16 @@
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1181" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1181" t="n">
         <v>700</v>
       </c>
-      <c r="L1181" t="n">
-        <v>800</v>
-      </c>
       <c r="M1181" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
@@ -85411,7 +85411,7 @@
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1181" t="n">
         <v>1</v>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1182" t="n">
         <v>4</v>
@@ -85461,7 +85461,7 @@
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>1660</v>
+        <v>1400</v>
       </c>
       <c r="K1182" t="n">
         <v>550</v>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1183" t="n">
         <v>4</v>
@@ -85533,16 +85533,16 @@
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1183" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1183" t="n">
         <v>800</v>
       </c>
       <c r="M1183" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85555,7 +85555,7 @@
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1183" t="n">
         <v>1</v>
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1184" t="n">
         <v>4</v>
@@ -85605,16 +85605,16 @@
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K1184" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1184" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1184" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
@@ -85627,7 +85627,7 @@
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1184" t="n">
         <v>1</v>
@@ -85653,7 +85653,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1185" t="n">
         <v>4</v>
@@ -85677,16 +85677,16 @@
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1185" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1185" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M1185" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
@@ -85699,7 +85699,7 @@
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q1185" t="n">
         <v>1</v>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1186" t="n">
         <v>4</v>
@@ -85749,16 +85749,16 @@
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K1186" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1186" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1186" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
@@ -85771,7 +85771,7 @@
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1186" t="n">
         <v>1</v>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1187" t="n">
         <v>4</v>
@@ -85869,7 +85869,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1188" t="n">
         <v>4</v>
@@ -85893,16 +85893,16 @@
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>1400</v>
+        <v>1660</v>
       </c>
       <c r="K1188" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1188" t="n">
         <v>600</v>
       </c>
       <c r="M1188" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
@@ -85915,7 +85915,7 @@
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1188" t="n">
         <v>1</v>
@@ -85941,7 +85941,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1189" t="n">
         <v>4</v>
@@ -85965,7 +85965,7 @@
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1189" t="n">
         <v>700</v>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1190" t="n">
         <v>4</v>
@@ -86037,16 +86037,16 @@
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>1340</v>
+        <v>1600</v>
       </c>
       <c r="K1190" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1190" t="n">
         <v>600</v>
       </c>
       <c r="M1190" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
@@ -86059,7 +86059,7 @@
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1190" t="n">
         <v>1</v>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1191" t="n">
         <v>4</v>
@@ -86109,16 +86109,16 @@
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="K1191" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L1191" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M1191" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
@@ -86131,7 +86131,7 @@
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q1191" t="n">
         <v>1</v>
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1192" t="n">
         <v>4</v>
@@ -86181,16 +86181,16 @@
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K1192" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1192" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M1192" t="n">
-        <v>525</v>
+        <v>750</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86203,7 +86203,7 @@
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>525</v>
+        <v>750</v>
       </c>
       <c r="Q1192" t="n">
         <v>1</v>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1193" t="n">
         <v>4</v>
@@ -86253,16 +86253,16 @@
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>3060</v>
+        <v>3000</v>
       </c>
       <c r="K1193" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1193" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1193" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
@@ -86275,7 +86275,7 @@
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1193" t="n">
         <v>1</v>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1194" t="n">
         <v>4</v>
@@ -86325,17 +86325,17 @@
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K1194" t="n">
         <v>500</v>
       </c>
       <c r="L1194" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1194" t="n">
         <v>550</v>
       </c>
-      <c r="M1194" t="n">
-        <v>525</v>
-      </c>
       <c r="N1194" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q1194" t="n">
         <v>1</v>
@@ -86373,7 +86373,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1195" t="n">
         <v>4</v>
@@ -86397,16 +86397,16 @@
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>2920</v>
+        <v>2400</v>
       </c>
       <c r="K1195" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1195" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1195" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
@@ -86419,7 +86419,7 @@
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1195" t="n">
         <v>1</v>
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1196" t="n">
         <v>4</v>
@@ -86469,17 +86469,17 @@
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>1600</v>
+        <v>1340</v>
       </c>
       <c r="K1196" t="n">
         <v>500</v>
       </c>
       <c r="L1196" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1196" t="n">
         <v>550</v>
       </c>
-      <c r="M1196" t="n">
-        <v>525</v>
-      </c>
       <c r="N1196" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -86491,7 +86491,7 @@
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q1196" t="n">
         <v>1</v>
@@ -86517,7 +86517,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1197" t="n">
         <v>4</v>
@@ -86541,16 +86541,16 @@
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="K1197" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L1197" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1197" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
@@ -86563,7 +86563,7 @@
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q1197" t="n">
         <v>1</v>
@@ -86589,7 +86589,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1198" t="n">
         <v>4</v>
@@ -86613,16 +86613,16 @@
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1198" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1198" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M1198" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
@@ -86635,7 +86635,7 @@
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q1198" t="n">
         <v>1</v>
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1199" t="n">
         <v>4</v>
@@ -86685,16 +86685,16 @@
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>2400</v>
+        <v>3060</v>
       </c>
       <c r="K1199" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1199" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1199" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
@@ -86707,7 +86707,7 @@
         </is>
       </c>
       <c r="P1199" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1199" t="n">
         <v>1</v>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1200" t="n">
         <v>4</v>
@@ -86757,16 +86757,16 @@
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>1460</v>
+        <v>1640</v>
       </c>
       <c r="K1200" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1200" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M1200" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
@@ -86779,7 +86779,7 @@
         </is>
       </c>
       <c r="P1200" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q1200" t="n">
         <v>1</v>
@@ -86805,7 +86805,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1201" t="n">
         <v>4</v>
@@ -86829,16 +86829,16 @@
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>2000</v>
+        <v>2920</v>
       </c>
       <c r="K1201" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1201" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1201" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1201" t="inlineStr">
         <is>
@@ -86851,7 +86851,7 @@
         </is>
       </c>
       <c r="P1201" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1201" t="n">
         <v>1</v>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1202" t="n">
         <v>4</v>
@@ -86901,16 +86901,16 @@
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1202" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1202" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M1202" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
@@ -86923,7 +86923,7 @@
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q1202" t="n">
         <v>1</v>
@@ -86949,7 +86949,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1203" t="n">
         <v>4</v>
@@ -86973,16 +86973,16 @@
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>2840</v>
+        <v>2400</v>
       </c>
       <c r="K1203" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L1203" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M1203" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
@@ -86995,7 +86995,7 @@
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q1203" t="n">
         <v>1</v>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1204" t="n">
         <v>4</v>
@@ -87045,16 +87045,16 @@
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1204" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L1204" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M1204" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
@@ -87067,7 +87067,7 @@
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q1204" t="n">
         <v>1</v>
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1205" t="n">
         <v>4</v>
@@ -87117,16 +87117,16 @@
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>3080</v>
+        <v>2400</v>
       </c>
       <c r="K1205" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1205" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1205" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
@@ -87139,7 +87139,7 @@
         </is>
       </c>
       <c r="P1205" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1205" t="n">
         <v>1</v>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1206" t="n">
         <v>4</v>
@@ -87189,16 +87189,16 @@
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>1560</v>
+        <v>1460</v>
       </c>
       <c r="K1206" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1206" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M1206" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
@@ -87211,7 +87211,7 @@
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q1206" t="n">
         <v>1</v>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1207" t="n">
         <v>4</v>
@@ -87261,16 +87261,16 @@
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1207" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1207" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1207" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
@@ -87283,7 +87283,7 @@
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1207" t="n">
         <v>1</v>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1208" t="n">
         <v>4</v>
@@ -87333,16 +87333,16 @@
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1208" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1208" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M1208" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
@@ -87355,7 +87355,7 @@
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q1208" t="n">
         <v>1</v>
@@ -87381,7 +87381,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1209" t="n">
         <v>4</v>
@@ -87405,16 +87405,16 @@
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>2400</v>
+        <v>2840</v>
       </c>
       <c r="K1209" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1209" t="n">
         <v>700</v>
       </c>
-      <c r="L1209" t="n">
-        <v>750</v>
-      </c>
       <c r="M1209" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
@@ -87427,7 +87427,7 @@
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1209" t="n">
         <v>1</v>
@@ -87453,7 +87453,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1210" t="n">
         <v>4</v>
@@ -87477,16 +87477,16 @@
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1210" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1210" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M1210" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
@@ -87499,7 +87499,7 @@
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q1210" t="n">
         <v>1</v>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1211" t="n">
         <v>4</v>
@@ -87549,16 +87549,16 @@
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>2400</v>
+        <v>3080</v>
       </c>
       <c r="K1211" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1211" t="n">
         <v>700</v>
       </c>
-      <c r="L1211" t="n">
-        <v>750</v>
-      </c>
       <c r="M1211" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
@@ -87571,7 +87571,7 @@
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1211" t="n">
         <v>1</v>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1212" t="n">
         <v>4</v>
@@ -87621,16 +87621,16 @@
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>1440</v>
+        <v>1560</v>
       </c>
       <c r="K1212" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1212" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M1212" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
@@ -87643,7 +87643,7 @@
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q1212" t="n">
         <v>1</v>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1213" t="n">
         <v>4</v>
@@ -87693,16 +87693,16 @@
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1213" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1213" t="n">
         <v>700</v>
       </c>
-      <c r="L1213" t="n">
-        <v>750</v>
-      </c>
       <c r="M1213" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
@@ -87715,7 +87715,7 @@
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1213" t="n">
         <v>1</v>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1214" t="n">
         <v>4</v>
@@ -87765,16 +87765,16 @@
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1214" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1214" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M1214" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
@@ -87787,7 +87787,7 @@
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q1214" t="n">
         <v>1</v>
@@ -87813,7 +87813,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1215" t="n">
         <v>4</v>
@@ -87837,16 +87837,16 @@
         </is>
       </c>
       <c r="J1215" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1215" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1215" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1215" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
@@ -87859,7 +87859,7 @@
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1215" t="n">
         <v>1</v>
@@ -87885,7 +87885,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1216" t="n">
         <v>4</v>
@@ -87909,16 +87909,16 @@
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K1216" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1216" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1216" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
@@ -87931,7 +87931,7 @@
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1216" t="n">
         <v>1</v>
@@ -87957,7 +87957,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1217" t="n">
         <v>4</v>
@@ -87981,16 +87981,16 @@
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1217" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1217" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1217" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
@@ -88003,7 +88003,7 @@
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1217" t="n">
         <v>1</v>
@@ -88029,7 +88029,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1218" t="n">
         <v>4</v>
@@ -88053,16 +88053,16 @@
         </is>
       </c>
       <c r="J1218" t="n">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="K1218" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1218" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1218" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
@@ -88075,7 +88075,7 @@
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1218" t="n">
         <v>1</v>
@@ -88101,7 +88101,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1219" t="n">
         <v>4</v>
@@ -88125,16 +88125,16 @@
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1219" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1219" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1219" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
@@ -88147,7 +88147,7 @@
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1219" t="n">
         <v>1</v>
@@ -88173,7 +88173,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1220" t="n">
         <v>4</v>
@@ -88197,16 +88197,16 @@
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1220" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1220" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1220" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
@@ -88219,7 +88219,7 @@
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1220" t="n">
         <v>1</v>
@@ -88245,7 +88245,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1221" t="n">
         <v>4</v>
@@ -88269,7 +88269,7 @@
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1221" t="n">
         <v>650</v>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1222" t="n">
         <v>4</v>
@@ -88341,7 +88341,7 @@
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K1222" t="n">
         <v>550</v>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1223" t="n">
         <v>4</v>
@@ -88413,7 +88413,7 @@
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1223" t="n">
         <v>650</v>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1224" t="n">
         <v>4</v>
@@ -88485,7 +88485,7 @@
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1224" t="n">
         <v>550</v>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1225" t="n">
         <v>4</v>
@@ -88557,7 +88557,7 @@
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1225" t="n">
         <v>650</v>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1226" t="n">
         <v>4</v>
@@ -88629,7 +88629,7 @@
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K1226" t="n">
         <v>550</v>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1227" t="n">
         <v>4</v>
@@ -88701,16 +88701,16 @@
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K1227" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1227" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1227" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
@@ -88723,7 +88723,7 @@
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1227" t="n">
         <v>1</v>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1228" t="n">
         <v>4</v>
@@ -88773,16 +88773,16 @@
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K1228" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1228" t="n">
         <v>600</v>
       </c>
-      <c r="L1228" t="n">
-        <v>700</v>
-      </c>
       <c r="M1228" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
@@ -88795,7 +88795,7 @@
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q1228" t="n">
         <v>1</v>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1229" t="n">
         <v>4</v>
@@ -88848,13 +88848,13 @@
         <v>2000</v>
       </c>
       <c r="K1229" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1229" t="n">
         <v>700</v>
       </c>
-      <c r="L1229" t="n">
-        <v>800</v>
-      </c>
       <c r="M1229" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
@@ -88867,7 +88867,7 @@
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1229" t="n">
         <v>1</v>
@@ -88893,7 +88893,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1230" t="n">
         <v>4</v>
@@ -88917,16 +88917,16 @@
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K1230" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1230" t="n">
         <v>600</v>
       </c>
       <c r="M1230" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
@@ -88939,7 +88939,7 @@
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1230" t="n">
         <v>1</v>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1231" t="n">
         <v>4</v>
@@ -88992,13 +88992,13 @@
         <v>2000</v>
       </c>
       <c r="K1231" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1231" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1231" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
@@ -89011,7 +89011,7 @@
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1231" t="n">
         <v>1</v>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1232" t="n">
         <v>4</v>
@@ -89061,16 +89061,16 @@
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>1280</v>
+        <v>1360</v>
       </c>
       <c r="K1232" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1232" t="n">
         <v>600</v>
       </c>
-      <c r="L1232" t="n">
-        <v>700</v>
-      </c>
       <c r="M1232" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
@@ -89083,7 +89083,7 @@
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q1232" t="n">
         <v>1</v>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1233" t="n">
         <v>4</v>
@@ -89133,16 +89133,16 @@
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K1233" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1233" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1233" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
@@ -89155,7 +89155,7 @@
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1233" t="n">
         <v>1</v>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1234" t="n">
         <v>4</v>
@@ -89205,16 +89205,16 @@
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K1234" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1234" t="n">
         <v>700</v>
       </c>
-      <c r="L1234" t="n">
-        <v>800</v>
-      </c>
       <c r="M1234" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
@@ -89227,7 +89227,7 @@
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q1234" t="n">
         <v>1</v>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1235" t="n">
         <v>4</v>
@@ -89277,16 +89277,16 @@
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1235" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1235" t="n">
         <v>800</v>
       </c>
       <c r="M1235" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
@@ -89299,7 +89299,7 @@
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1235" t="n">
         <v>1</v>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1236" t="n">
         <v>4</v>
@@ -89349,16 +89349,16 @@
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="K1236" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1236" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1236" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89371,7 +89371,7 @@
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1236" t="n">
         <v>1</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1237" t="n">
         <v>4</v>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1238" t="n">
         <v>4</v>
@@ -89493,16 +89493,16 @@
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>800</v>
+        <v>1280</v>
       </c>
       <c r="K1238" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1238" t="n">
         <v>700</v>
       </c>
       <c r="M1238" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
@@ -89515,7 +89515,7 @@
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1238" t="n">
         <v>1</v>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1239" t="n">
         <v>4</v>
@@ -89565,16 +89565,16 @@
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1239" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L1239" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M1239" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89587,7 +89587,7 @@
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="Q1239" t="n">
         <v>1</v>
@@ -89613,7 +89613,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1240" t="n">
         <v>4</v>
@@ -89637,16 +89637,16 @@
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>1260</v>
+        <v>1600</v>
       </c>
       <c r="K1240" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L1240" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1240" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
@@ -89659,7 +89659,7 @@
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q1240" t="n">
         <v>1</v>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1241" t="n">
         <v>4</v>
@@ -89709,16 +89709,16 @@
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1241" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1241" t="n">
         <v>800</v>
       </c>
       <c r="M1241" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
@@ -89731,7 +89731,7 @@
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1241" t="n">
         <v>1</v>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1242" t="n">
         <v>4</v>
@@ -89781,16 +89781,16 @@
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="K1242" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1242" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1242" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
@@ -89803,7 +89803,7 @@
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1242" t="n">
         <v>1</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1243" t="n">
         <v>4</v>
@@ -89856,13 +89856,13 @@
         <v>2000</v>
       </c>
       <c r="K1243" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1243" t="n">
         <v>800</v>
       </c>
       <c r="M1243" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1243" t="n">
         <v>1</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1244" t="n">
         <v>4</v>
@@ -89925,16 +89925,16 @@
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>1280</v>
+        <v>800</v>
       </c>
       <c r="K1244" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1244" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1244" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89947,7 +89947,7 @@
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1244" t="n">
         <v>1</v>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1245" t="n">
         <v>4</v>
@@ -89997,16 +89997,16 @@
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1245" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1245" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1245" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90019,7 +90019,7 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q1245" t="n">
         <v>1</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1246" t="n">
         <v>4</v>
@@ -90069,16 +90069,16 @@
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>1600</v>
+        <v>1260</v>
       </c>
       <c r="K1246" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1246" t="n">
         <v>700</v>
       </c>
       <c r="M1246" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
@@ -90091,7 +90091,7 @@
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1246" t="n">
         <v>1</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1247" t="n">
         <v>4</v>
@@ -90141,16 +90141,16 @@
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1247" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1247" t="n">
         <v>800</v>
       </c>
       <c r="M1247" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90163,7 +90163,7 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1247" t="n">
         <v>1</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1248" t="n">
         <v>4</v>
@@ -90213,16 +90213,16 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>1560</v>
+        <v>1280</v>
       </c>
       <c r="K1248" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1248" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1248" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90235,7 +90235,7 @@
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1248" t="n">
         <v>1</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1249" t="n">
         <v>4</v>
@@ -90285,16 +90285,16 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1249" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1249" t="n">
         <v>800</v>
       </c>
       <c r="M1249" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90307,7 +90307,7 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1249" t="n">
         <v>1</v>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1250" t="n">
         <v>4</v>
@@ -90357,16 +90357,16 @@
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="K1250" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1250" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1250" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
@@ -90379,7 +90379,7 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1250" t="n">
         <v>1</v>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1251" t="n">
         <v>4</v>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1252" t="n">
         <v>4</v>
@@ -90501,7 +90501,7 @@
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>1660</v>
+        <v>1600</v>
       </c>
       <c r="K1252" t="n">
         <v>650</v>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1253" t="n">
         <v>4</v>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1254" t="n">
         <v>4</v>
@@ -90645,7 +90645,7 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K1254" t="n">
         <v>650</v>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1255" t="n">
         <v>4</v>
@@ -90717,7 +90717,7 @@
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1255" t="n">
         <v>750</v>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1256" t="n">
         <v>4</v>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1257" t="n">
         <v>4</v>
@@ -90861,16 +90861,16 @@
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1257" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1257" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1257" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90883,7 +90883,7 @@
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1257" t="n">
         <v>1</v>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1258" t="n">
         <v>4</v>
@@ -90933,16 +90933,16 @@
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>1400</v>
+        <v>1660</v>
       </c>
       <c r="K1258" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1258" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1258" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
@@ -90955,7 +90955,7 @@
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1258" t="n">
         <v>1</v>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1259" t="n">
         <v>4</v>
@@ -91005,16 +91005,16 @@
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1259" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1259" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1259" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91027,7 +91027,7 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1259" t="n">
         <v>1</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1260" t="n">
         <v>4</v>
@@ -91077,16 +91077,16 @@
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="K1260" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1260" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1260" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91099,7 +91099,7 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1260" t="n">
         <v>1</v>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1261" t="n">
         <v>4</v>
@@ -91149,16 +91149,16 @@
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K1261" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1261" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1261" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91171,7 +91171,7 @@
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1261" t="n">
         <v>1</v>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1262" t="n">
         <v>4</v>
@@ -91221,16 +91221,16 @@
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1262" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1262" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1262" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
@@ -91243,7 +91243,7 @@
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1262" t="n">
         <v>1</v>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1263" t="n">
         <v>4</v>
@@ -91293,16 +91293,16 @@
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1263" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1263" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M1263" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
@@ -91315,7 +91315,7 @@
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q1263" t="n">
         <v>1</v>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1264" t="n">
         <v>4</v>
@@ -91365,16 +91365,16 @@
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K1264" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L1264" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1264" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91387,7 +91387,7 @@
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="Q1264" t="n">
         <v>1</v>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1265" t="n">
         <v>4</v>
@@ -91437,16 +91437,16 @@
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1265" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1265" t="n">
         <v>750</v>
       </c>
-      <c r="L1265" t="n">
-        <v>800</v>
-      </c>
       <c r="M1265" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
@@ -91459,7 +91459,7 @@
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1265" t="n">
         <v>1</v>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1266" t="n">
         <v>4</v>
@@ -91509,16 +91509,16 @@
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="K1266" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1266" t="n">
         <v>650</v>
       </c>
-      <c r="L1266" t="n">
-        <v>700</v>
-      </c>
       <c r="M1266" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
@@ -91531,7 +91531,7 @@
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1266" t="n">
         <v>1</v>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1267" t="n">
         <v>4</v>
@@ -91581,16 +91581,16 @@
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K1267" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1267" t="n">
         <v>750</v>
       </c>
-      <c r="L1267" t="n">
-        <v>800</v>
-      </c>
       <c r="M1267" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
@@ -91603,7 +91603,7 @@
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1267" t="n">
         <v>1</v>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1268" t="n">
         <v>4</v>
@@ -91644,25 +91644,25 @@
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="K1268" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L1268" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M1268" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
@@ -91675,7 +91675,7 @@
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="Q1268" t="n">
         <v>1</v>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1269" t="n">
         <v>4</v>
@@ -91721,20 +91721,20 @@
       </c>
       <c r="I1269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>1560</v>
+        <v>3000</v>
       </c>
       <c r="K1269" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L1269" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1269" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
@@ -91747,7 +91747,7 @@
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="Q1269" t="n">
         <v>1</v>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1270" t="n">
         <v>4</v>
@@ -91788,16 +91788,16 @@
       </c>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1270" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="K1270" t="n">
         <v>750</v>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1271" t="n">
         <v>4</v>
@@ -91865,20 +91865,20 @@
       </c>
       <c r="I1271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="K1271" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1271" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1271" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
@@ -91891,7 +91891,7 @@
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1271" t="n">
         <v>1</v>
@@ -91917,7 +91917,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1272" t="n">
         <v>4</v>
@@ -91932,25 +91932,25 @@
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="K1272" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1272" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1272" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
@@ -91963,7 +91963,7 @@
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1272" t="n">
         <v>1</v>
@@ -91989,7 +91989,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1273" t="n">
         <v>4</v>
@@ -92009,20 +92009,20 @@
       </c>
       <c r="I1273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>1480</v>
+        <v>2400</v>
       </c>
       <c r="K1273" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1273" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1273" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
@@ -92035,7 +92035,7 @@
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1273" t="n">
         <v>1</v>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1274" t="n">
         <v>4</v>
@@ -92085,16 +92085,16 @@
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1274" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L1274" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1274" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
@@ -92107,7 +92107,7 @@
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q1274" t="n">
         <v>1</v>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1275" t="n">
         <v>4</v>
@@ -92157,16 +92157,16 @@
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>1460</v>
+        <v>1560</v>
       </c>
       <c r="K1275" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L1275" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1275" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
@@ -92179,7 +92179,7 @@
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q1275" t="n">
         <v>1</v>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1276" t="n">
         <v>4</v>
@@ -92229,16 +92229,16 @@
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K1276" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1276" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1276" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
@@ -92251,7 +92251,7 @@
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1276" t="n">
         <v>1</v>
@@ -92277,7 +92277,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1277" t="n">
         <v>4</v>
@@ -92301,16 +92301,16 @@
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1277" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1277" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1277" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1277" t="inlineStr">
         <is>
@@ -92323,7 +92323,7 @@
         </is>
       </c>
       <c r="P1277" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1277" t="n">
         <v>1</v>
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1278" t="n">
         <v>4</v>
@@ -92373,16 +92373,16 @@
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1278" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1278" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1278" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
@@ -92395,7 +92395,7 @@
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1278" t="n">
         <v>1</v>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1279" t="n">
         <v>4</v>
@@ -92445,16 +92445,16 @@
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K1279" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1279" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1279" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
@@ -92467,7 +92467,7 @@
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1279" t="n">
         <v>1</v>
@@ -92493,7 +92493,7 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1280" t="n">
         <v>4</v>
@@ -92517,16 +92517,16 @@
         </is>
       </c>
       <c r="J1280" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1280" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1280" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1280" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92539,7 +92539,7 @@
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1280" t="n">
         <v>1</v>
@@ -92565,7 +92565,7 @@
         </is>
       </c>
       <c r="D1281" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1281" t="n">
         <v>4</v>
@@ -92589,16 +92589,16 @@
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K1281" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L1281" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1281" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
@@ -92611,7 +92611,7 @@
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q1281" t="n">
         <v>1</v>
@@ -92637,7 +92637,7 @@
         </is>
       </c>
       <c r="D1282" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1282" t="n">
         <v>4</v>
@@ -92661,16 +92661,16 @@
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K1282" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1282" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1282" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92683,7 +92683,7 @@
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1282" t="n">
         <v>1</v>
@@ -92709,7 +92709,7 @@
         </is>
       </c>
       <c r="D1283" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1283" t="n">
         <v>4</v>
@@ -92736,13 +92736,13 @@
         <v>1400</v>
       </c>
       <c r="K1283" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1283" t="n">
         <v>500</v>
       </c>
-      <c r="L1283" t="n">
-        <v>600</v>
-      </c>
       <c r="M1283" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
@@ -92755,7 +92755,7 @@
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q1283" t="n">
         <v>1</v>
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1284" t="n">
         <v>4</v>
@@ -92808,13 +92808,13 @@
         <v>2000</v>
       </c>
       <c r="K1284" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1284" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1284" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
@@ -92827,7 +92827,7 @@
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1284" t="n">
         <v>1</v>
@@ -92853,58 +92853,490 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1285" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1285" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1285" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1285" t="n">
+        <v>1440</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>475</v>
+      </c>
+      <c r="N1285" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1285" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1285" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1285" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1286" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1285" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1285" t="n">
-        <v>100112006</v>
-      </c>
-      <c r="G1285" t="inlineStr">
-        <is>
-          <t>Repollo</t>
-        </is>
-      </c>
-      <c r="H1285" t="inlineStr">
+      <c r="E1286" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1286" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1286" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1286" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1286" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>775</v>
+      </c>
+      <c r="N1286" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1286" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1286" t="n">
+        <v>775</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1286" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1287" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1287" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1287" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1287" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1287" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>650</v>
+      </c>
+      <c r="N1287" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1287" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1287" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1287" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1288" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1288" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1288" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1288" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1288" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>675</v>
+      </c>
+      <c r="N1288" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1288" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1288" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1288" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1289" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1289" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1289" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1289" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1289" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>550</v>
+      </c>
+      <c r="N1289" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1289" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1289" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1289" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1290" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1290" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1290" t="inlineStr">
         <is>
           <t>Morada(o)</t>
         </is>
       </c>
-      <c r="I1285" t="inlineStr">
+      <c r="I1290" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1290" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>775</v>
+      </c>
+      <c r="N1290" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1290" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1290" t="n">
+        <v>775</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1290" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1291" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1291" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1291" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1291" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1285" t="n">
+      <c r="J1291" t="n">
         <v>1000</v>
       </c>
-      <c r="K1285" t="n">
+      <c r="K1291" t="n">
         <v>600</v>
       </c>
-      <c r="L1285" t="n">
+      <c r="L1291" t="n">
         <v>700</v>
       </c>
-      <c r="M1285" t="n">
+      <c r="M1291" t="n">
         <v>650</v>
       </c>
-      <c r="N1285" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1285" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P1285" t="n">
+      <c r="N1291" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1291" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1291" t="n">
         <v>650</v>
       </c>
-      <c r="Q1285" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1285" t="inlineStr">
+      <c r="Q1291" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1291" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1301"/>
+  <dimension ref="A1:R1307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1225" t="n">
         <v>4</v>
@@ -88557,7 +88557,7 @@
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K1225" t="n">
         <v>700</v>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1226" t="n">
         <v>4</v>
@@ -88629,7 +88629,7 @@
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K1226" t="n">
         <v>600</v>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1227" t="n">
         <v>4</v>
@@ -88701,16 +88701,16 @@
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K1227" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1227" t="n">
         <v>700</v>
       </c>
-      <c r="L1227" t="n">
-        <v>750</v>
-      </c>
       <c r="M1227" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
@@ -88723,7 +88723,7 @@
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1227" t="n">
         <v>1</v>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1228" t="n">
         <v>4</v>
@@ -88773,16 +88773,16 @@
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>1440</v>
+        <v>1300</v>
       </c>
       <c r="K1228" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1228" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M1228" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
@@ -88795,7 +88795,7 @@
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q1228" t="n">
         <v>1</v>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1229" t="n">
         <v>4</v>
@@ -88893,7 +88893,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1230" t="n">
         <v>4</v>
@@ -88917,7 +88917,7 @@
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>1400</v>
+        <v>1280</v>
       </c>
       <c r="K1230" t="n">
         <v>600</v>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1231" t="n">
         <v>4</v>
@@ -88989,16 +88989,16 @@
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K1231" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1231" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1231" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
@@ -89011,7 +89011,7 @@
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1231" t="n">
         <v>1</v>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1232" t="n">
         <v>4</v>
@@ -89061,16 +89061,16 @@
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K1232" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1232" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1232" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
@@ -89083,7 +89083,7 @@
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1232" t="n">
         <v>1</v>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1233" t="n">
         <v>4</v>
@@ -89133,16 +89133,16 @@
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1233" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1233" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1233" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
@@ -89155,7 +89155,7 @@
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1233" t="n">
         <v>1</v>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1234" t="n">
         <v>4</v>
@@ -89205,16 +89205,16 @@
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="K1234" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1234" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1234" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
@@ -89227,7 +89227,7 @@
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1234" t="n">
         <v>1</v>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1235" t="n">
         <v>4</v>
@@ -89277,16 +89277,16 @@
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1235" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1235" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1235" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
@@ -89299,7 +89299,7 @@
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1235" t="n">
         <v>1</v>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1236" t="n">
         <v>4</v>
@@ -89349,16 +89349,16 @@
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1236" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1236" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M1236" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89371,7 +89371,7 @@
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q1236" t="n">
         <v>1</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1237" t="n">
         <v>4</v>
@@ -89421,7 +89421,7 @@
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1237" t="n">
         <v>650</v>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1238" t="n">
         <v>4</v>
@@ -89493,7 +89493,7 @@
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K1238" t="n">
         <v>550</v>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1239" t="n">
         <v>4</v>
@@ -89565,7 +89565,7 @@
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1239" t="n">
         <v>650</v>
@@ -89613,7 +89613,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1240" t="n">
         <v>4</v>
@@ -89637,7 +89637,7 @@
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1240" t="n">
         <v>550</v>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1241" t="n">
         <v>4</v>
@@ -89709,7 +89709,7 @@
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1241" t="n">
         <v>650</v>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1242" t="n">
         <v>4</v>
@@ -89781,7 +89781,7 @@
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K1242" t="n">
         <v>550</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1243" t="n">
         <v>4</v>
@@ -89853,16 +89853,16 @@
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K1243" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1243" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1243" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1243" t="n">
         <v>1</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1244" t="n">
         <v>4</v>
@@ -89925,16 +89925,16 @@
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K1244" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1244" t="n">
         <v>600</v>
       </c>
-      <c r="L1244" t="n">
-        <v>700</v>
-      </c>
       <c r="M1244" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89947,7 +89947,7 @@
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q1244" t="n">
         <v>1</v>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1245" t="n">
         <v>4</v>
@@ -90000,13 +90000,13 @@
         <v>2000</v>
       </c>
       <c r="K1245" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1245" t="n">
         <v>700</v>
       </c>
-      <c r="L1245" t="n">
-        <v>800</v>
-      </c>
       <c r="M1245" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90019,7 +90019,7 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1245" t="n">
         <v>1</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1246" t="n">
         <v>4</v>
@@ -90069,16 +90069,16 @@
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K1246" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1246" t="n">
         <v>600</v>
       </c>
       <c r="M1246" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
@@ -90091,7 +90091,7 @@
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q1246" t="n">
         <v>1</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1247" t="n">
         <v>4</v>
@@ -90144,13 +90144,13 @@
         <v>2000</v>
       </c>
       <c r="K1247" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1247" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1247" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90163,7 +90163,7 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1247" t="n">
         <v>1</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1248" t="n">
         <v>4</v>
@@ -90213,16 +90213,16 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>1280</v>
+        <v>1360</v>
       </c>
       <c r="K1248" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1248" t="n">
         <v>600</v>
       </c>
-      <c r="L1248" t="n">
-        <v>700</v>
-      </c>
       <c r="M1248" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90235,7 +90235,7 @@
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q1248" t="n">
         <v>1</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1249" t="n">
         <v>4</v>
@@ -90285,16 +90285,16 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K1249" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1249" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1249" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90307,7 +90307,7 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1249" t="n">
         <v>1</v>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1250" t="n">
         <v>4</v>
@@ -90357,16 +90357,16 @@
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K1250" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1250" t="n">
         <v>700</v>
       </c>
-      <c r="L1250" t="n">
-        <v>800</v>
-      </c>
       <c r="M1250" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
@@ -90379,7 +90379,7 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q1250" t="n">
         <v>1</v>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1251" t="n">
         <v>4</v>
@@ -90429,16 +90429,16 @@
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1251" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1251" t="n">
         <v>800</v>
       </c>
       <c r="M1251" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
@@ -90451,7 +90451,7 @@
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1251" t="n">
         <v>1</v>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1252" t="n">
         <v>4</v>
@@ -90501,16 +90501,16 @@
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="K1252" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1252" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1252" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
@@ -90523,7 +90523,7 @@
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1252" t="n">
         <v>1</v>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1253" t="n">
         <v>4</v>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1254" t="n">
         <v>4</v>
@@ -90645,16 +90645,16 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>800</v>
+        <v>1280</v>
       </c>
       <c r="K1254" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1254" t="n">
         <v>700</v>
       </c>
       <c r="M1254" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
@@ -90667,7 +90667,7 @@
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1254" t="n">
         <v>1</v>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1255" t="n">
         <v>4</v>
@@ -90717,16 +90717,16 @@
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1255" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L1255" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M1255" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90739,7 +90739,7 @@
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="Q1255" t="n">
         <v>1</v>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1256" t="n">
         <v>4</v>
@@ -90789,16 +90789,16 @@
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>1260</v>
+        <v>1600</v>
       </c>
       <c r="K1256" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L1256" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1256" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90811,7 +90811,7 @@
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q1256" t="n">
         <v>1</v>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1257" t="n">
         <v>4</v>
@@ -90861,16 +90861,16 @@
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1257" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1257" t="n">
         <v>800</v>
       </c>
       <c r="M1257" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90883,7 +90883,7 @@
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1257" t="n">
         <v>1</v>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1258" t="n">
         <v>4</v>
@@ -90933,16 +90933,16 @@
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="K1258" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1258" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1258" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
@@ -90955,7 +90955,7 @@
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1258" t="n">
         <v>1</v>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1259" t="n">
         <v>4</v>
@@ -91008,13 +91008,13 @@
         <v>2000</v>
       </c>
       <c r="K1259" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1259" t="n">
         <v>800</v>
       </c>
       <c r="M1259" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91027,7 +91027,7 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1259" t="n">
         <v>1</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1260" t="n">
         <v>4</v>
@@ -91077,16 +91077,16 @@
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>1280</v>
+        <v>800</v>
       </c>
       <c r="K1260" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1260" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1260" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91099,7 +91099,7 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1260" t="n">
         <v>1</v>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1261" t="n">
         <v>4</v>
@@ -91149,16 +91149,16 @@
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1261" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1261" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1261" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91171,7 +91171,7 @@
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q1261" t="n">
         <v>1</v>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1262" t="n">
         <v>4</v>
@@ -91221,16 +91221,16 @@
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>1600</v>
+        <v>1260</v>
       </c>
       <c r="K1262" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1262" t="n">
         <v>700</v>
       </c>
       <c r="M1262" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
@@ -91243,7 +91243,7 @@
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1262" t="n">
         <v>1</v>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1263" t="n">
         <v>4</v>
@@ -91293,16 +91293,16 @@
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1263" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1263" t="n">
         <v>800</v>
       </c>
       <c r="M1263" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
@@ -91315,7 +91315,7 @@
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1263" t="n">
         <v>1</v>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1264" t="n">
         <v>4</v>
@@ -91365,16 +91365,16 @@
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>1560</v>
+        <v>1280</v>
       </c>
       <c r="K1264" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1264" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1264" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91387,7 +91387,7 @@
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1264" t="n">
         <v>1</v>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1265" t="n">
         <v>4</v>
@@ -91437,16 +91437,16 @@
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1265" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1265" t="n">
         <v>800</v>
       </c>
       <c r="M1265" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
@@ -91459,7 +91459,7 @@
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1265" t="n">
         <v>1</v>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1266" t="n">
         <v>4</v>
@@ -91509,16 +91509,16 @@
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="K1266" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1266" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1266" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
@@ -91531,7 +91531,7 @@
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1266" t="n">
         <v>1</v>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1267" t="n">
         <v>4</v>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1268" t="n">
         <v>4</v>
@@ -91653,7 +91653,7 @@
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>1660</v>
+        <v>1600</v>
       </c>
       <c r="K1268" t="n">
         <v>650</v>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1269" t="n">
         <v>4</v>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1270" t="n">
         <v>4</v>
@@ -91797,7 +91797,7 @@
         </is>
       </c>
       <c r="J1270" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K1270" t="n">
         <v>650</v>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1271" t="n">
         <v>4</v>
@@ -91869,7 +91869,7 @@
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1271" t="n">
         <v>750</v>
@@ -91917,7 +91917,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1272" t="n">
         <v>4</v>
@@ -91989,7 +91989,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1273" t="n">
         <v>4</v>
@@ -92013,16 +92013,16 @@
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1273" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1273" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1273" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
@@ -92035,7 +92035,7 @@
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1273" t="n">
         <v>1</v>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1274" t="n">
         <v>4</v>
@@ -92085,16 +92085,16 @@
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>1400</v>
+        <v>1660</v>
       </c>
       <c r="K1274" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1274" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1274" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
@@ -92107,7 +92107,7 @@
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1274" t="n">
         <v>1</v>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1275" t="n">
         <v>4</v>
@@ -92157,16 +92157,16 @@
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1275" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1275" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1275" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
@@ -92179,7 +92179,7 @@
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1275" t="n">
         <v>1</v>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1276" t="n">
         <v>4</v>
@@ -92229,16 +92229,16 @@
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="K1276" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1276" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1276" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
@@ -92251,7 +92251,7 @@
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1276" t="n">
         <v>1</v>
@@ -92277,7 +92277,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1277" t="n">
         <v>4</v>
@@ -92301,16 +92301,16 @@
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K1277" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1277" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1277" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1277" t="inlineStr">
         <is>
@@ -92323,7 +92323,7 @@
         </is>
       </c>
       <c r="P1277" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1277" t="n">
         <v>1</v>
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1278" t="n">
         <v>4</v>
@@ -92373,16 +92373,16 @@
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K1278" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1278" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M1278" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
@@ -92395,7 +92395,7 @@
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q1278" t="n">
         <v>1</v>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1279" t="n">
         <v>4</v>
@@ -92445,16 +92445,16 @@
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1279" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L1279" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M1279" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
@@ -92467,7 +92467,7 @@
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="Q1279" t="n">
         <v>1</v>
@@ -92493,7 +92493,7 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1280" t="n">
         <v>4</v>
@@ -92517,16 +92517,16 @@
         </is>
       </c>
       <c r="J1280" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K1280" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L1280" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1280" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92539,7 +92539,7 @@
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="Q1280" t="n">
         <v>1</v>
@@ -92565,7 +92565,7 @@
         </is>
       </c>
       <c r="D1281" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1281" t="n">
         <v>4</v>
@@ -92589,16 +92589,16 @@
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1281" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1281" t="n">
         <v>750</v>
       </c>
-      <c r="L1281" t="n">
-        <v>800</v>
-      </c>
       <c r="M1281" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
@@ -92611,7 +92611,7 @@
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1281" t="n">
         <v>1</v>
@@ -92637,7 +92637,7 @@
         </is>
       </c>
       <c r="D1282" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1282" t="n">
         <v>4</v>
@@ -92661,16 +92661,16 @@
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="K1282" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1282" t="n">
         <v>650</v>
       </c>
-      <c r="L1282" t="n">
-        <v>700</v>
-      </c>
       <c r="M1282" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92683,7 +92683,7 @@
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1282" t="n">
         <v>1</v>
@@ -92709,7 +92709,7 @@
         </is>
       </c>
       <c r="D1283" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1283" t="n">
         <v>4</v>
@@ -92733,16 +92733,16 @@
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K1283" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1283" t="n">
         <v>750</v>
       </c>
-      <c r="L1283" t="n">
-        <v>800</v>
-      </c>
       <c r="M1283" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
@@ -92755,7 +92755,7 @@
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1283" t="n">
         <v>1</v>
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1284" t="n">
         <v>4</v>
@@ -92796,25 +92796,25 @@
       </c>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="K1284" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L1284" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M1284" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
@@ -92827,7 +92827,7 @@
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="Q1284" t="n">
         <v>1</v>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1285" t="n">
         <v>4</v>
@@ -92873,20 +92873,20 @@
       </c>
       <c r="I1285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1285" t="n">
-        <v>1560</v>
+        <v>3000</v>
       </c>
       <c r="K1285" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L1285" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1285" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
@@ -92899,7 +92899,7 @@
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="Q1285" t="n">
         <v>1</v>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1286" t="n">
         <v>4</v>
@@ -92940,16 +92940,16 @@
       </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="K1286" t="n">
         <v>750</v>
@@ -92997,7 +92997,7 @@
         </is>
       </c>
       <c r="D1287" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1287" t="n">
         <v>4</v>
@@ -93017,20 +93017,20 @@
       </c>
       <c r="I1287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1287" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="K1287" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1287" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1287" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
@@ -93043,7 +93043,7 @@
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1287" t="n">
         <v>1</v>
@@ -93069,7 +93069,7 @@
         </is>
       </c>
       <c r="D1288" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1288" t="n">
         <v>4</v>
@@ -93084,25 +93084,25 @@
       </c>
       <c r="H1288" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1288" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="K1288" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1288" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1288" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
@@ -93115,7 +93115,7 @@
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1288" t="n">
         <v>1</v>
@@ -93141,7 +93141,7 @@
         </is>
       </c>
       <c r="D1289" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1289" t="n">
         <v>4</v>
@@ -93161,20 +93161,20 @@
       </c>
       <c r="I1289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>1480</v>
+        <v>2400</v>
       </c>
       <c r="K1289" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1289" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1289" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
@@ -93187,7 +93187,7 @@
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1289" t="n">
         <v>1</v>
@@ -93213,7 +93213,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1290" t="n">
         <v>4</v>
@@ -93237,16 +93237,16 @@
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1290" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L1290" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1290" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
@@ -93259,7 +93259,7 @@
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q1290" t="n">
         <v>1</v>
@@ -93285,7 +93285,7 @@
         </is>
       </c>
       <c r="D1291" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1291" t="n">
         <v>4</v>
@@ -93309,16 +93309,16 @@
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>1460</v>
+        <v>1560</v>
       </c>
       <c r="K1291" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L1291" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1291" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N1291" t="inlineStr">
         <is>
@@ -93331,7 +93331,7 @@
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q1291" t="n">
         <v>1</v>
@@ -93357,7 +93357,7 @@
         </is>
       </c>
       <c r="D1292" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1292" t="n">
         <v>4</v>
@@ -93381,16 +93381,16 @@
         </is>
       </c>
       <c r="J1292" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K1292" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1292" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1292" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
@@ -93403,7 +93403,7 @@
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1292" t="n">
         <v>1</v>
@@ -93429,7 +93429,7 @@
         </is>
       </c>
       <c r="D1293" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1293" t="n">
         <v>4</v>
@@ -93453,16 +93453,16 @@
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1293" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1293" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1293" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
@@ -93475,7 +93475,7 @@
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1293" t="n">
         <v>1</v>
@@ -93501,7 +93501,7 @@
         </is>
       </c>
       <c r="D1294" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1294" t="n">
         <v>4</v>
@@ -93525,16 +93525,16 @@
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1294" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1294" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1294" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
@@ -93547,7 +93547,7 @@
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1294" t="n">
         <v>1</v>
@@ -93573,7 +93573,7 @@
         </is>
       </c>
       <c r="D1295" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1295" t="n">
         <v>4</v>
@@ -93597,16 +93597,16 @@
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K1295" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1295" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1295" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
@@ -93619,7 +93619,7 @@
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1295" t="n">
         <v>1</v>
@@ -93645,7 +93645,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1296" t="n">
         <v>4</v>
@@ -93669,16 +93669,16 @@
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1296" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1296" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1296" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
@@ -93691,7 +93691,7 @@
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1296" t="n">
         <v>1</v>
@@ -93717,7 +93717,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1297" t="n">
         <v>4</v>
@@ -93741,16 +93741,16 @@
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K1297" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L1297" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1297" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
@@ -93763,7 +93763,7 @@
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q1297" t="n">
         <v>1</v>
@@ -93789,7 +93789,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1298" t="n">
         <v>4</v>
@@ -93813,16 +93813,16 @@
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K1298" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1298" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1298" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
@@ -93835,7 +93835,7 @@
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1298" t="n">
         <v>1</v>
@@ -93861,7 +93861,7 @@
         </is>
       </c>
       <c r="D1299" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1299" t="n">
         <v>4</v>
@@ -93888,13 +93888,13 @@
         <v>1400</v>
       </c>
       <c r="K1299" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1299" t="n">
         <v>500</v>
       </c>
-      <c r="L1299" t="n">
-        <v>600</v>
-      </c>
       <c r="M1299" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N1299" t="inlineStr">
         <is>
@@ -93907,7 +93907,7 @@
         </is>
       </c>
       <c r="P1299" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q1299" t="n">
         <v>1</v>
@@ -93933,7 +93933,7 @@
         </is>
       </c>
       <c r="D1300" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1300" t="n">
         <v>4</v>
@@ -93960,13 +93960,13 @@
         <v>2000</v>
       </c>
       <c r="K1300" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1300" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1300" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
@@ -93979,7 +93979,7 @@
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1300" t="n">
         <v>1</v>
@@ -94005,58 +94005,490 @@
         </is>
       </c>
       <c r="D1301" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1301" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1301" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1301" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1301" t="n">
+        <v>1440</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>475</v>
+      </c>
+      <c r="N1301" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1301" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1301" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1301" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1302" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1301" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1301" t="n">
-        <v>100112006</v>
-      </c>
-      <c r="G1301" t="inlineStr">
-        <is>
-          <t>Repollo</t>
-        </is>
-      </c>
-      <c r="H1301" t="inlineStr">
+      <c r="E1302" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1302" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1302" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1302" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1302" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>775</v>
+      </c>
+      <c r="N1302" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1302" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1302" t="n">
+        <v>775</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1302" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1303" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1303" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1303" t="inlineStr">
+        <is>
+          <t>Copenhague</t>
+        </is>
+      </c>
+      <c r="I1303" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1303" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>650</v>
+      </c>
+      <c r="N1303" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1303" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1303" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q1303" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1303" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1304" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1304" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1304" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1304" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1304" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>675</v>
+      </c>
+      <c r="N1304" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1304" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1304" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1304" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1305" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1305" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1305" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1305" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1305" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>550</v>
+      </c>
+      <c r="N1305" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1305" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1305" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1305" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1306" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1306" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1306" t="inlineStr">
         <is>
           <t>Morada(o)</t>
         </is>
       </c>
-      <c r="I1301" t="inlineStr">
+      <c r="I1306" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1306" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>775</v>
+      </c>
+      <c r="N1306" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1306" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1306" t="n">
+        <v>775</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1306" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1307" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1307" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1307" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1307" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1301" t="n">
+      <c r="J1307" t="n">
         <v>1000</v>
       </c>
-      <c r="K1301" t="n">
+      <c r="K1307" t="n">
         <v>600</v>
       </c>
-      <c r="L1301" t="n">
+      <c r="L1307" t="n">
         <v>700</v>
       </c>
-      <c r="M1301" t="n">
+      <c r="M1307" t="n">
         <v>650</v>
       </c>
-      <c r="N1301" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1301" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P1301" t="n">
+      <c r="N1307" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1307" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1307" t="n">
         <v>650</v>
       </c>
-      <c r="Q1301" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1301" t="inlineStr">
+      <c r="Q1307" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1307" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Repollo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1325"/>
+  <dimension ref="A1:R1329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1131" t="n">
         <v>4</v>
@@ -81789,16 +81789,16 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1131" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1131" t="n">
         <v>750</v>
       </c>
-      <c r="L1131" t="n">
-        <v>800</v>
-      </c>
       <c r="M1131" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1131" t="n">
         <v>1</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1132" t="n">
         <v>4</v>
@@ -81861,16 +81861,16 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K1132" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1132" t="n">
         <v>650</v>
       </c>
-      <c r="L1132" t="n">
-        <v>700</v>
-      </c>
       <c r="M1132" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81883,7 +81883,7 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1132" t="n">
         <v>1</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1133" t="n">
         <v>4</v>
@@ -81933,16 +81933,16 @@
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K1133" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1133" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1133" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1133" t="n">
         <v>1</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1134" t="n">
         <v>4</v>
@@ -82005,16 +82005,16 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K1134" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1134" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M1134" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q1134" t="n">
         <v>1</v>
@@ -82068,7 +82068,7 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
@@ -82077,7 +82077,7 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1135" t="n">
         <v>750</v>
@@ -82140,7 +82140,7 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
@@ -82149,7 +82149,7 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>1460</v>
+        <v>1560</v>
       </c>
       <c r="K1136" t="n">
         <v>650</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1137" t="n">
         <v>4</v>
@@ -82212,7 +82212,7 @@
       </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
@@ -82221,7 +82221,7 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K1137" t="n">
         <v>750</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1138" t="n">
         <v>4</v>
@@ -82284,7 +82284,7 @@
       </c>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1138" t="inlineStr">
@@ -82293,16 +82293,16 @@
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K1138" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1138" t="n">
         <v>700</v>
       </c>
       <c r="M1138" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82315,7 +82315,7 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q1138" t="n">
         <v>1</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1139" t="n">
         <v>4</v>
@@ -82356,7 +82356,7 @@
       </c>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1139" t="inlineStr">
@@ -82368,13 +82368,13 @@
         <v>2800</v>
       </c>
       <c r="K1139" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1139" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1139" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1139" t="n">
         <v>1</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1140" t="n">
         <v>4</v>
@@ -82428,7 +82428,7 @@
       </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1140" t="inlineStr">
@@ -82437,16 +82437,16 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K1140" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1140" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1140" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1140" t="n">
         <v>1</v>
@@ -82500,7 +82500,7 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
@@ -82509,7 +82509,7 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K1141" t="n">
         <v>750</v>
@@ -82572,7 +82572,7 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
@@ -82581,7 +82581,7 @@
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K1142" t="n">
         <v>600</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E1143" t="n">
         <v>4</v>
@@ -82644,7 +82644,7 @@
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1143" t="inlineStr">
@@ -82653,16 +82653,16 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K1143" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1143" t="n">
         <v>700</v>
       </c>
-      <c r="L1143" t="n">
-        <v>750</v>
-      </c>
       <c r="M1143" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1143" t="n">
         <v>1</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E1144" t="n">
         <v>4</v>
@@ -82716,7 +82716,7 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
@@ -82725,16 +82725,16 @@
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>1680</v>
+        <v>1400</v>
       </c>
       <c r="K1144" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1144" t="n">
         <v>600</v>
       </c>
-      <c r="L1144" t="n">
-        <v>650</v>
-      </c>
       <c r="M1144" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q1144" t="n">
         <v>1</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E1145" t="n">
         <v>4</v>
@@ -82788,7 +82788,7 @@
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
@@ -82797,16 +82797,16 @@
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1145" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1145" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1145" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82819,7 +82819,7 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q1145" t="n">
         <v>1</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E1146" t="n">
         <v>4</v>
@@ -82860,7 +82860,7 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
@@ -82869,17 +82869,17 @@
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K1146" t="n">
         <v>600</v>
       </c>
       <c r="L1146" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1146" t="n">
         <v>650</v>
       </c>
-      <c r="M1146" t="n">
-        <v>625</v>
-      </c>
       <c r="N1146" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q1146" t="n">
         <v>1</v>
@@ -82932,7 +82932,7 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
@@ -82941,7 +82941,7 @@
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K1147" t="n">
         <v>700</v>
@@ -83004,7 +83004,7 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
@@ -83013,7 +83013,7 @@
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>1560</v>
+        <v>1680</v>
       </c>
       <c r="K1148" t="n">
         <v>600</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1149" t="n">
         <v>4</v>
@@ -83076,7 +83076,7 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -83085,16 +83085,16 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K1149" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1149" t="n">
         <v>750</v>
       </c>
-      <c r="L1149" t="n">
-        <v>800</v>
-      </c>
       <c r="M1149" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1149" t="n">
         <v>1</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1150" t="n">
         <v>4</v>
@@ -83148,7 +83148,7 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
@@ -83157,16 +83157,16 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>1520</v>
+        <v>1600</v>
       </c>
       <c r="K1150" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1150" t="n">
         <v>650</v>
       </c>
-      <c r="L1150" t="n">
-        <v>700</v>
-      </c>
       <c r="M1150" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1150" t="n">
         <v>1</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1151" t="n">
         <v>4</v>
@@ -83220,7 +83220,7 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
@@ -83232,13 +83232,13 @@
         <v>2600</v>
       </c>
       <c r="K1151" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1151" t="n">
         <v>750</v>
       </c>
-      <c r="L1151" t="n">
-        <v>800</v>
-      </c>
       <c r="M1151" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83251,7 +83251,7 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1151" t="n">
         <v>1</v>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1152" t="n">
         <v>4</v>
@@ -83292,7 +83292,7 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
@@ -83301,16 +83301,16 @@
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>1460</v>
+        <v>1560</v>
       </c>
       <c r="K1152" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1152" t="n">
         <v>650</v>
       </c>
-      <c r="L1152" t="n">
-        <v>700</v>
-      </c>
       <c r="M1152" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1152" t="n">
         <v>1</v>
@@ -83364,7 +83364,7 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
@@ -83373,7 +83373,7 @@
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K1153" t="n">
         <v>750</v>
@@ -83436,7 +83436,7 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
@@ -83445,7 +83445,7 @@
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>1460</v>
+        <v>1520</v>
       </c>
       <c r="K1154" t="n">
         <v>650</v>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1155" t="n">
         <v>4</v>
@@ -83508,7 +83508,7 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
@@ -83517,16 +83517,16 @@
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1155" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1155" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1155" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83539,7 +83539,7 @@
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1155" t="n">
         <v>1</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1156" t="n">
         <v>4</v>
@@ -83580,7 +83580,7 @@
       </c>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1156" t="inlineStr">
@@ -83589,16 +83589,16 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K1156" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1156" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1156" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83611,7 +83611,7 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1156" t="n">
         <v>1</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1157" t="n">
         <v>4</v>
@@ -83652,7 +83652,7 @@
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
@@ -83661,16 +83661,16 @@
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1157" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1157" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1157" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
@@ -83683,7 +83683,7 @@
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1157" t="n">
         <v>1</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1158" t="n">
         <v>4</v>
@@ -83724,7 +83724,7 @@
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1158" t="inlineStr">
@@ -83733,16 +83733,16 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>1360</v>
+        <v>1460</v>
       </c>
       <c r="K1158" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L1158" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1158" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83755,7 +83755,7 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1158" t="n">
         <v>1</v>
@@ -83796,7 +83796,7 @@
       </c>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1159" t="inlineStr">
@@ -83868,7 +83868,7 @@
       </c>
       <c r="H1160" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1160" t="inlineStr">
@@ -83877,7 +83877,7 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K1160" t="n">
         <v>450</v>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1161" t="n">
         <v>4</v>
@@ -83940,7 +83940,7 @@
       </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1161" t="inlineStr">
@@ -83949,16 +83949,16 @@
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1161" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1161" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1161" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1161" t="n">
         <v>1</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1162" t="n">
         <v>4</v>
@@ -84012,7 +84012,7 @@
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1162" t="inlineStr">
@@ -84021,16 +84021,16 @@
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>1520</v>
+        <v>1360</v>
       </c>
       <c r="K1162" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L1162" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1162" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q1162" t="n">
         <v>1</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1163" t="n">
         <v>4</v>
@@ -84084,7 +84084,7 @@
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1163" t="inlineStr">
@@ -84093,16 +84093,16 @@
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1163" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1163" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1163" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1163" t="n">
         <v>1</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1164" t="n">
         <v>4</v>
@@ -84156,7 +84156,7 @@
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1164" t="inlineStr">
@@ -84165,16 +84165,16 @@
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>1480</v>
+        <v>1360</v>
       </c>
       <c r="K1164" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L1164" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1164" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q1164" t="n">
         <v>1</v>
@@ -84228,7 +84228,7 @@
       </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1165" t="inlineStr">
@@ -84237,7 +84237,7 @@
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="K1165" t="n">
         <v>650</v>
@@ -84300,7 +84300,7 @@
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1166" t="inlineStr">
@@ -84309,7 +84309,7 @@
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>1480</v>
+        <v>1520</v>
       </c>
       <c r="K1166" t="n">
         <v>550</v>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1167" t="n">
         <v>4</v>
@@ -84372,7 +84372,7 @@
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1167" t="inlineStr">
@@ -84381,16 +84381,16 @@
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K1167" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L1167" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1167" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
@@ -84403,7 +84403,7 @@
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q1167" t="n">
         <v>1</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1168" t="n">
         <v>4</v>
@@ -84444,7 +84444,7 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
@@ -84453,16 +84453,16 @@
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K1168" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1168" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1168" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84475,7 +84475,7 @@
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1168" t="n">
         <v>1</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1169" t="n">
         <v>4</v>
@@ -84516,7 +84516,7 @@
       </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1169" t="inlineStr">
@@ -84525,16 +84525,16 @@
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K1169" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1169" t="n">
         <v>700</v>
       </c>
-      <c r="L1169" t="n">
-        <v>800</v>
-      </c>
       <c r="M1169" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
@@ -84547,7 +84547,7 @@
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1169" t="n">
         <v>1</v>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1170" t="n">
         <v>4</v>
@@ -84588,7 +84588,7 @@
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1170" t="inlineStr">
@@ -84597,7 +84597,7 @@
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K1170" t="n">
         <v>550</v>
@@ -84660,7 +84660,7 @@
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
@@ -84669,16 +84669,16 @@
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1171" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L1171" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1171" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
@@ -84691,7 +84691,7 @@
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="Q1171" t="n">
         <v>1</v>
@@ -84732,7 +84732,7 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
@@ -84741,16 +84741,16 @@
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K1172" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1172" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1172" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
@@ -84763,7 +84763,7 @@
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1172" t="n">
         <v>1</v>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1173" t="n">
         <v>4</v>
@@ -84804,7 +84804,7 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
@@ -84813,16 +84813,16 @@
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1173" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1173" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1173" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
@@ -84835,7 +84835,7 @@
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="Q1173" t="n">
         <v>1</v>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1174" t="n">
         <v>4</v>
@@ -84876,7 +84876,7 @@
       </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1174" t="inlineStr">
@@ -84885,16 +84885,16 @@
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K1174" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1174" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1174" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
@@ -84907,7 +84907,7 @@
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1174" t="n">
         <v>1</v>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1175" t="n">
         <v>4</v>
@@ -84948,7 +84948,7 @@
       </c>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1175" t="inlineStr">
@@ -84960,13 +84960,13 @@
         <v>2400</v>
       </c>
       <c r="K1175" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1175" t="n">
         <v>800</v>
       </c>
       <c r="M1175" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
@@ -84979,7 +84979,7 @@
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1175" t="n">
         <v>1</v>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1176" t="n">
         <v>4</v>
@@ -85020,7 +85020,7 @@
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1176" t="inlineStr">
@@ -85029,16 +85029,16 @@
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="K1176" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1176" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1176" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
@@ -85051,7 +85051,7 @@
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1176" t="n">
         <v>1</v>
@@ -85092,25 +85092,25 @@
       </c>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>1260</v>
+        <v>2400</v>
       </c>
       <c r="K1177" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L1177" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1177" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
@@ -85123,7 +85123,7 @@
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="Q1177" t="n">
         <v>1</v>
@@ -85149,7 +85149,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1178" t="n">
         <v>4</v>
@@ -85169,11 +85169,11 @@
       </c>
       <c r="I1178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>2500</v>
+        <v>1360</v>
       </c>
       <c r="K1178" t="n">
         <v>700</v>
@@ -85221,7 +85221,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1179" t="n">
         <v>4</v>
@@ -85236,25 +85236,25 @@
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="K1179" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1179" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1179" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
@@ -85267,7 +85267,7 @@
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1179" t="n">
         <v>1</v>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1180" t="n">
         <v>4</v>
@@ -85313,20 +85313,20 @@
       </c>
       <c r="I1180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>2400</v>
+        <v>1320</v>
       </c>
       <c r="K1180" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1180" t="n">
         <v>700</v>
       </c>
-      <c r="L1180" t="n">
-        <v>800</v>
-      </c>
       <c r="M1180" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1180" t="n">
         <v>1</v>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1181" t="n">
         <v>4</v>
@@ -85380,7 +85380,7 @@
       </c>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1181" t="inlineStr">
@@ -85389,16 +85389,16 @@
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>1400</v>
+        <v>1260</v>
       </c>
       <c r="K1181" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1181" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1181" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
@@ -85411,7 +85411,7 @@
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1181" t="n">
         <v>1</v>
@@ -85452,7 +85452,7 @@
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1182" t="inlineStr">
@@ -85461,7 +85461,7 @@
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K1182" t="n">
         <v>700</v>
@@ -85524,7 +85524,7 @@
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1183" t="inlineStr">
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1184" t="n">
         <v>4</v>
@@ -85596,7 +85596,7 @@
       </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1184" t="inlineStr">
@@ -85653,7 +85653,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1185" t="n">
         <v>4</v>
@@ -85668,7 +85668,7 @@
       </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1185" t="inlineStr">
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1186" t="n">
         <v>4</v>
@@ -85740,7 +85740,7 @@
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1186" t="inlineStr">
@@ -85749,7 +85749,7 @@
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>2360</v>
+        <v>2400</v>
       </c>
       <c r="K1186" t="n">
         <v>700</v>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1187" t="n">
         <v>4</v>
@@ -85812,7 +85812,7 @@
       </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1187" t="inlineStr">
@@ -85884,7 +85884,7 @@
       </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1188" t="inlineStr">
@@ -85893,7 +85893,7 @@
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="K1188" t="n">
         <v>700</v>
@@ -85956,7 +85956,7 @@
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1189" t="inlineStr">
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1190" t="n">
         <v>4</v>
@@ -86028,7 +86028,7 @@
       </c>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1190" t="inlineStr">
@@ -86037,7 +86037,7 @@
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>2400</v>
+        <v>2360</v>
       </c>
       <c r="K1190" t="n">
         <v>700</v>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1191" t="n">
         <v>4</v>
@@ -86100,7 +86100,7 @@
       </c>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1191" t="inlineStr">
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1192" t="n">
         <v>4</v>
@@ -86172,7 +86172,7 @@
       </c>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1192" t="inlineStr">
@@ -86181,7 +86181,7 @@
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>2440</v>
+        <v>2100</v>
       </c>
       <c r="K1192" t="n">
         <v>700</v>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1193" t="n">
         <v>4</v>
@@ -86244,7 +86244,7 @@
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1193" t="inlineStr">
@@ -86316,7 +86316,7 @@
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1194" t="inlineStr">
@@ -86325,7 +86325,7 @@
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>2360</v>
+        <v>2400</v>
       </c>
       <c r="K1194" t="n">
         <v>700</v>
@@ -86388,7 +86388,7 @@
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1195" t="inlineStr">
@@ -86397,7 +86397,7 @@
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K1195" t="n">
         <v>550</v>
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1196" t="n">
         <v>4</v>
@@ -86460,7 +86460,7 @@
       </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1196" t="inlineStr">
@@ -86469,16 +86469,16 @@
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>2400</v>
+        <v>2440</v>
       </c>
       <c r="K1196" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1196" t="n">
         <v>800</v>
       </c>
       <c r="M1196" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
@@ -86491,7 +86491,7 @@
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1196" t="n">
         <v>1</v>
@@ -86517,7 +86517,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1197" t="n">
         <v>4</v>
@@ -86532,7 +86532,7 @@
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1197" t="inlineStr">
@@ -86541,16 +86541,16 @@
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="K1197" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1197" t="n">
         <v>600</v>
       </c>
-      <c r="L1197" t="n">
-        <v>700</v>
-      </c>
       <c r="M1197" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
@@ -86563,7 +86563,7 @@
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q1197" t="n">
         <v>1</v>
@@ -86589,7 +86589,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1198" t="n">
         <v>4</v>
@@ -86604,7 +86604,7 @@
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1198" t="inlineStr">
@@ -86613,16 +86613,16 @@
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>2000</v>
+        <v>2360</v>
       </c>
       <c r="K1198" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1198" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1198" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
@@ -86635,7 +86635,7 @@
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1198" t="n">
         <v>1</v>
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1199" t="n">
         <v>4</v>
@@ -86676,7 +86676,7 @@
       </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1199" t="inlineStr">
@@ -86685,7 +86685,7 @@
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>1320</v>
+        <v>1360</v>
       </c>
       <c r="K1199" t="n">
         <v>550</v>
@@ -86748,25 +86748,25 @@
       </c>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="K1200" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L1200" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1200" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
@@ -86779,7 +86779,7 @@
         </is>
       </c>
       <c r="P1200" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="Q1200" t="n">
         <v>1</v>
@@ -86805,7 +86805,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1201" t="n">
         <v>4</v>
@@ -86825,20 +86825,20 @@
       </c>
       <c r="I1201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>3000</v>
+        <v>1320</v>
       </c>
       <c r="K1201" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1201" t="n">
         <v>700</v>
       </c>
       <c r="M1201" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1201" t="inlineStr">
         <is>
@@ -86851,7 +86851,7 @@
         </is>
       </c>
       <c r="P1201" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1201" t="n">
         <v>1</v>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1202" t="n">
         <v>4</v>
@@ -86892,25 +86892,25 @@
       </c>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>1520</v>
+        <v>2000</v>
       </c>
       <c r="K1202" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1202" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1202" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
@@ -86923,7 +86923,7 @@
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1202" t="n">
         <v>1</v>
@@ -86949,7 +86949,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1203" t="n">
         <v>4</v>
@@ -86969,20 +86969,20 @@
       </c>
       <c r="I1203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>3000</v>
+        <v>1320</v>
       </c>
       <c r="K1203" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1203" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1203" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
@@ -86995,7 +86995,7 @@
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1203" t="n">
         <v>1</v>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1204" t="n">
         <v>4</v>
@@ -87036,7 +87036,7 @@
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1204" t="inlineStr">
@@ -87045,16 +87045,16 @@
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K1204" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1204" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1204" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
@@ -87067,7 +87067,7 @@
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q1204" t="n">
         <v>1</v>
@@ -87108,7 +87108,7 @@
       </c>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1205" t="inlineStr">
@@ -87117,7 +87117,7 @@
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1205" t="n">
         <v>650</v>
@@ -87180,7 +87180,7 @@
       </c>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1206" t="inlineStr">
@@ -87189,7 +87189,7 @@
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>1480</v>
+        <v>1520</v>
       </c>
       <c r="K1206" t="n">
         <v>550</v>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1207" t="n">
         <v>4</v>
@@ -87252,7 +87252,7 @@
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1207" t="inlineStr">
@@ -87261,16 +87261,16 @@
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>2560</v>
+        <v>3000</v>
       </c>
       <c r="K1207" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1207" t="n">
         <v>700</v>
       </c>
-      <c r="L1207" t="n">
-        <v>800</v>
-      </c>
       <c r="M1207" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
@@ -87283,7 +87283,7 @@
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1207" t="n">
         <v>1</v>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1208" t="n">
         <v>4</v>
@@ -87324,7 +87324,7 @@
       </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1208" t="inlineStr">
@@ -87333,7 +87333,7 @@
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1208" t="n">
         <v>550</v>
@@ -87381,7 +87381,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1209" t="n">
         <v>4</v>
@@ -87396,7 +87396,7 @@
       </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1209" t="inlineStr">
@@ -87405,16 +87405,16 @@
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="K1209" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1209" t="n">
         <v>700</v>
       </c>
-      <c r="L1209" t="n">
-        <v>800</v>
-      </c>
       <c r="M1209" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
@@ -87427,7 +87427,7 @@
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1209" t="n">
         <v>1</v>
@@ -87453,7 +87453,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1210" t="n">
         <v>4</v>
@@ -87468,7 +87468,7 @@
       </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1210" t="inlineStr">
@@ -87477,7 +87477,7 @@
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>1360</v>
+        <v>1480</v>
       </c>
       <c r="K1210" t="n">
         <v>550</v>
@@ -87540,7 +87540,7 @@
       </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1211" t="inlineStr">
@@ -87549,7 +87549,7 @@
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>2000</v>
+        <v>2560</v>
       </c>
       <c r="K1211" t="n">
         <v>700</v>
@@ -87612,7 +87612,7 @@
       </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
@@ -87621,7 +87621,7 @@
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="K1212" t="n">
         <v>550</v>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1213" t="n">
         <v>4</v>
@@ -87684,7 +87684,7 @@
       </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1213" t="inlineStr">
@@ -87693,16 +87693,16 @@
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K1213" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1213" t="n">
         <v>800</v>
       </c>
       <c r="M1213" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
@@ -87715,7 +87715,7 @@
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="Q1213" t="n">
         <v>1</v>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1214" t="n">
         <v>4</v>
@@ -87756,7 +87756,7 @@
       </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1214" t="inlineStr">
@@ -87765,16 +87765,16 @@
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K1214" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1214" t="n">
         <v>600</v>
       </c>
-      <c r="L1214" t="n">
-        <v>700</v>
-      </c>
       <c r="M1214" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
@@ -87787,7 +87787,7 @@
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q1214" t="n">
         <v>1</v>
@@ -87813,7 +87813,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1215" t="n">
         <v>4</v>
@@ -87828,7 +87828,7 @@
       </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1215" t="inlineStr">
@@ -87837,7 +87837,7 @@
         </is>
       </c>
       <c r="J1215" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K1215" t="n">
         <v>700</v>
@@ -87885,7 +87885,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1216" t="n">
         <v>4</v>
@@ -87900,7 +87900,7 @@
       </c>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1216" t="inlineStr">
@@ -87909,16 +87909,16 @@
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>1480</v>
+        <v>1320</v>
       </c>
       <c r="K1216" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1216" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M1216" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
@@ -87931,7 +87931,7 @@
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q1216" t="n">
         <v>1</v>
@@ -87972,7 +87972,7 @@
       </c>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1217" t="inlineStr">
@@ -87981,7 +87981,7 @@
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1217" t="n">
         <v>750</v>
@@ -88044,7 +88044,7 @@
       </c>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1218" t="inlineStr">
@@ -88053,7 +88053,7 @@
         </is>
       </c>
       <c r="J1218" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K1218" t="n">
         <v>600</v>
@@ -88101,7 +88101,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1219" t="n">
         <v>4</v>
@@ -88116,7 +88116,7 @@
       </c>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1219" t="inlineStr">
@@ -88125,16 +88125,16 @@
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1219" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1219" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1219" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
@@ -88147,7 +88147,7 @@
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1219" t="n">
         <v>1</v>
@@ -88173,7 +88173,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1220" t="n">
         <v>4</v>
@@ -88188,7 +88188,7 @@
       </c>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1220" t="inlineStr">
@@ -88197,16 +88197,16 @@
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K1220" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L1220" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M1220" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
@@ -88219,7 +88219,7 @@
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q1220" t="n">
         <v>1</v>
@@ -88245,7 +88245,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1221" t="n">
         <v>4</v>
@@ -88260,7 +88260,7 @@
       </c>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1221" t="inlineStr">
@@ -88272,13 +88272,13 @@
         <v>2000</v>
       </c>
       <c r="K1221" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1221" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1221" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
@@ -88291,7 +88291,7 @@
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q1221" t="n">
         <v>1</v>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1222" t="n">
         <v>4</v>
@@ -88332,7 +88332,7 @@
       </c>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1222" t="inlineStr">
@@ -88341,16 +88341,16 @@
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>1360</v>
+        <v>1000</v>
       </c>
       <c r="K1222" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1222" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1222" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
@@ -88363,7 +88363,7 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q1222" t="n">
         <v>1</v>
@@ -88404,7 +88404,7 @@
       </c>
       <c r="H1223" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1223" t="inlineStr">
@@ -88476,7 +88476,7 @@
       </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1224" t="inlineStr">
@@ -88485,7 +88485,7 @@
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="K1224" t="n">
         <v>450</v>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1225" t="n">
         <v>4</v>
@@ -88548,7 +88548,7 @@
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1225" t="inlineStr">
@@ -88557,16 +88557,16 @@
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1225" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L1225" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1225" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
@@ -88579,7 +88579,7 @@
         </is>
       </c>
       <c r="P1225" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q1225" t="n">
         <v>1</v>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1226" t="n">
         <v>4</v>
@@ -88620,7 +88620,7 @@
       </c>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1226" t="inlineStr">
@@ -88629,16 +88629,16 @@
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>1560</v>
+        <v>1360</v>
       </c>
       <c r="K1226" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L1226" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1226" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
@@ -88651,7 +88651,7 @@
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q1226" t="n">
         <v>1</v>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1227" t="n">
         <v>4</v>
@@ -88692,7 +88692,7 @@
       </c>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1227" t="inlineStr">
@@ -88701,16 +88701,16 @@
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K1227" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1227" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1227" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
@@ -88723,7 +88723,7 @@
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1227" t="n">
         <v>1</v>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1228" t="n">
         <v>4</v>
@@ -88764,7 +88764,7 @@
       </c>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1228" t="inlineStr">
@@ -88773,16 +88773,16 @@
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>1400</v>
+        <v>1320</v>
       </c>
       <c r="K1228" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1228" t="n">
         <v>500</v>
       </c>
-      <c r="L1228" t="n">
-        <v>600</v>
-      </c>
       <c r="M1228" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
@@ -88795,7 +88795,7 @@
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="Q1228" t="n">
         <v>1</v>
@@ -88836,7 +88836,7 @@
       </c>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1229" t="inlineStr">
@@ -88845,16 +88845,16 @@
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1229" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1229" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1229" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
@@ -88867,7 +88867,7 @@
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1229" t="n">
         <v>1</v>
@@ -88908,7 +88908,7 @@
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1230" t="inlineStr">
@@ -88917,16 +88917,16 @@
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>1160</v>
+        <v>1560</v>
       </c>
       <c r="K1230" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1230" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1230" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
@@ -88939,7 +88939,7 @@
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1230" t="n">
         <v>1</v>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1231" t="n">
         <v>4</v>
@@ -88980,7 +88980,7 @@
       </c>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1231" t="inlineStr">
@@ -88989,16 +88989,16 @@
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K1231" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1231" t="n">
         <v>700</v>
       </c>
-      <c r="L1231" t="n">
-        <v>750</v>
-      </c>
       <c r="M1231" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
@@ -89011,7 +89011,7 @@
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1231" t="n">
         <v>1</v>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1232" t="n">
         <v>4</v>
@@ -89052,7 +89052,7 @@
       </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1232" t="inlineStr">
@@ -89061,16 +89061,16 @@
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K1232" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1232" t="n">
         <v>600</v>
       </c>
-      <c r="L1232" t="n">
-        <v>650</v>
-      </c>
       <c r="M1232" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
@@ -89083,7 +89083,7 @@
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q1232" t="n">
         <v>1</v>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1233" t="n">
         <v>4</v>
@@ -89124,7 +89124,7 @@
       </c>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1233" t="inlineStr">
@@ -89133,7 +89133,7 @@
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K1233" t="n">
         <v>650</v>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1234" t="n">
         <v>4</v>
@@ -89196,7 +89196,7 @@
       </c>
       <c r="H1234" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1234" t="inlineStr">
@@ -89205,17 +89205,17 @@
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>1480</v>
+        <v>1160</v>
       </c>
       <c r="K1234" t="n">
         <v>500</v>
       </c>
       <c r="L1234" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1234" t="n">
         <v>550</v>
       </c>
-      <c r="M1234" t="n">
-        <v>525</v>
-      </c>
       <c r="N1234" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -89227,7 +89227,7 @@
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q1234" t="n">
         <v>1</v>
@@ -89268,7 +89268,7 @@
       </c>
       <c r="H1235" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1235" t="inlineStr">
@@ -89277,7 +89277,7 @@
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1235" t="n">
         <v>700</v>
@@ -89340,7 +89340,7 @@
       </c>
       <c r="H1236" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1236" t="inlineStr">
@@ -89349,7 +89349,7 @@
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>1160</v>
+        <v>1600</v>
       </c>
       <c r="K1236" t="n">
         <v>600</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1237" t="n">
         <v>4</v>
@@ -89412,7 +89412,7 @@
       </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1237" t="inlineStr">
@@ -89421,16 +89421,16 @@
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1237" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1237" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1237" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
@@ -89443,7 +89443,7 @@
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1237" t="n">
         <v>1</v>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1238" t="n">
         <v>4</v>
@@ -89484,7 +89484,7 @@
       </c>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1238" t="inlineStr">
@@ -89493,16 +89493,16 @@
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="K1238" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1238" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M1238" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
@@ -89515,7 +89515,7 @@
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q1238" t="n">
         <v>1</v>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1239" t="n">
         <v>4</v>
@@ -89556,7 +89556,7 @@
       </c>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1239" t="inlineStr">
@@ -89565,16 +89565,16 @@
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K1239" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1239" t="n">
         <v>750</v>
       </c>
-      <c r="L1239" t="n">
-        <v>800</v>
-      </c>
       <c r="M1239" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89587,7 +89587,7 @@
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1239" t="n">
         <v>1</v>
@@ -89613,7 +89613,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1240" t="n">
         <v>4</v>
@@ -89628,7 +89628,7 @@
       </c>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1240" t="inlineStr">
@@ -89637,16 +89637,16 @@
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>1440</v>
+        <v>1160</v>
       </c>
       <c r="K1240" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1240" t="n">
         <v>650</v>
       </c>
-      <c r="L1240" t="n">
-        <v>700</v>
-      </c>
       <c r="M1240" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
@@ -89659,7 +89659,7 @@
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1240" t="n">
         <v>1</v>
@@ -89700,7 +89700,7 @@
       </c>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1241" t="inlineStr">
@@ -89772,7 +89772,7 @@
       </c>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1242" t="inlineStr">
@@ -89781,7 +89781,7 @@
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>1480</v>
+        <v>1460</v>
       </c>
       <c r="K1242" t="n">
         <v>650</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1243" t="n">
         <v>4</v>
@@ -89844,7 +89844,7 @@
       </c>
       <c r="H1243" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1243" t="inlineStr">
@@ -89853,16 +89853,16 @@
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K1243" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1243" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1243" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1243" t="n">
         <v>1</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1244" t="n">
         <v>4</v>
@@ -89916,7 +89916,7 @@
       </c>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1244" t="inlineStr">
@@ -89925,16 +89925,16 @@
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="K1244" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1244" t="n">
         <v>700</v>
       </c>
-      <c r="L1244" t="n">
-        <v>800</v>
-      </c>
       <c r="M1244" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89947,7 +89947,7 @@
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1244" t="n">
         <v>1</v>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1245" t="n">
         <v>4</v>
@@ -89988,7 +89988,7 @@
       </c>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1245" t="inlineStr">
@@ -89997,16 +89997,16 @@
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1245" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1245" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1245" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90019,7 +90019,7 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1245" t="n">
         <v>1</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1246" t="n">
         <v>4</v>
@@ -90060,7 +90060,7 @@
       </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1246" t="inlineStr">
@@ -90069,16 +90069,16 @@
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>1560</v>
+        <v>1480</v>
       </c>
       <c r="K1246" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1246" t="n">
         <v>700</v>
       </c>
-      <c r="L1246" t="n">
-        <v>800</v>
-      </c>
       <c r="M1246" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
@@ -90091,7 +90091,7 @@
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1246" t="n">
         <v>1</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1247" t="n">
         <v>4</v>
@@ -90141,16 +90141,16 @@
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K1247" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L1247" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1247" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90163,7 +90163,7 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="Q1247" t="n">
         <v>1</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1248" t="n">
         <v>4</v>
@@ -90213,16 +90213,16 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>1460</v>
+        <v>1500</v>
       </c>
       <c r="K1248" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1248" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1248" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90235,7 +90235,7 @@
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1248" t="n">
         <v>1</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1249" t="n">
         <v>4</v>
@@ -90285,16 +90285,16 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K1249" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L1249" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1249" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90307,7 +90307,7 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="Q1249" t="n">
         <v>1</v>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1250" t="n">
         <v>4</v>
@@ -90357,16 +90357,16 @@
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K1250" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1250" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1250" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
@@ -90379,7 +90379,7 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1250" t="n">
         <v>1</v>
@@ -90420,7 +90420,7 @@
       </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1251" t="inlineStr">
@@ -90429,7 +90429,7 @@
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1251" t="n">
         <v>650</v>
@@ -90492,7 +90492,7 @@
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1252" t="inlineStr">
@@ -90501,7 +90501,7 @@
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K1252" t="n">
         <v>550</v>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1253" t="n">
         <v>4</v>
@@ -90564,7 +90564,7 @@
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1253" t="inlineStr">
@@ -90573,16 +90573,16 @@
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K1253" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L1253" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M1253" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
@@ -90595,7 +90595,7 @@
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="Q1253" t="n">
         <v>1</v>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1254" t="n">
         <v>4</v>
@@ -90636,7 +90636,7 @@
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
@@ -90645,16 +90645,16 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K1254" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1254" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1254" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
@@ -90667,7 +90667,7 @@
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q1254" t="n">
         <v>1</v>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1255" t="n">
         <v>4</v>
@@ -90708,7 +90708,7 @@
       </c>
       <c r="H1255" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1255" t="inlineStr">
@@ -90717,16 +90717,16 @@
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K1255" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L1255" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1255" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90739,7 +90739,7 @@
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q1255" t="n">
         <v>1</v>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1256" t="n">
         <v>4</v>
@@ -90780,7 +90780,7 @@
       </c>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
@@ -90789,16 +90789,16 @@
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="K1256" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1256" t="n">
         <v>600</v>
       </c>
-      <c r="L1256" t="n">
-        <v>700</v>
-      </c>
       <c r="M1256" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90811,7 +90811,7 @@
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q1256" t="n">
         <v>1</v>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1257" t="n">
         <v>4</v>
@@ -90861,16 +90861,16 @@
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K1257" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1257" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1257" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90883,7 +90883,7 @@
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1257" t="n">
         <v>1</v>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1258" t="n">
         <v>4</v>
@@ -90933,16 +90933,16 @@
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>1660</v>
+        <v>1460</v>
       </c>
       <c r="K1258" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1258" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1258" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
@@ -90955,7 +90955,7 @@
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1258" t="n">
         <v>1</v>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1259" t="n">
         <v>4</v>
@@ -91008,13 +91008,13 @@
         <v>3000</v>
       </c>
       <c r="K1259" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1259" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1259" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91027,7 +91027,7 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q1259" t="n">
         <v>1</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1260" t="n">
         <v>4</v>
@@ -91077,16 +91077,16 @@
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="K1260" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1260" t="n">
         <v>700</v>
       </c>
       <c r="M1260" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91099,7 +91099,7 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1260" t="n">
         <v>1</v>
@@ -91140,7 +91140,7 @@
       </c>
       <c r="H1261" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1261" t="inlineStr">
@@ -91149,7 +91149,7 @@
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K1261" t="n">
         <v>750</v>
@@ -91212,7 +91212,7 @@
       </c>
       <c r="H1262" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1262" t="inlineStr">
@@ -91221,7 +91221,7 @@
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>1600</v>
+        <v>1660</v>
       </c>
       <c r="K1262" t="n">
         <v>650</v>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1263" t="n">
         <v>4</v>
@@ -91284,7 +91284,7 @@
       </c>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1263" t="inlineStr">
@@ -91293,16 +91293,16 @@
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1263" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1263" t="n">
         <v>800</v>
       </c>
       <c r="M1263" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
@@ -91315,7 +91315,7 @@
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1263" t="n">
         <v>1</v>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1264" t="n">
         <v>4</v>
@@ -91356,7 +91356,7 @@
       </c>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1264" t="inlineStr">
@@ -91365,16 +91365,16 @@
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K1264" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1264" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1264" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91387,7 +91387,7 @@
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1264" t="n">
         <v>1</v>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1265" t="n">
         <v>4</v>
@@ -91428,7 +91428,7 @@
       </c>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1265" t="inlineStr">
@@ -91440,13 +91440,13 @@
         <v>3000</v>
       </c>
       <c r="K1265" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1265" t="n">
         <v>800</v>
       </c>
       <c r="M1265" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
@@ -91459,7 +91459,7 @@
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1265" t="n">
         <v>1</v>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1266" t="n">
         <v>4</v>
@@ -91500,7 +91500,7 @@
       </c>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1266" t="inlineStr">
@@ -91509,16 +91509,16 @@
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K1266" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1266" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1266" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
@@ -91531,7 +91531,7 @@
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1266" t="n">
         <v>1</v>
@@ -91572,7 +91572,7 @@
       </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1267" t="inlineStr">
@@ -91581,7 +91581,7 @@
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>2560</v>
+        <v>2800</v>
       </c>
       <c r="K1267" t="n">
         <v>700</v>
@@ -91644,7 +91644,7 @@
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
@@ -91653,7 +91653,7 @@
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="K1268" t="n">
         <v>550</v>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1269" t="n">
         <v>4</v>
@@ -91716,7 +91716,7 @@
       </c>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1269" t="inlineStr">
@@ -91725,17 +91725,17 @@
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K1269" t="n">
         <v>700</v>
       </c>
       <c r="L1269" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1269" t="n">
         <v>750</v>
       </c>
-      <c r="M1269" t="n">
-        <v>725</v>
-      </c>
       <c r="N1269" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -91747,7 +91747,7 @@
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="Q1269" t="n">
         <v>1</v>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1270" t="n">
         <v>4</v>
@@ -91788,7 +91788,7 @@
       </c>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1270" t="inlineStr">
@@ -91797,16 +91797,16 @@
         </is>
       </c>
       <c r="J1270" t="n">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="K1270" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1270" t="n">
         <v>600</v>
       </c>
-      <c r="L1270" t="n">
-        <v>650</v>
-      </c>
       <c r="M1270" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
@@ -91819,7 +91819,7 @@
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q1270" t="n">
         <v>1</v>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1271" t="n">
         <v>4</v>
@@ -91860,7 +91860,7 @@
       </c>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1271" t="inlineStr">
@@ -91869,16 +91869,16 @@
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>2400</v>
+        <v>2560</v>
       </c>
       <c r="K1271" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1271" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1271" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
@@ -91891,7 +91891,7 @@
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1271" t="n">
         <v>1</v>
@@ -91917,7 +91917,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1272" t="n">
         <v>4</v>
@@ -91932,7 +91932,7 @@
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1272" t="inlineStr">
@@ -91941,7 +91941,7 @@
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="K1272" t="n">
         <v>550</v>
@@ -91989,7 +91989,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1273" t="n">
         <v>4</v>
@@ -92013,16 +92013,16 @@
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>2840</v>
+        <v>2600</v>
       </c>
       <c r="K1273" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1273" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M1273" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
@@ -92035,7 +92035,7 @@
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q1273" t="n">
         <v>1</v>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1274" t="n">
         <v>4</v>
@@ -92085,16 +92085,16 @@
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K1274" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L1274" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M1274" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
@@ -92107,7 +92107,7 @@
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q1274" t="n">
         <v>1</v>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1275" t="n">
         <v>4</v>
@@ -92157,7 +92157,7 @@
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>3080</v>
+        <v>2400</v>
       </c>
       <c r="K1275" t="n">
         <v>650</v>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1276" t="n">
         <v>4</v>
@@ -92229,16 +92229,16 @@
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>1560</v>
+        <v>1500</v>
       </c>
       <c r="K1276" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1276" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M1276" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
@@ -92251,7 +92251,7 @@
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q1276" t="n">
         <v>1</v>
@@ -92292,7 +92292,7 @@
       </c>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1277" t="inlineStr">
@@ -92301,7 +92301,7 @@
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>2800</v>
+        <v>2840</v>
       </c>
       <c r="K1277" t="n">
         <v>650</v>
@@ -92364,7 +92364,7 @@
       </c>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1278" t="inlineStr">
@@ -92373,7 +92373,7 @@
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K1278" t="n">
         <v>500</v>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1279" t="n">
         <v>4</v>
@@ -92436,7 +92436,7 @@
       </c>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1279" t="inlineStr">
@@ -92445,16 +92445,16 @@
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>2400</v>
+        <v>3080</v>
       </c>
       <c r="K1279" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L1279" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M1279" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
@@ -92467,7 +92467,7 @@
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="Q1279" t="n">
         <v>1</v>
@@ -92493,7 +92493,7 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1280" t="n">
         <v>4</v>
@@ -92508,7 +92508,7 @@
       </c>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1280" t="inlineStr">
@@ -92517,16 +92517,16 @@
         </is>
       </c>
       <c r="J1280" t="n">
-        <v>1360</v>
+        <v>1560</v>
       </c>
       <c r="K1280" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L1280" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M1280" t="n">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92539,7 +92539,7 @@
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="Q1280" t="n">
         <v>1</v>
@@ -92565,7 +92565,7 @@
         </is>
       </c>
       <c r="D1281" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1281" t="n">
         <v>4</v>
@@ -92580,7 +92580,7 @@
       </c>
       <c r="H1281" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1281" t="inlineStr">
@@ -92589,16 +92589,16 @@
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1281" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L1281" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M1281" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
@@ -92611,7 +92611,7 @@
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q1281" t="n">
         <v>1</v>
@@ -92637,7 +92637,7 @@
         </is>
       </c>
       <c r="D1282" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1282" t="n">
         <v>4</v>
@@ -92652,7 +92652,7 @@
       </c>
       <c r="H1282" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1282" t="inlineStr">
@@ -92661,16 +92661,16 @@
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>1320</v>
+        <v>1500</v>
       </c>
       <c r="K1282" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L1282" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M1282" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92683,7 +92683,7 @@
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q1282" t="n">
         <v>1</v>
@@ -92724,25 +92724,25 @@
       </c>
       <c r="H1283" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>1260</v>
+        <v>2400</v>
       </c>
       <c r="K1283" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L1283" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1283" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
@@ -92755,7 +92755,7 @@
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="Q1283" t="n">
         <v>1</v>
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1284" t="n">
         <v>4</v>
@@ -92801,20 +92801,20 @@
       </c>
       <c r="I1284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>1700</v>
+        <v>1360</v>
       </c>
       <c r="K1284" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1284" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1284" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
@@ -92827,7 +92827,7 @@
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q1284" t="n">
         <v>1</v>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1285" t="n">
         <v>4</v>
@@ -92868,25 +92868,25 @@
       </c>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1285" t="n">
-        <v>608</v>
+        <v>2400</v>
       </c>
       <c r="K1285" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L1285" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1285" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
@@ -92899,7 +92899,7 @@
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q1285" t="n">
         <v>1</v>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1286" t="n">
         <v>4</v>
@@ -92945,20 +92945,20 @@
       </c>
       <c r="I1286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>1800</v>
+        <v>1320</v>
       </c>
       <c r="K1286" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L1286" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1286" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N1286" t="inlineStr">
         <is>
@@ -92971,7 +92971,7 @@
         </is>
       </c>
       <c r="P1286" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q1286" t="n">
         <v>1</v>
@@ -92997,7 +92997,7 @@
         </is>
       </c>
       <c r="D1287" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1287" t="n">
         <v>4</v>
@@ -93012,7 +93012,7 @@
       </c>
       <c r="H1287" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1287" t="inlineStr">
@@ -93021,16 +93021,16 @@
         </is>
       </c>
       <c r="J1287" t="n">
+        <v>1260</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1287" t="n">
         <v>700</v>
       </c>
-      <c r="K1287" t="n">
-        <v>450</v>
-      </c>
-      <c r="L1287" t="n">
-        <v>500</v>
-      </c>
       <c r="M1287" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
@@ -93043,7 +93043,7 @@
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q1287" t="n">
         <v>1</v>
@@ -93069,7 +93069,7 @@
         </is>
       </c>
       <c r="D1288" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1288" t="n">
         <v>4</v>
@@ -93093,16 +93093,16 @@
         </is>
       </c>
       <c r="J1288" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="K1288" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1288" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1288" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
@@ -93115,7 +93115,7 @@
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1288" t="n">
         <v>1</v>
@@ -93141,7 +93141,7 @@
         </is>
       </c>
       <c r="D1289" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1289" t="n">
         <v>4</v>
@@ -93165,16 +93165,16 @@
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>1400</v>
+        <v>608</v>
       </c>
       <c r="K1289" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L1289" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1289" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
@@ -93187,7 +93187,7 @@
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q1289" t="n">
         <v>1</v>
@@ -93213,7 +93213,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1290" t="n">
         <v>4</v>
@@ -93237,16 +93237,16 @@
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K1290" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L1290" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1290" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
@@ -93259,7 +93259,7 @@
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q1290" t="n">
         <v>1</v>
@@ -93285,7 +93285,7 @@
         </is>
       </c>
       <c r="D1291" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1291" t="n">
         <v>4</v>
@@ -93309,16 +93309,16 @@
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>1360</v>
+        <v>700</v>
       </c>
       <c r="K1291" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L1291" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1291" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N1291" t="inlineStr">
         <is>
@@ -93331,7 +93331,7 @@
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q1291" t="n">
         <v>1</v>
@@ -93372,7 +93372,7 @@
       </c>
       <c r="H1292" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1292" t="inlineStr">
@@ -93444,7 +93444,7 @@
       </c>
       <c r="H1293" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1293" t="inlineStr">
@@ -93453,7 +93453,7 @@
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K1293" t="n">
         <v>550</v>
@@ -93501,7 +93501,7 @@
         </is>
       </c>
       <c r="D1294" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1294" t="n">
         <v>4</v>
@@ -93516,7 +93516,7 @@
       </c>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1294" t="inlineStr">
@@ -93525,16 +93525,16 @@
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1294" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1294" t="n">
         <v>700</v>
       </c>
-      <c r="L1294" t="n">
-        <v>750</v>
-      </c>
       <c r="M1294" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
@@ -93547,7 +93547,7 @@
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1294" t="n">
         <v>1</v>
@@ -93573,7 +93573,7 @@
         </is>
       </c>
       <c r="D1295" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1295" t="n">
         <v>4</v>
@@ -93588,7 +93588,7 @@
       </c>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1295" t="inlineStr">
@@ -93597,16 +93597,16 @@
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>1480</v>
+        <v>1360</v>
       </c>
       <c r="K1295" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1295" t="n">
         <v>600</v>
       </c>
-      <c r="L1295" t="n">
-        <v>650</v>
-      </c>
       <c r="M1295" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
@@ -93619,7 +93619,7 @@
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q1295" t="n">
         <v>1</v>
@@ -93645,7 +93645,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1296" t="n">
         <v>4</v>
@@ -93660,7 +93660,7 @@
       </c>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1296" t="inlineStr">
@@ -93669,16 +93669,16 @@
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K1296" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1296" t="n">
         <v>700</v>
       </c>
-      <c r="L1296" t="n">
-        <v>750</v>
-      </c>
       <c r="M1296" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
@@ -93691,7 +93691,7 @@
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q1296" t="n">
         <v>1</v>
@@ -93717,7 +93717,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1297" t="n">
         <v>4</v>
@@ -93732,7 +93732,7 @@
       </c>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1297" t="inlineStr">
@@ -93741,16 +93741,16 @@
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>1460</v>
+        <v>1360</v>
       </c>
       <c r="K1297" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1297" t="n">
         <v>600</v>
       </c>
-      <c r="L1297" t="n">
-        <v>650</v>
-      </c>
       <c r="M1297" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
@@ -93763,7 +93763,7 @@
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q1297" t="n">
         <v>1</v>
@@ -93804,7 +93804,7 @@
       </c>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1298" t="inlineStr">
@@ -93813,7 +93813,7 @@
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K1298" t="n">
         <v>700</v>
@@ -93876,7 +93876,7 @@
       </c>
       <c r="H1299" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1299" t="inlineStr">
@@ -93885,7 +93885,7 @@
         </is>
       </c>
       <c r="J1299" t="n">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="K1299" t="n">
         <v>600</v>
@@ -93933,7 +93933,7 @@
         </is>
       </c>
       <c r="D1300" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1300" t="n">
         <v>4</v>
@@ -93948,7 +93948,7 @@
       </c>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1300" t="inlineStr">
@@ -93957,16 +93957,16 @@
         </is>
       </c>
       <c r="J1300" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K1300" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1300" t="n">
         <v>750</v>
       </c>
-      <c r="L1300" t="n">
-        <v>800</v>
-      </c>
       <c r="M1300" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
@@ -93979,7 +93979,7 @@
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1300" t="n">
         <v>1</v>
@@ -94005,7 +94005,7 @@
         </is>
       </c>
       <c r="D1301" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1301" t="n">
         <v>4</v>
@@ -94020,7 +94020,7 @@
       </c>
       <c r="H1301" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1301" t="inlineStr">
@@ -94029,16 +94029,16 @@
         </is>
       </c>
       <c r="J1301" t="n">
-        <v>1660</v>
+        <v>1460</v>
       </c>
       <c r="K1301" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1301" t="n">
         <v>650</v>
       </c>
-      <c r="L1301" t="n">
-        <v>700</v>
-      </c>
       <c r="M1301" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
@@ -94051,7 +94051,7 @@
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1301" t="n">
         <v>1</v>
@@ -94077,7 +94077,7 @@
         </is>
       </c>
       <c r="D1302" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1302" t="n">
         <v>4</v>
@@ -94092,7 +94092,7 @@
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1302" t="inlineStr">
@@ -94101,16 +94101,16 @@
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K1302" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1302" t="n">
         <v>750</v>
       </c>
-      <c r="L1302" t="n">
-        <v>800</v>
-      </c>
       <c r="M1302" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
@@ -94123,7 +94123,7 @@
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="Q1302" t="n">
         <v>1</v>
@@ -94149,7 +94149,7 @@
         </is>
       </c>
       <c r="D1303" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1303" t="n">
         <v>4</v>
@@ -94164,7 +94164,7 @@
       </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1303" t="inlineStr">
@@ -94173,16 +94173,16 @@
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K1303" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1303" t="n">
         <v>650</v>
       </c>
-      <c r="L1303" t="n">
-        <v>700</v>
-      </c>
       <c r="M1303" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
@@ -94195,7 +94195,7 @@
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q1303" t="n">
         <v>1</v>
@@ -94236,7 +94236,7 @@
       </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1304" t="inlineStr">
@@ -94245,7 +94245,7 @@
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1304" t="n">
         <v>750</v>
@@ -94308,7 +94308,7 @@
       </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1305" t="inlineStr">
@@ -94317,7 +94317,7 @@
         </is>
       </c>
       <c r="J1305" t="n">
-        <v>1600</v>
+        <v>1660</v>
       </c>
       <c r="K1305" t="n">
         <v>650</v>
@@ -94365,7 +94365,7 @@
         </is>
       </c>
       <c r="D1306" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1306" t="n">
         <v>4</v>
@@ -94380,7 +94380,7 @@
       </c>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1306" t="inlineStr">
@@ -94392,13 +94392,13 @@
         <v>3000</v>
       </c>
       <c r="K1306" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L1306" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1306" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
@@ -94411,7 +94411,7 @@
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>950</v>
+        <v>775</v>
       </c>
       <c r="Q1306" t="n">
         <v>1</v>
@@ -94437,7 +94437,7 @@
         </is>
       </c>
       <c r="D1307" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1307" t="n">
         <v>4</v>
@@ -94452,7 +94452,7 @@
       </c>
       <c r="H1307" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1307" t="inlineStr">
@@ -94461,16 +94461,16 @@
         </is>
       </c>
       <c r="J1307" t="n">
-        <v>1660</v>
+        <v>1600</v>
       </c>
       <c r="K1307" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1307" t="n">
         <v>700</v>
       </c>
-      <c r="L1307" t="n">
-        <v>800</v>
-      </c>
       <c r="M1307" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
@@ -94483,7 +94483,7 @@
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q1307" t="n">
         <v>1</v>
@@ -94509,7 +94509,7 @@
         </is>
       </c>
       <c r="D1308" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1308" t="n">
         <v>4</v>
@@ -94524,7 +94524,7 @@
       </c>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1308" t="inlineStr">
@@ -94536,13 +94536,13 @@
         <v>2800</v>
       </c>
       <c r="K1308" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1308" t="n">
         <v>800</v>
       </c>
-      <c r="L1308" t="n">
-        <v>900</v>
-      </c>
       <c r="M1308" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
@@ -94555,7 +94555,7 @@
         </is>
       </c>
       <c r="P1308" t="n">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="Q1308" t="n">
         <v>1</v>
@@ -94581,7 +94581,7 @@
         </is>
       </c>
       <c r="D1309" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1309" t="n">
         <v>4</v>
@@ -94596,7 +94596,7 @@
       </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1309" t="inlineStr">
@@ -94605,16 +94605,16 @@
         </is>
       </c>
       <c r="J1309" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K1309" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1309" t="n">
         <v>700</v>
       </c>
       <c r="M1309" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
@@ -94627,7 +94627,7 @@
         </is>
       </c>
       <c r="P1309" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q1309" t="n">
         <v>1</v>
@@ -94653,7 +94653,7 @@
         </is>
       </c>
       <c r="D1310" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1310" t="n">
         <v>4</v>
@@ -94677,16 +94677,16 @@
         </is>
       </c>
       <c r="J1310" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K1310" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L1310" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1310" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
@@ -94699,7 +94699,7 @@
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>775</v>
+        <v>950</v>
       </c>
       <c r="Q1310" t="n">
         <v>1</v>
@@ -94725,7 +94725,7 @@
         </is>
       </c>
       <c r="D1311" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1311" t="n">
         <v>4</v>
@@ -94749,16 +94749,16 @@
         </is>
       </c>
       <c r="J1311" t="n">
-        <v>1600</v>
+        <v>1660</v>
       </c>
       <c r="K1311" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1311" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1311" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
@@ -94771,7 +94771,7 @@
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1311" t="n">
         <v>1</v>
@@ -94797,7 +94797,7 @@
         </is>
       </c>
       <c r="D1312" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1312" t="n">
         <v>4</v>
@@ -94821,16 +94821,16 @@
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K1312" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1312" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M1312" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
@@ -94843,7 +94843,7 @@
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="Q1312" t="n">
         <v>1</v>
@@ -94869,7 +94869,7 @@
         </is>
       </c>
       <c r="D1313" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1313" t="n">
         <v>4</v>
@@ -94896,13 +94896,13 @@
         <v>1560</v>
       </c>
       <c r="K1313" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L1313" t="n">
         <v>700</v>
       </c>
       <c r="M1313" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
@@ -94915,7 +94915,7 @@
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q1313" t="n">
         <v>1</v>
@@ -94956,7 +94956,7 @@
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1314" t="inlineStr">
@@ -95028,7 +95028,7 @@
       </c>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1315" t="inlineStr">
@@ -95037,7 +95037,7 @@
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K1315" t="n">
         <v>650</v>
@@ -95085,7 +95085,7 @@
         </is>
       </c>
       <c r="D1316" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1316" t="n">
         <v>4</v>
@@ -95100,7 +95100,7 @@
       </c>
       <c r="H1316" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1316" t="inlineStr">
@@ -95109,7 +95109,7 @@
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K1316" t="n">
         <v>750</v>
@@ -95157,7 +95157,7 @@
         </is>
       </c>
       <c r="D1317" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1317" t="n">
         <v>4</v>
@@ -95172,7 +95172,7 @@
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>Copenhague</t>
+          <t>Crespo record</t>
         </is>
       </c>
       <c r="I1317" t="inlineStr">
@@ -95181,16 +95181,16 @@
         </is>
       </c>
       <c r="J1317" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K1317" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L1317" t="n">
         <v>700</v>
       </c>
       <c r="M1317" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
@@ -95203,7 +95203,7 @@
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q1317" t="n">
         <v>1</v>
@@ -95229,7 +95229,7 @@
         </is>
       </c>
       <c r="D1318" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1318" t="n">
         <v>4</v>
@@ -95244,7 +95244,7 @@
       </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1318" t="inlineStr">
@@ -95253,16 +95253,16 @@
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K1318" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L1318" t="n">
         <v>800</v>
       </c>
       <c r="M1318" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
@@ -95275,7 +95275,7 @@
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="Q1318" t="n">
         <v>1</v>
@@ -95301,7 +95301,7 @@
         </is>
       </c>
       <c r="D1319" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1319" t="n">
         <v>4</v>
@@ -95316,7 +95316,7 @@
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>Crespo record</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I1319" t="inlineStr">
@@ -95325,16 +95325,16 @@
         </is>
       </c>
       <c r="J1319" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K1319" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1319" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1319" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
@@ -95347,7 +95347,7 @@
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q1319" t="n">
         <v>1</v>
@@ -95373,7 +95373,7 @@
         </is>
       </c>
       <c r="D1320" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1320" t="n">
         <v>4</v>
@@ -95397,16 +95397,16 @@
         </is>
       </c>
       <c r="J1320" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1320" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L1320" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1320" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
@@ -95419,7 +95419,7 @@
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q1320" t="n">
         <v>1</v>
@@ -95445,7 +95445,7 @@
         </is>
       </c>
       <c r="D1321" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1321" t="n">
         <v>4</v>
@@ -95472,13 +95472,13 @@
         <v>1400</v>
       </c>
       <c r="K1321" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1321" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1321" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
@@ -95491,7 +95491,7 @@
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q1321" t="n">
         <v>1</v>
@@ -95517,7 +95517,7 @@
         </is>
       </c>
       <c r="D1322" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1322" t="n">
         <v>4</v>
@@ -95541,16 +95541,16 @@
         </is>
       </c>
       <c r="J1322" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K1322" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1322" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1322" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
@@ -95563,7 +95563,7 @@
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q1322" t="n">
         <v>1</v>
@@ -95589,7 +95589,7 @@
         </is>
       </c>
       <c r="D1323" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1323" t="n">
         <v>4</v>
@@ -95613,16 +95613,16 @@
         </is>
       </c>
       <c r="J1323" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K1323" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1323" t="n">
         <v>600</v>
       </c>
       <c r="M1323" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
@@ -95635,7 +95635,7 @@
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q1323" t="n">
         <v>1</v>
@@ -95676,7 +95676,7 @@
       </c>
       <c r="H1324" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1324" t="inlineStr">
@@ -95748,7 +95748,7 @@
       </c>
       <c r="H1325" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Copenhague</t>
         </is>
       </c>
       <c r="I1325" t="inlineStr">
@@ -95757,7 +95757,7 @@
         </is>
       </c>
       <c r="J1325" t="n">
-        <v>1340</v>
+        <v>1400</v>
       </c>
       <c r="K1325" t="n">
         <v>550</v>
@@ -95785,6 +95785,294 @@
         <v>1</v>
       </c>
       <c r="R1325" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1326" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1326" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1326" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1326" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1326" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>675</v>
+      </c>
+      <c r="N1326" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1326" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1326" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1326" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1327" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1327" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1327" t="inlineStr">
+        <is>
+          <t>Crespo record</t>
+        </is>
+      </c>
+      <c r="I1327" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1327" t="n">
+        <v>1360</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>575</v>
+      </c>
+      <c r="N1327" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1327" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1327" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1327" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1328" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1328" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1328" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1328" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1328" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>675</v>
+      </c>
+      <c r="N1328" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1328" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1328" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1328" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1329" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>100112006</v>
+      </c>
+      <c r="G1329" t="inlineStr">
+        <is>
+          <t>Repollo</t>
+        </is>
+      </c>
+      <c r="H1329" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I1329" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1329" t="n">
+        <v>1340</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>575</v>
+      </c>
+      <c r="N1329" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1329" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1329" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1329" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
